--- a/2021-06 New South Wales Outbreak Paths.xlsx
+++ b/2021-06 New South Wales Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0822B906-D1F6-4172-B346-936F4A7C3152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B64C822-9109-44F7-97B0-0AAD3BD02D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="96">
   <si>
     <t>Source</t>
   </si>
@@ -178,34 +178,151 @@
     <t>S7 m30</t>
   </si>
   <si>
-    <t>S8</t>
-  </si>
-  <si>
     <t>S23 m50</t>
   </si>
   <si>
     <t>#FFECAF</t>
   </si>
   <si>
-    <t>#e8eeff</t>
-  </si>
-  <si>
-    <t>#d1ddff</t>
-  </si>
-  <si>
-    <t>#b8ccff</t>
-  </si>
-  <si>
-    <t>#9ebcff</t>
-  </si>
-  <si>
-    <t>#80acff</t>
-  </si>
-  <si>
-    <t>#5b9cff</t>
-  </si>
-  <si>
     <t>#118dff</t>
+  </si>
+  <si>
+    <t>S8 w30</t>
+  </si>
+  <si>
+    <t>S9 w50</t>
+  </si>
+  <si>
+    <t>Salvos</t>
+  </si>
+  <si>
+    <t>S10 m50</t>
+  </si>
+  <si>
+    <t>S11 w50</t>
+  </si>
+  <si>
+    <t>S12 w50</t>
+  </si>
+  <si>
+    <t>S14 w50</t>
+  </si>
+  <si>
+    <t>S24 w40</t>
+  </si>
+  <si>
+    <t>S34 w20</t>
+  </si>
+  <si>
+    <t>S37 m70</t>
+  </si>
+  <si>
+    <t>S38 m50</t>
+  </si>
+  <si>
+    <t>Tropicana</t>
+  </si>
+  <si>
+    <t>S42 teen</t>
+  </si>
+  <si>
+    <t>S15 w20</t>
+  </si>
+  <si>
+    <t>S17 parent</t>
+  </si>
+  <si>
+    <t>S18 child</t>
+  </si>
+  <si>
+    <t>S19 child</t>
+  </si>
+  <si>
+    <t>S20 child</t>
+  </si>
+  <si>
+    <t>S21 child</t>
+  </si>
+  <si>
+    <t>S25 m30</t>
+  </si>
+  <si>
+    <t>Birthday party</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>S33 2yo</t>
+  </si>
+  <si>
+    <t>S39 w</t>
+  </si>
+  <si>
+    <t>S40 w</t>
+  </si>
+  <si>
+    <t>S41 m</t>
+  </si>
+  <si>
+    <t>S13 w60</t>
+  </si>
+  <si>
+    <t>S16 m60</t>
+  </si>
+  <si>
+    <t>S22 9yo</t>
+  </si>
+  <si>
+    <t>S35 m</t>
+  </si>
+  <si>
+    <t>Hairdresser</t>
+  </si>
+  <si>
+    <t>S36 w20</t>
+  </si>
+  <si>
+    <t>S43 w20</t>
+  </si>
+  <si>
+    <t>#ebf0ff</t>
+  </si>
+  <si>
+    <t>#d7e1ff</t>
+  </si>
+  <si>
+    <t>#c2d2ff</t>
+  </si>
+  <si>
+    <t>#abc4ff</t>
+  </si>
+  <si>
+    <t>#93b6ff</t>
+  </si>
+  <si>
+    <t>#77a8ff</t>
+  </si>
+  <si>
+    <t>#559aff</t>
   </si>
 </sst>
 </file>
@@ -275,8 +392,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G10" totalsRowShown="0">
-  <autoFilter ref="A1:G10" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G44" totalsRowShown="0">
+  <autoFilter ref="A1:G44" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -600,18 +717,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G10"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.265625" customWidth="1"/>
     <col min="4" max="4" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.9296875" customWidth="1"/>
-    <col min="6" max="6" width="36.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.796875" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" customWidth="1"/>
     <col min="7" max="7" width="14.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -780,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
@@ -794,21 +911,674 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>44370</v>
+        <v>44368</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>44369</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>44369</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>44369</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
         <v>44</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>44369</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>44369</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" t="s">
         <v>11</v>
       </c>
     </row>
@@ -826,9 +1596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:L2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -855,7 +1623,7 @@
         <v>44364</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -869,10 +1637,10 @@
         <v>44365</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
@@ -883,7 +1651,7 @@
         <v>44366</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -897,7 +1665,7 @@
         <v>44367</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -911,7 +1679,7 @@
         <v>44368</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -925,7 +1693,7 @@
         <v>44369</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -939,7 +1707,7 @@
         <v>44370</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -951,6 +1719,9 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44371</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>

--- a/2021-06 New South Wales Outbreak Paths.xlsx
+++ b/2021-06 New South Wales Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B64C822-9109-44F7-97B0-0AAD3BD02D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D2D543-0D4F-4B09-969F-9A2328BE13BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="122">
   <si>
     <t>Source</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Belle Café</t>
   </si>
   <si>
-    <t>S4 m40</t>
-  </si>
-  <si>
     <t>S5 m50</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t>S38 m50</t>
   </si>
   <si>
-    <t>Tropicana</t>
-  </si>
-  <si>
     <t>S42 teen</t>
   </si>
   <si>
@@ -295,34 +289,118 @@
     <t>S35 m</t>
   </si>
   <si>
-    <t>Hairdresser</t>
-  </si>
-  <si>
     <t>S36 w20</t>
   </si>
   <si>
     <t>S43 w20</t>
   </si>
   <si>
-    <t>#ebf0ff</t>
-  </si>
-  <si>
-    <t>#d7e1ff</t>
-  </si>
-  <si>
-    <t>#c2d2ff</t>
-  </si>
-  <si>
-    <t>#abc4ff</t>
-  </si>
-  <si>
-    <t>#93b6ff</t>
-  </si>
-  <si>
-    <t>#77a8ff</t>
-  </si>
-  <si>
-    <t>#559aff</t>
+    <t>Health Care Clinic</t>
+  </si>
+  <si>
+    <t>Tropicana Café</t>
+  </si>
+  <si>
+    <t>? b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? a </t>
+  </si>
+  <si>
+    <t>Lyfe Café Bondi</t>
+  </si>
+  <si>
+    <t>#F2F2F2</t>
+  </si>
+  <si>
+    <t>#f1f4ff</t>
+  </si>
+  <si>
+    <t>#e2e9ff</t>
+  </si>
+  <si>
+    <t>#d3deff</t>
+  </si>
+  <si>
+    <t>#c4d4ff</t>
+  </si>
+  <si>
+    <t>#b4c9ff</t>
+  </si>
+  <si>
+    <t>#a3bfff</t>
+  </si>
+  <si>
+    <t>#91b4ff</t>
+  </si>
+  <si>
+    <t>#7daaff</t>
+  </si>
+  <si>
+    <t>#66a0ff</t>
+  </si>
+  <si>
+    <t>#4997ff</t>
+  </si>
+  <si>
+    <t>Joh Bailey Hairdressing</t>
+  </si>
+  <si>
+    <t>S45 w</t>
+  </si>
+  <si>
+    <t>S46 w</t>
+  </si>
+  <si>
+    <t>S47 w</t>
+  </si>
+  <si>
+    <t>M1 m60</t>
+  </si>
+  <si>
+    <t>M2 m</t>
+  </si>
+  <si>
+    <t>Drycleaners</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>S48 m40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? g </t>
+  </si>
+  <si>
+    <t>Christo's Pizzeria</t>
+  </si>
+  <si>
+    <t>S44 m30</t>
+  </si>
+  <si>
+    <t>S53 w80</t>
+  </si>
+  <si>
+    <t>S54 m20</t>
+  </si>
+  <si>
+    <t>S49 m40</t>
+  </si>
+  <si>
+    <t>S50 m30</t>
+  </si>
+  <si>
+    <t>S51 w30</t>
+  </si>
+  <si>
+    <t>S52 child</t>
+  </si>
+  <si>
+    <t>Primary School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? x4 </t>
   </si>
 </sst>
 </file>
@@ -392,8 +470,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G44" totalsRowShown="0">
-  <autoFilter ref="A1:G44" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G60" totalsRowShown="0">
+  <autoFilter ref="A1:G60" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -408,8 +486,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D29" totalsRowShown="0">
-  <autoFilter ref="A1:D29" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D31" totalsRowShown="0">
+  <autoFilter ref="A1:D31" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D0FEC2CF-191D-4A49-9857-35DF0B70785F}" name="Colour Code"/>
@@ -717,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -814,16 +892,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -837,13 +918,13 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
         <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -851,7 +932,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -863,7 +944,7 @@
         <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -874,16 +955,16 @@
         <v>44367</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -891,19 +972,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -914,13 +992,16 @@
         <v>44368</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -928,19 +1009,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>44368</v>
+        <v>44369</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
         <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -951,7 +1029,7 @@
         <v>44369</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
@@ -968,7 +1046,7 @@
         <v>44369</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
@@ -982,13 +1060,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
@@ -1002,10 +1080,10 @@
         <v>44370</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
@@ -1016,10 +1094,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>57</v>
@@ -1027,19 +1105,22 @@
       <c r="D16" t="s">
         <v>38</v>
       </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
       <c r="G16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>44371</v>
+        <v>44362</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
@@ -1050,19 +1131,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>44371</v>
+        <v>44363</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -1070,19 +1148,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>44371</v>
+        <v>44363</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
@@ -1093,16 +1171,13 @@
         <v>44371</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
-      </c>
-      <c r="F20" t="s">
-        <v>44</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -1110,19 +1185,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -1130,19 +1205,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
@@ -1150,19 +1225,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -1173,10 +1248,10 @@
         <v>44370</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
@@ -1193,10 +1268,10 @@
         <v>44370</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
         <v>38</v>
@@ -1213,10 +1288,10 @@
         <v>44370</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
         <v>38</v>
@@ -1233,16 +1308,16 @@
         <v>44370</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
         <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
@@ -1250,19 +1325,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
         <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
@@ -1270,19 +1345,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
         <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
@@ -1293,16 +1368,16 @@
         <v>44371</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
         <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
@@ -1313,16 +1388,16 @@
         <v>44371</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
         <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -1333,16 +1408,16 @@
         <v>44371</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
         <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
         <v>11</v>
@@ -1353,16 +1428,16 @@
         <v>44371</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
@@ -1373,16 +1448,16 @@
         <v>44371</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
@@ -1393,16 +1468,16 @@
         <v>44371</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
@@ -1413,16 +1488,16 @@
         <v>44371</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
         <v>11</v>
@@ -1433,16 +1508,16 @@
         <v>44371</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
         <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
@@ -1453,16 +1528,16 @@
         <v>44371</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
         <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s">
         <v>11</v>
@@ -1470,16 +1545,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
         <v>38</v>
+      </c>
+      <c r="F39" t="s">
+        <v>68</v>
       </c>
       <c r="G39" t="s">
         <v>11</v>
@@ -1487,19 +1565,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
         <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
@@ -1507,13 +1585,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
         <v>38</v>
@@ -1524,19 +1602,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
         <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
@@ -1544,19 +1622,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
         <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="G43" t="s">
         <v>11</v>
@@ -1567,18 +1645,323 @@
         <v>44371</v>
       </c>
       <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
         <v>85</v>
       </c>
-      <c r="C44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="D46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" t="s">
+        <v>112</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1594,9 +1977,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1620,13 +2005,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>44364</v>
+        <v>44362</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
@@ -1634,13 +2019,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
@@ -1648,13 +2033,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>44366</v>
+        <v>44364</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
@@ -1662,13 +2047,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>44367</v>
+        <v>44365</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
@@ -1676,13 +2061,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>44368</v>
+        <v>44366</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>32</v>
@@ -1690,13 +2075,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>44369</v>
+        <v>44367</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
@@ -1704,13 +2089,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>44370</v>
+        <v>44368</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
@@ -1718,13 +2103,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
@@ -1732,10 +2117,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>44372</v>
+        <v>44370</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
@@ -1743,10 +2131,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>44373</v>
+        <v>44371</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1754,10 +2145,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>44374</v>
+        <v>44372</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -1765,10 +2159,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>44375</v>
+        <v>44373</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
@@ -1776,10 +2170,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>44376</v>
+        <v>44374</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>32</v>
@@ -1787,10 +2181,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>44377</v>
+        <v>44375</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -1798,10 +2192,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>44378</v>
+        <v>44376</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
@@ -1809,10 +2203,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>44379</v>
+        <v>44377</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
@@ -1820,10 +2214,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>44380</v>
+        <v>44378</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
@@ -1831,10 +2225,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>44381</v>
+        <v>44379</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>32</v>
@@ -1842,10 +2236,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>44382</v>
+        <v>44380</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>32</v>
@@ -1853,10 +2247,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>44383</v>
+        <v>44381</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
@@ -1864,10 +2258,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>32</v>
@@ -1875,7 +2269,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>44385</v>
+        <v>44383</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
       </c>
       <c r="D23" t="s">
         <v>32</v>
@@ -1883,29 +2280,29 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>44386</v>
+        <v>44384</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>44387</v>
+        <v>44385</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>44388</v>
+        <v>44386</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -1913,10 +2310,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>44389</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
+        <v>44387</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
@@ -1924,7 +2318,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>44390</v>
+        <v>44388</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -1932,12 +2329,31 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
+        <v>44389</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>44390</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
         <v>44391</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>36</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>33</v>
       </c>
     </row>

--- a/2021-06 New South Wales Outbreak Paths.xlsx
+++ b/2021-06 New South Wales Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D2D543-0D4F-4B09-969F-9A2328BE13BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D74ED8D-4659-413F-B9A0-3F80B7C68E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="152">
   <si>
     <t>Source</t>
   </si>
@@ -301,48 +301,12 @@
     <t>Tropicana Café</t>
   </si>
   <si>
-    <t>? b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">? a </t>
-  </si>
-  <si>
     <t>Lyfe Café Bondi</t>
   </si>
   <si>
     <t>#F2F2F2</t>
   </si>
   <si>
-    <t>#f1f4ff</t>
-  </si>
-  <si>
-    <t>#e2e9ff</t>
-  </si>
-  <si>
-    <t>#d3deff</t>
-  </si>
-  <si>
-    <t>#c4d4ff</t>
-  </si>
-  <si>
-    <t>#b4c9ff</t>
-  </si>
-  <si>
-    <t>#a3bfff</t>
-  </si>
-  <si>
-    <t>#91b4ff</t>
-  </si>
-  <si>
-    <t>#7daaff</t>
-  </si>
-  <si>
-    <t>#66a0ff</t>
-  </si>
-  <si>
-    <t>#4997ff</t>
-  </si>
-  <si>
     <t>Joh Bailey Hairdressing</t>
   </si>
   <si>
@@ -370,9 +334,6 @@
     <t>S48 m40</t>
   </si>
   <si>
-    <t xml:space="preserve">? g </t>
-  </si>
-  <si>
     <t>Christo's Pizzeria</t>
   </si>
   <si>
@@ -400,7 +361,136 @@
     <t>Primary School</t>
   </si>
   <si>
-    <t xml:space="preserve">? x4 </t>
+    <t>?2</t>
+  </si>
+  <si>
+    <t>?1</t>
+  </si>
+  <si>
+    <t>S57</t>
+  </si>
+  <si>
+    <t>S58</t>
+  </si>
+  <si>
+    <t>S59</t>
+  </si>
+  <si>
+    <t>S55</t>
+  </si>
+  <si>
+    <t>S56</t>
+  </si>
+  <si>
+    <t>S60</t>
+  </si>
+  <si>
+    <t>S61</t>
+  </si>
+  <si>
+    <t>S62</t>
+  </si>
+  <si>
+    <t>S63</t>
+  </si>
+  <si>
+    <t>S64</t>
+  </si>
+  <si>
+    <t>S65</t>
+  </si>
+  <si>
+    <t>S66</t>
+  </si>
+  <si>
+    <t>?3</t>
+  </si>
+  <si>
+    <t>S67</t>
+  </si>
+  <si>
+    <t>S68</t>
+  </si>
+  <si>
+    <t>S69</t>
+  </si>
+  <si>
+    <t>S70</t>
+  </si>
+  <si>
+    <t>Great Ocean Foods</t>
+  </si>
+  <si>
+    <t>S71</t>
+  </si>
+  <si>
+    <t>S72</t>
+  </si>
+  <si>
+    <t>S73</t>
+  </si>
+  <si>
+    <t>S74</t>
+  </si>
+  <si>
+    <t>S75</t>
+  </si>
+  <si>
+    <t>S76</t>
+  </si>
+  <si>
+    <t>S77</t>
+  </si>
+  <si>
+    <t>S78</t>
+  </si>
+  <si>
+    <t>S79</t>
+  </si>
+  <si>
+    <t>S80</t>
+  </si>
+  <si>
+    <t>S81</t>
+  </si>
+  <si>
+    <t>S82</t>
+  </si>
+  <si>
+    <t>S83</t>
+  </si>
+  <si>
+    <t>#f2f5ff</t>
+  </si>
+  <si>
+    <t>#e5ebff</t>
+  </si>
+  <si>
+    <t>#d7e1ff</t>
+  </si>
+  <si>
+    <t>#c9d7ff</t>
+  </si>
+  <si>
+    <t>#bacdff</t>
+  </si>
+  <si>
+    <t>#abc4ff</t>
+  </si>
+  <si>
+    <t>#9bbaff</t>
+  </si>
+  <si>
+    <t>#8ab1ff</t>
+  </si>
+  <si>
+    <t>#77a8ff</t>
+  </si>
+  <si>
+    <t>#629fff</t>
+  </si>
+  <si>
+    <t>#4696ff</t>
   </si>
 </sst>
 </file>
@@ -470,8 +560,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G60" totalsRowShown="0">
-  <autoFilter ref="A1:G60" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G88" totalsRowShown="0">
+  <autoFilter ref="A1:G88" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -795,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1114,13 +1204,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
@@ -1131,13 +1221,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -1148,19 +1238,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
-      </c>
-      <c r="F19" t="s">
-        <v>90</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
@@ -1171,13 +1258,16 @@
         <v>44371</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -1188,16 +1278,16 @@
         <v>44371</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -1205,13 +1295,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
@@ -1225,19 +1315,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -1251,7 +1341,7 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
@@ -1271,7 +1361,7 @@
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
         <v>38</v>
@@ -1291,7 +1381,7 @@
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
         <v>38</v>
@@ -1311,7 +1401,7 @@
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
         <v>38</v>
@@ -1328,16 +1418,16 @@
         <v>44370</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
         <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
@@ -1345,13 +1435,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B29" t="s">
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
         <v>38</v>
@@ -1371,7 +1461,7 @@
         <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
         <v>38</v>
@@ -1391,7 +1481,7 @@
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
         <v>38</v>
@@ -1411,7 +1501,7 @@
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
         <v>38</v>
@@ -1431,7 +1521,7 @@
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
@@ -1451,7 +1541,7 @@
         <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
@@ -1471,7 +1561,7 @@
         <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
@@ -1491,7 +1581,7 @@
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
@@ -1511,7 +1601,7 @@
         <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
         <v>38</v>
@@ -1531,7 +1621,7 @@
         <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
         <v>38</v>
@@ -1551,7 +1641,7 @@
         <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
         <v>38</v>
@@ -1565,19 +1655,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
         <v>38</v>
-      </c>
-      <c r="F40" t="s">
-        <v>68</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
@@ -1585,16 +1672,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B41" t="s">
         <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
         <v>38</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
@@ -1605,16 +1695,16 @@
         <v>44370</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
         <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
@@ -1622,19 +1712,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
         <v>38</v>
-      </c>
-      <c r="F43" t="s">
-        <v>120</v>
       </c>
       <c r="G43" t="s">
         <v>11</v>
@@ -1645,13 +1732,16 @@
         <v>44371</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
         <v>38</v>
+      </c>
+      <c r="F44" t="s">
+        <v>90</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
@@ -1665,13 +1755,13 @@
         <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
         <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s">
         <v>11</v>
@@ -1679,19 +1769,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B46" t="s">
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
         <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
@@ -1705,13 +1795,13 @@
         <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
         <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -1725,13 +1815,13 @@
         <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
         <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s">
         <v>11</v>
@@ -1742,16 +1832,16 @@
         <v>44372</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="F49" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="G49" t="s">
         <v>11</v>
@@ -1762,16 +1852,16 @@
         <v>44372</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
@@ -1782,16 +1872,16 @@
         <v>44372</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
@@ -1802,16 +1892,16 @@
         <v>44372</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D52" t="s">
         <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
@@ -1822,16 +1912,13 @@
         <v>44372</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
         <v>38</v>
-      </c>
-      <c r="F53" t="s">
-        <v>112</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
@@ -1842,16 +1929,13 @@
         <v>44372</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
         <v>38</v>
-      </c>
-      <c r="F54" t="s">
-        <v>112</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
@@ -1862,13 +1946,16 @@
         <v>44372</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D55" t="s">
         <v>38</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
       </c>
       <c r="G55" t="s">
         <v>11</v>
@@ -1879,13 +1966,16 @@
         <v>44372</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
         <v>38</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
       </c>
       <c r="G56" t="s">
         <v>11</v>
@@ -1896,16 +1986,13 @@
         <v>44372</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D57" t="s">
         <v>38</v>
-      </c>
-      <c r="F57" t="s">
-        <v>8</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
@@ -1916,16 +2003,13 @@
         <v>44372</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D58" t="s">
         <v>38</v>
-      </c>
-      <c r="F58" t="s">
-        <v>8</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
@@ -1933,16 +2017,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
         <v>38</v>
+      </c>
+      <c r="F59" t="s">
+        <v>90</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
@@ -1950,18 +2037,542 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" t="s">
+        <v>88</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" t="s">
+        <v>88</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
         <v>115</v>
       </c>
-      <c r="C60" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="D64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" t="s">
+        <v>68</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" t="s">
+        <v>68</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" t="s">
+        <v>68</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" t="s">
+        <v>68</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" t="s">
+        <v>43</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" t="s">
+        <v>127</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" t="s">
+        <v>126</v>
+      </c>
+      <c r="D75" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" t="s">
+        <v>127</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B76" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" t="s">
+        <v>38</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B78" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" t="s">
+        <v>38</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B79" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" t="s">
+        <v>131</v>
+      </c>
+      <c r="D79" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B80" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" t="s">
+        <v>132</v>
+      </c>
+      <c r="D80" t="s">
+        <v>38</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B81" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" t="s">
+        <v>133</v>
+      </c>
+      <c r="D81" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" t="s">
+        <v>134</v>
+      </c>
+      <c r="D82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B83" t="s">
+        <v>135</v>
+      </c>
+      <c r="C83" t="s">
+        <v>135</v>
+      </c>
+      <c r="D83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B84" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" t="s">
+        <v>136</v>
+      </c>
+      <c r="D84" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B85" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" t="s">
+        <v>38</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B86" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C87" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" t="s">
+        <v>38</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" t="s">
+        <v>140</v>
+      </c>
+      <c r="D88" t="s">
+        <v>38</v>
+      </c>
+      <c r="G88" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1979,9 +2590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2008,10 +2617,10 @@
         <v>44362</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
@@ -2022,10 +2631,10 @@
         <v>44363</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
@@ -2036,7 +2645,7 @@
         <v>44364</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2050,7 +2659,7 @@
         <v>44365</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -2064,7 +2673,7 @@
         <v>44366</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -2078,7 +2687,7 @@
         <v>44367</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -2092,7 +2701,7 @@
         <v>44368</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -2106,7 +2715,7 @@
         <v>44369</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -2120,7 +2729,7 @@
         <v>44370</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -2134,7 +2743,7 @@
         <v>44371</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -2148,7 +2757,7 @@
         <v>44372</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -2160,6 +2769,9 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44373</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>

--- a/2021-06 New South Wales Outbreak Paths.xlsx
+++ b/2021-06 New South Wales Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D74ED8D-4659-413F-B9A0-3F80B7C68E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F79281-BB51-40F9-B963-76D910B586B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="207">
   <si>
     <t>Source</t>
   </si>
@@ -460,37 +460,202 @@
     <t>S83</t>
   </si>
   <si>
-    <t>#f2f5ff</t>
-  </si>
-  <si>
-    <t>#e5ebff</t>
-  </si>
-  <si>
-    <t>#d7e1ff</t>
-  </si>
-  <si>
-    <t>#c9d7ff</t>
-  </si>
-  <si>
-    <t>#bacdff</t>
+    <t>?4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? a </t>
+  </si>
+  <si>
+    <t>S84</t>
+  </si>
+  <si>
+    <t>S85</t>
+  </si>
+  <si>
+    <t>S86</t>
+  </si>
+  <si>
+    <t>S87</t>
+  </si>
+  <si>
+    <t>S88</t>
+  </si>
+  <si>
+    <t>S89</t>
+  </si>
+  <si>
+    <t>S90</t>
+  </si>
+  <si>
+    <t>S91</t>
+  </si>
+  <si>
+    <t>S92</t>
+  </si>
+  <si>
+    <t>S93</t>
+  </si>
+  <si>
+    <t>S94</t>
+  </si>
+  <si>
+    <t>S95</t>
+  </si>
+  <si>
+    <t>S96</t>
+  </si>
+  <si>
+    <t>S97</t>
+  </si>
+  <si>
+    <t>S98</t>
+  </si>
+  <si>
+    <t>S99</t>
+  </si>
+  <si>
+    <t>S100</t>
+  </si>
+  <si>
+    <t>S101</t>
+  </si>
+  <si>
+    <t>S102</t>
+  </si>
+  <si>
+    <t>S103</t>
+  </si>
+  <si>
+    <t>S104</t>
+  </si>
+  <si>
+    <t>S105</t>
+  </si>
+  <si>
+    <t>S106</t>
+  </si>
+  <si>
+    <t>S107</t>
+  </si>
+  <si>
+    <t>S108</t>
+  </si>
+  <si>
+    <t>S109</t>
+  </si>
+  <si>
+    <t>S110</t>
+  </si>
+  <si>
+    <t>S111</t>
+  </si>
+  <si>
+    <t>S112</t>
+  </si>
+  <si>
+    <t>S113</t>
+  </si>
+  <si>
+    <t>Linked cases</t>
+  </si>
+  <si>
+    <t>Case acquired virus elsewhere</t>
+  </si>
+  <si>
+    <t>#f4f6ff</t>
+  </si>
+  <si>
+    <t>#e8eeff</t>
+  </si>
+  <si>
+    <t>#dde5ff</t>
+  </si>
+  <si>
+    <t>#d1ddff</t>
+  </si>
+  <si>
+    <t>#c5d4ff</t>
+  </si>
+  <si>
+    <t>#b8ccff</t>
   </si>
   <si>
     <t>#abc4ff</t>
   </si>
   <si>
-    <t>#9bbaff</t>
-  </si>
-  <si>
-    <t>#8ab1ff</t>
-  </si>
-  <si>
-    <t>#77a8ff</t>
-  </si>
-  <si>
-    <t>#629fff</t>
-  </si>
-  <si>
-    <t>#4696ff</t>
+    <t>#9ebcff</t>
+  </si>
+  <si>
+    <t>#8fb4ff</t>
+  </si>
+  <si>
+    <t>#80acff</t>
+  </si>
+  <si>
+    <t>#6fa4ff</t>
+  </si>
+  <si>
+    <t>#5b9cff</t>
+  </si>
+  <si>
+    <t>#4194ff</t>
+  </si>
+  <si>
+    <t>S114</t>
+  </si>
+  <si>
+    <t>S115</t>
+  </si>
+  <si>
+    <t>S116</t>
+  </si>
+  <si>
+    <t>S117</t>
+  </si>
+  <si>
+    <t>S118</t>
+  </si>
+  <si>
+    <t>S119</t>
+  </si>
+  <si>
+    <t>S120</t>
+  </si>
+  <si>
+    <t>S121</t>
+  </si>
+  <si>
+    <t>S122</t>
+  </si>
+  <si>
+    <t>S123</t>
+  </si>
+  <si>
+    <t>S124</t>
+  </si>
+  <si>
+    <t>S125</t>
+  </si>
+  <si>
+    <t>S126</t>
+  </si>
+  <si>
+    <t>S127</t>
+  </si>
+  <si>
+    <t>S128</t>
+  </si>
+  <si>
+    <t>S129</t>
+  </si>
+  <si>
+    <t>S130</t>
+  </si>
+  <si>
+    <t>S131</t>
+  </si>
+  <si>
+    <t>South Coogee Public School</t>
   </si>
 </sst>
 </file>
@@ -560,8 +725,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G88" totalsRowShown="0">
-  <autoFilter ref="A1:G88" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G138" totalsRowShown="0">
+  <autoFilter ref="A1:G138" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -885,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1065,13 +1230,16 @@
         <v>44368</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>173</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -1082,16 +1250,16 @@
         <v>44368</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -1099,16 +1267,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>44369</v>
+        <v>44368</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -1119,13 +1290,16 @@
         <v>44369</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>173</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -1136,13 +1310,16 @@
         <v>44369</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>173</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -1150,16 +1327,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>173</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -1170,13 +1350,16 @@
         <v>44370</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>173</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -1184,19 +1367,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -1204,16 +1387,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
@@ -1221,13 +1407,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
         <v>109</v>
-      </c>
-      <c r="C18" t="s">
-        <v>108</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -1238,13 +1424,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
         <v>108</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
@@ -1258,16 +1444,13 @@
         <v>44371</v>
       </c>
       <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
       <c r="D20" t="s">
         <v>38</v>
-      </c>
-      <c r="F20" t="s">
-        <v>87</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -1278,16 +1461,16 @@
         <v>44371</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -1295,13 +1478,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
@@ -1315,19 +1498,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -1338,10 +1521,10 @@
         <v>44370</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
@@ -1358,10 +1541,10 @@
         <v>44370</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
         <v>38</v>
@@ -1378,10 +1561,10 @@
         <v>44370</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
         <v>38</v>
@@ -1398,10 +1581,10 @@
         <v>44370</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
         <v>38</v>
@@ -1418,16 +1601,16 @@
         <v>44370</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
         <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
@@ -1435,13 +1618,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B29" t="s">
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
         <v>38</v>
@@ -1461,7 +1644,7 @@
         <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
         <v>38</v>
@@ -1481,7 +1664,7 @@
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
         <v>38</v>
@@ -1501,7 +1684,7 @@
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
         <v>38</v>
@@ -1521,7 +1704,7 @@
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
@@ -1541,7 +1724,7 @@
         <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
@@ -1561,7 +1744,7 @@
         <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
@@ -1581,7 +1764,7 @@
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
@@ -1601,7 +1784,7 @@
         <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
         <v>38</v>
@@ -1621,7 +1804,7 @@
         <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
         <v>38</v>
@@ -1641,7 +1824,7 @@
         <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
         <v>38</v>
@@ -1655,16 +1838,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
         <v>38</v>
+      </c>
+      <c r="F40" t="s">
+        <v>68</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
@@ -1672,19 +1858,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="B41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" t="s">
         <v>80</v>
       </c>
-      <c r="C41" t="s">
-        <v>81</v>
-      </c>
       <c r="D41" t="s">
         <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
@@ -1695,16 +1881,16 @@
         <v>44370</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
         <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
@@ -1712,16 +1898,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
         <v>38</v>
+      </c>
+      <c r="F43" t="s">
+        <v>107</v>
       </c>
       <c r="G43" t="s">
         <v>11</v>
@@ -1732,16 +1921,13 @@
         <v>44371</v>
       </c>
       <c r="B44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" t="s">
         <v>83</v>
       </c>
-      <c r="C44" t="s">
-        <v>84</v>
-      </c>
       <c r="D44" t="s">
         <v>38</v>
-      </c>
-      <c r="F44" t="s">
-        <v>90</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
@@ -1755,7 +1941,7 @@
         <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
         <v>38</v>
@@ -1769,13 +1955,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B46" t="s">
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
         <v>38</v>
@@ -1795,7 +1981,7 @@
         <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
         <v>38</v>
@@ -1815,7 +2001,7 @@
         <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
         <v>38</v>
@@ -1832,16 +2018,16 @@
         <v>44372</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s">
         <v>11</v>
@@ -1852,16 +2038,16 @@
         <v>44372</v>
       </c>
       <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
         <v>94</v>
-      </c>
-      <c r="C50" t="s">
-        <v>95</v>
       </c>
       <c r="D50" t="s">
         <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
@@ -1872,16 +2058,16 @@
         <v>44372</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
@@ -1892,16 +2078,16 @@
         <v>44372</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
         <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
@@ -1912,13 +2098,16 @@
         <v>44372</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D53" t="s">
         <v>38</v>
+      </c>
+      <c r="F53" t="s">
+        <v>99</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
@@ -1929,13 +2118,16 @@
         <v>44372</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D54" t="s">
         <v>38</v>
+      </c>
+      <c r="F54" t="s">
+        <v>173</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
@@ -1946,16 +2138,16 @@
         <v>44372</v>
       </c>
       <c r="B55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" t="s">
         <v>104</v>
       </c>
-      <c r="C55" t="s">
-        <v>105</v>
-      </c>
       <c r="D55" t="s">
         <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="G55" t="s">
         <v>11</v>
@@ -1969,7 +2161,7 @@
         <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
         <v>38</v>
@@ -1986,13 +2178,16 @@
         <v>44372</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D57" t="s">
         <v>38</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
@@ -2003,13 +2198,16 @@
         <v>44372</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D58" t="s">
         <v>38</v>
+      </c>
+      <c r="F58" t="s">
+        <v>173</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
@@ -2017,19 +2215,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D59" t="s">
         <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
@@ -2043,7 +2241,7 @@
         <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D60" t="s">
         <v>38</v>
@@ -2060,16 +2258,16 @@
         <v>44373</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D61" t="s">
         <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
@@ -2083,7 +2281,7 @@
         <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D62" t="s">
         <v>38</v>
@@ -2103,7 +2301,7 @@
         <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
         <v>38</v>
@@ -2120,16 +2318,16 @@
         <v>44373</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D64" t="s">
         <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
@@ -2143,7 +2341,7 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
         <v>38</v>
@@ -2163,7 +2361,7 @@
         <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D66" t="s">
         <v>38</v>
@@ -2183,7 +2381,7 @@
         <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D67" t="s">
         <v>38</v>
@@ -2203,7 +2401,7 @@
         <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D68" t="s">
         <v>38</v>
@@ -2223,7 +2421,7 @@
         <v>61</v>
       </c>
       <c r="C69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D69" t="s">
         <v>38</v>
@@ -2243,7 +2441,7 @@
         <v>61</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D70" t="s">
         <v>38</v>
@@ -2257,19 +2455,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
-        <v>44364</v>
+        <v>44373</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D71" t="s">
         <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G71" t="s">
         <v>11</v>
@@ -2280,16 +2478,16 @@
         <v>44373</v>
       </c>
       <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" t="s">
         <v>122</v>
       </c>
-      <c r="C72" t="s">
-        <v>123</v>
-      </c>
       <c r="D72" t="s">
         <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s">
         <v>11</v>
@@ -2303,7 +2501,7 @@
         <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D73" t="s">
         <v>38</v>
@@ -2320,16 +2518,16 @@
         <v>44373</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D74" t="s">
         <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="G74" t="s">
         <v>11</v>
@@ -2340,10 +2538,10 @@
         <v>44373</v>
       </c>
       <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
         <v>125</v>
-      </c>
-      <c r="C75" t="s">
-        <v>126</v>
       </c>
       <c r="D75" t="s">
         <v>38</v>
@@ -2360,13 +2558,16 @@
         <v>44373</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C76" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D76" t="s">
         <v>38</v>
+      </c>
+      <c r="F76" t="s">
+        <v>127</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
@@ -2377,13 +2578,16 @@
         <v>44373</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D77" t="s">
         <v>38</v>
+      </c>
+      <c r="F77" t="s">
+        <v>173</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
@@ -2394,10 +2598,10 @@
         <v>44373</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="C78" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D78" t="s">
         <v>38</v>
@@ -2411,13 +2615,16 @@
         <v>44373</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D79" t="s">
         <v>38</v>
+      </c>
+      <c r="F79" t="s">
+        <v>174</v>
       </c>
       <c r="G79" t="s">
         <v>11</v>
@@ -2428,13 +2635,16 @@
         <v>44373</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D80" t="s">
         <v>38</v>
+      </c>
+      <c r="F80" t="s">
+        <v>127</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
@@ -2445,13 +2655,16 @@
         <v>44373</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C81" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D81" t="s">
         <v>38</v>
+      </c>
+      <c r="F81" t="s">
+        <v>173</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
@@ -2462,13 +2675,16 @@
         <v>44373</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D82" t="s">
         <v>38</v>
+      </c>
+      <c r="F82" t="s">
+        <v>173</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
@@ -2479,13 +2695,16 @@
         <v>44373</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C83" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D83" t="s">
         <v>38</v>
+      </c>
+      <c r="F83" t="s">
+        <v>173</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
@@ -2496,13 +2715,16 @@
         <v>44373</v>
       </c>
       <c r="B84" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C84" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D84" t="s">
         <v>38</v>
+      </c>
+      <c r="F84" t="s">
+        <v>173</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
@@ -2513,13 +2735,16 @@
         <v>44373</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D85" t="s">
         <v>38</v>
+      </c>
+      <c r="F85" t="s">
+        <v>173</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
@@ -2530,13 +2755,16 @@
         <v>44373</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C86" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D86" t="s">
         <v>38</v>
+      </c>
+      <c r="F86" t="s">
+        <v>173</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
@@ -2547,13 +2775,16 @@
         <v>44373</v>
       </c>
       <c r="B87" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C87" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D87" t="s">
         <v>38</v>
+      </c>
+      <c r="F87" t="s">
+        <v>173</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
@@ -2564,15 +2795,1015 @@
         <v>44373</v>
       </c>
       <c r="B88" t="s">
+        <v>142</v>
+      </c>
+      <c r="C88" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" t="s">
+        <v>173</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B89" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" t="s">
+        <v>139</v>
+      </c>
+      <c r="D89" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" t="s">
+        <v>173</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B90" t="s">
         <v>140</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C90" t="s">
         <v>140</v>
       </c>
-      <c r="D88" t="s">
-        <v>38</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="D90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B91" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" t="s">
+        <v>127</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B92" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" t="s">
+        <v>144</v>
+      </c>
+      <c r="D92" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" t="s">
+        <v>127</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C93" t="s">
+        <v>145</v>
+      </c>
+      <c r="D93" t="s">
+        <v>38</v>
+      </c>
+      <c r="F93" t="s">
+        <v>127</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B94" t="s">
+        <v>141</v>
+      </c>
+      <c r="C94" t="s">
+        <v>146</v>
+      </c>
+      <c r="D94" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" t="s">
+        <v>127</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B95" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" t="s">
+        <v>147</v>
+      </c>
+      <c r="D95" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" t="s">
+        <v>127</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B96" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" t="s">
+        <v>148</v>
+      </c>
+      <c r="D96" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" t="s">
+        <v>127</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B97" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" t="s">
+        <v>149</v>
+      </c>
+      <c r="D97" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" t="s">
+        <v>127</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B98" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" t="s">
+        <v>150</v>
+      </c>
+      <c r="D98" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" t="s">
+        <v>127</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A99" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B99" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" t="s">
+        <v>151</v>
+      </c>
+      <c r="D99" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" t="s">
+        <v>127</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B100" t="s">
+        <v>141</v>
+      </c>
+      <c r="C100" t="s">
+        <v>152</v>
+      </c>
+      <c r="D100" t="s">
+        <v>38</v>
+      </c>
+      <c r="F100" t="s">
+        <v>127</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B101" t="s">
+        <v>142</v>
+      </c>
+      <c r="C101" t="s">
+        <v>153</v>
+      </c>
+      <c r="D101" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" t="s">
+        <v>173</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" t="s">
+        <v>154</v>
+      </c>
+      <c r="D102" t="s">
+        <v>38</v>
+      </c>
+      <c r="F102" t="s">
+        <v>173</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B103" t="s">
+        <v>142</v>
+      </c>
+      <c r="C103" t="s">
+        <v>155</v>
+      </c>
+      <c r="D103" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" t="s">
+        <v>173</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B104" t="s">
+        <v>142</v>
+      </c>
+      <c r="C104" t="s">
+        <v>156</v>
+      </c>
+      <c r="D104" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" t="s">
+        <v>173</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" t="s">
+        <v>157</v>
+      </c>
+      <c r="D105" t="s">
+        <v>38</v>
+      </c>
+      <c r="F105" t="s">
+        <v>173</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B106" t="s">
+        <v>142</v>
+      </c>
+      <c r="C106" t="s">
+        <v>158</v>
+      </c>
+      <c r="D106" t="s">
+        <v>38</v>
+      </c>
+      <c r="F106" t="s">
+        <v>173</v>
+      </c>
+      <c r="G106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A107" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B107" t="s">
+        <v>142</v>
+      </c>
+      <c r="C107" t="s">
+        <v>159</v>
+      </c>
+      <c r="D107" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" t="s">
+        <v>173</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A108" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B108" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" t="s">
+        <v>160</v>
+      </c>
+      <c r="D108" t="s">
+        <v>38</v>
+      </c>
+      <c r="F108" t="s">
+        <v>173</v>
+      </c>
+      <c r="G108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A109" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B109" t="s">
+        <v>142</v>
+      </c>
+      <c r="C109" t="s">
+        <v>161</v>
+      </c>
+      <c r="D109" t="s">
+        <v>38</v>
+      </c>
+      <c r="F109" t="s">
+        <v>173</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A110" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C110" t="s">
+        <v>162</v>
+      </c>
+      <c r="D110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F110" t="s">
+        <v>173</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A111" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B111" t="s">
+        <v>142</v>
+      </c>
+      <c r="C111" t="s">
+        <v>163</v>
+      </c>
+      <c r="D111" t="s">
+        <v>38</v>
+      </c>
+      <c r="F111" t="s">
+        <v>173</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B112" t="s">
+        <v>142</v>
+      </c>
+      <c r="C112" t="s">
+        <v>164</v>
+      </c>
+      <c r="D112" t="s">
+        <v>38</v>
+      </c>
+      <c r="F112" t="s">
+        <v>173</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A113" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B113" t="s">
+        <v>142</v>
+      </c>
+      <c r="C113" t="s">
+        <v>165</v>
+      </c>
+      <c r="D113" t="s">
+        <v>38</v>
+      </c>
+      <c r="F113" t="s">
+        <v>173</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A114" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B114" t="s">
+        <v>142</v>
+      </c>
+      <c r="C114" t="s">
+        <v>166</v>
+      </c>
+      <c r="D114" t="s">
+        <v>38</v>
+      </c>
+      <c r="F114" t="s">
+        <v>173</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A115" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B115" t="s">
+        <v>142</v>
+      </c>
+      <c r="C115" t="s">
+        <v>167</v>
+      </c>
+      <c r="D115" t="s">
+        <v>38</v>
+      </c>
+      <c r="F115" t="s">
+        <v>173</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A116" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B116" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" t="s">
+        <v>168</v>
+      </c>
+      <c r="D116" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" t="s">
+        <v>173</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A117" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B117" t="s">
+        <v>142</v>
+      </c>
+      <c r="C117" t="s">
+        <v>169</v>
+      </c>
+      <c r="D117" t="s">
+        <v>38</v>
+      </c>
+      <c r="F117" t="s">
+        <v>173</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A118" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B118" t="s">
+        <v>142</v>
+      </c>
+      <c r="C118" t="s">
+        <v>170</v>
+      </c>
+      <c r="D118" t="s">
+        <v>38</v>
+      </c>
+      <c r="F118" t="s">
+        <v>173</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A119" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C119" t="s">
+        <v>171</v>
+      </c>
+      <c r="D119" t="s">
+        <v>38</v>
+      </c>
+      <c r="F119" t="s">
+        <v>173</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A120" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B120" t="s">
+        <v>142</v>
+      </c>
+      <c r="C120" t="s">
+        <v>172</v>
+      </c>
+      <c r="D120" t="s">
+        <v>38</v>
+      </c>
+      <c r="F120" t="s">
+        <v>173</v>
+      </c>
+      <c r="G120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B121" t="s">
+        <v>109</v>
+      </c>
+      <c r="C121" t="s">
+        <v>188</v>
+      </c>
+      <c r="D121" t="s">
+        <v>38</v>
+      </c>
+      <c r="F121" t="s">
+        <v>88</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A122" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B122" t="s">
+        <v>142</v>
+      </c>
+      <c r="C122" t="s">
+        <v>189</v>
+      </c>
+      <c r="D122" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" t="s">
+        <v>173</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A123" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B123" t="s">
+        <v>142</v>
+      </c>
+      <c r="C123" t="s">
+        <v>190</v>
+      </c>
+      <c r="D123" t="s">
+        <v>38</v>
+      </c>
+      <c r="F123" t="s">
+        <v>173</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A124" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B124" t="s">
+        <v>142</v>
+      </c>
+      <c r="C124" t="s">
+        <v>191</v>
+      </c>
+      <c r="D124" t="s">
+        <v>38</v>
+      </c>
+      <c r="F124" t="s">
+        <v>173</v>
+      </c>
+      <c r="G124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A125" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B125" t="s">
+        <v>142</v>
+      </c>
+      <c r="C125" t="s">
+        <v>192</v>
+      </c>
+      <c r="D125" t="s">
+        <v>38</v>
+      </c>
+      <c r="F125" t="s">
+        <v>173</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A126" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B126" t="s">
+        <v>142</v>
+      </c>
+      <c r="C126" t="s">
+        <v>193</v>
+      </c>
+      <c r="D126" t="s">
+        <v>38</v>
+      </c>
+      <c r="F126" t="s">
+        <v>173</v>
+      </c>
+      <c r="G126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A127" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B127" t="s">
+        <v>142</v>
+      </c>
+      <c r="C127" t="s">
+        <v>194</v>
+      </c>
+      <c r="D127" t="s">
+        <v>38</v>
+      </c>
+      <c r="F127" t="s">
+        <v>173</v>
+      </c>
+      <c r="G127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A128" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B128" t="s">
+        <v>194</v>
+      </c>
+      <c r="C128" t="s">
+        <v>195</v>
+      </c>
+      <c r="D128" t="s">
+        <v>38</v>
+      </c>
+      <c r="F128" t="s">
+        <v>206</v>
+      </c>
+      <c r="G128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A129" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B129" t="s">
+        <v>194</v>
+      </c>
+      <c r="C129" t="s">
+        <v>196</v>
+      </c>
+      <c r="D129" t="s">
+        <v>38</v>
+      </c>
+      <c r="F129" t="s">
+        <v>206</v>
+      </c>
+      <c r="G129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A130" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B130" t="s">
+        <v>194</v>
+      </c>
+      <c r="C130" t="s">
+        <v>197</v>
+      </c>
+      <c r="D130" t="s">
+        <v>38</v>
+      </c>
+      <c r="F130" t="s">
+        <v>206</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A131" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B131" t="s">
+        <v>142</v>
+      </c>
+      <c r="C131" t="s">
+        <v>198</v>
+      </c>
+      <c r="D131" t="s">
+        <v>38</v>
+      </c>
+      <c r="F131" t="s">
+        <v>173</v>
+      </c>
+      <c r="G131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A132" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B132" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" t="s">
+        <v>199</v>
+      </c>
+      <c r="D132" t="s">
+        <v>38</v>
+      </c>
+      <c r="F132" t="s">
+        <v>127</v>
+      </c>
+      <c r="G132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A133" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B133" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" t="s">
+        <v>200</v>
+      </c>
+      <c r="D133" t="s">
+        <v>38</v>
+      </c>
+      <c r="F133" t="s">
+        <v>127</v>
+      </c>
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A134" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B134" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134" t="s">
+        <v>201</v>
+      </c>
+      <c r="D134" t="s">
+        <v>38</v>
+      </c>
+      <c r="F134" t="s">
+        <v>127</v>
+      </c>
+      <c r="G134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A135" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B135" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" t="s">
+        <v>202</v>
+      </c>
+      <c r="D135" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" t="s">
+        <v>127</v>
+      </c>
+      <c r="G135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A136" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B136" t="s">
+        <v>141</v>
+      </c>
+      <c r="C136" t="s">
+        <v>203</v>
+      </c>
+      <c r="D136" t="s">
+        <v>38</v>
+      </c>
+      <c r="F136" t="s">
+        <v>127</v>
+      </c>
+      <c r="G136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A137" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B137" t="s">
+        <v>61</v>
+      </c>
+      <c r="C137" t="s">
+        <v>204</v>
+      </c>
+      <c r="D137" t="s">
+        <v>38</v>
+      </c>
+      <c r="F137" t="s">
+        <v>68</v>
+      </c>
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A138" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B138" t="s">
+        <v>61</v>
+      </c>
+      <c r="C138" t="s">
+        <v>205</v>
+      </c>
+      <c r="D138" t="s">
+        <v>38</v>
+      </c>
+      <c r="F138" t="s">
+        <v>68</v>
+      </c>
+      <c r="G138" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2590,7 +3821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2617,7 +3848,7 @@
         <v>44362</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>
@@ -2631,7 +3862,7 @@
         <v>44363</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
@@ -2645,7 +3876,7 @@
         <v>44364</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2659,7 +3890,7 @@
         <v>44365</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -2673,7 +3904,7 @@
         <v>44366</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -2687,7 +3918,7 @@
         <v>44367</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -2701,7 +3932,7 @@
         <v>44368</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -2715,7 +3946,7 @@
         <v>44369</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -2729,7 +3960,7 @@
         <v>44370</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -2743,7 +3974,7 @@
         <v>44371</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -2757,7 +3988,7 @@
         <v>44372</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -2771,7 +4002,7 @@
         <v>44373</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -2784,6 +4015,9 @@
       <c r="A14" s="1">
         <v>44374</v>
       </c>
+      <c r="B14" t="s">
+        <v>187</v>
+      </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -2794,6 +4028,9 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44375</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>

--- a/2021-06 New South Wales Outbreak Paths.xlsx
+++ b/2021-06 New South Wales Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F79281-BB51-40F9-B963-76D910B586B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB23DEE-1044-4FF2-A370-B73D44B181DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="233">
   <si>
     <t>Source</t>
   </si>
@@ -451,12 +451,6 @@
     <t>S80</t>
   </si>
   <si>
-    <t>S81</t>
-  </si>
-  <si>
-    <t>S82</t>
-  </si>
-  <si>
     <t>S83</t>
   </si>
   <si>
@@ -562,45 +556,6 @@
     <t>Case acquired virus elsewhere</t>
   </si>
   <si>
-    <t>#f4f6ff</t>
-  </si>
-  <si>
-    <t>#e8eeff</t>
-  </si>
-  <si>
-    <t>#dde5ff</t>
-  </si>
-  <si>
-    <t>#d1ddff</t>
-  </si>
-  <si>
-    <t>#c5d4ff</t>
-  </si>
-  <si>
-    <t>#b8ccff</t>
-  </si>
-  <si>
-    <t>#abc4ff</t>
-  </si>
-  <si>
-    <t>#9ebcff</t>
-  </si>
-  <si>
-    <t>#8fb4ff</t>
-  </si>
-  <si>
-    <t>#80acff</t>
-  </si>
-  <si>
-    <t>#6fa4ff</t>
-  </si>
-  <si>
-    <t>#5b9cff</t>
-  </si>
-  <si>
-    <t>#4194ff</t>
-  </si>
-  <si>
     <t>S114</t>
   </si>
   <si>
@@ -625,12 +580,6 @@
     <t>S121</t>
   </si>
   <si>
-    <t>S122</t>
-  </si>
-  <si>
-    <t>S123</t>
-  </si>
-  <si>
     <t>S124</t>
   </si>
   <si>
@@ -656,6 +605,135 @@
   </si>
   <si>
     <t>South Coogee Public School</t>
+  </si>
+  <si>
+    <t>#f4f7ff</t>
+  </si>
+  <si>
+    <t>#eaefff</t>
+  </si>
+  <si>
+    <t>#dfe7ff</t>
+  </si>
+  <si>
+    <t>#d4dfff</t>
+  </si>
+  <si>
+    <t>#c9d7ff</t>
+  </si>
+  <si>
+    <t>#bdcfff</t>
+  </si>
+  <si>
+    <t>#b1c8ff</t>
+  </si>
+  <si>
+    <t>#a5c0ff</t>
+  </si>
+  <si>
+    <t>#98b8ff</t>
+  </si>
+  <si>
+    <t>#8ab1ff</t>
+  </si>
+  <si>
+    <t>#7baaff</t>
+  </si>
+  <si>
+    <t>#6ba2ff</t>
+  </si>
+  <si>
+    <t>#589bff</t>
+  </si>
+  <si>
+    <t>#3f94ff</t>
+  </si>
+  <si>
+    <t>S81 child</t>
+  </si>
+  <si>
+    <t>S82 child</t>
+  </si>
+  <si>
+    <t>S122 child</t>
+  </si>
+  <si>
+    <t>S123 child</t>
+  </si>
+  <si>
+    <t>W1 w50</t>
+  </si>
+  <si>
+    <t>W3 m30</t>
+  </si>
+  <si>
+    <t>Western Australia</t>
+  </si>
+  <si>
+    <t>Indian Ocean Brewing Co.</t>
+  </si>
+  <si>
+    <t>W2 w32</t>
+  </si>
+  <si>
+    <t>Joondalup Gym</t>
+  </si>
+  <si>
+    <t>S132 child</t>
+  </si>
+  <si>
+    <t>S133</t>
+  </si>
+  <si>
+    <t>S134</t>
+  </si>
+  <si>
+    <t>S135</t>
+  </si>
+  <si>
+    <t>S136</t>
+  </si>
+  <si>
+    <t>S137</t>
+  </si>
+  <si>
+    <t>S138</t>
+  </si>
+  <si>
+    <t>S139</t>
+  </si>
+  <si>
+    <t>S140</t>
+  </si>
+  <si>
+    <t>S141</t>
+  </si>
+  <si>
+    <t>S142</t>
+  </si>
+  <si>
+    <t>S143</t>
+  </si>
+  <si>
+    <t>S144</t>
+  </si>
+  <si>
+    <t>S145</t>
+  </si>
+  <si>
+    <t>S146</t>
+  </si>
+  <si>
+    <t>S147</t>
+  </si>
+  <si>
+    <t>S148</t>
+  </si>
+  <si>
+    <t>S149 m40</t>
+  </si>
+  <si>
+    <t>Bellevue Worker</t>
   </si>
 </sst>
 </file>
@@ -725,8 +803,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G138" totalsRowShown="0">
-  <autoFilter ref="A1:G138" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G159" totalsRowShown="0">
+  <autoFilter ref="A1:G159" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -1050,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1233,13 +1311,13 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -1250,7 +1328,7 @@
         <v>44368</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
@@ -1259,7 +1337,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -1270,7 +1348,7 @@
         <v>44368</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -1290,7 +1368,7 @@
         <v>44369</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
         <v>53</v>
@@ -1299,7 +1377,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -1310,7 +1388,7 @@
         <v>44369</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
@@ -1319,7 +1397,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -1330,7 +1408,7 @@
         <v>44369</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
@@ -1339,7 +1417,7 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -1350,7 +1428,7 @@
         <v>44370</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1359,7 +1437,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -1370,7 +1448,7 @@
         <v>44370</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
         <v>56</v>
@@ -1379,7 +1457,7 @@
         <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -1861,7 +1939,7 @@
         <v>44369</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
         <v>80</v>
@@ -1870,7 +1948,7 @@
         <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
@@ -2118,7 +2196,7 @@
         <v>44372</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
         <v>103</v>
@@ -2127,7 +2205,7 @@
         <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
@@ -2138,7 +2216,7 @@
         <v>44372</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
         <v>104</v>
@@ -2147,7 +2225,7 @@
         <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G55" t="s">
         <v>11</v>
@@ -2198,7 +2276,7 @@
         <v>44372</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
         <v>101</v>
@@ -2207,7 +2285,7 @@
         <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
@@ -2218,7 +2296,7 @@
         <v>44372</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
         <v>102</v>
@@ -2227,7 +2305,7 @@
         <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
@@ -2538,7 +2616,7 @@
         <v>44373</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C75" t="s">
         <v>125</v>
@@ -2558,7 +2636,7 @@
         <v>44373</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C76" t="s">
         <v>126</v>
@@ -2578,7 +2656,7 @@
         <v>44373</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C77" t="s">
         <v>128</v>
@@ -2587,7 +2665,7 @@
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
@@ -2601,7 +2679,7 @@
         <v>37</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D78" t="s">
         <v>38</v>
@@ -2615,7 +2693,7 @@
         <v>44373</v>
       </c>
       <c r="B79" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C79" t="s">
         <v>129</v>
@@ -2624,7 +2702,7 @@
         <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G79" t="s">
         <v>11</v>
@@ -2655,7 +2733,7 @@
         <v>44373</v>
       </c>
       <c r="B81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C81" t="s">
         <v>131</v>
@@ -2664,7 +2742,7 @@
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
@@ -2675,7 +2753,7 @@
         <v>44373</v>
       </c>
       <c r="B82" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C82" t="s">
         <v>132</v>
@@ -2684,7 +2762,7 @@
         <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
@@ -2695,7 +2773,7 @@
         <v>44373</v>
       </c>
       <c r="B83" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C83" t="s">
         <v>133</v>
@@ -2704,7 +2782,7 @@
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
@@ -2715,7 +2793,7 @@
         <v>44373</v>
       </c>
       <c r="B84" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C84" t="s">
         <v>134</v>
@@ -2724,7 +2802,7 @@
         <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
@@ -2735,7 +2813,7 @@
         <v>44373</v>
       </c>
       <c r="B85" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C85" t="s">
         <v>135</v>
@@ -2744,7 +2822,7 @@
         <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
@@ -2755,7 +2833,7 @@
         <v>44373</v>
       </c>
       <c r="B86" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C86" t="s">
         <v>136</v>
@@ -2764,7 +2842,7 @@
         <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
@@ -2775,7 +2853,7 @@
         <v>44373</v>
       </c>
       <c r="B87" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C87" t="s">
         <v>137</v>
@@ -2784,7 +2862,7 @@
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
@@ -2795,16 +2873,16 @@
         <v>44373</v>
       </c>
       <c r="B88" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="D88" t="s">
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G88" t="s">
         <v>11</v>
@@ -2815,16 +2893,16 @@
         <v>44373</v>
       </c>
       <c r="B89" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="C89" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="D89" t="s">
         <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
@@ -2835,10 +2913,10 @@
         <v>44373</v>
       </c>
       <c r="B90" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C90" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D90" t="s">
         <v>38</v>
@@ -2852,10 +2930,10 @@
         <v>44374</v>
       </c>
       <c r="B91" t="s">
+        <v>139</v>
+      </c>
+      <c r="C91" t="s">
         <v>141</v>
-      </c>
-      <c r="C91" t="s">
-        <v>143</v>
       </c>
       <c r="D91" t="s">
         <v>38</v>
@@ -2872,10 +2950,10 @@
         <v>44374</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C92" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D92" t="s">
         <v>38</v>
@@ -2892,10 +2970,10 @@
         <v>44374</v>
       </c>
       <c r="B93" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C93" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D93" t="s">
         <v>38</v>
@@ -2912,10 +2990,10 @@
         <v>44374</v>
       </c>
       <c r="B94" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C94" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D94" t="s">
         <v>38</v>
@@ -2932,10 +3010,10 @@
         <v>44374</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C95" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D95" t="s">
         <v>38</v>
@@ -2952,10 +3030,10 @@
         <v>44374</v>
       </c>
       <c r="B96" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C96" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D96" t="s">
         <v>38</v>
@@ -2972,10 +3050,10 @@
         <v>44374</v>
       </c>
       <c r="B97" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C97" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D97" t="s">
         <v>38</v>
@@ -2992,10 +3070,10 @@
         <v>44374</v>
       </c>
       <c r="B98" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C98" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D98" t="s">
         <v>38</v>
@@ -3012,10 +3090,10 @@
         <v>44374</v>
       </c>
       <c r="B99" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C99" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D99" t="s">
         <v>38</v>
@@ -3032,10 +3110,10 @@
         <v>44374</v>
       </c>
       <c r="B100" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C100" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D100" t="s">
         <v>38</v>
@@ -3052,16 +3130,16 @@
         <v>44374</v>
       </c>
       <c r="B101" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C101" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D101" t="s">
         <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G101" t="s">
         <v>11</v>
@@ -3072,16 +3150,16 @@
         <v>44374</v>
       </c>
       <c r="B102" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C102" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D102" t="s">
         <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G102" t="s">
         <v>11</v>
@@ -3092,16 +3170,16 @@
         <v>44374</v>
       </c>
       <c r="B103" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C103" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D103" t="s">
         <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G103" t="s">
         <v>11</v>
@@ -3112,16 +3190,16 @@
         <v>44374</v>
       </c>
       <c r="B104" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C104" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D104" t="s">
         <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G104" t="s">
         <v>11</v>
@@ -3132,16 +3210,16 @@
         <v>44374</v>
       </c>
       <c r="B105" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C105" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D105" t="s">
         <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G105" t="s">
         <v>11</v>
@@ -3152,16 +3230,16 @@
         <v>44374</v>
       </c>
       <c r="B106" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C106" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D106" t="s">
         <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G106" t="s">
         <v>11</v>
@@ -3172,16 +3250,16 @@
         <v>44374</v>
       </c>
       <c r="B107" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C107" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D107" t="s">
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G107" t="s">
         <v>11</v>
@@ -3192,16 +3270,16 @@
         <v>44374</v>
       </c>
       <c r="B108" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C108" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D108" t="s">
         <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G108" t="s">
         <v>11</v>
@@ -3212,16 +3290,16 @@
         <v>44374</v>
       </c>
       <c r="B109" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C109" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D109" t="s">
         <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G109" t="s">
         <v>11</v>
@@ -3232,16 +3310,16 @@
         <v>44374</v>
       </c>
       <c r="B110" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C110" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D110" t="s">
         <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G110" t="s">
         <v>11</v>
@@ -3252,16 +3330,16 @@
         <v>44374</v>
       </c>
       <c r="B111" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C111" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D111" t="s">
         <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G111" t="s">
         <v>11</v>
@@ -3272,16 +3350,16 @@
         <v>44374</v>
       </c>
       <c r="B112" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C112" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D112" t="s">
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G112" t="s">
         <v>11</v>
@@ -3292,16 +3370,16 @@
         <v>44374</v>
       </c>
       <c r="B113" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C113" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D113" t="s">
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G113" t="s">
         <v>11</v>
@@ -3312,16 +3390,16 @@
         <v>44374</v>
       </c>
       <c r="B114" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C114" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D114" t="s">
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G114" t="s">
         <v>11</v>
@@ -3332,16 +3410,16 @@
         <v>44374</v>
       </c>
       <c r="B115" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C115" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D115" t="s">
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
@@ -3352,16 +3430,16 @@
         <v>44374</v>
       </c>
       <c r="B116" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C116" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D116" t="s">
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G116" t="s">
         <v>11</v>
@@ -3372,16 +3450,16 @@
         <v>44374</v>
       </c>
       <c r="B117" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C117" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D117" t="s">
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
@@ -3392,16 +3470,16 @@
         <v>44374</v>
       </c>
       <c r="B118" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C118" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D118" t="s">
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G118" t="s">
         <v>11</v>
@@ -3412,16 +3490,16 @@
         <v>44374</v>
       </c>
       <c r="B119" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C119" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D119" t="s">
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G119" t="s">
         <v>11</v>
@@ -3432,16 +3510,16 @@
         <v>44374</v>
       </c>
       <c r="B120" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C120" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G120" t="s">
         <v>11</v>
@@ -3452,16 +3530,16 @@
         <v>44375</v>
       </c>
       <c r="B121" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="C121" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D121" t="s">
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="G121" t="s">
         <v>11</v>
@@ -3472,16 +3550,16 @@
         <v>44375</v>
       </c>
       <c r="B122" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C122" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D122" t="s">
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G122" t="s">
         <v>11</v>
@@ -3492,16 +3570,16 @@
         <v>44375</v>
       </c>
       <c r="B123" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C123" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D123" t="s">
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G123" t="s">
         <v>11</v>
@@ -3512,16 +3590,16 @@
         <v>44375</v>
       </c>
       <c r="B124" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C124" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D124" t="s">
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G124" t="s">
         <v>11</v>
@@ -3532,16 +3610,16 @@
         <v>44375</v>
       </c>
       <c r="B125" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C125" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D125" t="s">
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G125" t="s">
         <v>11</v>
@@ -3552,16 +3630,16 @@
         <v>44375</v>
       </c>
       <c r="B126" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C126" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D126" t="s">
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G126" t="s">
         <v>11</v>
@@ -3572,16 +3650,16 @@
         <v>44375</v>
       </c>
       <c r="B127" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C127" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D127" t="s">
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="G127" t="s">
         <v>11</v>
@@ -3592,16 +3670,16 @@
         <v>44375</v>
       </c>
       <c r="B128" t="s">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="C128" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D128" t="s">
         <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>206</v>
+        <v>68</v>
       </c>
       <c r="G128" t="s">
         <v>11</v>
@@ -3612,16 +3690,16 @@
         <v>44375</v>
       </c>
       <c r="B129" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C129" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D129" t="s">
         <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="G129" t="s">
         <v>11</v>
@@ -3632,16 +3710,16 @@
         <v>44375</v>
       </c>
       <c r="B130" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C130" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D130" t="s">
         <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="G130" t="s">
         <v>11</v>
@@ -3652,16 +3730,13 @@
         <v>44375</v>
       </c>
       <c r="B131" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="C131" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="D131" t="s">
         <v>38</v>
-      </c>
-      <c r="F131" t="s">
-        <v>173</v>
       </c>
       <c r="G131" t="s">
         <v>11</v>
@@ -3672,10 +3747,10 @@
         <v>44375</v>
       </c>
       <c r="B132" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C132" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D132" t="s">
         <v>38</v>
@@ -3692,10 +3767,10 @@
         <v>44375</v>
       </c>
       <c r="B133" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C133" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D133" t="s">
         <v>38</v>
@@ -3712,10 +3787,10 @@
         <v>44375</v>
       </c>
       <c r="B134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C134" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="D134" t="s">
         <v>38</v>
@@ -3732,10 +3807,10 @@
         <v>44375</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C135" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="D135" t="s">
         <v>38</v>
@@ -3752,10 +3827,10 @@
         <v>44375</v>
       </c>
       <c r="B136" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D136" t="s">
         <v>38</v>
@@ -3772,16 +3847,13 @@
         <v>44375</v>
       </c>
       <c r="B137" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D137" t="s">
         <v>38</v>
-      </c>
-      <c r="F137" t="s">
-        <v>68</v>
       </c>
       <c r="G137" t="s">
         <v>11</v>
@@ -3792,18 +3864,435 @@
         <v>44375</v>
       </c>
       <c r="B138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" t="s">
+        <v>188</v>
+      </c>
+      <c r="D138" t="s">
+        <v>38</v>
+      </c>
+      <c r="G138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A139" s="1">
+        <v>28</v>
+      </c>
+      <c r="B139" t="s">
+        <v>109</v>
+      </c>
+      <c r="C139" t="s">
+        <v>208</v>
+      </c>
+      <c r="D139" t="s">
+        <v>38</v>
+      </c>
+      <c r="F139" t="s">
+        <v>88</v>
+      </c>
+      <c r="G139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A140" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B140" t="s">
+        <v>208</v>
+      </c>
+      <c r="C140" t="s">
+        <v>209</v>
+      </c>
+      <c r="D140" t="s">
+        <v>210</v>
+      </c>
+      <c r="F140" t="s">
+        <v>211</v>
+      </c>
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A141" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B141" t="s">
+        <v>208</v>
+      </c>
+      <c r="C141" t="s">
+        <v>212</v>
+      </c>
+      <c r="D141" t="s">
+        <v>210</v>
+      </c>
+      <c r="F141" t="s">
+        <v>213</v>
+      </c>
+      <c r="G141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A142" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B142" t="s">
+        <v>140</v>
+      </c>
+      <c r="C142" t="s">
+        <v>214</v>
+      </c>
+      <c r="D142" t="s">
+        <v>38</v>
+      </c>
+      <c r="F142" t="s">
+        <v>171</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A143" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B143" t="s">
+        <v>140</v>
+      </c>
+      <c r="C143" t="s">
+        <v>215</v>
+      </c>
+      <c r="D143" t="s">
+        <v>38</v>
+      </c>
+      <c r="F143" t="s">
+        <v>171</v>
+      </c>
+      <c r="G143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A144" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B144" t="s">
+        <v>140</v>
+      </c>
+      <c r="C144" t="s">
+        <v>216</v>
+      </c>
+      <c r="D144" t="s">
+        <v>38</v>
+      </c>
+      <c r="F144" t="s">
+        <v>171</v>
+      </c>
+      <c r="G144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A145" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B145" t="s">
+        <v>140</v>
+      </c>
+      <c r="C145" t="s">
+        <v>217</v>
+      </c>
+      <c r="D145" t="s">
+        <v>38</v>
+      </c>
+      <c r="F145" t="s">
+        <v>171</v>
+      </c>
+      <c r="G145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A146" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B146" t="s">
+        <v>140</v>
+      </c>
+      <c r="C146" t="s">
+        <v>218</v>
+      </c>
+      <c r="D146" t="s">
+        <v>38</v>
+      </c>
+      <c r="F146" t="s">
+        <v>171</v>
+      </c>
+      <c r="G146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A147" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B147" t="s">
+        <v>140</v>
+      </c>
+      <c r="C147" t="s">
+        <v>219</v>
+      </c>
+      <c r="D147" t="s">
+        <v>38</v>
+      </c>
+      <c r="F147" t="s">
+        <v>171</v>
+      </c>
+      <c r="G147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A148" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B148" t="s">
+        <v>140</v>
+      </c>
+      <c r="C148" t="s">
+        <v>220</v>
+      </c>
+      <c r="D148" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" t="s">
+        <v>171</v>
+      </c>
+      <c r="G148" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A149" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B149" t="s">
+        <v>140</v>
+      </c>
+      <c r="C149" t="s">
+        <v>221</v>
+      </c>
+      <c r="D149" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" t="s">
+        <v>171</v>
+      </c>
+      <c r="G149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A150" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B150" t="s">
+        <v>140</v>
+      </c>
+      <c r="C150" t="s">
+        <v>222</v>
+      </c>
+      <c r="D150" t="s">
+        <v>38</v>
+      </c>
+      <c r="F150" t="s">
+        <v>171</v>
+      </c>
+      <c r="G150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A151" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B151" t="s">
+        <v>140</v>
+      </c>
+      <c r="C151" t="s">
+        <v>223</v>
+      </c>
+      <c r="D151" t="s">
+        <v>38</v>
+      </c>
+      <c r="F151" t="s">
+        <v>171</v>
+      </c>
+      <c r="G151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A152" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B152" t="s">
+        <v>140</v>
+      </c>
+      <c r="C152" t="s">
+        <v>224</v>
+      </c>
+      <c r="D152" t="s">
+        <v>38</v>
+      </c>
+      <c r="F152" t="s">
+        <v>171</v>
+      </c>
+      <c r="G152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A153" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B153" t="s">
+        <v>139</v>
+      </c>
+      <c r="C153" t="s">
+        <v>225</v>
+      </c>
+      <c r="D153" t="s">
+        <v>38</v>
+      </c>
+      <c r="F153" t="s">
+        <v>127</v>
+      </c>
+      <c r="G153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A154" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B154" t="s">
+        <v>139</v>
+      </c>
+      <c r="C154" t="s">
+        <v>226</v>
+      </c>
+      <c r="D154" t="s">
+        <v>38</v>
+      </c>
+      <c r="F154" t="s">
+        <v>127</v>
+      </c>
+      <c r="G154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A155" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B155" t="s">
+        <v>139</v>
+      </c>
+      <c r="C155" t="s">
+        <v>227</v>
+      </c>
+      <c r="D155" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" t="s">
+        <v>127</v>
+      </c>
+      <c r="G155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A156" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B156" t="s">
         <v>61</v>
       </c>
-      <c r="C138" t="s">
-        <v>205</v>
-      </c>
-      <c r="D138" t="s">
-        <v>38</v>
-      </c>
-      <c r="F138" t="s">
+      <c r="C156" t="s">
+        <v>228</v>
+      </c>
+      <c r="D156" t="s">
+        <v>38</v>
+      </c>
+      <c r="F156" t="s">
         <v>68</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A157" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B157" t="s">
+        <v>61</v>
+      </c>
+      <c r="C157" t="s">
+        <v>229</v>
+      </c>
+      <c r="D157" t="s">
+        <v>38</v>
+      </c>
+      <c r="F157" t="s">
+        <v>68</v>
+      </c>
+      <c r="G157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A158" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B158" t="s">
+        <v>61</v>
+      </c>
+      <c r="C158" t="s">
+        <v>230</v>
+      </c>
+      <c r="D158" t="s">
+        <v>38</v>
+      </c>
+      <c r="F158" t="s">
+        <v>68</v>
+      </c>
+      <c r="G158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A159" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B159" t="s">
+        <v>231</v>
+      </c>
+      <c r="C159" t="s">
+        <v>231</v>
+      </c>
+      <c r="D159" t="s">
+        <v>38</v>
+      </c>
+      <c r="F159" t="s">
+        <v>232</v>
+      </c>
+      <c r="G159" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3821,7 +4310,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3848,7 +4339,7 @@
         <v>44362</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>
@@ -3862,7 +4353,7 @@
         <v>44363</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
@@ -3876,7 +4367,7 @@
         <v>44364</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -3890,7 +4381,7 @@
         <v>44365</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -3904,7 +4395,7 @@
         <v>44366</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -3918,7 +4409,7 @@
         <v>44367</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -3932,7 +4423,7 @@
         <v>44368</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -3946,7 +4437,7 @@
         <v>44369</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -3960,7 +4451,7 @@
         <v>44370</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -3974,7 +4465,7 @@
         <v>44371</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -3988,7 +4479,7 @@
         <v>44372</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -4002,7 +4493,7 @@
         <v>44373</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -4016,7 +4507,7 @@
         <v>44374</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -4030,7 +4521,7 @@
         <v>44375</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -4042,6 +4533,9 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44376</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>

--- a/2021-06 New South Wales Outbreak Paths.xlsx
+++ b/2021-06 New South Wales Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB23DEE-1044-4FF2-A370-B73D44B181DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D4983F-2603-4D24-AE85-141F7166E228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="269">
   <si>
     <t>Source</t>
   </si>
@@ -328,9 +328,6 @@
     <t>Drycleaners</t>
   </si>
   <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
     <t>S48 m40</t>
   </si>
   <si>
@@ -607,48 +604,6 @@
     <t>South Coogee Public School</t>
   </si>
   <si>
-    <t>#f4f7ff</t>
-  </si>
-  <si>
-    <t>#eaefff</t>
-  </si>
-  <si>
-    <t>#dfe7ff</t>
-  </si>
-  <si>
-    <t>#d4dfff</t>
-  </si>
-  <si>
-    <t>#c9d7ff</t>
-  </si>
-  <si>
-    <t>#bdcfff</t>
-  </si>
-  <si>
-    <t>#b1c8ff</t>
-  </si>
-  <si>
-    <t>#a5c0ff</t>
-  </si>
-  <si>
-    <t>#98b8ff</t>
-  </si>
-  <si>
-    <t>#8ab1ff</t>
-  </si>
-  <si>
-    <t>#7baaff</t>
-  </si>
-  <si>
-    <t>#6ba2ff</t>
-  </si>
-  <si>
-    <t>#589bff</t>
-  </si>
-  <si>
-    <t>#3f94ff</t>
-  </si>
-  <si>
     <t>S81 child</t>
   </si>
   <si>
@@ -667,18 +622,12 @@
     <t>W3 m30</t>
   </si>
   <si>
-    <t>Western Australia</t>
-  </si>
-  <si>
     <t>Indian Ocean Brewing Co.</t>
   </si>
   <si>
     <t>W2 w32</t>
   </si>
   <si>
-    <t>Joondalup Gym</t>
-  </si>
-  <si>
     <t>S132 child</t>
   </si>
   <si>
@@ -734,6 +683,165 @@
   </si>
   <si>
     <t>Bellevue Worker</t>
+  </si>
+  <si>
+    <t>S150</t>
+  </si>
+  <si>
+    <t>Bellevue Hill Public School</t>
+  </si>
+  <si>
+    <t>Crossways Hotel</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>VIC</t>
+  </si>
+  <si>
+    <t>S151</t>
+  </si>
+  <si>
+    <t>S152</t>
+  </si>
+  <si>
+    <t>S153</t>
+  </si>
+  <si>
+    <t>S154</t>
+  </si>
+  <si>
+    <t>S155</t>
+  </si>
+  <si>
+    <t>S156</t>
+  </si>
+  <si>
+    <t>S157</t>
+  </si>
+  <si>
+    <t>S158</t>
+  </si>
+  <si>
+    <t>S159</t>
+  </si>
+  <si>
+    <t>S160</t>
+  </si>
+  <si>
+    <t>S161</t>
+  </si>
+  <si>
+    <t>S162</t>
+  </si>
+  <si>
+    <t>S163</t>
+  </si>
+  <si>
+    <t>Joh Bailey Hairdressing Close Contacts</t>
+  </si>
+  <si>
+    <t>?5</t>
+  </si>
+  <si>
+    <t>?6</t>
+  </si>
+  <si>
+    <t>?7</t>
+  </si>
+  <si>
+    <t>S164</t>
+  </si>
+  <si>
+    <t>S165</t>
+  </si>
+  <si>
+    <t>S166</t>
+  </si>
+  <si>
+    <t>S167</t>
+  </si>
+  <si>
+    <t>S168</t>
+  </si>
+  <si>
+    <t>S169</t>
+  </si>
+  <si>
+    <t>S170</t>
+  </si>
+  <si>
+    <t>S171</t>
+  </si>
+  <si>
+    <t>S172</t>
+  </si>
+  <si>
+    <t>Linked with unknown cluster</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>QLD</t>
+  </si>
+  <si>
+    <t>Virgin Australia Flight Crew</t>
+  </si>
+  <si>
+    <t>W4 w37</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Mobius Gym</t>
+  </si>
+  <si>
+    <t>#f5f7ff</t>
+  </si>
+  <si>
+    <t>#ebf0ff</t>
+  </si>
+  <si>
+    <t>#e1e8ff</t>
+  </si>
+  <si>
+    <t>#d7e1ff</t>
+  </si>
+  <si>
+    <t>#ccdaff</t>
+  </si>
+  <si>
+    <t>#c2d2ff</t>
+  </si>
+  <si>
+    <t>#b7cbff</t>
+  </si>
+  <si>
+    <t>#abc4ff</t>
+  </si>
+  <si>
+    <t>#9fbdff</t>
+  </si>
+  <si>
+    <t>#93b6ff</t>
+  </si>
+  <si>
+    <t>#86afff</t>
+  </si>
+  <si>
+    <t>#77a8ff</t>
+  </si>
+  <si>
+    <t>#67a1ff</t>
+  </si>
+  <si>
+    <t>#559aff</t>
+  </si>
+  <si>
+    <t>#3d94ff</t>
   </si>
 </sst>
 </file>
@@ -803,8 +911,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G159" totalsRowShown="0">
-  <autoFilter ref="A1:G159" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G187" totalsRowShown="0">
+  <autoFilter ref="A1:G187" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -1128,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G159"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="G159" sqref="G159"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153:B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1311,13 +1419,13 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -1328,7 +1436,7 @@
         <v>44368</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
@@ -1337,7 +1445,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -1348,7 +1456,7 @@
         <v>44368</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -1368,7 +1476,7 @@
         <v>44369</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
         <v>53</v>
@@ -1377,7 +1485,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -1388,7 +1496,7 @@
         <v>44369</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
@@ -1397,7 +1505,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -1408,7 +1516,7 @@
         <v>44369</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
@@ -1417,7 +1525,7 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -1428,7 +1536,7 @@
         <v>44370</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1437,7 +1545,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -1448,7 +1556,7 @@
         <v>44370</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
         <v>56</v>
@@ -1457,7 +1565,7 @@
         <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -1491,7 +1599,7 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -1505,10 +1613,10 @@
         <v>44371</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
@@ -1522,7 +1630,7 @@
         <v>44371</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -1939,7 +2047,7 @@
         <v>44369</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s">
         <v>80</v>
@@ -1948,7 +2056,7 @@
         <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
@@ -1985,10 +2093,10 @@
         <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="F43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G43" t="s">
         <v>11</v>
@@ -1999,7 +2107,7 @@
         <v>44371</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
         <v>83</v>
@@ -2122,7 +2230,7 @@
         <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>220</v>
       </c>
       <c r="F50" t="s">
         <v>68</v>
@@ -2142,7 +2250,7 @@
         <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>220</v>
       </c>
       <c r="F51" t="s">
         <v>96</v>
@@ -2159,7 +2267,7 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
         <v>38</v>
@@ -2179,13 +2287,13 @@
         <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D53" t="s">
         <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
@@ -2196,16 +2304,16 @@
         <v>44372</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D54" t="s">
         <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
@@ -2216,16 +2324,16 @@
         <v>44372</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D55" t="s">
         <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G55" t="s">
         <v>11</v>
@@ -2236,10 +2344,10 @@
         <v>44372</v>
       </c>
       <c r="B56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" t="s">
         <v>104</v>
-      </c>
-      <c r="C56" t="s">
-        <v>105</v>
       </c>
       <c r="D56" t="s">
         <v>38</v>
@@ -2256,10 +2364,10 @@
         <v>44372</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D57" t="s">
         <v>38</v>
@@ -2276,16 +2384,16 @@
         <v>44372</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
         <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
@@ -2296,16 +2404,16 @@
         <v>44372</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D59" t="s">
         <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
@@ -2319,7 +2427,7 @@
         <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D60" t="s">
         <v>38</v>
@@ -2339,7 +2447,7 @@
         <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D61" t="s">
         <v>38</v>
@@ -2356,10 +2464,10 @@
         <v>44373</v>
       </c>
       <c r="B62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
         <v>109</v>
-      </c>
-      <c r="C62" t="s">
-        <v>110</v>
       </c>
       <c r="D62" t="s">
         <v>38</v>
@@ -2376,10 +2484,10 @@
         <v>44373</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
         <v>38</v>
@@ -2396,10 +2504,10 @@
         <v>44373</v>
       </c>
       <c r="B64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
         <v>38</v>
@@ -2419,7 +2527,7 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D65" t="s">
         <v>38</v>
@@ -2439,7 +2547,7 @@
         <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s">
         <v>38</v>
@@ -2459,7 +2567,7 @@
         <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D67" t="s">
         <v>38</v>
@@ -2479,7 +2587,7 @@
         <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D68" t="s">
         <v>38</v>
@@ -2499,7 +2607,7 @@
         <v>61</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D69" t="s">
         <v>38</v>
@@ -2519,7 +2627,7 @@
         <v>61</v>
       </c>
       <c r="C70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D70" t="s">
         <v>38</v>
@@ -2539,7 +2647,7 @@
         <v>61</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D71" t="s">
         <v>38</v>
@@ -2559,7 +2667,7 @@
         <v>37</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D72" t="s">
         <v>38</v>
@@ -2576,10 +2684,10 @@
         <v>44373</v>
       </c>
       <c r="B73" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" t="s">
         <v>122</v>
-      </c>
-      <c r="C73" t="s">
-        <v>123</v>
       </c>
       <c r="D73" t="s">
         <v>38</v>
@@ -2596,10 +2704,10 @@
         <v>44373</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D74" t="s">
         <v>38</v>
@@ -2616,16 +2724,16 @@
         <v>44373</v>
       </c>
       <c r="B75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D75" t="s">
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G75" t="s">
         <v>11</v>
@@ -2636,16 +2744,16 @@
         <v>44373</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" t="s">
         <v>126</v>
-      </c>
-      <c r="D76" t="s">
-        <v>38</v>
-      </c>
-      <c r="F76" t="s">
-        <v>127</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
@@ -2656,16 +2764,16 @@
         <v>44373</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D77" t="s">
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
@@ -2676,13 +2784,16 @@
         <v>44373</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D78" t="s">
         <v>38</v>
+      </c>
+      <c r="F78" t="s">
+        <v>171</v>
       </c>
       <c r="G78" t="s">
         <v>11</v>
@@ -2693,7 +2804,7 @@
         <v>44373</v>
       </c>
       <c r="B79" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s">
         <v>129</v>
@@ -2702,7 +2813,7 @@
         <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="G79" t="s">
         <v>11</v>
@@ -2713,7 +2824,7 @@
         <v>44373</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C80" t="s">
         <v>130</v>
@@ -2722,7 +2833,7 @@
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
@@ -2733,7 +2844,7 @@
         <v>44373</v>
       </c>
       <c r="B81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C81" t="s">
         <v>131</v>
@@ -2742,7 +2853,7 @@
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
@@ -2753,7 +2864,7 @@
         <v>44373</v>
       </c>
       <c r="B82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C82" t="s">
         <v>132</v>
@@ -2762,7 +2873,7 @@
         <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
@@ -2773,7 +2884,7 @@
         <v>44373</v>
       </c>
       <c r="B83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C83" t="s">
         <v>133</v>
@@ -2782,7 +2893,7 @@
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
@@ -2793,7 +2904,7 @@
         <v>44373</v>
       </c>
       <c r="B84" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C84" t="s">
         <v>134</v>
@@ -2802,7 +2913,7 @@
         <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
@@ -2813,7 +2924,7 @@
         <v>44373</v>
       </c>
       <c r="B85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C85" t="s">
         <v>135</v>
@@ -2822,7 +2933,7 @@
         <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
@@ -2833,7 +2944,7 @@
         <v>44373</v>
       </c>
       <c r="B86" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C86" t="s">
         <v>136</v>
@@ -2842,7 +2953,7 @@
         <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
@@ -2853,16 +2964,16 @@
         <v>44373</v>
       </c>
       <c r="B87" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C87" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="D87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
@@ -2873,16 +2984,16 @@
         <v>44373</v>
       </c>
       <c r="B88" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="C88" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D88" t="s">
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G88" t="s">
         <v>11</v>
@@ -2893,16 +3004,13 @@
         <v>44373</v>
       </c>
       <c r="B89" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="C89" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="D89" t="s">
         <v>38</v>
-      </c>
-      <c r="F89" t="s">
-        <v>171</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
@@ -2910,16 +3018,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C90" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D90" t="s">
         <v>38</v>
+      </c>
+      <c r="F90" t="s">
+        <v>126</v>
       </c>
       <c r="G90" t="s">
         <v>11</v>
@@ -2930,7 +3041,7 @@
         <v>44374</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C91" t="s">
         <v>141</v>
@@ -2939,7 +3050,7 @@
         <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G91" t="s">
         <v>11</v>
@@ -2950,7 +3061,7 @@
         <v>44374</v>
       </c>
       <c r="B92" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C92" t="s">
         <v>142</v>
@@ -2959,7 +3070,7 @@
         <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G92" t="s">
         <v>11</v>
@@ -2970,7 +3081,7 @@
         <v>44374</v>
       </c>
       <c r="B93" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C93" t="s">
         <v>143</v>
@@ -2979,7 +3090,7 @@
         <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
@@ -2990,7 +3101,7 @@
         <v>44374</v>
       </c>
       <c r="B94" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C94" t="s">
         <v>144</v>
@@ -2999,7 +3110,7 @@
         <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G94" t="s">
         <v>11</v>
@@ -3010,7 +3121,7 @@
         <v>44374</v>
       </c>
       <c r="B95" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C95" t="s">
         <v>145</v>
@@ -3019,7 +3130,7 @@
         <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G95" t="s">
         <v>11</v>
@@ -3030,7 +3141,7 @@
         <v>44374</v>
       </c>
       <c r="B96" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C96" t="s">
         <v>146</v>
@@ -3039,7 +3150,7 @@
         <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G96" t="s">
         <v>11</v>
@@ -3050,7 +3161,7 @@
         <v>44374</v>
       </c>
       <c r="B97" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C97" t="s">
         <v>147</v>
@@ -3059,7 +3170,7 @@
         <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G97" t="s">
         <v>11</v>
@@ -3070,7 +3181,7 @@
         <v>44374</v>
       </c>
       <c r="B98" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C98" t="s">
         <v>148</v>
@@ -3079,7 +3190,7 @@
         <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="G98" t="s">
         <v>11</v>
@@ -3090,7 +3201,7 @@
         <v>44374</v>
       </c>
       <c r="B99" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C99" t="s">
         <v>149</v>
@@ -3099,7 +3210,7 @@
         <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G99" t="s">
         <v>11</v>
@@ -3110,7 +3221,7 @@
         <v>44374</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="C100" t="s">
         <v>150</v>
@@ -3119,7 +3230,7 @@
         <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="G100" t="s">
         <v>11</v>
@@ -3130,7 +3241,7 @@
         <v>44374</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C101" t="s">
         <v>151</v>
@@ -3139,7 +3250,7 @@
         <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="G101" t="s">
         <v>11</v>
@@ -3150,7 +3261,7 @@
         <v>44374</v>
       </c>
       <c r="B102" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C102" t="s">
         <v>152</v>
@@ -3159,7 +3270,7 @@
         <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="G102" t="s">
         <v>11</v>
@@ -3170,7 +3281,7 @@
         <v>44374</v>
       </c>
       <c r="B103" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C103" t="s">
         <v>153</v>
@@ -3179,7 +3290,7 @@
         <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="G103" t="s">
         <v>11</v>
@@ -3190,7 +3301,7 @@
         <v>44374</v>
       </c>
       <c r="B104" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C104" t="s">
         <v>154</v>
@@ -3199,7 +3310,7 @@
         <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="G104" t="s">
         <v>11</v>
@@ -3210,7 +3321,7 @@
         <v>44374</v>
       </c>
       <c r="B105" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C105" t="s">
         <v>155</v>
@@ -3219,7 +3330,7 @@
         <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="G105" t="s">
         <v>11</v>
@@ -3230,7 +3341,7 @@
         <v>44374</v>
       </c>
       <c r="B106" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C106" t="s">
         <v>156</v>
@@ -3239,7 +3350,7 @@
         <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="G106" t="s">
         <v>11</v>
@@ -3250,7 +3361,7 @@
         <v>44374</v>
       </c>
       <c r="B107" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C107" t="s">
         <v>157</v>
@@ -3259,7 +3370,7 @@
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="G107" t="s">
         <v>11</v>
@@ -3270,7 +3381,7 @@
         <v>44374</v>
       </c>
       <c r="B108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C108" t="s">
         <v>158</v>
@@ -3279,7 +3390,7 @@
         <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G108" t="s">
         <v>11</v>
@@ -3290,7 +3401,7 @@
         <v>44374</v>
       </c>
       <c r="B109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C109" t="s">
         <v>159</v>
@@ -3299,7 +3410,7 @@
         <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G109" t="s">
         <v>11</v>
@@ -3310,7 +3421,7 @@
         <v>44374</v>
       </c>
       <c r="B110" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C110" t="s">
         <v>160</v>
@@ -3319,7 +3430,7 @@
         <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G110" t="s">
         <v>11</v>
@@ -3330,7 +3441,7 @@
         <v>44374</v>
       </c>
       <c r="B111" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C111" t="s">
         <v>161</v>
@@ -3339,7 +3450,7 @@
         <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G111" t="s">
         <v>11</v>
@@ -3350,7 +3461,7 @@
         <v>44374</v>
       </c>
       <c r="B112" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C112" t="s">
         <v>162</v>
@@ -3359,7 +3470,7 @@
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G112" t="s">
         <v>11</v>
@@ -3370,7 +3481,7 @@
         <v>44374</v>
       </c>
       <c r="B113" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C113" t="s">
         <v>163</v>
@@ -3379,7 +3490,7 @@
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G113" t="s">
         <v>11</v>
@@ -3390,7 +3501,7 @@
         <v>44374</v>
       </c>
       <c r="B114" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C114" t="s">
         <v>164</v>
@@ -3399,7 +3510,7 @@
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G114" t="s">
         <v>11</v>
@@ -3410,7 +3521,7 @@
         <v>44374</v>
       </c>
       <c r="B115" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C115" t="s">
         <v>165</v>
@@ -3419,7 +3530,7 @@
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
@@ -3430,7 +3541,7 @@
         <v>44374</v>
       </c>
       <c r="B116" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C116" t="s">
         <v>166</v>
@@ -3439,7 +3550,7 @@
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G116" t="s">
         <v>11</v>
@@ -3450,7 +3561,7 @@
         <v>44374</v>
       </c>
       <c r="B117" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C117" t="s">
         <v>167</v>
@@ -3459,7 +3570,7 @@
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
@@ -3470,7 +3581,7 @@
         <v>44374</v>
       </c>
       <c r="B118" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C118" t="s">
         <v>168</v>
@@ -3479,7 +3590,7 @@
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G118" t="s">
         <v>11</v>
@@ -3490,7 +3601,7 @@
         <v>44374</v>
       </c>
       <c r="B119" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C119" t="s">
         <v>169</v>
@@ -3499,7 +3610,7 @@
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G119" t="s">
         <v>11</v>
@@ -3507,19 +3618,19 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="B120" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C120" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G120" t="s">
         <v>11</v>
@@ -3530,7 +3641,7 @@
         <v>44375</v>
       </c>
       <c r="B121" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C121" t="s">
         <v>173</v>
@@ -3539,7 +3650,7 @@
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G121" t="s">
         <v>11</v>
@@ -3550,7 +3661,7 @@
         <v>44375</v>
       </c>
       <c r="B122" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C122" t="s">
         <v>174</v>
@@ -3559,7 +3670,7 @@
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G122" t="s">
         <v>11</v>
@@ -3570,7 +3681,7 @@
         <v>44375</v>
       </c>
       <c r="B123" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C123" t="s">
         <v>175</v>
@@ -3579,7 +3690,7 @@
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G123" t="s">
         <v>11</v>
@@ -3590,7 +3701,7 @@
         <v>44375</v>
       </c>
       <c r="B124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C124" t="s">
         <v>176</v>
@@ -3599,7 +3710,7 @@
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G124" t="s">
         <v>11</v>
@@ -3610,7 +3721,7 @@
         <v>44375</v>
       </c>
       <c r="B125" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C125" t="s">
         <v>177</v>
@@ -3619,7 +3730,7 @@
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G125" t="s">
         <v>11</v>
@@ -3630,7 +3741,7 @@
         <v>44375</v>
       </c>
       <c r="B126" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C126" t="s">
         <v>178</v>
@@ -3639,7 +3750,7 @@
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="G126" t="s">
         <v>11</v>
@@ -3670,16 +3781,16 @@
         <v>44375</v>
       </c>
       <c r="B128" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="C128" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D128" t="s">
         <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="G128" t="s">
         <v>11</v>
@@ -3690,16 +3801,16 @@
         <v>44375</v>
       </c>
       <c r="B129" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C129" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D129" t="s">
         <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G129" t="s">
         <v>11</v>
@@ -3710,16 +3821,13 @@
         <v>44375</v>
       </c>
       <c r="B130" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C130" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="D130" t="s">
-        <v>38</v>
-      </c>
-      <c r="F130" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="G130" t="s">
         <v>11</v>
@@ -3730,13 +3838,16 @@
         <v>44375</v>
       </c>
       <c r="B131" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="C131" t="s">
         <v>181</v>
       </c>
       <c r="D131" t="s">
         <v>38</v>
+      </c>
+      <c r="F131" t="s">
+        <v>126</v>
       </c>
       <c r="G131" t="s">
         <v>11</v>
@@ -3747,7 +3858,7 @@
         <v>44375</v>
       </c>
       <c r="B132" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C132" t="s">
         <v>182</v>
@@ -3756,7 +3867,7 @@
         <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G132" t="s">
         <v>11</v>
@@ -3767,7 +3878,7 @@
         <v>44375</v>
       </c>
       <c r="B133" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C133" t="s">
         <v>183</v>
@@ -3776,7 +3887,7 @@
         <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G133" t="s">
         <v>11</v>
@@ -3787,7 +3898,7 @@
         <v>44375</v>
       </c>
       <c r="B134" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C134" t="s">
         <v>184</v>
@@ -3796,7 +3907,7 @@
         <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G134" t="s">
         <v>11</v>
@@ -3807,7 +3918,7 @@
         <v>44375</v>
       </c>
       <c r="B135" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C135" t="s">
         <v>185</v>
@@ -3816,7 +3927,7 @@
         <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G135" t="s">
         <v>11</v>
@@ -3827,16 +3938,13 @@
         <v>44375</v>
       </c>
       <c r="B136" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C136" t="s">
         <v>186</v>
       </c>
       <c r="D136" t="s">
-        <v>38</v>
-      </c>
-      <c r="F136" t="s">
-        <v>127</v>
+        <v>219</v>
       </c>
       <c r="G136" t="s">
         <v>11</v>
@@ -3847,13 +3955,13 @@
         <v>44375</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C137" t="s">
         <v>187</v>
       </c>
       <c r="D137" t="s">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="G137" t="s">
         <v>11</v>
@@ -3864,13 +3972,16 @@
         <v>44375</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C138" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D138" t="s">
-        <v>38</v>
+        <v>252</v>
+      </c>
+      <c r="F138" t="s">
+        <v>88</v>
       </c>
       <c r="G138" t="s">
         <v>11</v>
@@ -3878,19 +3989,19 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
-        <v>28</v>
+        <v>44376</v>
       </c>
       <c r="B139" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="C139" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D139" t="s">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="F139" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="G139" t="s">
         <v>11</v>
@@ -3901,16 +4012,16 @@
         <v>44376</v>
       </c>
       <c r="B140" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C140" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D140" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="F140" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="G140" t="s">
         <v>11</v>
@@ -3921,16 +4032,16 @@
         <v>44376</v>
       </c>
       <c r="B141" t="s">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="C141" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D141" t="s">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="G141" t="s">
         <v>11</v>
@@ -3941,16 +4052,16 @@
         <v>44376</v>
       </c>
       <c r="B142" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C142" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D142" t="s">
         <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G142" t="s">
         <v>11</v>
@@ -3961,16 +4072,16 @@
         <v>44376</v>
       </c>
       <c r="B143" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C143" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D143" t="s">
         <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G143" t="s">
         <v>11</v>
@@ -3981,16 +4092,16 @@
         <v>44376</v>
       </c>
       <c r="B144" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C144" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D144" t="s">
         <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G144" t="s">
         <v>11</v>
@@ -4001,16 +4112,16 @@
         <v>44376</v>
       </c>
       <c r="B145" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C145" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D145" t="s">
         <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G145" t="s">
         <v>11</v>
@@ -4021,16 +4132,16 @@
         <v>44376</v>
       </c>
       <c r="B146" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C146" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D146" t="s">
         <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G146" t="s">
         <v>11</v>
@@ -4041,16 +4152,16 @@
         <v>44376</v>
       </c>
       <c r="B147" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C147" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D147" t="s">
         <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G147" t="s">
         <v>11</v>
@@ -4061,16 +4172,16 @@
         <v>44376</v>
       </c>
       <c r="B148" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C148" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="D148" t="s">
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G148" t="s">
         <v>11</v>
@@ -4081,16 +4192,16 @@
         <v>44376</v>
       </c>
       <c r="B149" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C149" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D149" t="s">
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G149" t="s">
         <v>11</v>
@@ -4101,16 +4212,16 @@
         <v>44376</v>
       </c>
       <c r="B150" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C150" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D150" t="s">
         <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G150" t="s">
         <v>11</v>
@@ -4121,16 +4232,16 @@
         <v>44376</v>
       </c>
       <c r="B151" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C151" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D151" t="s">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="F151" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G151" t="s">
         <v>11</v>
@@ -4141,16 +4252,16 @@
         <v>44376</v>
       </c>
       <c r="B152" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C152" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D152" t="s">
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="G152" t="s">
         <v>11</v>
@@ -4161,16 +4272,16 @@
         <v>44376</v>
       </c>
       <c r="B153" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C153" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D153" t="s">
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G153" t="s">
         <v>11</v>
@@ -4181,16 +4292,16 @@
         <v>44376</v>
       </c>
       <c r="B154" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C154" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="D154" t="s">
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G154" t="s">
         <v>11</v>
@@ -4201,16 +4312,16 @@
         <v>44376</v>
       </c>
       <c r="B155" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="C155" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D155" t="s">
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="G155" t="s">
         <v>11</v>
@@ -4224,7 +4335,7 @@
         <v>61</v>
       </c>
       <c r="C156" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D156" t="s">
         <v>38</v>
@@ -4244,7 +4355,7 @@
         <v>61</v>
       </c>
       <c r="C157" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="D157" t="s">
         <v>38</v>
@@ -4261,16 +4372,16 @@
         <v>44376</v>
       </c>
       <c r="B158" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="C158" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D158" t="s">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="F158" t="s">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="G158" t="s">
         <v>11</v>
@@ -4281,18 +4392,578 @@
         <v>44376</v>
       </c>
       <c r="B159" t="s">
+        <v>216</v>
+      </c>
+      <c r="C159" t="s">
+        <v>216</v>
+      </c>
+      <c r="D159" t="s">
+        <v>219</v>
+      </c>
+      <c r="F159" t="s">
+        <v>217</v>
+      </c>
+      <c r="G159" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A160" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B160" t="s">
+        <v>128</v>
+      </c>
+      <c r="C160" t="s">
+        <v>221</v>
+      </c>
+      <c r="D160" t="s">
+        <v>38</v>
+      </c>
+      <c r="F160" t="s">
+        <v>126</v>
+      </c>
+      <c r="G160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A161" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B161" t="s">
+        <v>61</v>
+      </c>
+      <c r="C161" t="s">
+        <v>222</v>
+      </c>
+      <c r="D161" t="s">
+        <v>38</v>
+      </c>
+      <c r="F161" t="s">
+        <v>68</v>
+      </c>
+      <c r="G161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A162" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B162" t="s">
+        <v>61</v>
+      </c>
+      <c r="C162" t="s">
+        <v>223</v>
+      </c>
+      <c r="D162" t="s">
+        <v>38</v>
+      </c>
+      <c r="F162" t="s">
+        <v>68</v>
+      </c>
+      <c r="G162" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A163" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B163" t="s">
+        <v>61</v>
+      </c>
+      <c r="C163" t="s">
+        <v>224</v>
+      </c>
+      <c r="D163" t="s">
+        <v>38</v>
+      </c>
+      <c r="F163" t="s">
+        <v>68</v>
+      </c>
+      <c r="G163" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A164" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B164" t="s">
+        <v>61</v>
+      </c>
+      <c r="C164" t="s">
+        <v>225</v>
+      </c>
+      <c r="D164" t="s">
+        <v>38</v>
+      </c>
+      <c r="F164" t="s">
+        <v>68</v>
+      </c>
+      <c r="G164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A165" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B165" t="s">
+        <v>61</v>
+      </c>
+      <c r="C165" t="s">
+        <v>138</v>
+      </c>
+      <c r="D165" t="s">
+        <v>38</v>
+      </c>
+      <c r="F165" t="s">
+        <v>68</v>
+      </c>
+      <c r="G165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A166" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B166" t="s">
+        <v>148</v>
+      </c>
+      <c r="C166" t="s">
+        <v>226</v>
+      </c>
+      <c r="D166" t="s">
+        <v>38</v>
+      </c>
+      <c r="F166" t="s">
+        <v>218</v>
+      </c>
+      <c r="G166" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A167" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B167" t="s">
+        <v>148</v>
+      </c>
+      <c r="C167" t="s">
+        <v>227</v>
+      </c>
+      <c r="D167" t="s">
+        <v>38</v>
+      </c>
+      <c r="F167" t="s">
+        <v>218</v>
+      </c>
+      <c r="G167" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A168" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B168" t="s">
+        <v>148</v>
+      </c>
+      <c r="C168" t="s">
+        <v>228</v>
+      </c>
+      <c r="D168" t="s">
+        <v>38</v>
+      </c>
+      <c r="F168" t="s">
+        <v>218</v>
+      </c>
+      <c r="G168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A169" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B169" t="s">
+        <v>148</v>
+      </c>
+      <c r="C169" t="s">
+        <v>229</v>
+      </c>
+      <c r="D169" t="s">
+        <v>38</v>
+      </c>
+      <c r="F169" t="s">
+        <v>218</v>
+      </c>
+      <c r="G169" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A170" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B170" t="s">
+        <v>99</v>
+      </c>
+      <c r="C170" t="s">
+        <v>230</v>
+      </c>
+      <c r="D170" t="s">
+        <v>38</v>
+      </c>
+      <c r="F170" t="s">
+        <v>98</v>
+      </c>
+      <c r="G170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A171" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B171" t="s">
+        <v>99</v>
+      </c>
+      <c r="C171" t="s">
         <v>231</v>
       </c>
-      <c r="C159" t="s">
-        <v>231</v>
-      </c>
-      <c r="D159" t="s">
-        <v>38</v>
-      </c>
-      <c r="F159" t="s">
+      <c r="D171" t="s">
+        <v>38</v>
+      </c>
+      <c r="F171" t="s">
+        <v>98</v>
+      </c>
+      <c r="G171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A172" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B172" t="s">
+        <v>99</v>
+      </c>
+      <c r="C172" t="s">
         <v>232</v>
       </c>
-      <c r="G159" t="s">
+      <c r="D172" t="s">
+        <v>38</v>
+      </c>
+      <c r="F172" t="s">
+        <v>98</v>
+      </c>
+      <c r="G172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A173" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B173" t="s">
+        <v>83</v>
+      </c>
+      <c r="C173" t="s">
+        <v>233</v>
+      </c>
+      <c r="D173" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173" t="s">
+        <v>234</v>
+      </c>
+      <c r="G173" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A174" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B174" t="s">
+        <v>233</v>
+      </c>
+      <c r="C174" t="s">
+        <v>235</v>
+      </c>
+      <c r="D174" t="s">
+        <v>38</v>
+      </c>
+      <c r="F174" t="s">
+        <v>234</v>
+      </c>
+      <c r="G174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A175" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B175" t="s">
+        <v>233</v>
+      </c>
+      <c r="C175" t="s">
+        <v>236</v>
+      </c>
+      <c r="D175" t="s">
+        <v>38</v>
+      </c>
+      <c r="F175" t="s">
+        <v>234</v>
+      </c>
+      <c r="G175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A176" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B176" t="s">
+        <v>233</v>
+      </c>
+      <c r="C176" t="s">
+        <v>237</v>
+      </c>
+      <c r="D176" t="s">
+        <v>38</v>
+      </c>
+      <c r="F176" t="s">
+        <v>234</v>
+      </c>
+      <c r="G176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A177" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B177" t="s">
+        <v>139</v>
+      </c>
+      <c r="C177" t="s">
+        <v>238</v>
+      </c>
+      <c r="D177" t="s">
+        <v>38</v>
+      </c>
+      <c r="F177" t="s">
+        <v>170</v>
+      </c>
+      <c r="G177" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A178" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B178" t="s">
+        <v>139</v>
+      </c>
+      <c r="C178" t="s">
+        <v>239</v>
+      </c>
+      <c r="D178" t="s">
+        <v>38</v>
+      </c>
+      <c r="F178" t="s">
+        <v>170</v>
+      </c>
+      <c r="G178" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A179" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B179" t="s">
+        <v>139</v>
+      </c>
+      <c r="C179" t="s">
+        <v>240</v>
+      </c>
+      <c r="D179" t="s">
+        <v>38</v>
+      </c>
+      <c r="F179" t="s">
+        <v>170</v>
+      </c>
+      <c r="G179" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A180" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B180" t="s">
+        <v>139</v>
+      </c>
+      <c r="C180" t="s">
+        <v>241</v>
+      </c>
+      <c r="D180" t="s">
+        <v>38</v>
+      </c>
+      <c r="F180" t="s">
+        <v>170</v>
+      </c>
+      <c r="G180" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A181" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B181" t="s">
+        <v>139</v>
+      </c>
+      <c r="C181" t="s">
+        <v>242</v>
+      </c>
+      <c r="D181" t="s">
+        <v>38</v>
+      </c>
+      <c r="F181" t="s">
+        <v>170</v>
+      </c>
+      <c r="G181" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A182" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B182" t="s">
+        <v>139</v>
+      </c>
+      <c r="C182" t="s">
+        <v>243</v>
+      </c>
+      <c r="D182" t="s">
+        <v>38</v>
+      </c>
+      <c r="F182" t="s">
+        <v>170</v>
+      </c>
+      <c r="G182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A183" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B183" t="s">
+        <v>207</v>
+      </c>
+      <c r="C183" t="s">
+        <v>244</v>
+      </c>
+      <c r="D183" t="s">
+        <v>219</v>
+      </c>
+      <c r="F183" t="s">
+        <v>247</v>
+      </c>
+      <c r="G183" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A184" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B184" t="s">
+        <v>207</v>
+      </c>
+      <c r="C184" t="s">
+        <v>245</v>
+      </c>
+      <c r="D184" t="s">
+        <v>219</v>
+      </c>
+      <c r="F184" t="s">
+        <v>247</v>
+      </c>
+      <c r="G184" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A185" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B185" t="s">
+        <v>207</v>
+      </c>
+      <c r="C185" t="s">
+        <v>246</v>
+      </c>
+      <c r="D185" t="s">
+        <v>219</v>
+      </c>
+      <c r="F185" t="s">
+        <v>247</v>
+      </c>
+      <c r="G185" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A186" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B186" t="s">
+        <v>149</v>
+      </c>
+      <c r="C186" t="s">
+        <v>248</v>
+      </c>
+      <c r="D186" t="s">
+        <v>249</v>
+      </c>
+      <c r="F186" t="s">
+        <v>250</v>
+      </c>
+      <c r="G186" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A187" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B187" t="s">
+        <v>193</v>
+      </c>
+      <c r="C187" t="s">
+        <v>251</v>
+      </c>
+      <c r="D187" t="s">
+        <v>252</v>
+      </c>
+      <c r="F187" t="s">
+        <v>253</v>
+      </c>
+      <c r="G187" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4308,10 +4979,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4320,7 +4991,7 @@
     <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4334,12 +5005,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44362</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>
@@ -4347,13 +5018,61 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L2" t="s">
+        <v>260</v>
+      </c>
+      <c r="M2" t="s">
+        <v>261</v>
+      </c>
+      <c r="N2" t="s">
+        <v>262</v>
+      </c>
+      <c r="O2" t="s">
+        <v>263</v>
+      </c>
+      <c r="P2" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>265</v>
+      </c>
+      <c r="R2" t="s">
+        <v>266</v>
+      </c>
+      <c r="S2" t="s">
+        <v>267</v>
+      </c>
+      <c r="T2" t="s">
+        <v>268</v>
+      </c>
+      <c r="U2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44363</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
@@ -4362,12 +5081,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44364</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -4376,12 +5095,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44365</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -4390,12 +5109,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44366</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -4404,12 +5123,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44367</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -4418,12 +5137,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44368</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -4432,12 +5151,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44369</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -4446,12 +5165,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44370</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>262</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -4460,12 +5179,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44371</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -4474,12 +5193,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44372</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -4488,12 +5207,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44373</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -4502,12 +5221,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44374</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -4516,12 +5235,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44375</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -4530,12 +5249,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44376</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -4547,6 +5266,9 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44377</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>

--- a/2021-06 New South Wales Outbreak Paths.xlsx
+++ b/2021-06 New South Wales Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D4983F-2603-4D24-AE85-141F7166E228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3B1AEE-548A-4839-BFA3-5F2C08C1327C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="300">
   <si>
     <t>Source</t>
   </si>
@@ -451,9 +451,6 @@
     <t>S83</t>
   </si>
   <si>
-    <t>?4</t>
-  </si>
-  <si>
     <t xml:space="preserve">? a </t>
   </si>
   <si>
@@ -742,15 +739,6 @@
     <t>Joh Bailey Hairdressing Close Contacts</t>
   </si>
   <si>
-    <t>?5</t>
-  </si>
-  <si>
-    <t>?6</t>
-  </si>
-  <si>
-    <t>?7</t>
-  </si>
-  <si>
     <t>S164</t>
   </si>
   <si>
@@ -778,9 +766,6 @@
     <t>S172</t>
   </si>
   <si>
-    <t>Linked with unknown cluster</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -799,49 +784,157 @@
     <t>Mobius Gym</t>
   </si>
   <si>
-    <t>#f5f7ff</t>
-  </si>
-  <si>
-    <t>#ebf0ff</t>
-  </si>
-  <si>
-    <t>#e1e8ff</t>
-  </si>
-  <si>
-    <t>#d7e1ff</t>
-  </si>
-  <si>
-    <t>#ccdaff</t>
-  </si>
-  <si>
-    <t>#c2d2ff</t>
-  </si>
-  <si>
-    <t>#b7cbff</t>
-  </si>
-  <si>
-    <t>#abc4ff</t>
-  </si>
-  <si>
-    <t>#9fbdff</t>
-  </si>
-  <si>
-    <t>#93b6ff</t>
-  </si>
-  <si>
-    <t>#86afff</t>
-  </si>
-  <si>
-    <t>#77a8ff</t>
-  </si>
-  <si>
-    <t>#67a1ff</t>
-  </si>
-  <si>
-    <t>#559aff</t>
-  </si>
-  <si>
-    <t>#3d94ff</t>
+    <t>#f6f8ff</t>
+  </si>
+  <si>
+    <t>#ecf1ff</t>
+  </si>
+  <si>
+    <t>#e3eaff</t>
+  </si>
+  <si>
+    <t>#d9e3ff</t>
+  </si>
+  <si>
+    <t>#d0dcff</t>
+  </si>
+  <si>
+    <t>#c6d5ff</t>
+  </si>
+  <si>
+    <t>#bbceff</t>
+  </si>
+  <si>
+    <t>#b1c7ff</t>
+  </si>
+  <si>
+    <t>#a6c0ff</t>
+  </si>
+  <si>
+    <t>#9abaff</t>
+  </si>
+  <si>
+    <t>#8eb3ff</t>
+  </si>
+  <si>
+    <t>#82adff</t>
+  </si>
+  <si>
+    <t>#74a6ff</t>
+  </si>
+  <si>
+    <t>#64a0ff</t>
+  </si>
+  <si>
+    <t>#5399ff</t>
+  </si>
+  <si>
+    <t>#3c93ff</t>
+  </si>
+  <si>
+    <t>Lyfe Café Bondi Close Contacts</t>
+  </si>
+  <si>
+    <t>Birthday party Close Contacts</t>
+  </si>
+  <si>
+    <t>S45</t>
+  </si>
+  <si>
+    <t>S46</t>
+  </si>
+  <si>
+    <t>Linked cases?</t>
+  </si>
+  <si>
+    <t>Linked Cases?</t>
+  </si>
+  <si>
+    <t>Crossways Hotel Close Contacts</t>
+  </si>
+  <si>
+    <t>Unlinked case</t>
+  </si>
+  <si>
+    <t>Linked within unknown cluster</t>
+  </si>
+  <si>
+    <t>S173</t>
+  </si>
+  <si>
+    <t>Royal North Shore Hospital</t>
+  </si>
+  <si>
+    <t>S174</t>
+  </si>
+  <si>
+    <t>S175</t>
+  </si>
+  <si>
+    <t>S176</t>
+  </si>
+  <si>
+    <t>S177</t>
+  </si>
+  <si>
+    <t>S178</t>
+  </si>
+  <si>
+    <t>S179</t>
+  </si>
+  <si>
+    <t>S180</t>
+  </si>
+  <si>
+    <t>S181</t>
+  </si>
+  <si>
+    <t>S182</t>
+  </si>
+  <si>
+    <t>S183</t>
+  </si>
+  <si>
+    <t>S184</t>
+  </si>
+  <si>
+    <t>S185</t>
+  </si>
+  <si>
+    <t>S186</t>
+  </si>
+  <si>
+    <t>S187</t>
+  </si>
+  <si>
+    <t>S188</t>
+  </si>
+  <si>
+    <t>S189</t>
+  </si>
+  <si>
+    <t>Passengers on Flight</t>
+  </si>
+  <si>
+    <t>S190</t>
+  </si>
+  <si>
+    <t>S191</t>
+  </si>
+  <si>
+    <t>S192</t>
+  </si>
+  <si>
+    <t>S193</t>
+  </si>
+  <si>
+    <t>S194</t>
+  </si>
+  <si>
+    <t>S195</t>
+  </si>
+  <si>
+    <t>S196</t>
   </si>
 </sst>
 </file>
@@ -911,8 +1004,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G187" totalsRowShown="0">
-  <autoFilter ref="A1:G187" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G207" totalsRowShown="0">
+  <autoFilter ref="A1:G207" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -1236,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G187"/>
+  <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153:B154"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="G185" sqref="G185:G207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1247,7 +1340,7 @@
     <col min="1" max="1" width="11.265625" customWidth="1"/>
     <col min="4" max="4" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.796875" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" customWidth="1"/>
+    <col min="6" max="6" width="30.9296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1419,13 +1512,13 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -1436,7 +1529,7 @@
         <v>44368</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
@@ -1445,7 +1538,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -1456,7 +1549,7 @@
         <v>44368</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -1476,7 +1569,7 @@
         <v>44369</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>53</v>
@@ -1485,7 +1578,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -1496,7 +1589,7 @@
         <v>44369</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
@@ -1505,7 +1598,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -1516,7 +1609,7 @@
         <v>44369</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
@@ -1525,7 +1618,7 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -1536,7 +1629,7 @@
         <v>44370</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1545,7 +1638,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -1556,7 +1649,7 @@
         <v>44370</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>56</v>
@@ -1565,7 +1658,7 @@
         <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -2047,7 +2140,7 @@
         <v>44369</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
         <v>80</v>
@@ -2056,7 +2149,7 @@
         <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
@@ -2093,7 +2186,7 @@
         <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F43" t="s">
         <v>106</v>
@@ -2230,7 +2323,7 @@
         <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F50" t="s">
         <v>68</v>
@@ -2250,7 +2343,7 @@
         <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F51" t="s">
         <v>96</v>
@@ -2304,7 +2397,7 @@
         <v>44372</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
         <v>102</v>
@@ -2313,7 +2406,7 @@
         <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
@@ -2324,7 +2417,7 @@
         <v>44372</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
         <v>103</v>
@@ -2333,7 +2426,7 @@
         <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G55" t="s">
         <v>11</v>
@@ -2384,7 +2477,7 @@
         <v>44372</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
         <v>100</v>
@@ -2393,7 +2486,7 @@
         <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
@@ -2404,7 +2497,7 @@
         <v>44372</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
         <v>101</v>
@@ -2413,7 +2506,7 @@
         <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
@@ -2724,7 +2817,7 @@
         <v>44373</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
         <v>124</v>
@@ -2733,7 +2826,7 @@
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="G75" t="s">
         <v>11</v>
@@ -2744,7 +2837,7 @@
         <v>44373</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C76" t="s">
         <v>125</v>
@@ -2753,7 +2846,7 @@
         <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
@@ -2764,7 +2857,7 @@
         <v>44373</v>
       </c>
       <c r="B77" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C77" t="s">
         <v>127</v>
@@ -2773,7 +2866,7 @@
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
@@ -2793,7 +2886,7 @@
         <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G78" t="s">
         <v>11</v>
@@ -2824,7 +2917,7 @@
         <v>44373</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C80" t="s">
         <v>130</v>
@@ -2833,7 +2926,7 @@
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
@@ -2844,7 +2937,7 @@
         <v>44373</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="C81" t="s">
         <v>131</v>
@@ -2853,7 +2946,7 @@
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
@@ -2864,7 +2957,7 @@
         <v>44373</v>
       </c>
       <c r="B82" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="C82" t="s">
         <v>132</v>
@@ -2873,7 +2966,7 @@
         <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
@@ -2884,7 +2977,7 @@
         <v>44373</v>
       </c>
       <c r="B83" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s">
         <v>133</v>
@@ -2893,7 +2986,7 @@
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
@@ -2904,7 +2997,7 @@
         <v>44373</v>
       </c>
       <c r="B84" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="C84" t="s">
         <v>134</v>
@@ -2913,7 +3006,7 @@
         <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
@@ -2924,7 +3017,7 @@
         <v>44373</v>
       </c>
       <c r="B85" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C85" t="s">
         <v>135</v>
@@ -2933,7 +3026,7 @@
         <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
@@ -2944,7 +3037,7 @@
         <v>44373</v>
       </c>
       <c r="B86" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C86" t="s">
         <v>136</v>
@@ -2953,7 +3046,7 @@
         <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
@@ -2964,16 +3057,16 @@
         <v>44373</v>
       </c>
       <c r="B87" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
@@ -2984,16 +3077,16 @@
         <v>44373</v>
       </c>
       <c r="B88" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" t="s">
         <v>189</v>
       </c>
-      <c r="C88" t="s">
-        <v>190</v>
-      </c>
       <c r="D88" t="s">
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G88" t="s">
         <v>11</v>
@@ -3010,7 +3103,10 @@
         <v>137</v>
       </c>
       <c r="D89" t="s">
-        <v>38</v>
+        <v>218</v>
+      </c>
+      <c r="F89" t="s">
+        <v>272</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
@@ -3024,7 +3120,7 @@
         <v>128</v>
       </c>
       <c r="C90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D90" t="s">
         <v>38</v>
@@ -3044,7 +3140,7 @@
         <v>128</v>
       </c>
       <c r="C91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D91" t="s">
         <v>38</v>
@@ -3064,7 +3160,7 @@
         <v>128</v>
       </c>
       <c r="C92" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
         <v>38</v>
@@ -3084,7 +3180,7 @@
         <v>128</v>
       </c>
       <c r="C93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D93" t="s">
         <v>38</v>
@@ -3104,7 +3200,7 @@
         <v>128</v>
       </c>
       <c r="C94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D94" t="s">
         <v>38</v>
@@ -3124,7 +3220,7 @@
         <v>128</v>
       </c>
       <c r="C95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D95" t="s">
         <v>38</v>
@@ -3144,7 +3240,7 @@
         <v>128</v>
       </c>
       <c r="C96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D96" t="s">
         <v>38</v>
@@ -3164,7 +3260,7 @@
         <v>128</v>
       </c>
       <c r="C97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D97" t="s">
         <v>38</v>
@@ -3181,16 +3277,16 @@
         <v>44374</v>
       </c>
       <c r="B98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D98" t="s">
         <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G98" t="s">
         <v>11</v>
@@ -3204,7 +3300,7 @@
         <v>128</v>
       </c>
       <c r="C99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D99" t="s">
         <v>38</v>
@@ -3224,7 +3320,7 @@
         <v>61</v>
       </c>
       <c r="C100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D100" t="s">
         <v>38</v>
@@ -3244,7 +3340,7 @@
         <v>61</v>
       </c>
       <c r="C101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D101" t="s">
         <v>38</v>
@@ -3264,7 +3360,7 @@
         <v>61</v>
       </c>
       <c r="C102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D102" t="s">
         <v>38</v>
@@ -3284,7 +3380,7 @@
         <v>61</v>
       </c>
       <c r="C103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D103" t="s">
         <v>38</v>
@@ -3304,7 +3400,7 @@
         <v>61</v>
       </c>
       <c r="C104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D104" t="s">
         <v>38</v>
@@ -3324,7 +3420,7 @@
         <v>61</v>
       </c>
       <c r="C105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D105" t="s">
         <v>38</v>
@@ -3341,16 +3437,16 @@
         <v>44374</v>
       </c>
       <c r="B106" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D106" t="s">
         <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="G106" t="s">
         <v>11</v>
@@ -3361,16 +3457,16 @@
         <v>44374</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D107" t="s">
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="G107" t="s">
         <v>11</v>
@@ -3381,16 +3477,16 @@
         <v>44374</v>
       </c>
       <c r="B108" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D108" t="s">
         <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G108" t="s">
         <v>11</v>
@@ -3401,16 +3497,16 @@
         <v>44374</v>
       </c>
       <c r="B109" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D109" t="s">
         <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G109" t="s">
         <v>11</v>
@@ -3421,16 +3517,16 @@
         <v>44374</v>
       </c>
       <c r="B110" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D110" t="s">
         <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="G110" t="s">
         <v>11</v>
@@ -3441,16 +3537,16 @@
         <v>44374</v>
       </c>
       <c r="B111" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D111" t="s">
         <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="G111" t="s">
         <v>11</v>
@@ -3461,16 +3557,16 @@
         <v>44374</v>
       </c>
       <c r="B112" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D112" t="s">
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="G112" t="s">
         <v>11</v>
@@ -3481,16 +3577,16 @@
         <v>44374</v>
       </c>
       <c r="B113" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D113" t="s">
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="G113" t="s">
         <v>11</v>
@@ -3501,16 +3597,16 @@
         <v>44374</v>
       </c>
       <c r="B114" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C114" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D114" t="s">
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="G114" t="s">
         <v>11</v>
@@ -3521,16 +3617,16 @@
         <v>44374</v>
       </c>
       <c r="B115" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C115" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D115" t="s">
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
@@ -3541,16 +3637,16 @@
         <v>44374</v>
       </c>
       <c r="B116" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C116" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D116" t="s">
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="G116" t="s">
         <v>11</v>
@@ -3561,16 +3657,16 @@
         <v>44374</v>
       </c>
       <c r="B117" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D117" t="s">
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
@@ -3581,16 +3677,16 @@
         <v>44374</v>
       </c>
       <c r="B118" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C118" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D118" t="s">
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="G118" t="s">
         <v>11</v>
@@ -3601,16 +3697,16 @@
         <v>44374</v>
       </c>
       <c r="B119" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C119" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D119" t="s">
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="G119" t="s">
         <v>11</v>
@@ -3621,16 +3717,16 @@
         <v>44375</v>
       </c>
       <c r="B120" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C120" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G120" t="s">
         <v>11</v>
@@ -3641,16 +3737,16 @@
         <v>44375</v>
       </c>
       <c r="B121" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="C121" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D121" t="s">
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="G121" t="s">
         <v>11</v>
@@ -3661,16 +3757,16 @@
         <v>44375</v>
       </c>
       <c r="B122" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C122" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D122" t="s">
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="G122" t="s">
         <v>11</v>
@@ -3681,16 +3777,16 @@
         <v>44375</v>
       </c>
       <c r="B123" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="C123" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D123" t="s">
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="G123" t="s">
         <v>11</v>
@@ -3701,16 +3797,16 @@
         <v>44375</v>
       </c>
       <c r="B124" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C124" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D124" t="s">
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="G124" t="s">
         <v>11</v>
@@ -3721,16 +3817,16 @@
         <v>44375</v>
       </c>
       <c r="B125" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C125" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D125" t="s">
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="G125" t="s">
         <v>11</v>
@@ -3741,16 +3837,16 @@
         <v>44375</v>
       </c>
       <c r="B126" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C126" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D126" t="s">
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="G126" t="s">
         <v>11</v>
@@ -3761,16 +3857,16 @@
         <v>44375</v>
       </c>
       <c r="B127" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D127" t="s">
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="G127" t="s">
         <v>11</v>
@@ -3781,16 +3877,16 @@
         <v>44375</v>
       </c>
       <c r="B128" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C128" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D128" t="s">
         <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G128" t="s">
         <v>11</v>
@@ -3801,16 +3897,16 @@
         <v>44375</v>
       </c>
       <c r="B129" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C129" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D129" t="s">
         <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G129" t="s">
         <v>11</v>
@@ -3821,13 +3917,13 @@
         <v>44375</v>
       </c>
       <c r="B130" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C130" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D130" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G130" t="s">
         <v>11</v>
@@ -3841,7 +3937,7 @@
         <v>128</v>
       </c>
       <c r="C131" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D131" t="s">
         <v>38</v>
@@ -3861,7 +3957,7 @@
         <v>128</v>
       </c>
       <c r="C132" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D132" t="s">
         <v>38</v>
@@ -3881,7 +3977,7 @@
         <v>128</v>
       </c>
       <c r="C133" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D133" t="s">
         <v>38</v>
@@ -3901,7 +3997,7 @@
         <v>128</v>
       </c>
       <c r="C134" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D134" t="s">
         <v>38</v>
@@ -3921,7 +4017,7 @@
         <v>128</v>
       </c>
       <c r="C135" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D135" t="s">
         <v>38</v>
@@ -3941,10 +4037,10 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G136" t="s">
         <v>11</v>
@@ -3958,10 +4054,10 @@
         <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D137" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G137" t="s">
         <v>11</v>
@@ -3975,10 +4071,10 @@
         <v>108</v>
       </c>
       <c r="C138" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D138" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F138" t="s">
         <v>88</v>
@@ -3992,16 +4088,16 @@
         <v>44376</v>
       </c>
       <c r="B139" t="s">
+        <v>192</v>
+      </c>
+      <c r="C139" t="s">
         <v>193</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>247</v>
+      </c>
+      <c r="F139" t="s">
         <v>194</v>
-      </c>
-      <c r="D139" t="s">
-        <v>252</v>
-      </c>
-      <c r="F139" t="s">
-        <v>195</v>
       </c>
       <c r="G139" t="s">
         <v>11</v>
@@ -4012,16 +4108,16 @@
         <v>44376</v>
       </c>
       <c r="B140" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C140" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D140" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F140" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G140" t="s">
         <v>11</v>
@@ -4032,16 +4128,16 @@
         <v>44376</v>
       </c>
       <c r="B141" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="C141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D141" t="s">
         <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G141" t="s">
         <v>11</v>
@@ -4052,16 +4148,16 @@
         <v>44376</v>
       </c>
       <c r="B142" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="C142" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D142" t="s">
         <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="G142" t="s">
         <v>11</v>
@@ -4072,16 +4168,16 @@
         <v>44376</v>
       </c>
       <c r="B143" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="C143" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D143" t="s">
         <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="G143" t="s">
         <v>11</v>
@@ -4092,16 +4188,16 @@
         <v>44376</v>
       </c>
       <c r="B144" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="C144" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D144" t="s">
         <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="G144" t="s">
         <v>11</v>
@@ -4112,16 +4208,16 @@
         <v>44376</v>
       </c>
       <c r="B145" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="C145" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D145" t="s">
         <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="G145" t="s">
         <v>11</v>
@@ -4132,16 +4228,16 @@
         <v>44376</v>
       </c>
       <c r="B146" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="C146" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D146" t="s">
         <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="G146" t="s">
         <v>11</v>
@@ -4152,16 +4248,16 @@
         <v>44376</v>
       </c>
       <c r="B147" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="C147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D147" t="s">
         <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>170</v>
+        <v>266</v>
       </c>
       <c r="G147" t="s">
         <v>11</v>
@@ -4172,16 +4268,16 @@
         <v>44376</v>
       </c>
       <c r="B148" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="C148" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D148" t="s">
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="G148" t="s">
         <v>11</v>
@@ -4192,16 +4288,16 @@
         <v>44376</v>
       </c>
       <c r="B149" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="C149" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D149" t="s">
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="G149" t="s">
         <v>11</v>
@@ -4212,16 +4308,16 @@
         <v>44376</v>
       </c>
       <c r="B150" t="s">
-        <v>139</v>
+        <v>267</v>
       </c>
       <c r="C150" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D150" t="s">
         <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="G150" t="s">
         <v>11</v>
@@ -4232,16 +4328,16 @@
         <v>44376</v>
       </c>
       <c r="B151" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="C151" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D151" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F151" t="s">
-        <v>170</v>
+        <v>273</v>
       </c>
       <c r="G151" t="s">
         <v>11</v>
@@ -4255,7 +4351,7 @@
         <v>128</v>
       </c>
       <c r="C152" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D152" t="s">
         <v>38</v>
@@ -4275,7 +4371,7 @@
         <v>128</v>
       </c>
       <c r="C153" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D153" t="s">
         <v>38</v>
@@ -4295,7 +4391,7 @@
         <v>128</v>
       </c>
       <c r="C154" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D154" t="s">
         <v>38</v>
@@ -4312,16 +4408,16 @@
         <v>44376</v>
       </c>
       <c r="B155" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D155" t="s">
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="G155" t="s">
         <v>11</v>
@@ -4332,16 +4428,16 @@
         <v>44376</v>
       </c>
       <c r="B156" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C156" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D156" t="s">
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="G156" t="s">
         <v>11</v>
@@ -4352,16 +4448,16 @@
         <v>44376</v>
       </c>
       <c r="B157" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C157" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D157" t="s">
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="G157" t="s">
         <v>11</v>
@@ -4372,16 +4468,16 @@
         <v>44376</v>
       </c>
       <c r="B158" t="s">
+        <v>213</v>
+      </c>
+      <c r="C158" t="s">
+        <v>213</v>
+      </c>
+      <c r="D158" t="s">
+        <v>218</v>
+      </c>
+      <c r="F158" t="s">
         <v>214</v>
-      </c>
-      <c r="C158" t="s">
-        <v>214</v>
-      </c>
-      <c r="D158" t="s">
-        <v>219</v>
-      </c>
-      <c r="F158" t="s">
-        <v>215</v>
       </c>
       <c r="G158" t="s">
         <v>11</v>
@@ -4392,16 +4488,16 @@
         <v>44376</v>
       </c>
       <c r="B159" t="s">
+        <v>215</v>
+      </c>
+      <c r="C159" t="s">
+        <v>215</v>
+      </c>
+      <c r="D159" t="s">
+        <v>218</v>
+      </c>
+      <c r="F159" t="s">
         <v>216</v>
-      </c>
-      <c r="C159" t="s">
-        <v>216</v>
-      </c>
-      <c r="D159" t="s">
-        <v>219</v>
-      </c>
-      <c r="F159" t="s">
-        <v>217</v>
       </c>
       <c r="G159" t="s">
         <v>11</v>
@@ -4415,7 +4511,7 @@
         <v>128</v>
       </c>
       <c r="C160" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D160" t="s">
         <v>38</v>
@@ -4432,16 +4528,16 @@
         <v>44377</v>
       </c>
       <c r="B161" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C161" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D161" t="s">
         <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="G161" t="s">
         <v>11</v>
@@ -4452,16 +4548,16 @@
         <v>44377</v>
       </c>
       <c r="B162" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C162" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D162" t="s">
         <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="G162" t="s">
         <v>11</v>
@@ -4472,16 +4568,16 @@
         <v>44377</v>
       </c>
       <c r="B163" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C163" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D163" t="s">
         <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="G163" t="s">
         <v>11</v>
@@ -4492,16 +4588,16 @@
         <v>44377</v>
       </c>
       <c r="B164" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C164" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D164" t="s">
         <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="G164" t="s">
         <v>11</v>
@@ -4512,16 +4608,16 @@
         <v>44377</v>
       </c>
       <c r="B165" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="C165" t="s">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="D165" t="s">
         <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="G165" t="s">
         <v>11</v>
@@ -4532,7 +4628,7 @@
         <v>44377</v>
       </c>
       <c r="B166" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C166" t="s">
         <v>226</v>
@@ -4541,7 +4637,7 @@
         <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G166" t="s">
         <v>11</v>
@@ -4552,7 +4648,7 @@
         <v>44377</v>
       </c>
       <c r="B167" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C167" t="s">
         <v>227</v>
@@ -4561,7 +4657,7 @@
         <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G167" t="s">
         <v>11</v>
@@ -4572,7 +4668,7 @@
         <v>44377</v>
       </c>
       <c r="B168" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C168" t="s">
         <v>228</v>
@@ -4581,7 +4677,7 @@
         <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="G168" t="s">
         <v>11</v>
@@ -4592,7 +4688,7 @@
         <v>44377</v>
       </c>
       <c r="B169" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="C169" t="s">
         <v>229</v>
@@ -4601,7 +4697,7 @@
         <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>218</v>
+        <v>98</v>
       </c>
       <c r="G169" t="s">
         <v>11</v>
@@ -4652,7 +4748,7 @@
         <v>44377</v>
       </c>
       <c r="B172" t="s">
-        <v>99</v>
+        <v>268</v>
       </c>
       <c r="C172" t="s">
         <v>232</v>
@@ -4661,7 +4757,7 @@
         <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="G172" t="s">
         <v>11</v>
@@ -4672,16 +4768,16 @@
         <v>44377</v>
       </c>
       <c r="B173" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="C173" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D173" t="s">
         <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="G173" t="s">
         <v>11</v>
@@ -4692,7 +4788,7 @@
         <v>44377</v>
       </c>
       <c r="B174" t="s">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="C174" t="s">
         <v>235</v>
@@ -4701,7 +4797,7 @@
         <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="G174" t="s">
         <v>11</v>
@@ -4712,7 +4808,7 @@
         <v>44377</v>
       </c>
       <c r="B175" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="C175" t="s">
         <v>236</v>
@@ -4721,7 +4817,7 @@
         <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="G175" t="s">
         <v>11</v>
@@ -4732,7 +4828,7 @@
         <v>44377</v>
       </c>
       <c r="B176" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="C176" t="s">
         <v>237</v>
@@ -4741,7 +4837,7 @@
         <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="G176" t="s">
         <v>11</v>
@@ -4752,7 +4848,7 @@
         <v>44377</v>
       </c>
       <c r="B177" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="C177" t="s">
         <v>238</v>
@@ -4761,7 +4857,7 @@
         <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G177" t="s">
         <v>11</v>
@@ -4772,7 +4868,7 @@
         <v>44377</v>
       </c>
       <c r="B178" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C178" t="s">
         <v>239</v>
@@ -4781,7 +4877,7 @@
         <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G178" t="s">
         <v>11</v>
@@ -4792,16 +4888,16 @@
         <v>44377</v>
       </c>
       <c r="B179" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="C179" t="s">
         <v>240</v>
       </c>
       <c r="D179" t="s">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="F179" t="s">
-        <v>170</v>
+        <v>273</v>
       </c>
       <c r="G179" t="s">
         <v>11</v>
@@ -4812,16 +4908,16 @@
         <v>44377</v>
       </c>
       <c r="B180" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="C180" t="s">
         <v>241</v>
       </c>
       <c r="D180" t="s">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="F180" t="s">
-        <v>170</v>
+        <v>273</v>
       </c>
       <c r="G180" t="s">
         <v>11</v>
@@ -4832,16 +4928,16 @@
         <v>44377</v>
       </c>
       <c r="B181" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="C181" t="s">
         <v>242</v>
       </c>
       <c r="D181" t="s">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="F181" t="s">
-        <v>170</v>
+        <v>273</v>
       </c>
       <c r="G181" t="s">
         <v>11</v>
@@ -4852,16 +4948,16 @@
         <v>44377</v>
       </c>
       <c r="B182" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C182" t="s">
         <v>243</v>
       </c>
       <c r="D182" t="s">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="F182" t="s">
-        <v>170</v>
+        <v>245</v>
       </c>
       <c r="G182" t="s">
         <v>11</v>
@@ -4872,16 +4968,16 @@
         <v>44377</v>
       </c>
       <c r="B183" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C183" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D183" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="F183" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G183" t="s">
         <v>11</v>
@@ -4889,19 +4985,19 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B184" t="s">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="C184" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="D184" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F184" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="G184" t="s">
         <v>11</v>
@@ -4909,19 +5005,19 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B185" t="s">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="C185" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="D185" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F185" t="s">
-        <v>247</v>
+        <v>8</v>
       </c>
       <c r="G185" t="s">
         <v>11</v>
@@ -4929,19 +5025,19 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B186" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="C186" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="D186" t="s">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="F186" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="G186" t="s">
         <v>11</v>
@@ -4949,21 +5045,421 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B187" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="C187" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="D187" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="F187" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="G187" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A188" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B188" t="s">
+        <v>228</v>
+      </c>
+      <c r="C188" t="s">
+        <v>279</v>
+      </c>
+      <c r="D188" t="s">
+        <v>38</v>
+      </c>
+      <c r="F188" t="s">
+        <v>271</v>
+      </c>
+      <c r="G188" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A189" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B189" t="s">
+        <v>85</v>
+      </c>
+      <c r="C189" t="s">
+        <v>280</v>
+      </c>
+      <c r="D189" t="s">
+        <v>38</v>
+      </c>
+      <c r="F189" t="s">
+        <v>90</v>
+      </c>
+      <c r="G189" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A190" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B190" t="s">
+        <v>197</v>
+      </c>
+      <c r="C190" t="s">
+        <v>281</v>
+      </c>
+      <c r="D190" t="s">
+        <v>38</v>
+      </c>
+      <c r="F190" t="s">
+        <v>265</v>
+      </c>
+      <c r="G190" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A191" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B191" t="s">
+        <v>148</v>
+      </c>
+      <c r="C191" t="s">
+        <v>282</v>
+      </c>
+      <c r="D191" t="s">
+        <v>38</v>
+      </c>
+      <c r="F191" t="s">
+        <v>292</v>
+      </c>
+      <c r="G191" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A192" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B192" t="s">
+        <v>148</v>
+      </c>
+      <c r="C192" t="s">
+        <v>283</v>
+      </c>
+      <c r="D192" t="s">
+        <v>38</v>
+      </c>
+      <c r="F192" t="s">
+        <v>292</v>
+      </c>
+      <c r="G192" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A193" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B193" t="s">
+        <v>236</v>
+      </c>
+      <c r="C193" t="s">
+        <v>284</v>
+      </c>
+      <c r="D193" t="s">
+        <v>38</v>
+      </c>
+      <c r="F193" t="s">
+        <v>269</v>
+      </c>
+      <c r="G193" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A194" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B194" t="s">
+        <v>236</v>
+      </c>
+      <c r="C194" t="s">
+        <v>285</v>
+      </c>
+      <c r="D194" t="s">
+        <v>38</v>
+      </c>
+      <c r="F194" t="s">
+        <v>269</v>
+      </c>
+      <c r="G194" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A195" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B195" t="s">
+        <v>237</v>
+      </c>
+      <c r="C195" t="s">
+        <v>286</v>
+      </c>
+      <c r="D195" t="s">
+        <v>38</v>
+      </c>
+      <c r="F195" t="s">
+        <v>269</v>
+      </c>
+      <c r="G195" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A196" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B196" t="s">
+        <v>237</v>
+      </c>
+      <c r="C196" t="s">
+        <v>287</v>
+      </c>
+      <c r="D196" t="s">
+        <v>38</v>
+      </c>
+      <c r="F196" t="s">
+        <v>269</v>
+      </c>
+      <c r="G196" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A197" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B197" t="s">
+        <v>238</v>
+      </c>
+      <c r="C197" t="s">
+        <v>288</v>
+      </c>
+      <c r="D197" t="s">
+        <v>38</v>
+      </c>
+      <c r="F197" t="s">
+        <v>269</v>
+      </c>
+      <c r="G197" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A198" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B198" t="s">
+        <v>238</v>
+      </c>
+      <c r="C198" t="s">
+        <v>289</v>
+      </c>
+      <c r="D198" t="s">
+        <v>38</v>
+      </c>
+      <c r="F198" t="s">
+        <v>269</v>
+      </c>
+      <c r="G198" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A199" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B199" t="s">
+        <v>239</v>
+      </c>
+      <c r="C199" t="s">
+        <v>290</v>
+      </c>
+      <c r="D199" t="s">
+        <v>38</v>
+      </c>
+      <c r="F199" t="s">
+        <v>269</v>
+      </c>
+      <c r="G199" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A200" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B200" t="s">
+        <v>239</v>
+      </c>
+      <c r="C200" t="s">
+        <v>291</v>
+      </c>
+      <c r="D200" t="s">
+        <v>38</v>
+      </c>
+      <c r="F200" t="s">
+        <v>269</v>
+      </c>
+      <c r="G200" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A201" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B201" t="s">
+        <v>240</v>
+      </c>
+      <c r="C201" t="s">
+        <v>293</v>
+      </c>
+      <c r="D201" t="s">
+        <v>218</v>
+      </c>
+      <c r="F201" t="s">
+        <v>273</v>
+      </c>
+      <c r="G201" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A202" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B202" t="s">
+        <v>294</v>
+      </c>
+      <c r="C202" t="s">
+        <v>294</v>
+      </c>
+      <c r="D202" t="s">
+        <v>218</v>
+      </c>
+      <c r="F202" t="s">
+        <v>272</v>
+      </c>
+      <c r="G202" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A203" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B203" t="s">
+        <v>295</v>
+      </c>
+      <c r="C203" t="s">
+        <v>295</v>
+      </c>
+      <c r="D203" t="s">
+        <v>218</v>
+      </c>
+      <c r="F203" t="s">
+        <v>272</v>
+      </c>
+      <c r="G203" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A204" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B204" t="s">
+        <v>296</v>
+      </c>
+      <c r="C204" t="s">
+        <v>296</v>
+      </c>
+      <c r="D204" t="s">
+        <v>218</v>
+      </c>
+      <c r="F204" t="s">
+        <v>272</v>
+      </c>
+      <c r="G204" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A205" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B205" t="s">
+        <v>297</v>
+      </c>
+      <c r="C205" t="s">
+        <v>297</v>
+      </c>
+      <c r="D205" t="s">
+        <v>218</v>
+      </c>
+      <c r="F205" t="s">
+        <v>272</v>
+      </c>
+      <c r="G205" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A206" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B206" t="s">
+        <v>298</v>
+      </c>
+      <c r="C206" t="s">
+        <v>298</v>
+      </c>
+      <c r="D206" t="s">
+        <v>218</v>
+      </c>
+      <c r="F206" t="s">
+        <v>272</v>
+      </c>
+      <c r="G206" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A207" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B207" t="s">
+        <v>299</v>
+      </c>
+      <c r="C207" t="s">
+        <v>299</v>
+      </c>
+      <c r="D207" t="s">
+        <v>218</v>
+      </c>
+      <c r="F207" t="s">
+        <v>272</v>
+      </c>
+      <c r="G207" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4979,11 +5475,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4991,7 +5485,7 @@
     <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5005,12 +5499,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44362</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>
@@ -5018,61 +5512,13 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I2" t="s">
-        <v>257</v>
-      </c>
-      <c r="J2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K2" t="s">
-        <v>259</v>
-      </c>
-      <c r="L2" t="s">
-        <v>260</v>
-      </c>
-      <c r="M2" t="s">
-        <v>261</v>
-      </c>
-      <c r="N2" t="s">
-        <v>262</v>
-      </c>
-      <c r="O2" t="s">
-        <v>263</v>
-      </c>
-      <c r="P2" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>265</v>
-      </c>
-      <c r="R2" t="s">
-        <v>266</v>
-      </c>
-      <c r="S2" t="s">
-        <v>267</v>
-      </c>
-      <c r="T2" t="s">
-        <v>268</v>
-      </c>
-      <c r="U2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44363</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
@@ -5081,12 +5527,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44364</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -5095,12 +5541,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44365</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -5109,12 +5555,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44366</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -5123,12 +5569,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44367</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5137,12 +5583,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44368</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -5151,12 +5597,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44369</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -5165,12 +5611,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44370</v>
       </c>
       <c r="B10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -5179,12 +5625,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44371</v>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -5193,12 +5639,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44372</v>
       </c>
       <c r="B12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -5207,12 +5653,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44373</v>
       </c>
       <c r="B13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -5221,12 +5667,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44374</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -5235,12 +5681,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44375</v>
       </c>
       <c r="B15" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -5249,12 +5695,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44376</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -5268,7 +5714,7 @@
         <v>44377</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -5280,6 +5726,9 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44378</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>

--- a/2021-06 New South Wales Outbreak Paths.xlsx
+++ b/2021-06 New South Wales Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3B1AEE-548A-4839-BFA3-5F2C08C1327C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671ADB1B-7648-4450-BDFF-9E451E9DA2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="335">
   <si>
     <t>Source</t>
   </si>
@@ -616,9 +616,6 @@
     <t>W1 w50</t>
   </si>
   <si>
-    <t>W3 m30</t>
-  </si>
-  <si>
     <t>Indian Ocean Brewing Co.</t>
   </si>
   <si>
@@ -679,9 +676,6 @@
     <t>S149 m40</t>
   </si>
   <si>
-    <t>Bellevue Worker</t>
-  </si>
-  <si>
     <t>S150</t>
   </si>
   <si>
@@ -775,9 +769,6 @@
     <t>Virgin Australia Flight Crew</t>
   </si>
   <si>
-    <t>W4 w37</t>
-  </si>
-  <si>
     <t>WA</t>
   </si>
   <si>
@@ -787,63 +778,12 @@
     <t>#f6f8ff</t>
   </si>
   <si>
-    <t>#ecf1ff</t>
-  </si>
-  <si>
-    <t>#e3eaff</t>
-  </si>
-  <si>
-    <t>#d9e3ff</t>
-  </si>
-  <si>
-    <t>#d0dcff</t>
-  </si>
-  <si>
-    <t>#c6d5ff</t>
-  </si>
-  <si>
-    <t>#bbceff</t>
-  </si>
-  <si>
-    <t>#b1c7ff</t>
-  </si>
-  <si>
-    <t>#a6c0ff</t>
-  </si>
-  <si>
-    <t>#9abaff</t>
-  </si>
-  <si>
-    <t>#8eb3ff</t>
-  </si>
-  <si>
-    <t>#82adff</t>
-  </si>
-  <si>
-    <t>#74a6ff</t>
-  </si>
-  <si>
-    <t>#64a0ff</t>
-  </si>
-  <si>
-    <t>#5399ff</t>
-  </si>
-  <si>
-    <t>#3c93ff</t>
-  </si>
-  <si>
     <t>Lyfe Café Bondi Close Contacts</t>
   </si>
   <si>
     <t>Birthday party Close Contacts</t>
   </si>
   <si>
-    <t>S45</t>
-  </si>
-  <si>
-    <t>S46</t>
-  </si>
-  <si>
     <t>Linked cases?</t>
   </si>
   <si>
@@ -935,6 +875,171 @@
   </si>
   <si>
     <t>S196</t>
+  </si>
+  <si>
+    <t>Isolated</t>
+  </si>
+  <si>
+    <t>Not isolated</t>
+  </si>
+  <si>
+    <t>#edf2ff</t>
+  </si>
+  <si>
+    <t>#e5ebff</t>
+  </si>
+  <si>
+    <t>#dce4ff</t>
+  </si>
+  <si>
+    <t>#d2deff</t>
+  </si>
+  <si>
+    <t>#c9d7ff</t>
+  </si>
+  <si>
+    <t>#bfd1ff</t>
+  </si>
+  <si>
+    <t>#b5caff</t>
+  </si>
+  <si>
+    <t>#abc4ff</t>
+  </si>
+  <si>
+    <t>#a1bdff</t>
+  </si>
+  <si>
+    <t>#96b7ff</t>
+  </si>
+  <si>
+    <t>#8ab1ff</t>
+  </si>
+  <si>
+    <t>#7eabff</t>
+  </si>
+  <si>
+    <t>#71a5ff</t>
+  </si>
+  <si>
+    <t>#629fff</t>
+  </si>
+  <si>
+    <t>#5099ff</t>
+  </si>
+  <si>
+    <t>#3a93ff</t>
+  </si>
+  <si>
+    <t>Great Ocean Foods Close Contacts</t>
+  </si>
+  <si>
+    <t>W5 w21</t>
+  </si>
+  <si>
+    <t>S206</t>
+  </si>
+  <si>
+    <t>S207</t>
+  </si>
+  <si>
+    <t>S208</t>
+  </si>
+  <si>
+    <t>S209</t>
+  </si>
+  <si>
+    <t>S210</t>
+  </si>
+  <si>
+    <t>S211</t>
+  </si>
+  <si>
+    <t>S212</t>
+  </si>
+  <si>
+    <t>S213</t>
+  </si>
+  <si>
+    <t>S214</t>
+  </si>
+  <si>
+    <t>S215</t>
+  </si>
+  <si>
+    <t>W3 m20</t>
+  </si>
+  <si>
+    <t>W4 m37</t>
+  </si>
+  <si>
+    <t>S216</t>
+  </si>
+  <si>
+    <t>S217</t>
+  </si>
+  <si>
+    <t>S218</t>
+  </si>
+  <si>
+    <t>S219</t>
+  </si>
+  <si>
+    <t>S220</t>
+  </si>
+  <si>
+    <t>S221</t>
+  </si>
+  <si>
+    <t>S222</t>
+  </si>
+  <si>
+    <t>S223</t>
+  </si>
+  <si>
+    <t>S224</t>
+  </si>
+  <si>
+    <t>S225</t>
+  </si>
+  <si>
+    <t>S226</t>
+  </si>
+  <si>
+    <t>S227</t>
+  </si>
+  <si>
+    <t>S198</t>
+  </si>
+  <si>
+    <t>S199</t>
+  </si>
+  <si>
+    <t>S200</t>
+  </si>
+  <si>
+    <t>S201</t>
+  </si>
+  <si>
+    <t>S202</t>
+  </si>
+  <si>
+    <t>S203</t>
+  </si>
+  <si>
+    <t>S204</t>
+  </si>
+  <si>
+    <t>S205</t>
+  </si>
+  <si>
+    <t>S197</t>
+  </si>
+  <si>
+    <t>Health Care and Aged Care workers</t>
+  </si>
+  <si>
+    <t>Under investigation</t>
   </si>
 </sst>
 </file>
@@ -1004,9 +1109,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:G207" totalsRowShown="0">
-  <autoFilter ref="A1:G207" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H239" totalsRowShown="0">
+  <autoFilter ref="A1:H239" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
     <tableColumn id="3" xr3:uid="{1A404655-FE9B-4B0A-80BF-03F432FB739E}" name="Target"/>
@@ -1014,6 +1119,7 @@
     <tableColumn id="5" xr3:uid="{5A5064EE-FA20-4C72-A1EA-5267C1288E45}" name="Sub-Cluster"/>
     <tableColumn id="6" xr3:uid="{3B657D6E-5072-40F9-AE8E-5668421641DE}" name="Link Label"/>
     <tableColumn id="11" xr3:uid="{8662E1B9-B1C5-4B63-8E8E-4BEEF60CF32F}" name="Variant"/>
+    <tableColumn id="7" xr3:uid="{8051ABC3-F780-46EB-A692-D36C1D4281A4}" name="Isolated"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1329,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:G207"/>
+  <dimension ref="A1:H239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="G185" sqref="G185:G207"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="H239" sqref="H239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1342,9 +1448,10 @@
     <col min="5" max="5" width="3.796875" customWidth="1"/>
     <col min="6" max="6" width="30.9296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1366,8 +1473,11 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44364</v>
       </c>
@@ -1383,8 +1493,11 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44364</v>
       </c>
@@ -1403,8 +1516,11 @@
       <c r="G3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44365</v>
       </c>
@@ -1423,8 +1539,11 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44366</v>
       </c>
@@ -1443,8 +1562,11 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44366</v>
       </c>
@@ -1463,8 +1585,11 @@
       <c r="G6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44367</v>
       </c>
@@ -1483,8 +1608,11 @@
       <c r="G7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44367</v>
       </c>
@@ -1503,8 +1631,11 @@
       <c r="G8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44368</v>
       </c>
@@ -1518,13 +1649,16 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44368</v>
       </c>
@@ -1538,13 +1672,16 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44368</v>
       </c>
@@ -1563,8 +1700,11 @@
       <c r="G11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44369</v>
       </c>
@@ -1578,13 +1718,16 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44369</v>
       </c>
@@ -1598,13 +1741,16 @@
         <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44369</v>
       </c>
@@ -1618,13 +1764,16 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44370</v>
       </c>
@@ -1638,13 +1787,16 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44370</v>
       </c>
@@ -1658,13 +1810,16 @@
         <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44371</v>
       </c>
@@ -1683,8 +1838,11 @@
       <c r="G17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44371</v>
       </c>
@@ -1700,8 +1858,11 @@
       <c r="G18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>44371</v>
       </c>
@@ -1717,8 +1878,11 @@
       <c r="G19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>44371</v>
       </c>
@@ -1734,8 +1898,11 @@
       <c r="G20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>44371</v>
       </c>
@@ -1754,8 +1921,11 @@
       <c r="G21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>44371</v>
       </c>
@@ -1774,8 +1944,11 @@
       <c r="G22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>44369</v>
       </c>
@@ -1794,8 +1967,11 @@
       <c r="G23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44370</v>
       </c>
@@ -1814,8 +1990,11 @@
       <c r="G24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44370</v>
       </c>
@@ -1834,8 +2013,11 @@
       <c r="G25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>44370</v>
       </c>
@@ -1854,8 +2036,11 @@
       <c r="G26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>44370</v>
       </c>
@@ -1874,8 +2059,11 @@
       <c r="G27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>44370</v>
       </c>
@@ -1894,8 +2082,11 @@
       <c r="G28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>44370</v>
       </c>
@@ -1914,8 +2105,11 @@
       <c r="G29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>44371</v>
       </c>
@@ -1934,8 +2128,11 @@
       <c r="G30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>44371</v>
       </c>
@@ -1954,8 +2151,11 @@
       <c r="G31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>44371</v>
       </c>
@@ -1974,8 +2174,11 @@
       <c r="G32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H32" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>44371</v>
       </c>
@@ -1994,8 +2197,11 @@
       <c r="G33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>44371</v>
       </c>
@@ -2014,8 +2220,11 @@
       <c r="G34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>44371</v>
       </c>
@@ -2034,8 +2243,11 @@
       <c r="G35" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>44371</v>
       </c>
@@ -2054,8 +2266,11 @@
       <c r="G36" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>44371</v>
       </c>
@@ -2074,8 +2289,11 @@
       <c r="G37" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>44371</v>
       </c>
@@ -2094,8 +2312,11 @@
       <c r="G38" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>44371</v>
       </c>
@@ -2114,8 +2335,11 @@
       <c r="G39" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>44371</v>
       </c>
@@ -2134,8 +2358,11 @@
       <c r="G40" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>44369</v>
       </c>
@@ -2149,13 +2376,16 @@
         <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>44370</v>
       </c>
@@ -2174,8 +2404,11 @@
       <c r="G42" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H42" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>44370</v>
       </c>
@@ -2186,7 +2419,7 @@
         <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F43" t="s">
         <v>106</v>
@@ -2194,8 +2427,11 @@
       <c r="G43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H43" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>44371</v>
       </c>
@@ -2211,8 +2447,11 @@
       <c r="G44" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H44" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44371</v>
       </c>
@@ -2231,8 +2470,11 @@
       <c r="G45" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H45" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44371</v>
       </c>
@@ -2251,8 +2493,11 @@
       <c r="G46" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>44372</v>
       </c>
@@ -2271,8 +2516,11 @@
       <c r="G47" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>44372</v>
       </c>
@@ -2291,8 +2539,11 @@
       <c r="G48" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H48" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>44372</v>
       </c>
@@ -2311,8 +2562,11 @@
       <c r="G49" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H49" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>44372</v>
       </c>
@@ -2323,7 +2577,7 @@
         <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F50" t="s">
         <v>68</v>
@@ -2331,8 +2585,11 @@
       <c r="G50" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>44372</v>
       </c>
@@ -2343,7 +2600,7 @@
         <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F51" t="s">
         <v>96</v>
@@ -2351,8 +2608,11 @@
       <c r="G51" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H51" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>44372</v>
       </c>
@@ -2371,8 +2631,11 @@
       <c r="G52" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H52" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>44372</v>
       </c>
@@ -2391,8 +2654,11 @@
       <c r="G53" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H53" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>44372</v>
       </c>
@@ -2411,8 +2677,11 @@
       <c r="G54" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H54" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>44372</v>
       </c>
@@ -2431,8 +2700,11 @@
       <c r="G55" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H55" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>44372</v>
       </c>
@@ -2451,8 +2723,11 @@
       <c r="G56" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H56" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>44372</v>
       </c>
@@ -2471,8 +2746,11 @@
       <c r="G57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H57" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>44372</v>
       </c>
@@ -2486,13 +2764,16 @@
         <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H58" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>44372</v>
       </c>
@@ -2506,13 +2787,16 @@
         <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H59" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>44373</v>
       </c>
@@ -2531,8 +2815,11 @@
       <c r="G60" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H60" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>44373</v>
       </c>
@@ -2551,8 +2838,11 @@
       <c r="G61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H61" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>44373</v>
       </c>
@@ -2571,8 +2861,11 @@
       <c r="G62" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H62" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>44373</v>
       </c>
@@ -2591,8 +2884,11 @@
       <c r="G63" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H63" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>44373</v>
       </c>
@@ -2611,8 +2907,11 @@
       <c r="G64" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H64" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>44373</v>
       </c>
@@ -2631,8 +2930,11 @@
       <c r="G65" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H65" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>44373</v>
       </c>
@@ -2651,8 +2953,11 @@
       <c r="G66" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H66" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>44373</v>
       </c>
@@ -2671,8 +2976,11 @@
       <c r="G67" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>44373</v>
       </c>
@@ -2691,8 +2999,11 @@
       <c r="G68" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H68" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>44373</v>
       </c>
@@ -2711,8 +3022,11 @@
       <c r="G69" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H69" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>44373</v>
       </c>
@@ -2731,8 +3045,11 @@
       <c r="G70" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H70" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>44373</v>
       </c>
@@ -2751,8 +3068,11 @@
       <c r="G71" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H71" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>44373</v>
       </c>
@@ -2771,8 +3091,11 @@
       <c r="G72" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H72" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>44373</v>
       </c>
@@ -2791,8 +3114,11 @@
       <c r="G73" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H73" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>44373</v>
       </c>
@@ -2811,8 +3137,11 @@
       <c r="G74" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H74" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>44373</v>
       </c>
@@ -2826,13 +3155,16 @@
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G75" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H75" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>44373</v>
       </c>
@@ -2846,13 +3178,16 @@
         <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H76" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>44373</v>
       </c>
@@ -2866,13 +3201,16 @@
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H77" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>44373</v>
       </c>
@@ -2891,8 +3229,11 @@
       <c r="G78" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H78" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>44373</v>
       </c>
@@ -2911,8 +3252,11 @@
       <c r="G79" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>44373</v>
       </c>
@@ -2926,13 +3270,16 @@
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H80" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>44373</v>
       </c>
@@ -2946,13 +3293,16 @@
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H81" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>44373</v>
       </c>
@@ -2966,13 +3316,16 @@
         <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H82" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>44373</v>
       </c>
@@ -2986,13 +3339,16 @@
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H83" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>44373</v>
       </c>
@@ -3006,13 +3362,16 @@
         <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H84" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>44373</v>
       </c>
@@ -3026,13 +3385,16 @@
         <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H85" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>44373</v>
       </c>
@@ -3046,13 +3408,16 @@
         <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H86" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>44373</v>
       </c>
@@ -3066,13 +3431,16 @@
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H87" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>44373</v>
       </c>
@@ -3086,13 +3454,16 @@
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G88" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H88" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>44373</v>
       </c>
@@ -3103,16 +3474,19 @@
         <v>137</v>
       </c>
       <c r="D89" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F89" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H89" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>44374</v>
       </c>
@@ -3131,8 +3505,11 @@
       <c r="G90" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>44374</v>
       </c>
@@ -3151,8 +3528,11 @@
       <c r="G91" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H91" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>44374</v>
       </c>
@@ -3171,8 +3551,11 @@
       <c r="G92" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H92" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>44374</v>
       </c>
@@ -3191,8 +3574,11 @@
       <c r="G93" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H93" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>44374</v>
       </c>
@@ -3211,8 +3597,11 @@
       <c r="G94" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H94" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>44374</v>
       </c>
@@ -3231,8 +3620,11 @@
       <c r="G95" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H95" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>44374</v>
       </c>
@@ -3251,8 +3643,11 @@
       <c r="G96" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H96" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>44374</v>
       </c>
@@ -3271,8 +3666,11 @@
       <c r="G97" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H97" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>44374</v>
       </c>
@@ -3286,13 +3684,16 @@
         <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G98" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H98" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>44374</v>
       </c>
@@ -3311,8 +3712,11 @@
       <c r="G99" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H99" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>44374</v>
       </c>
@@ -3331,8 +3735,11 @@
       <c r="G100" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H100" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>44374</v>
       </c>
@@ -3351,8 +3758,11 @@
       <c r="G101" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H101" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>44374</v>
       </c>
@@ -3371,8 +3781,11 @@
       <c r="G102" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H102" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>44374</v>
       </c>
@@ -3391,8 +3804,11 @@
       <c r="G103" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H103" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>44374</v>
       </c>
@@ -3411,8 +3827,11 @@
       <c r="G104" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H104" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>44374</v>
       </c>
@@ -3431,8 +3850,11 @@
       <c r="G105" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H105" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>44374</v>
       </c>
@@ -3446,13 +3868,16 @@
         <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G106" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H106" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>44374</v>
       </c>
@@ -3466,13 +3891,16 @@
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G107" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H107" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>44374</v>
       </c>
@@ -3486,13 +3914,16 @@
         <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G108" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H108" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>44374</v>
       </c>
@@ -3506,13 +3937,16 @@
         <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G109" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H109" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>44374</v>
       </c>
@@ -3531,8 +3965,11 @@
       <c r="G110" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H110" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>44374</v>
       </c>
@@ -3551,8 +3988,11 @@
       <c r="G111" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H111" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>44374</v>
       </c>
@@ -3566,13 +4006,16 @@
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G112" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H112" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>44374</v>
       </c>
@@ -3586,13 +4029,16 @@
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G113" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H113" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>44374</v>
       </c>
@@ -3606,13 +4052,16 @@
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G114" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H114" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>44374</v>
       </c>
@@ -3626,13 +4075,16 @@
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H115" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>44374</v>
       </c>
@@ -3646,13 +4098,16 @@
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G116" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H116" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>44374</v>
       </c>
@@ -3666,13 +4121,16 @@
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H117" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>44374</v>
       </c>
@@ -3686,13 +4144,16 @@
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G118" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H118" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>44374</v>
       </c>
@@ -3706,13 +4167,16 @@
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G119" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H119" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>44375</v>
       </c>
@@ -3726,13 +4190,16 @@
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G120" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H120" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>44375</v>
       </c>
@@ -3746,13 +4213,16 @@
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G121" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H121" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>44375</v>
       </c>
@@ -3766,13 +4236,16 @@
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G122" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H122" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>44375</v>
       </c>
@@ -3786,13 +4259,16 @@
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G123" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H123" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>44375</v>
       </c>
@@ -3806,13 +4282,16 @@
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G124" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H124" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>44375</v>
       </c>
@@ -3826,13 +4305,16 @@
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G125" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H125" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>44375</v>
       </c>
@@ -3846,13 +4328,16 @@
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G126" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H126" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>44375</v>
       </c>
@@ -3866,13 +4351,16 @@
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G127" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H127" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>44375</v>
       </c>
@@ -3891,8 +4379,11 @@
       <c r="G128" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H128" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>44375</v>
       </c>
@@ -3911,8 +4402,11 @@
       <c r="G129" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H129" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>44375</v>
       </c>
@@ -3923,13 +4417,19 @@
         <v>179</v>
       </c>
       <c r="D130" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="F130" t="s">
+        <v>334</v>
       </c>
       <c r="G130" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H130" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>44375</v>
       </c>
@@ -3948,8 +4448,11 @@
       <c r="G131" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H131" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>44375</v>
       </c>
@@ -3968,8 +4471,11 @@
       <c r="G132" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H132" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>44375</v>
       </c>
@@ -3988,8 +4494,11 @@
       <c r="G133" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H133" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>44375</v>
       </c>
@@ -4008,8 +4517,11 @@
       <c r="G134" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H134" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>44375</v>
       </c>
@@ -4023,13 +4535,16 @@
         <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>126</v>
+        <v>298</v>
       </c>
       <c r="G135" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H135" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>44375</v>
       </c>
@@ -4040,13 +4555,16 @@
         <v>185</v>
       </c>
       <c r="D136" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G136" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H136" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>44375</v>
       </c>
@@ -4057,13 +4575,16 @@
         <v>186</v>
       </c>
       <c r="D137" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G137" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H137" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>44375</v>
       </c>
@@ -4074,7 +4595,7 @@
         <v>192</v>
       </c>
       <c r="D138" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F138" t="s">
         <v>88</v>
@@ -4082,8 +4603,11 @@
       <c r="G138" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>44376</v>
       </c>
@@ -4091,19 +4615,22 @@
         <v>192</v>
       </c>
       <c r="C139" t="s">
+        <v>310</v>
+      </c>
+      <c r="D139" t="s">
+        <v>244</v>
+      </c>
+      <c r="F139" t="s">
         <v>193</v>
       </c>
-      <c r="D139" t="s">
-        <v>247</v>
-      </c>
-      <c r="F139" t="s">
-        <v>194</v>
-      </c>
       <c r="G139" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H139" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>44376</v>
       </c>
@@ -4111,19 +4638,22 @@
         <v>192</v>
       </c>
       <c r="C140" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D140" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F140" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G140" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H140" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>44376</v>
       </c>
@@ -4131,19 +4661,22 @@
         <v>158</v>
       </c>
       <c r="C141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D141" t="s">
         <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G141" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H141" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>44376</v>
       </c>
@@ -4151,19 +4684,22 @@
         <v>172</v>
       </c>
       <c r="C142" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D142" t="s">
         <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G142" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H142" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>44376</v>
       </c>
@@ -4171,19 +4707,22 @@
         <v>173</v>
       </c>
       <c r="C143" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D143" t="s">
         <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G143" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H143" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>44376</v>
       </c>
@@ -4191,19 +4730,22 @@
         <v>174</v>
       </c>
       <c r="C144" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D144" t="s">
         <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G144" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H144" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>44376</v>
       </c>
@@ -4211,19 +4753,22 @@
         <v>175</v>
       </c>
       <c r="C145" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D145" t="s">
         <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G145" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H145" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>44376</v>
       </c>
@@ -4231,19 +4776,22 @@
         <v>176</v>
       </c>
       <c r="C146" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D146" t="s">
         <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G146" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H146" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>44376</v>
       </c>
@@ -4251,19 +4799,22 @@
         <v>72</v>
       </c>
       <c r="C147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D147" t="s">
         <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G147" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H147" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>44376</v>
       </c>
@@ -4271,19 +4822,22 @@
         <v>84</v>
       </c>
       <c r="C148" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D148" t="s">
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G148" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H148" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>44376</v>
       </c>
@@ -4291,119 +4845,137 @@
         <v>85</v>
       </c>
       <c r="C149" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D149" t="s">
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G149" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H149" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>44376</v>
       </c>
       <c r="B150" t="s">
-        <v>267</v>
+        <v>91</v>
       </c>
       <c r="C150" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D150" t="s">
         <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G150" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H150" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>44376</v>
       </c>
       <c r="B151" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C151" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D151" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F151" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="G151" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H151" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>44376</v>
       </c>
       <c r="B152" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="C152" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D152" t="s">
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>126</v>
+        <v>298</v>
       </c>
       <c r="G152" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>44376</v>
       </c>
       <c r="B153" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="C153" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D153" t="s">
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>126</v>
+        <v>298</v>
       </c>
       <c r="G153" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H153" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>44376</v>
       </c>
       <c r="B154" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="C154" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D154" t="s">
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>126</v>
+        <v>298</v>
       </c>
       <c r="G154" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H154" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>44376</v>
       </c>
@@ -4411,19 +4983,22 @@
         <v>73</v>
       </c>
       <c r="C155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D155" t="s">
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G155" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H155" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>44376</v>
       </c>
@@ -4431,19 +5006,22 @@
         <v>74</v>
       </c>
       <c r="C156" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D156" t="s">
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G156" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H156" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>44376</v>
       </c>
@@ -4451,79 +5029,91 @@
         <v>75</v>
       </c>
       <c r="C157" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D157" t="s">
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G157" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H157" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>44376</v>
       </c>
       <c r="B158" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C158" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D158" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F158" t="s">
-        <v>214</v>
+        <v>334</v>
       </c>
       <c r="G158" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H158" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>44376</v>
       </c>
       <c r="B159" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D159" t="s">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G159" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H159" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>44377</v>
       </c>
       <c r="B160" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="C160" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D160" t="s">
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>126</v>
+        <v>298</v>
       </c>
       <c r="G160" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H160" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>44377</v>
       </c>
@@ -4531,19 +5121,22 @@
         <v>76</v>
       </c>
       <c r="C161" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D161" t="s">
         <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G161" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H161" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>44377</v>
       </c>
@@ -4551,19 +5144,22 @@
         <v>77</v>
       </c>
       <c r="C162" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D162" t="s">
         <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G162" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H162" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>44377</v>
       </c>
@@ -4571,19 +5167,22 @@
         <v>78</v>
       </c>
       <c r="C163" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D163" t="s">
         <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G163" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H163" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>44377</v>
       </c>
@@ -4591,19 +5190,22 @@
         <v>79</v>
       </c>
       <c r="C164" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D164" t="s">
         <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G164" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H164" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>44377</v>
       </c>
@@ -4611,19 +5213,22 @@
         <v>147</v>
       </c>
       <c r="C165" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D165" t="s">
         <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G165" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H165" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>44377</v>
       </c>
@@ -4631,19 +5236,22 @@
         <v>147</v>
       </c>
       <c r="C166" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D166" t="s">
         <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G166" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H166" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>44377</v>
       </c>
@@ -4651,19 +5259,22 @@
         <v>147</v>
       </c>
       <c r="C167" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D167" t="s">
         <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G167" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H167" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>44377</v>
       </c>
@@ -4671,19 +5282,22 @@
         <v>147</v>
       </c>
       <c r="C168" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D168" t="s">
         <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="G168" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H168" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>44377</v>
       </c>
@@ -4691,7 +5305,7 @@
         <v>99</v>
       </c>
       <c r="C169" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D169" t="s">
         <v>38</v>
@@ -4702,8 +5316,11 @@
       <c r="G169" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H169" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>44377</v>
       </c>
@@ -4711,7 +5328,7 @@
         <v>99</v>
       </c>
       <c r="C170" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D170" t="s">
         <v>38</v>
@@ -4722,8 +5339,11 @@
       <c r="G170" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H170" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>44377</v>
       </c>
@@ -4731,7 +5351,7 @@
         <v>99</v>
       </c>
       <c r="C171" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D171" t="s">
         <v>38</v>
@@ -4742,28 +5362,34 @@
       <c r="G171" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H171" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>44377</v>
       </c>
       <c r="B172" t="s">
-        <v>268</v>
+        <v>92</v>
       </c>
       <c r="C172" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D172" t="s">
         <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G172" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H172" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>44377</v>
       </c>
@@ -4771,19 +5397,22 @@
         <v>147</v>
       </c>
       <c r="C173" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D173" t="s">
         <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G173" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H173" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>44377</v>
       </c>
@@ -4791,19 +5420,22 @@
         <v>147</v>
       </c>
       <c r="C174" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D174" t="s">
         <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G174" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H174" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>44377</v>
       </c>
@@ -4811,19 +5443,22 @@
         <v>157</v>
       </c>
       <c r="C175" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D175" t="s">
         <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G175" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H175" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>44377</v>
       </c>
@@ -4831,19 +5466,22 @@
         <v>157</v>
       </c>
       <c r="C176" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D176" t="s">
         <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G176" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H176" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>44377</v>
       </c>
@@ -4851,19 +5489,22 @@
         <v>158</v>
       </c>
       <c r="C177" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D177" t="s">
         <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G177" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H177" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>44377</v>
       </c>
@@ -4871,79 +5512,91 @@
         <v>157</v>
       </c>
       <c r="C178" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D178" t="s">
         <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G178" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H178" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>44377</v>
       </c>
       <c r="B179" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C179" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D179" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F179" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="G179" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H179" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>44377</v>
       </c>
       <c r="B180" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C180" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D180" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F180" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="G180" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H180" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>44377</v>
       </c>
       <c r="B181" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C181" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D181" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F181" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="G181" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H181" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>44377</v>
       </c>
@@ -4951,19 +5604,22 @@
         <v>148</v>
       </c>
       <c r="C182" t="s">
+        <v>241</v>
+      </c>
+      <c r="D182" t="s">
+        <v>242</v>
+      </c>
+      <c r="F182" t="s">
         <v>243</v>
       </c>
-      <c r="D182" t="s">
-        <v>244</v>
-      </c>
-      <c r="F182" t="s">
-        <v>245</v>
-      </c>
       <c r="G182" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H182" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>44377</v>
       </c>
@@ -4971,50 +5627,56 @@
         <v>192</v>
       </c>
       <c r="C183" t="s">
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="D183" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F183" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G183" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H183" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>44378</v>
       </c>
       <c r="B184" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="C184" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="D184" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F184" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="G184" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H184" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>44378</v>
       </c>
       <c r="B185" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="C185" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="D185" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F185" t="s">
         <v>8</v>
@@ -5022,68 +5684,80 @@
       <c r="G185" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H185" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>44378</v>
       </c>
       <c r="B186" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C186" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="D186" t="s">
         <v>38</v>
       </c>
       <c r="F186" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G186" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H186" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>44378</v>
       </c>
       <c r="B187" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C187" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="D187" t="s">
         <v>38</v>
       </c>
       <c r="F187" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G187" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H187" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>44378</v>
       </c>
       <c r="B188" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C188" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D188" t="s">
         <v>38</v>
       </c>
       <c r="F188" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="G188" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H188" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>44378</v>
       </c>
@@ -5091,7 +5765,7 @@
         <v>85</v>
       </c>
       <c r="C189" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D189" t="s">
         <v>38</v>
@@ -5102,28 +5776,34 @@
       <c r="G189" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H189" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>44378</v>
       </c>
       <c r="B190" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C190" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="D190" t="s">
         <v>38</v>
       </c>
       <c r="F190" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G190" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H190" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>44378</v>
       </c>
@@ -5131,19 +5811,22 @@
         <v>148</v>
       </c>
       <c r="C191" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="D191" t="s">
         <v>38</v>
       </c>
       <c r="F191" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="G191" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H191" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>44378</v>
       </c>
@@ -5151,316 +5834,1100 @@
         <v>148</v>
       </c>
       <c r="C192" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="D192" t="s">
         <v>38</v>
       </c>
       <c r="F192" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="G192" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H192" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>44378</v>
       </c>
       <c r="B193" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C193" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="D193" t="s">
         <v>38</v>
       </c>
       <c r="F193" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G193" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H193" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>44378</v>
       </c>
       <c r="B194" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C194" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="D194" t="s">
         <v>38</v>
       </c>
       <c r="F194" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G194" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H194" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>44378</v>
       </c>
       <c r="B195" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C195" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="D195" t="s">
         <v>38</v>
       </c>
       <c r="F195" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G195" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H195" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>44378</v>
       </c>
       <c r="B196" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C196" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="D196" t="s">
         <v>38</v>
       </c>
       <c r="F196" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G196" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H196" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>44378</v>
       </c>
       <c r="B197" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C197" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="D197" t="s">
         <v>38</v>
       </c>
       <c r="F197" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G197" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H197" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>44378</v>
       </c>
       <c r="B198" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C198" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="D198" t="s">
         <v>38</v>
       </c>
       <c r="F198" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G198" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H198" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>44378</v>
       </c>
       <c r="B199" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C199" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D199" t="s">
         <v>38</v>
       </c>
       <c r="F199" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G199" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H199" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>44378</v>
       </c>
       <c r="B200" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C200" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="D200" t="s">
         <v>38</v>
       </c>
       <c r="F200" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G200" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H200" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>44378</v>
       </c>
       <c r="B201" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C201" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="D201" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F201" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="G201" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H201" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
         <v>44378</v>
       </c>
       <c r="B202" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C202" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="D202" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F202" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
       <c r="G202" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H202" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
         <v>44378</v>
       </c>
       <c r="B203" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C203" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="D203" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F203" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
       <c r="G203" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H203" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
         <v>44378</v>
       </c>
       <c r="B204" t="s">
-        <v>296</v>
+        <v>226</v>
       </c>
       <c r="C204" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="D204" t="s">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="F204" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="G204" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H204" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
         <v>44378</v>
       </c>
       <c r="B205" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="C205" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="D205" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F205" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="G205" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H205" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
         <v>44378</v>
       </c>
       <c r="B206" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="C206" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D206" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F206" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="G206" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H206" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
         <v>44378</v>
       </c>
       <c r="B207" t="s">
+        <v>226</v>
+      </c>
+      <c r="C207" t="s">
+        <v>279</v>
+      </c>
+      <c r="D207" t="s">
+        <v>38</v>
+      </c>
+      <c r="F207" t="s">
+        <v>251</v>
+      </c>
+      <c r="G207" t="s">
+        <v>11</v>
+      </c>
+      <c r="H207" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A208" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B208" t="s">
+        <v>310</v>
+      </c>
+      <c r="C208" t="s">
         <v>299</v>
       </c>
-      <c r="C207" t="s">
-        <v>299</v>
-      </c>
-      <c r="D207" t="s">
-        <v>218</v>
-      </c>
-      <c r="F207" t="s">
-        <v>272</v>
-      </c>
-      <c r="G207" t="s">
-        <v>11</v>
+      <c r="D208" t="s">
+        <v>244</v>
+      </c>
+      <c r="F208" t="s">
+        <v>8</v>
+      </c>
+      <c r="G208" t="s">
+        <v>11</v>
+      </c>
+      <c r="H208" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A209" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B209" t="s">
+        <v>254</v>
+      </c>
+      <c r="C209" t="s">
+        <v>332</v>
+      </c>
+      <c r="D209" t="s">
+        <v>216</v>
+      </c>
+      <c r="F209" t="s">
+        <v>333</v>
+      </c>
+      <c r="G209" t="s">
+        <v>11</v>
+      </c>
+      <c r="H209" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A210" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B210" t="s">
+        <v>254</v>
+      </c>
+      <c r="C210" t="s">
+        <v>324</v>
+      </c>
+      <c r="D210" t="s">
+        <v>216</v>
+      </c>
+      <c r="F210" t="s">
+        <v>333</v>
+      </c>
+      <c r="G210" t="s">
+        <v>11</v>
+      </c>
+      <c r="H210" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A211" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B211" t="s">
+        <v>254</v>
+      </c>
+      <c r="C211" t="s">
+        <v>325</v>
+      </c>
+      <c r="D211" t="s">
+        <v>216</v>
+      </c>
+      <c r="F211" t="s">
+        <v>333</v>
+      </c>
+      <c r="G211" t="s">
+        <v>11</v>
+      </c>
+      <c r="H211" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A212" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B212" t="s">
+        <v>254</v>
+      </c>
+      <c r="C212" t="s">
+        <v>326</v>
+      </c>
+      <c r="D212" t="s">
+        <v>216</v>
+      </c>
+      <c r="F212" t="s">
+        <v>333</v>
+      </c>
+      <c r="G212" t="s">
+        <v>11</v>
+      </c>
+      <c r="H212" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A213" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B213" t="s">
+        <v>254</v>
+      </c>
+      <c r="C213" t="s">
+        <v>327</v>
+      </c>
+      <c r="D213" t="s">
+        <v>216</v>
+      </c>
+      <c r="F213" t="s">
+        <v>333</v>
+      </c>
+      <c r="G213" t="s">
+        <v>11</v>
+      </c>
+      <c r="H213" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A214" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B214" t="s">
+        <v>254</v>
+      </c>
+      <c r="C214" t="s">
+        <v>328</v>
+      </c>
+      <c r="D214" t="s">
+        <v>216</v>
+      </c>
+      <c r="F214" t="s">
+        <v>333</v>
+      </c>
+      <c r="G214" t="s">
+        <v>11</v>
+      </c>
+      <c r="H214" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A215" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B215" t="s">
+        <v>254</v>
+      </c>
+      <c r="C215" t="s">
+        <v>329</v>
+      </c>
+      <c r="D215" t="s">
+        <v>216</v>
+      </c>
+      <c r="F215" t="s">
+        <v>333</v>
+      </c>
+      <c r="G215" t="s">
+        <v>11</v>
+      </c>
+      <c r="H215" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A216" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B216" t="s">
+        <v>254</v>
+      </c>
+      <c r="C216" t="s">
+        <v>330</v>
+      </c>
+      <c r="D216" t="s">
+        <v>216</v>
+      </c>
+      <c r="F216" t="s">
+        <v>333</v>
+      </c>
+      <c r="G216" t="s">
+        <v>11</v>
+      </c>
+      <c r="H216" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A217" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B217" t="s">
+        <v>257</v>
+      </c>
+      <c r="C217" t="s">
+        <v>331</v>
+      </c>
+      <c r="D217" t="s">
+        <v>38</v>
+      </c>
+      <c r="F217" t="s">
+        <v>248</v>
+      </c>
+      <c r="G217" t="s">
+        <v>11</v>
+      </c>
+      <c r="H217" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A218" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B218" t="s">
+        <v>108</v>
+      </c>
+      <c r="C218" t="s">
+        <v>300</v>
+      </c>
+      <c r="D218" t="s">
+        <v>38</v>
+      </c>
+      <c r="F218" t="s">
+        <v>88</v>
+      </c>
+      <c r="G218" t="s">
+        <v>11</v>
+      </c>
+      <c r="H218" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A219" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B219" t="s">
+        <v>261</v>
+      </c>
+      <c r="C219" t="s">
+        <v>301</v>
+      </c>
+      <c r="D219" t="s">
+        <v>38</v>
+      </c>
+      <c r="F219" t="s">
+        <v>247</v>
+      </c>
+      <c r="G219" t="s">
+        <v>11</v>
+      </c>
+      <c r="H219" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A220" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B220" t="s">
+        <v>261</v>
+      </c>
+      <c r="C220" t="s">
+        <v>302</v>
+      </c>
+      <c r="D220" t="s">
+        <v>38</v>
+      </c>
+      <c r="F220" t="s">
+        <v>247</v>
+      </c>
+      <c r="G220" t="s">
+        <v>11</v>
+      </c>
+      <c r="H220" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A221" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B221" t="s">
+        <v>230</v>
+      </c>
+      <c r="C221" t="s">
+        <v>303</v>
+      </c>
+      <c r="D221" t="s">
+        <v>38</v>
+      </c>
+      <c r="F221" t="s">
+        <v>231</v>
+      </c>
+      <c r="G221" t="s">
+        <v>11</v>
+      </c>
+      <c r="H221" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A222" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B222" t="s">
+        <v>223</v>
+      </c>
+      <c r="C222" t="s">
+        <v>304</v>
+      </c>
+      <c r="D222" t="s">
+        <v>38</v>
+      </c>
+      <c r="F222" t="s">
+        <v>215</v>
+      </c>
+      <c r="G222" t="s">
+        <v>11</v>
+      </c>
+      <c r="H222" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A223" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B223" t="s">
+        <v>224</v>
+      </c>
+      <c r="C223" t="s">
+        <v>305</v>
+      </c>
+      <c r="D223" t="s">
+        <v>38</v>
+      </c>
+      <c r="F223" t="s">
+        <v>215</v>
+      </c>
+      <c r="G223" t="s">
+        <v>11</v>
+      </c>
+      <c r="H223" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A224" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B224" t="s">
+        <v>264</v>
+      </c>
+      <c r="C224" t="s">
+        <v>306</v>
+      </c>
+      <c r="D224" t="s">
+        <v>38</v>
+      </c>
+      <c r="F224" t="s">
+        <v>249</v>
+      </c>
+      <c r="G224" t="s">
+        <v>11</v>
+      </c>
+      <c r="H224" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A225" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B225" t="s">
+        <v>273</v>
+      </c>
+      <c r="C225" t="s">
+        <v>307</v>
+      </c>
+      <c r="D225" t="s">
+        <v>216</v>
+      </c>
+      <c r="F225" t="s">
+        <v>253</v>
+      </c>
+      <c r="G225" t="s">
+        <v>11</v>
+      </c>
+      <c r="H225" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A226" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B226" t="s">
+        <v>273</v>
+      </c>
+      <c r="C226" t="s">
+        <v>308</v>
+      </c>
+      <c r="D226" t="s">
+        <v>216</v>
+      </c>
+      <c r="F226" t="s">
+        <v>253</v>
+      </c>
+      <c r="G226" t="s">
+        <v>11</v>
+      </c>
+      <c r="H226" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A227" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B227" t="s">
+        <v>273</v>
+      </c>
+      <c r="C227" t="s">
+        <v>309</v>
+      </c>
+      <c r="D227" t="s">
+        <v>216</v>
+      </c>
+      <c r="F227" t="s">
+        <v>253</v>
+      </c>
+      <c r="G227" t="s">
+        <v>11</v>
+      </c>
+      <c r="H227" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A228" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B228" t="s">
+        <v>273</v>
+      </c>
+      <c r="C228" t="s">
+        <v>312</v>
+      </c>
+      <c r="D228" t="s">
+        <v>216</v>
+      </c>
+      <c r="F228" t="s">
+        <v>253</v>
+      </c>
+      <c r="G228" t="s">
+        <v>11</v>
+      </c>
+      <c r="H228" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A229" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B229" t="s">
+        <v>277</v>
+      </c>
+      <c r="C229" t="s">
+        <v>313</v>
+      </c>
+      <c r="D229" t="s">
+        <v>216</v>
+      </c>
+      <c r="F229" t="s">
+        <v>253</v>
+      </c>
+      <c r="G229" t="s">
+        <v>11</v>
+      </c>
+      <c r="H229" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A230" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B230" t="s">
+        <v>277</v>
+      </c>
+      <c r="C230" t="s">
+        <v>314</v>
+      </c>
+      <c r="D230" t="s">
+        <v>216</v>
+      </c>
+      <c r="F230" t="s">
+        <v>253</v>
+      </c>
+      <c r="G230" t="s">
+        <v>11</v>
+      </c>
+      <c r="H230" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A231" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B231" t="s">
+        <v>277</v>
+      </c>
+      <c r="C231" t="s">
+        <v>315</v>
+      </c>
+      <c r="D231" t="s">
+        <v>216</v>
+      </c>
+      <c r="F231" t="s">
+        <v>253</v>
+      </c>
+      <c r="G231" t="s">
+        <v>11</v>
+      </c>
+      <c r="H231" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A232" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B232" t="s">
+        <v>277</v>
+      </c>
+      <c r="C232" t="s">
+        <v>316</v>
+      </c>
+      <c r="D232" t="s">
+        <v>216</v>
+      </c>
+      <c r="F232" t="s">
+        <v>253</v>
+      </c>
+      <c r="G232" t="s">
+        <v>11</v>
+      </c>
+      <c r="H232" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A233" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B233" t="s">
+        <v>278</v>
+      </c>
+      <c r="C233" t="s">
+        <v>317</v>
+      </c>
+      <c r="D233" t="s">
+        <v>216</v>
+      </c>
+      <c r="F233" t="s">
+        <v>253</v>
+      </c>
+      <c r="G233" t="s">
+        <v>11</v>
+      </c>
+      <c r="H233" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A234" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B234" t="s">
+        <v>278</v>
+      </c>
+      <c r="C234" t="s">
+        <v>318</v>
+      </c>
+      <c r="D234" t="s">
+        <v>216</v>
+      </c>
+      <c r="F234" t="s">
+        <v>253</v>
+      </c>
+      <c r="G234" t="s">
+        <v>11</v>
+      </c>
+      <c r="H234" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A235" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B235" t="s">
+        <v>278</v>
+      </c>
+      <c r="C235" t="s">
+        <v>319</v>
+      </c>
+      <c r="D235" t="s">
+        <v>216</v>
+      </c>
+      <c r="F235" t="s">
+        <v>253</v>
+      </c>
+      <c r="G235" t="s">
+        <v>11</v>
+      </c>
+      <c r="H235" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A236" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B236" t="s">
+        <v>274</v>
+      </c>
+      <c r="C236" t="s">
+        <v>320</v>
+      </c>
+      <c r="D236" t="s">
+        <v>216</v>
+      </c>
+      <c r="F236" t="s">
+        <v>334</v>
+      </c>
+      <c r="G236" t="s">
+        <v>11</v>
+      </c>
+      <c r="H236" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A237" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B237" t="s">
+        <v>274</v>
+      </c>
+      <c r="C237" t="s">
+        <v>321</v>
+      </c>
+      <c r="D237" t="s">
+        <v>216</v>
+      </c>
+      <c r="F237" t="s">
+        <v>334</v>
+      </c>
+      <c r="G237" t="s">
+        <v>11</v>
+      </c>
+      <c r="H237" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A238" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B238" t="s">
+        <v>275</v>
+      </c>
+      <c r="C238" t="s">
+        <v>322</v>
+      </c>
+      <c r="D238" t="s">
+        <v>216</v>
+      </c>
+      <c r="F238" t="s">
+        <v>334</v>
+      </c>
+      <c r="G238" t="s">
+        <v>11</v>
+      </c>
+      <c r="H238" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A239" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B239" t="s">
+        <v>275</v>
+      </c>
+      <c r="C239" t="s">
+        <v>323</v>
+      </c>
+      <c r="D239" t="s">
+        <v>216</v>
+      </c>
+      <c r="F239" t="s">
+        <v>334</v>
+      </c>
+      <c r="G239" t="s">
+        <v>11</v>
+      </c>
+      <c r="H239" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -5475,9 +6942,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5485,7 +6954,7 @@
     <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5499,12 +6968,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44362</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>
@@ -5512,13 +6981,67 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L2" t="s">
+        <v>287</v>
+      </c>
+      <c r="M2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O2" t="s">
+        <v>290</v>
+      </c>
+      <c r="P2" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>292</v>
+      </c>
+      <c r="R2" t="s">
+        <v>293</v>
+      </c>
+      <c r="S2" t="s">
+        <v>294</v>
+      </c>
+      <c r="T2" t="s">
+        <v>295</v>
+      </c>
+      <c r="U2" t="s">
+        <v>296</v>
+      </c>
+      <c r="V2" t="s">
+        <v>297</v>
+      </c>
+      <c r="W2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44363</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
@@ -5527,12 +7050,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44364</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -5541,12 +7064,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44365</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -5555,12 +7078,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44366</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -5569,12 +7092,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44367</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5583,12 +7106,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44368</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -5597,12 +7120,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44369</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -5611,12 +7134,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44370</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -5625,12 +7148,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44371</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -5639,12 +7162,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44372</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -5653,12 +7176,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44373</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -5667,12 +7190,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44374</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -5681,12 +7204,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44375</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -5695,12 +7218,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44376</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -5714,7 +7237,7 @@
         <v>44377</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -5728,7 +7251,7 @@
         <v>44378</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>297</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -5740,6 +7263,9 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>44379</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>

--- a/2021-06 New South Wales Outbreak Paths.xlsx
+++ b/2021-06 New South Wales Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671ADB1B-7648-4450-BDFF-9E451E9DA2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170EA612-2FBB-4FBF-B69A-10916D1F60AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="372">
   <si>
     <t>Source</t>
   </si>
@@ -775,9 +775,6 @@
     <t>Mobius Gym</t>
   </si>
   <si>
-    <t>#f6f8ff</t>
-  </si>
-  <si>
     <t>Lyfe Café Bondi Close Contacts</t>
   </si>
   <si>
@@ -883,54 +880,6 @@
     <t>Not isolated</t>
   </si>
   <si>
-    <t>#edf2ff</t>
-  </si>
-  <si>
-    <t>#e5ebff</t>
-  </si>
-  <si>
-    <t>#dce4ff</t>
-  </si>
-  <si>
-    <t>#d2deff</t>
-  </si>
-  <si>
-    <t>#c9d7ff</t>
-  </si>
-  <si>
-    <t>#bfd1ff</t>
-  </si>
-  <si>
-    <t>#b5caff</t>
-  </si>
-  <si>
-    <t>#abc4ff</t>
-  </si>
-  <si>
-    <t>#a1bdff</t>
-  </si>
-  <si>
-    <t>#96b7ff</t>
-  </si>
-  <si>
-    <t>#8ab1ff</t>
-  </si>
-  <si>
-    <t>#7eabff</t>
-  </si>
-  <si>
-    <t>#71a5ff</t>
-  </si>
-  <si>
-    <t>#629fff</t>
-  </si>
-  <si>
-    <t>#5099ff</t>
-  </si>
-  <si>
-    <t>#3a93ff</t>
-  </si>
-  <si>
     <t>Great Ocean Foods Close Contacts</t>
   </si>
   <si>
@@ -1040,6 +989,168 @@
   </si>
   <si>
     <t>Under investigation</t>
+  </si>
+  <si>
+    <t>#f7f9ff</t>
+  </si>
+  <si>
+    <t>#eef2ff</t>
+  </si>
+  <si>
+    <t>#e6ecff</t>
+  </si>
+  <si>
+    <t>#dde6ff</t>
+  </si>
+  <si>
+    <t>#d5dfff</t>
+  </si>
+  <si>
+    <t>#ccd9ff</t>
+  </si>
+  <si>
+    <t>#c3d3ff</t>
+  </si>
+  <si>
+    <t>#bacdff</t>
+  </si>
+  <si>
+    <t>#b0c7ff</t>
+  </si>
+  <si>
+    <t>#a6c1ff</t>
+  </si>
+  <si>
+    <t>#9cbbff</t>
+  </si>
+  <si>
+    <t>#92b5ff</t>
+  </si>
+  <si>
+    <t>#87afff</t>
+  </si>
+  <si>
+    <t>#7ba9ff</t>
+  </si>
+  <si>
+    <t>#6ea3ff</t>
+  </si>
+  <si>
+    <t>#5f9eff</t>
+  </si>
+  <si>
+    <t>#4e98ff</t>
+  </si>
+  <si>
+    <t>#3993ff</t>
+  </si>
+  <si>
+    <t>Summit Care Baulkham Hills</t>
+  </si>
+  <si>
+    <t>S228</t>
+  </si>
+  <si>
+    <t>S229</t>
+  </si>
+  <si>
+    <t>S230</t>
+  </si>
+  <si>
+    <t>S231</t>
+  </si>
+  <si>
+    <t>S232</t>
+  </si>
+  <si>
+    <t>S233</t>
+  </si>
+  <si>
+    <t>S234</t>
+  </si>
+  <si>
+    <t>S235</t>
+  </si>
+  <si>
+    <t>S236</t>
+  </si>
+  <si>
+    <t>S237</t>
+  </si>
+  <si>
+    <t>S238</t>
+  </si>
+  <si>
+    <t>S239</t>
+  </si>
+  <si>
+    <t>S240</t>
+  </si>
+  <si>
+    <t>S241</t>
+  </si>
+  <si>
+    <t>S242</t>
+  </si>
+  <si>
+    <t>S243</t>
+  </si>
+  <si>
+    <t>S244</t>
+  </si>
+  <si>
+    <t>S245</t>
+  </si>
+  <si>
+    <t>S246</t>
+  </si>
+  <si>
+    <t>S247</t>
+  </si>
+  <si>
+    <t>S248</t>
+  </si>
+  <si>
+    <t>S249</t>
+  </si>
+  <si>
+    <t>S250</t>
+  </si>
+  <si>
+    <t>S251</t>
+  </si>
+  <si>
+    <t>S252</t>
+  </si>
+  <si>
+    <t>S253</t>
+  </si>
+  <si>
+    <t>S254</t>
+  </si>
+  <si>
+    <t>S255</t>
+  </si>
+  <si>
+    <t>S256</t>
+  </si>
+  <si>
+    <t>S257</t>
+  </si>
+  <si>
+    <t>S258</t>
+  </si>
+  <si>
+    <t>S259</t>
+  </si>
+  <si>
+    <t>S260</t>
+  </si>
+  <si>
+    <t>S261</t>
+  </si>
+  <si>
+    <t>S262</t>
   </si>
 </sst>
 </file>
@@ -1109,8 +1220,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H239" totalsRowShown="0">
-  <autoFilter ref="A1:H239" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H274" totalsRowShown="0">
+  <autoFilter ref="A1:H274" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -1435,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H239"/>
+  <dimension ref="A1:H274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="H239" sqref="H239"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="B236" sqref="B236:B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1474,7 +1585,7 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -1494,7 +1605,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -1517,7 +1628,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -1540,7 +1651,7 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -1563,7 +1674,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -1586,7 +1697,7 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -1609,7 +1720,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -1632,7 +1743,7 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -1649,13 +1760,13 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -1672,13 +1783,13 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -1701,7 +1812,7 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -1718,13 +1829,13 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -1741,13 +1852,13 @@
         <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -1764,13 +1875,13 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1787,13 +1898,13 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -1810,13 +1921,13 @@
         <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -1839,7 +1950,7 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -1859,7 +1970,7 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -1879,7 +1990,7 @@
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -1899,7 +2010,7 @@
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -1922,7 +2033,7 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -1945,7 +2056,7 @@
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -1968,7 +2079,7 @@
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -1991,7 +2102,7 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -2014,7 +2125,7 @@
         <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -2037,7 +2148,7 @@
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -2060,7 +2171,7 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -2083,7 +2194,7 @@
         <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -2106,7 +2217,7 @@
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
@@ -2129,7 +2240,7 @@
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
@@ -2152,7 +2263,7 @@
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
@@ -2175,7 +2286,7 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -2198,7 +2309,7 @@
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
@@ -2221,7 +2332,7 @@
         <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
@@ -2244,7 +2355,7 @@
         <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
@@ -2267,7 +2378,7 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
@@ -2290,7 +2401,7 @@
         <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
@@ -2313,7 +2424,7 @@
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
@@ -2336,7 +2447,7 @@
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
@@ -2359,7 +2470,7 @@
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
@@ -2376,13 +2487,13 @@
         <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
@@ -2405,7 +2516,7 @@
         <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
@@ -2428,7 +2539,7 @@
         <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
@@ -2448,7 +2559,7 @@
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
@@ -2471,7 +2582,7 @@
         <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
@@ -2494,7 +2605,7 @@
         <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
@@ -2517,7 +2628,7 @@
         <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
@@ -2540,7 +2651,7 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
@@ -2563,7 +2674,7 @@
         <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
@@ -2586,7 +2697,7 @@
         <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
@@ -2609,7 +2720,7 @@
         <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
@@ -2632,7 +2743,7 @@
         <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
@@ -2655,7 +2766,7 @@
         <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
@@ -2678,7 +2789,7 @@
         <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
@@ -2701,7 +2812,7 @@
         <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
@@ -2724,7 +2835,7 @@
         <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
@@ -2747,7 +2858,7 @@
         <v>11</v>
       </c>
       <c r="H57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
@@ -2764,13 +2875,13 @@
         <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
@@ -2787,13 +2898,13 @@
         <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
@@ -2816,7 +2927,7 @@
         <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
@@ -2839,7 +2950,7 @@
         <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
@@ -2862,7 +2973,7 @@
         <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
@@ -2885,7 +2996,7 @@
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
@@ -2908,7 +3019,7 @@
         <v>11</v>
       </c>
       <c r="H64" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
@@ -2931,7 +3042,7 @@
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
@@ -2954,7 +3065,7 @@
         <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
@@ -2977,7 +3088,7 @@
         <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
@@ -3000,7 +3111,7 @@
         <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
@@ -3023,7 +3134,7 @@
         <v>11</v>
       </c>
       <c r="H69" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
@@ -3046,7 +3157,7 @@
         <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
@@ -3069,7 +3180,7 @@
         <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
@@ -3092,7 +3203,7 @@
         <v>11</v>
       </c>
       <c r="H72" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
@@ -3115,7 +3226,7 @@
         <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
@@ -3138,7 +3249,7 @@
         <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
@@ -3155,13 +3266,13 @@
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G75" t="s">
         <v>11</v>
       </c>
       <c r="H75" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
@@ -3178,13 +3289,13 @@
         <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
       </c>
       <c r="H76" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
@@ -3201,13 +3312,13 @@
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
@@ -3230,7 +3341,7 @@
         <v>11</v>
       </c>
       <c r="H78" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
@@ -3253,7 +3364,7 @@
         <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
@@ -3270,13 +3381,13 @@
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
       </c>
       <c r="H80" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
@@ -3293,13 +3404,13 @@
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
       </c>
       <c r="H81" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
@@ -3316,13 +3427,13 @@
         <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
       </c>
       <c r="H82" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
@@ -3339,13 +3450,13 @@
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
       </c>
       <c r="H83" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
@@ -3362,13 +3473,13 @@
         <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
@@ -3385,13 +3496,13 @@
         <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
       </c>
       <c r="H85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
@@ -3408,13 +3519,13 @@
         <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
       </c>
       <c r="H86" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
@@ -3431,13 +3542,13 @@
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
@@ -3454,13 +3565,13 @@
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G88" t="s">
         <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
@@ -3477,13 +3588,13 @@
         <v>216</v>
       </c>
       <c r="F89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
       </c>
       <c r="H89" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
@@ -3506,7 +3617,7 @@
         <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.45">
@@ -3529,7 +3640,7 @@
         <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.45">
@@ -3552,7 +3663,7 @@
         <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.45">
@@ -3575,7 +3686,7 @@
         <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.45">
@@ -3598,7 +3709,7 @@
         <v>11</v>
       </c>
       <c r="H94" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.45">
@@ -3621,7 +3732,7 @@
         <v>11</v>
       </c>
       <c r="H95" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
@@ -3644,7 +3755,7 @@
         <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
@@ -3667,7 +3778,7 @@
         <v>11</v>
       </c>
       <c r="H97" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
@@ -3690,7 +3801,7 @@
         <v>11</v>
       </c>
       <c r="H98" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.45">
@@ -3713,7 +3824,7 @@
         <v>11</v>
       </c>
       <c r="H99" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
@@ -3736,7 +3847,7 @@
         <v>11</v>
       </c>
       <c r="H100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
@@ -3759,7 +3870,7 @@
         <v>11</v>
       </c>
       <c r="H101" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
@@ -3782,7 +3893,7 @@
         <v>11</v>
       </c>
       <c r="H102" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
@@ -3805,7 +3916,7 @@
         <v>11</v>
       </c>
       <c r="H103" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
@@ -3828,7 +3939,7 @@
         <v>11</v>
       </c>
       <c r="H104" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.45">
@@ -3851,7 +3962,7 @@
         <v>11</v>
       </c>
       <c r="H105" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.45">
@@ -3868,13 +3979,13 @@
         <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G106" t="s">
         <v>11</v>
       </c>
       <c r="H106" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.45">
@@ -3891,13 +4002,13 @@
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G107" t="s">
         <v>11</v>
       </c>
       <c r="H107" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.45">
@@ -3914,13 +4025,13 @@
         <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G108" t="s">
         <v>11</v>
       </c>
       <c r="H108" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.45">
@@ -3937,13 +4048,13 @@
         <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G109" t="s">
         <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.45">
@@ -3966,7 +4077,7 @@
         <v>11</v>
       </c>
       <c r="H110" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.45">
@@ -3989,7 +4100,7 @@
         <v>11</v>
       </c>
       <c r="H111" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.45">
@@ -4006,13 +4117,13 @@
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G112" t="s">
         <v>11</v>
       </c>
       <c r="H112" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.45">
@@ -4029,13 +4140,13 @@
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G113" t="s">
         <v>11</v>
       </c>
       <c r="H113" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.45">
@@ -4052,13 +4163,13 @@
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G114" t="s">
         <v>11</v>
       </c>
       <c r="H114" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.45">
@@ -4075,13 +4186,13 @@
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
       </c>
       <c r="H115" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.45">
@@ -4098,13 +4209,13 @@
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G116" t="s">
         <v>11</v>
       </c>
       <c r="H116" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.45">
@@ -4121,13 +4232,13 @@
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.45">
@@ -4144,13 +4255,13 @@
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G118" t="s">
         <v>11</v>
       </c>
       <c r="H118" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.45">
@@ -4167,13 +4278,13 @@
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G119" t="s">
         <v>11</v>
       </c>
       <c r="H119" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.45">
@@ -4190,13 +4301,13 @@
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G120" t="s">
         <v>11</v>
       </c>
       <c r="H120" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.45">
@@ -4213,13 +4324,13 @@
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G121" t="s">
         <v>11</v>
       </c>
       <c r="H121" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.45">
@@ -4236,13 +4347,13 @@
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G122" t="s">
         <v>11</v>
       </c>
       <c r="H122" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.45">
@@ -4259,13 +4370,13 @@
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G123" t="s">
         <v>11</v>
       </c>
       <c r="H123" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.45">
@@ -4282,13 +4393,13 @@
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G124" t="s">
         <v>11</v>
       </c>
       <c r="H124" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.45">
@@ -4305,13 +4416,13 @@
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G125" t="s">
         <v>11</v>
       </c>
       <c r="H125" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.45">
@@ -4328,13 +4439,13 @@
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G126" t="s">
         <v>11</v>
       </c>
       <c r="H126" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.45">
@@ -4351,13 +4462,13 @@
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G127" t="s">
         <v>11</v>
       </c>
       <c r="H127" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.45">
@@ -4380,7 +4491,7 @@
         <v>11</v>
       </c>
       <c r="H128" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.45">
@@ -4403,7 +4514,7 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.45">
@@ -4420,13 +4531,13 @@
         <v>216</v>
       </c>
       <c r="F130" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="G130" t="s">
         <v>11</v>
       </c>
       <c r="H130" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.45">
@@ -4449,7 +4560,7 @@
         <v>11</v>
       </c>
       <c r="H131" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.45">
@@ -4472,7 +4583,7 @@
         <v>11</v>
       </c>
       <c r="H132" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.45">
@@ -4495,7 +4606,7 @@
         <v>11</v>
       </c>
       <c r="H133" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.45">
@@ -4512,13 +4623,13 @@
         <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>126</v>
+        <v>281</v>
       </c>
       <c r="G134" t="s">
         <v>11</v>
       </c>
       <c r="H134" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.45">
@@ -4535,13 +4646,13 @@
         <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="G135" t="s">
         <v>11</v>
       </c>
       <c r="H135" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.45">
@@ -4561,7 +4672,7 @@
         <v>11</v>
       </c>
       <c r="H136" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.45">
@@ -4581,7 +4692,7 @@
         <v>11</v>
       </c>
       <c r="H137" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.45">
@@ -4604,7 +4715,7 @@
         <v>11</v>
       </c>
       <c r="H138" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.45">
@@ -4615,7 +4726,7 @@
         <v>192</v>
       </c>
       <c r="C139" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="D139" t="s">
         <v>244</v>
@@ -4627,7 +4738,7 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.45">
@@ -4650,7 +4761,7 @@
         <v>11</v>
       </c>
       <c r="H140" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.45">
@@ -4667,13 +4778,13 @@
         <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G141" t="s">
         <v>11</v>
       </c>
       <c r="H141" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.45">
@@ -4690,13 +4801,13 @@
         <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G142" t="s">
         <v>11</v>
       </c>
       <c r="H142" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.45">
@@ -4713,13 +4824,13 @@
         <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G143" t="s">
         <v>11</v>
       </c>
       <c r="H143" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.45">
@@ -4736,13 +4847,13 @@
         <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G144" t="s">
         <v>11</v>
       </c>
       <c r="H144" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.45">
@@ -4759,13 +4870,13 @@
         <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G145" t="s">
         <v>11</v>
       </c>
       <c r="H145" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.45">
@@ -4782,13 +4893,13 @@
         <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G146" t="s">
         <v>11</v>
       </c>
       <c r="H146" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.45">
@@ -4805,13 +4916,13 @@
         <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G147" t="s">
         <v>11</v>
       </c>
       <c r="H147" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.45">
@@ -4834,7 +4945,7 @@
         <v>11</v>
       </c>
       <c r="H148" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.45">
@@ -4857,7 +4968,7 @@
         <v>11</v>
       </c>
       <c r="H149" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.45">
@@ -4880,7 +4991,7 @@
         <v>11</v>
       </c>
       <c r="H150" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.45">
@@ -4897,13 +5008,13 @@
         <v>216</v>
       </c>
       <c r="F151" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G151" t="s">
         <v>11</v>
       </c>
       <c r="H151" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.45">
@@ -4911,7 +5022,7 @@
         <v>44376</v>
       </c>
       <c r="B152" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C152" t="s">
         <v>206</v>
@@ -4920,13 +5031,13 @@
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="G152" t="s">
         <v>11</v>
       </c>
       <c r="H152" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.45">
@@ -4934,7 +5045,7 @@
         <v>44376</v>
       </c>
       <c r="B153" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C153" t="s">
         <v>207</v>
@@ -4943,13 +5054,13 @@
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="G153" t="s">
         <v>11</v>
       </c>
       <c r="H153" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.45">
@@ -4966,13 +5077,13 @@
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="G154" t="s">
         <v>11</v>
       </c>
       <c r="H154" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.45">
@@ -4989,13 +5100,13 @@
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G155" t="s">
         <v>11</v>
       </c>
       <c r="H155" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.45">
@@ -5012,13 +5123,13 @@
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G156" t="s">
         <v>11</v>
       </c>
       <c r="H156" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.45">
@@ -5035,13 +5146,13 @@
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G157" t="s">
         <v>11</v>
       </c>
       <c r="H157" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.45">
@@ -5058,13 +5169,13 @@
         <v>216</v>
       </c>
       <c r="F158" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="G158" t="s">
         <v>11</v>
       </c>
       <c r="H158" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.45">
@@ -5087,7 +5198,7 @@
         <v>11</v>
       </c>
       <c r="H159" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.45">
@@ -5104,13 +5215,13 @@
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="G160" t="s">
         <v>11</v>
       </c>
       <c r="H160" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.45">
@@ -5127,13 +5238,13 @@
         <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G161" t="s">
         <v>11</v>
       </c>
       <c r="H161" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.45">
@@ -5150,13 +5261,13 @@
         <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G162" t="s">
         <v>11</v>
       </c>
       <c r="H162" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.45">
@@ -5173,13 +5284,13 @@
         <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G163" t="s">
         <v>11</v>
       </c>
       <c r="H163" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.45">
@@ -5196,13 +5307,13 @@
         <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G164" t="s">
         <v>11</v>
       </c>
       <c r="H164" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.45">
@@ -5225,7 +5336,7 @@
         <v>11</v>
       </c>
       <c r="H165" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.45">
@@ -5248,7 +5359,7 @@
         <v>11</v>
       </c>
       <c r="H166" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.45">
@@ -5271,7 +5382,7 @@
         <v>11</v>
       </c>
       <c r="H167" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.45">
@@ -5288,13 +5399,13 @@
         <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G168" t="s">
         <v>11</v>
       </c>
       <c r="H168" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.45">
@@ -5317,7 +5428,7 @@
         <v>11</v>
       </c>
       <c r="H169" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.45">
@@ -5340,7 +5451,7 @@
         <v>11</v>
       </c>
       <c r="H170" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.45">
@@ -5363,7 +5474,7 @@
         <v>11</v>
       </c>
       <c r="H171" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.45">
@@ -5386,7 +5497,7 @@
         <v>11</v>
       </c>
       <c r="H172" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.45">
@@ -5409,7 +5520,7 @@
         <v>11</v>
       </c>
       <c r="H173" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.45">
@@ -5432,7 +5543,7 @@
         <v>11</v>
       </c>
       <c r="H174" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.45">
@@ -5449,13 +5560,13 @@
         <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G175" t="s">
         <v>11</v>
       </c>
       <c r="H175" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.45">
@@ -5472,13 +5583,13 @@
         <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G176" t="s">
         <v>11</v>
       </c>
       <c r="H176" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.45">
@@ -5495,13 +5606,13 @@
         <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G177" t="s">
         <v>11</v>
       </c>
       <c r="H177" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.45">
@@ -5518,13 +5629,13 @@
         <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G178" t="s">
         <v>11</v>
       </c>
       <c r="H178" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.45">
@@ -5532,7 +5643,7 @@
         <v>44377</v>
       </c>
       <c r="B179" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="C179" t="s">
         <v>238</v>
@@ -5541,13 +5652,13 @@
         <v>216</v>
       </c>
       <c r="F179" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="G179" t="s">
         <v>11</v>
       </c>
       <c r="H179" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.45">
@@ -5555,7 +5666,7 @@
         <v>44377</v>
       </c>
       <c r="B180" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="C180" t="s">
         <v>239</v>
@@ -5564,13 +5675,13 @@
         <v>216</v>
       </c>
       <c r="F180" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="G180" t="s">
         <v>11</v>
       </c>
       <c r="H180" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.45">
@@ -5578,7 +5689,7 @@
         <v>44377</v>
       </c>
       <c r="B181" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="C181" t="s">
         <v>240</v>
@@ -5587,13 +5698,13 @@
         <v>216</v>
       </c>
       <c r="F181" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="G181" t="s">
         <v>11</v>
       </c>
       <c r="H181" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.45">
@@ -5616,7 +5727,7 @@
         <v>11</v>
       </c>
       <c r="H182" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.45">
@@ -5627,7 +5738,7 @@
         <v>192</v>
       </c>
       <c r="C183" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="D183" t="s">
         <v>244</v>
@@ -5639,7 +5750,7 @@
         <v>11</v>
       </c>
       <c r="H183" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.45">
@@ -5647,22 +5758,22 @@
         <v>44378</v>
       </c>
       <c r="B184" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C184" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D184" t="s">
         <v>216</v>
       </c>
       <c r="F184" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G184" t="s">
         <v>11</v>
       </c>
       <c r="H184" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.45">
@@ -5670,10 +5781,10 @@
         <v>44378</v>
       </c>
       <c r="B185" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C185" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D185" t="s">
         <v>216</v>
@@ -5685,7 +5796,7 @@
         <v>11</v>
       </c>
       <c r="H185" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.45">
@@ -5696,19 +5807,19 @@
         <v>219</v>
       </c>
       <c r="C186" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D186" t="s">
         <v>38</v>
       </c>
       <c r="F186" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G186" t="s">
         <v>11</v>
       </c>
       <c r="H186" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.45">
@@ -5719,19 +5830,19 @@
         <v>220</v>
       </c>
       <c r="C187" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D187" t="s">
         <v>38</v>
       </c>
       <c r="F187" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G187" t="s">
         <v>11</v>
       </c>
       <c r="H187" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.45">
@@ -5742,19 +5853,19 @@
         <v>226</v>
       </c>
       <c r="C188" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D188" t="s">
         <v>38</v>
       </c>
       <c r="F188" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G188" t="s">
         <v>11</v>
       </c>
       <c r="H188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.45">
@@ -5765,7 +5876,7 @@
         <v>85</v>
       </c>
       <c r="C189" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D189" t="s">
         <v>38</v>
@@ -5777,7 +5888,7 @@
         <v>11</v>
       </c>
       <c r="H189" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.45">
@@ -5788,19 +5899,19 @@
         <v>196</v>
       </c>
       <c r="C190" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D190" t="s">
         <v>38</v>
       </c>
       <c r="F190" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G190" t="s">
         <v>11</v>
       </c>
       <c r="H190" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.45">
@@ -5811,19 +5922,19 @@
         <v>148</v>
       </c>
       <c r="C191" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D191" t="s">
         <v>38</v>
       </c>
       <c r="F191" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G191" t="s">
         <v>11</v>
       </c>
       <c r="H191" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.45">
@@ -5834,19 +5945,19 @@
         <v>148</v>
       </c>
       <c r="C192" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D192" t="s">
         <v>38</v>
       </c>
       <c r="F192" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G192" t="s">
         <v>11</v>
       </c>
       <c r="H192" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.45">
@@ -5857,19 +5968,19 @@
         <v>234</v>
       </c>
       <c r="C193" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D193" t="s">
         <v>38</v>
       </c>
       <c r="F193" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G193" t="s">
         <v>11</v>
       </c>
       <c r="H193" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.45">
@@ -5880,19 +5991,19 @@
         <v>234</v>
       </c>
       <c r="C194" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D194" t="s">
         <v>38</v>
       </c>
       <c r="F194" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G194" t="s">
         <v>11</v>
       </c>
       <c r="H194" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.45">
@@ -5903,19 +6014,19 @@
         <v>235</v>
       </c>
       <c r="C195" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D195" t="s">
         <v>38</v>
       </c>
       <c r="F195" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G195" t="s">
         <v>11</v>
       </c>
       <c r="H195" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.45">
@@ -5926,19 +6037,19 @@
         <v>235</v>
       </c>
       <c r="C196" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D196" t="s">
         <v>38</v>
       </c>
       <c r="F196" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G196" t="s">
         <v>11</v>
       </c>
       <c r="H196" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.45">
@@ -5949,19 +6060,19 @@
         <v>236</v>
       </c>
       <c r="C197" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D197" t="s">
         <v>38</v>
       </c>
       <c r="F197" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G197" t="s">
         <v>11</v>
       </c>
       <c r="H197" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.45">
@@ -5972,19 +6083,19 @@
         <v>236</v>
       </c>
       <c r="C198" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D198" t="s">
         <v>38</v>
       </c>
       <c r="F198" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G198" t="s">
         <v>11</v>
       </c>
       <c r="H198" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.45">
@@ -5995,19 +6106,19 @@
         <v>237</v>
       </c>
       <c r="C199" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D199" t="s">
         <v>38</v>
       </c>
       <c r="F199" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G199" t="s">
         <v>11</v>
       </c>
       <c r="H199" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.45">
@@ -6018,19 +6129,19 @@
         <v>237</v>
       </c>
       <c r="C200" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D200" t="s">
         <v>38</v>
       </c>
       <c r="F200" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G200" t="s">
         <v>11</v>
       </c>
       <c r="H200" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.45">
@@ -6041,19 +6152,19 @@
         <v>238</v>
       </c>
       <c r="C201" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D201" t="s">
         <v>216</v>
       </c>
       <c r="F201" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G201" t="s">
         <v>11</v>
       </c>
       <c r="H201" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.45">
@@ -6061,22 +6172,22 @@
         <v>44378</v>
       </c>
       <c r="B202" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C202" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D202" t="s">
         <v>216</v>
       </c>
       <c r="F202" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="G202" t="s">
         <v>11</v>
       </c>
       <c r="H202" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.45">
@@ -6084,22 +6195,22 @@
         <v>44378</v>
       </c>
       <c r="B203" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C203" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D203" t="s">
         <v>216</v>
       </c>
       <c r="F203" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="G203" t="s">
         <v>11</v>
       </c>
       <c r="H203" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.45">
@@ -6110,19 +6221,19 @@
         <v>226</v>
       </c>
       <c r="C204" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D204" t="s">
         <v>38</v>
       </c>
       <c r="F204" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G204" t="s">
         <v>11</v>
       </c>
       <c r="H204" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.45">
@@ -6130,22 +6241,22 @@
         <v>44378</v>
       </c>
       <c r="B205" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C205" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D205" t="s">
         <v>216</v>
       </c>
       <c r="F205" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G205" t="s">
         <v>11</v>
       </c>
       <c r="H205" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.45">
@@ -6153,22 +6264,22 @@
         <v>44378</v>
       </c>
       <c r="B206" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C206" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D206" t="s">
         <v>216</v>
       </c>
       <c r="F206" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G206" t="s">
         <v>11</v>
       </c>
       <c r="H206" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.45">
@@ -6179,19 +6290,19 @@
         <v>226</v>
       </c>
       <c r="C207" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D207" t="s">
         <v>38</v>
       </c>
       <c r="F207" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G207" t="s">
         <v>11</v>
       </c>
       <c r="H207" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.45">
@@ -6199,10 +6310,10 @@
         <v>44379</v>
       </c>
       <c r="B208" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C208" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="D208" t="s">
         <v>244</v>
@@ -6214,7 +6325,7 @@
         <v>11</v>
       </c>
       <c r="H208" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.45">
@@ -6222,22 +6333,22 @@
         <v>44379</v>
       </c>
       <c r="B209" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C209" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="D209" t="s">
         <v>216</v>
       </c>
       <c r="F209" t="s">
-        <v>333</v>
+        <v>254</v>
       </c>
       <c r="G209" t="s">
         <v>11</v>
       </c>
       <c r="H209" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.45">
@@ -6245,22 +6356,22 @@
         <v>44379</v>
       </c>
       <c r="B210" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C210" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="D210" t="s">
         <v>216</v>
       </c>
       <c r="F210" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="G210" t="s">
         <v>11</v>
       </c>
       <c r="H210" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.45">
@@ -6268,22 +6379,22 @@
         <v>44379</v>
       </c>
       <c r="B211" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C211" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D211" t="s">
         <v>216</v>
       </c>
       <c r="F211" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="G211" t="s">
         <v>11</v>
       </c>
       <c r="H211" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.45">
@@ -6291,22 +6402,22 @@
         <v>44379</v>
       </c>
       <c r="B212" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C212" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="D212" t="s">
         <v>216</v>
       </c>
       <c r="F212" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="G212" t="s">
         <v>11</v>
       </c>
       <c r="H212" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.45">
@@ -6314,22 +6425,22 @@
         <v>44379</v>
       </c>
       <c r="B213" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C213" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="D213" t="s">
         <v>216</v>
       </c>
       <c r="F213" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="G213" t="s">
         <v>11</v>
       </c>
       <c r="H213" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.45">
@@ -6337,22 +6448,22 @@
         <v>44379</v>
       </c>
       <c r="B214" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C214" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="D214" t="s">
         <v>216</v>
       </c>
       <c r="F214" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="G214" t="s">
         <v>11</v>
       </c>
       <c r="H214" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.45">
@@ -6360,22 +6471,22 @@
         <v>44379</v>
       </c>
       <c r="B215" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C215" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D215" t="s">
         <v>216</v>
       </c>
       <c r="F215" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G215" t="s">
         <v>11</v>
       </c>
       <c r="H215" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.45">
@@ -6383,22 +6494,22 @@
         <v>44379</v>
       </c>
       <c r="B216" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C216" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="D216" t="s">
         <v>216</v>
       </c>
       <c r="F216" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G216" t="s">
         <v>11</v>
       </c>
       <c r="H216" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.45">
@@ -6406,22 +6517,22 @@
         <v>44379</v>
       </c>
       <c r="B217" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C217" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="D217" t="s">
         <v>38</v>
       </c>
       <c r="F217" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G217" t="s">
         <v>11</v>
       </c>
       <c r="H217" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.45">
@@ -6432,7 +6543,7 @@
         <v>108</v>
       </c>
       <c r="C218" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="D218" t="s">
         <v>38</v>
@@ -6444,7 +6555,7 @@
         <v>11</v>
       </c>
       <c r="H218" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.45">
@@ -6452,22 +6563,22 @@
         <v>44379</v>
       </c>
       <c r="B219" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C219" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="D219" t="s">
         <v>38</v>
       </c>
       <c r="F219" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G219" t="s">
         <v>11</v>
       </c>
       <c r="H219" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.45">
@@ -6475,22 +6586,22 @@
         <v>44379</v>
       </c>
       <c r="B220" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C220" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="D220" t="s">
         <v>38</v>
       </c>
       <c r="F220" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G220" t="s">
         <v>11</v>
       </c>
       <c r="H220" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.45">
@@ -6501,7 +6612,7 @@
         <v>230</v>
       </c>
       <c r="C221" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="D221" t="s">
         <v>38</v>
@@ -6513,7 +6624,7 @@
         <v>11</v>
       </c>
       <c r="H221" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.45">
@@ -6524,7 +6635,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="D222" t="s">
         <v>38</v>
@@ -6536,7 +6647,7 @@
         <v>11</v>
       </c>
       <c r="H222" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.45">
@@ -6547,7 +6658,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="D223" t="s">
         <v>38</v>
@@ -6559,7 +6670,7 @@
         <v>11</v>
       </c>
       <c r="H223" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.45">
@@ -6567,22 +6678,22 @@
         <v>44379</v>
       </c>
       <c r="B224" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C224" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="D224" t="s">
         <v>38</v>
       </c>
       <c r="F224" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G224" t="s">
         <v>11</v>
       </c>
       <c r="H224" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.45">
@@ -6590,22 +6701,22 @@
         <v>44379</v>
       </c>
       <c r="B225" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C225" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="D225" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="F225" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G225" t="s">
         <v>11</v>
       </c>
       <c r="H225" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.45">
@@ -6613,22 +6724,22 @@
         <v>44379</v>
       </c>
       <c r="B226" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C226" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="D226" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="F226" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G226" t="s">
         <v>11</v>
       </c>
       <c r="H226" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.45">
@@ -6636,22 +6747,22 @@
         <v>44379</v>
       </c>
       <c r="B227" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C227" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="D227" t="s">
         <v>216</v>
       </c>
       <c r="F227" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G227" t="s">
         <v>11</v>
       </c>
       <c r="H227" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.45">
@@ -6659,22 +6770,22 @@
         <v>44379</v>
       </c>
       <c r="B228" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C228" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="D228" t="s">
         <v>216</v>
       </c>
       <c r="F228" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G228" t="s">
         <v>11</v>
       </c>
       <c r="H228" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.45">
@@ -6682,22 +6793,22 @@
         <v>44379</v>
       </c>
       <c r="B229" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C229" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="D229" t="s">
         <v>216</v>
       </c>
       <c r="F229" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G229" t="s">
         <v>11</v>
       </c>
       <c r="H229" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.45">
@@ -6705,22 +6816,22 @@
         <v>44379</v>
       </c>
       <c r="B230" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C230" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="D230" t="s">
         <v>216</v>
       </c>
       <c r="F230" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G230" t="s">
         <v>11</v>
       </c>
       <c r="H230" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.45">
@@ -6728,22 +6839,22 @@
         <v>44379</v>
       </c>
       <c r="B231" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C231" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="D231" t="s">
         <v>216</v>
       </c>
       <c r="F231" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G231" t="s">
         <v>11</v>
       </c>
       <c r="H231" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.45">
@@ -6751,22 +6862,22 @@
         <v>44379</v>
       </c>
       <c r="B232" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C232" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="D232" t="s">
         <v>216</v>
       </c>
       <c r="F232" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G232" t="s">
         <v>11</v>
       </c>
       <c r="H232" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.45">
@@ -6774,22 +6885,22 @@
         <v>44379</v>
       </c>
       <c r="B233" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C233" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="D233" t="s">
         <v>216</v>
       </c>
       <c r="F233" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G233" t="s">
         <v>11</v>
       </c>
       <c r="H233" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.45">
@@ -6797,22 +6908,22 @@
         <v>44379</v>
       </c>
       <c r="B234" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C234" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="D234" t="s">
         <v>216</v>
       </c>
       <c r="F234" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G234" t="s">
         <v>11</v>
       </c>
       <c r="H234" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.45">
@@ -6820,22 +6931,22 @@
         <v>44379</v>
       </c>
       <c r="B235" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C235" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="D235" t="s">
         <v>216</v>
       </c>
       <c r="F235" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G235" t="s">
         <v>11</v>
       </c>
       <c r="H235" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.45">
@@ -6843,22 +6954,22 @@
         <v>44379</v>
       </c>
       <c r="B236" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="C236" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="D236" t="s">
         <v>216</v>
       </c>
       <c r="F236" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="G236" t="s">
         <v>11</v>
       </c>
       <c r="H236" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.45">
@@ -6866,22 +6977,22 @@
         <v>44379</v>
       </c>
       <c r="B237" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="C237" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="D237" t="s">
         <v>216</v>
       </c>
       <c r="F237" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="G237" t="s">
         <v>11</v>
       </c>
       <c r="H237" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.45">
@@ -6889,22 +7000,22 @@
         <v>44379</v>
       </c>
       <c r="B238" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="C238" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="D238" t="s">
         <v>216</v>
       </c>
       <c r="F238" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="G238" t="s">
         <v>11</v>
       </c>
       <c r="H238" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.45">
@@ -6912,22 +7023,827 @@
         <v>44379</v>
       </c>
       <c r="B239" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="C239" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="D239" t="s">
         <v>216</v>
       </c>
       <c r="F239" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="G239" t="s">
         <v>11</v>
       </c>
       <c r="H239" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A240" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B240" t="s">
+        <v>289</v>
+      </c>
+      <c r="C240" t="s">
+        <v>337</v>
+      </c>
+      <c r="D240" t="s">
+        <v>38</v>
+      </c>
+      <c r="F240" t="s">
+        <v>248</v>
+      </c>
+      <c r="G240" t="s">
+        <v>11</v>
+      </c>
+      <c r="H240" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A241" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B241" t="s">
+        <v>289</v>
+      </c>
+      <c r="C241" t="s">
+        <v>338</v>
+      </c>
+      <c r="D241" t="s">
+        <v>38</v>
+      </c>
+      <c r="F241" t="s">
+        <v>248</v>
+      </c>
+      <c r="G241" t="s">
+        <v>11</v>
+      </c>
+      <c r="H241" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A242" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B242" t="s">
+        <v>289</v>
+      </c>
+      <c r="C242" t="s">
+        <v>339</v>
+      </c>
+      <c r="D242" t="s">
+        <v>38</v>
+      </c>
+      <c r="F242" t="s">
+        <v>248</v>
+      </c>
+      <c r="G242" t="s">
+        <v>11</v>
+      </c>
+      <c r="H242" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A243" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B243" t="s">
+        <v>289</v>
+      </c>
+      <c r="C243" t="s">
+        <v>340</v>
+      </c>
+      <c r="D243" t="s">
+        <v>38</v>
+      </c>
+      <c r="F243" t="s">
+        <v>248</v>
+      </c>
+      <c r="G243" t="s">
+        <v>11</v>
+      </c>
+      <c r="H243" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A244" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B244" t="s">
+        <v>289</v>
+      </c>
+      <c r="C244" t="s">
+        <v>341</v>
+      </c>
+      <c r="D244" t="s">
+        <v>38</v>
+      </c>
+      <c r="F244" t="s">
+        <v>248</v>
+      </c>
+      <c r="G244" t="s">
+        <v>11</v>
+      </c>
+      <c r="H244" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A245" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B245" t="s">
+        <v>289</v>
+      </c>
+      <c r="C245" t="s">
+        <v>342</v>
+      </c>
+      <c r="D245" t="s">
+        <v>38</v>
+      </c>
+      <c r="F245" t="s">
+        <v>248</v>
+      </c>
+      <c r="G245" t="s">
+        <v>11</v>
+      </c>
+      <c r="H245" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A246" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B246" t="s">
+        <v>289</v>
+      </c>
+      <c r="C246" t="s">
+        <v>343</v>
+      </c>
+      <c r="D246" t="s">
+        <v>38</v>
+      </c>
+      <c r="F246" t="s">
+        <v>248</v>
+      </c>
+      <c r="G246" t="s">
+        <v>11</v>
+      </c>
+      <c r="H246" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A247" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B247" t="s">
+        <v>290</v>
+      </c>
+      <c r="C247" t="s">
+        <v>344</v>
+      </c>
+      <c r="D247" t="s">
+        <v>38</v>
+      </c>
+      <c r="F247" t="s">
+        <v>248</v>
+      </c>
+      <c r="G247" t="s">
+        <v>11</v>
+      </c>
+      <c r="H247" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A248" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B248" t="s">
+        <v>290</v>
+      </c>
+      <c r="C248" t="s">
+        <v>345</v>
+      </c>
+      <c r="D248" t="s">
+        <v>38</v>
+      </c>
+      <c r="F248" t="s">
+        <v>248</v>
+      </c>
+      <c r="G248" t="s">
+        <v>11</v>
+      </c>
+      <c r="H248" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A249" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B249" t="s">
+        <v>290</v>
+      </c>
+      <c r="C249" t="s">
+        <v>346</v>
+      </c>
+      <c r="D249" t="s">
+        <v>38</v>
+      </c>
+      <c r="F249" t="s">
+        <v>248</v>
+      </c>
+      <c r="G249" t="s">
+        <v>11</v>
+      </c>
+      <c r="H249" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A250" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B250" t="s">
+        <v>290</v>
+      </c>
+      <c r="C250" t="s">
+        <v>347</v>
+      </c>
+      <c r="D250" t="s">
+        <v>38</v>
+      </c>
+      <c r="F250" t="s">
+        <v>248</v>
+      </c>
+      <c r="G250" t="s">
+        <v>11</v>
+      </c>
+      <c r="H250" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A251" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B251" t="s">
+        <v>290</v>
+      </c>
+      <c r="C251" t="s">
+        <v>348</v>
+      </c>
+      <c r="D251" t="s">
+        <v>38</v>
+      </c>
+      <c r="F251" t="s">
+        <v>248</v>
+      </c>
+      <c r="G251" t="s">
+        <v>11</v>
+      </c>
+      <c r="H251" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A252" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B252" t="s">
+        <v>290</v>
+      </c>
+      <c r="C252" t="s">
+        <v>349</v>
+      </c>
+      <c r="D252" t="s">
+        <v>38</v>
+      </c>
+      <c r="F252" t="s">
+        <v>248</v>
+      </c>
+      <c r="G252" t="s">
+        <v>11</v>
+      </c>
+      <c r="H252" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A253" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B253" t="s">
+        <v>291</v>
+      </c>
+      <c r="C253" t="s">
+        <v>350</v>
+      </c>
+      <c r="D253" t="s">
+        <v>38</v>
+      </c>
+      <c r="F253" t="s">
+        <v>248</v>
+      </c>
+      <c r="G253" t="s">
+        <v>11</v>
+      </c>
+      <c r="H253" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A254" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B254" t="s">
+        <v>291</v>
+      </c>
+      <c r="C254" t="s">
+        <v>351</v>
+      </c>
+      <c r="D254" t="s">
+        <v>38</v>
+      </c>
+      <c r="F254" t="s">
+        <v>248</v>
+      </c>
+      <c r="G254" t="s">
+        <v>11</v>
+      </c>
+      <c r="H254" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A255" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B255" t="s">
+        <v>291</v>
+      </c>
+      <c r="C255" t="s">
+        <v>352</v>
+      </c>
+      <c r="D255" t="s">
+        <v>38</v>
+      </c>
+      <c r="F255" t="s">
+        <v>248</v>
+      </c>
+      <c r="G255" t="s">
+        <v>11</v>
+      </c>
+      <c r="H255" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A256" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B256" t="s">
+        <v>291</v>
+      </c>
+      <c r="C256" t="s">
+        <v>353</v>
+      </c>
+      <c r="D256" t="s">
+        <v>38</v>
+      </c>
+      <c r="F256" t="s">
+        <v>248</v>
+      </c>
+      <c r="G256" t="s">
+        <v>11</v>
+      </c>
+      <c r="H256" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A257" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B257" t="s">
+        <v>291</v>
+      </c>
+      <c r="C257" t="s">
+        <v>354</v>
+      </c>
+      <c r="D257" t="s">
+        <v>38</v>
+      </c>
+      <c r="F257" t="s">
+        <v>248</v>
+      </c>
+      <c r="G257" t="s">
+        <v>11</v>
+      </c>
+      <c r="H257" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A258" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B258" t="s">
+        <v>291</v>
+      </c>
+      <c r="C258" t="s">
+        <v>355</v>
+      </c>
+      <c r="D258" t="s">
+        <v>38</v>
+      </c>
+      <c r="F258" t="s">
+        <v>248</v>
+      </c>
+      <c r="G258" t="s">
+        <v>11</v>
+      </c>
+      <c r="H258" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A259" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B259" t="s">
+        <v>253</v>
+      </c>
+      <c r="C259" t="s">
+        <v>356</v>
+      </c>
+      <c r="D259" t="s">
+        <v>216</v>
+      </c>
+      <c r="F259" t="s">
+        <v>254</v>
+      </c>
+      <c r="G259" t="s">
+        <v>11</v>
+      </c>
+      <c r="H259" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A260" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B260" t="s">
+        <v>292</v>
+      </c>
+      <c r="C260" t="s">
+        <v>357</v>
+      </c>
+      <c r="D260" t="s">
+        <v>216</v>
+      </c>
+      <c r="F260" t="s">
+        <v>252</v>
+      </c>
+      <c r="G260" t="s">
+        <v>11</v>
+      </c>
+      <c r="H260" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A261" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B261" t="s">
+        <v>295</v>
+      </c>
+      <c r="C261" t="s">
+        <v>358</v>
+      </c>
+      <c r="D261" t="s">
+        <v>216</v>
+      </c>
+      <c r="F261" t="s">
+        <v>252</v>
+      </c>
+      <c r="G261" t="s">
+        <v>11</v>
+      </c>
+      <c r="H261" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A262" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B262" t="s">
+        <v>296</v>
+      </c>
+      <c r="C262" t="s">
+        <v>359</v>
+      </c>
+      <c r="D262" t="s">
+        <v>216</v>
+      </c>
+      <c r="F262" t="s">
+        <v>252</v>
+      </c>
+      <c r="G262" t="s">
+        <v>11</v>
+      </c>
+      <c r="H262" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A263" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B263" t="s">
+        <v>297</v>
+      </c>
+      <c r="C263" t="s">
+        <v>360</v>
+      </c>
+      <c r="D263" t="s">
+        <v>216</v>
+      </c>
+      <c r="F263" t="s">
+        <v>252</v>
+      </c>
+      <c r="G263" t="s">
+        <v>11</v>
+      </c>
+      <c r="H263" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A264" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B264" t="s">
+        <v>298</v>
+      </c>
+      <c r="C264" t="s">
+        <v>361</v>
+      </c>
+      <c r="D264" t="s">
+        <v>216</v>
+      </c>
+      <c r="F264" t="s">
+        <v>252</v>
+      </c>
+      <c r="G264" t="s">
+        <v>11</v>
+      </c>
+      <c r="H264" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A265" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B265" t="s">
+        <v>299</v>
+      </c>
+      <c r="C265" t="s">
+        <v>362</v>
+      </c>
+      <c r="D265" t="s">
+        <v>216</v>
+      </c>
+      <c r="F265" t="s">
+        <v>252</v>
+      </c>
+      <c r="G265" t="s">
+        <v>11</v>
+      </c>
+      <c r="H265" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A266" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B266" t="s">
+        <v>300</v>
+      </c>
+      <c r="C266" t="s">
+        <v>363</v>
+      </c>
+      <c r="D266" t="s">
+        <v>216</v>
+      </c>
+      <c r="F266" t="s">
+        <v>252</v>
+      </c>
+      <c r="G266" t="s">
+        <v>11</v>
+      </c>
+      <c r="H266" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A267" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B267" t="s">
+        <v>301</v>
+      </c>
+      <c r="C267" t="s">
+        <v>364</v>
+      </c>
+      <c r="D267" t="s">
+        <v>216</v>
+      </c>
+      <c r="F267" t="s">
+        <v>252</v>
+      </c>
+      <c r="G267" t="s">
+        <v>11</v>
+      </c>
+      <c r="H267" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A268" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B268" t="s">
+        <v>302</v>
+      </c>
+      <c r="C268" t="s">
+        <v>365</v>
+      </c>
+      <c r="D268" t="s">
+        <v>216</v>
+      </c>
+      <c r="F268" t="s">
+        <v>252</v>
+      </c>
+      <c r="G268" t="s">
+        <v>11</v>
+      </c>
+      <c r="H268" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A269" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B269" t="s">
+        <v>366</v>
+      </c>
+      <c r="C269" t="s">
+        <v>366</v>
+      </c>
+      <c r="D269" t="s">
+        <v>216</v>
+      </c>
+      <c r="F269" t="s">
+        <v>317</v>
+      </c>
+      <c r="G269" t="s">
+        <v>11</v>
+      </c>
+      <c r="H269" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A270" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B270" t="s">
+        <v>367</v>
+      </c>
+      <c r="C270" t="s">
+        <v>367</v>
+      </c>
+      <c r="D270" t="s">
+        <v>216</v>
+      </c>
+      <c r="F270" t="s">
+        <v>317</v>
+      </c>
+      <c r="G270" t="s">
+        <v>11</v>
+      </c>
+      <c r="H270" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A271" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B271" t="s">
+        <v>368</v>
+      </c>
+      <c r="C271" t="s">
+        <v>368</v>
+      </c>
+      <c r="D271" t="s">
+        <v>216</v>
+      </c>
+      <c r="F271" t="s">
+        <v>317</v>
+      </c>
+      <c r="G271" t="s">
+        <v>11</v>
+      </c>
+      <c r="H271" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A272" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B272" t="s">
+        <v>369</v>
+      </c>
+      <c r="C272" t="s">
+        <v>369</v>
+      </c>
+      <c r="D272" t="s">
+        <v>216</v>
+      </c>
+      <c r="F272" t="s">
+        <v>317</v>
+      </c>
+      <c r="G272" t="s">
+        <v>11</v>
+      </c>
+      <c r="H272" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A273" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B273" t="s">
+        <v>370</v>
+      </c>
+      <c r="C273" t="s">
+        <v>370</v>
+      </c>
+      <c r="D273" t="s">
+        <v>216</v>
+      </c>
+      <c r="F273" t="s">
+        <v>317</v>
+      </c>
+      <c r="G273" t="s">
+        <v>11</v>
+      </c>
+      <c r="H273" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A274" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B274" t="s">
+        <v>371</v>
+      </c>
+      <c r="C274" t="s">
+        <v>371</v>
+      </c>
+      <c r="D274" t="s">
+        <v>216</v>
+      </c>
+      <c r="F274" t="s">
+        <v>317</v>
+      </c>
+      <c r="G274" t="s">
+        <v>11</v>
+      </c>
+      <c r="H274" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -6942,11 +7858,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6954,7 +7868,7 @@
     <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6968,12 +7882,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44362</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>318</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>
@@ -6981,67 +7895,13 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" t="s">
-        <v>282</v>
-      </c>
-      <c r="H2" t="s">
-        <v>283</v>
-      </c>
-      <c r="I2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K2" t="s">
-        <v>286</v>
-      </c>
-      <c r="L2" t="s">
-        <v>287</v>
-      </c>
-      <c r="M2" t="s">
-        <v>288</v>
-      </c>
-      <c r="N2" t="s">
-        <v>289</v>
-      </c>
-      <c r="O2" t="s">
-        <v>290</v>
-      </c>
-      <c r="P2" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>292</v>
-      </c>
-      <c r="R2" t="s">
-        <v>293</v>
-      </c>
-      <c r="S2" t="s">
-        <v>294</v>
-      </c>
-      <c r="T2" t="s">
-        <v>295</v>
-      </c>
-      <c r="U2" t="s">
-        <v>296</v>
-      </c>
-      <c r="V2" t="s">
-        <v>297</v>
-      </c>
-      <c r="W2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44363</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
@@ -7050,12 +7910,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44364</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -7064,12 +7924,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44365</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -7078,12 +7938,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44366</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -7092,12 +7952,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44367</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -7106,12 +7966,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44368</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -7120,12 +7980,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44369</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -7134,12 +7994,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44370</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -7148,12 +8008,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44371</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -7162,12 +8022,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44372</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -7176,12 +8036,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44373</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -7190,12 +8050,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44374</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -7204,12 +8064,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44375</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -7218,12 +8078,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44376</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -7237,7 +8097,7 @@
         <v>44377</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -7251,7 +8111,7 @@
         <v>44378</v>
       </c>
       <c r="B18" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -7265,7 +8125,7 @@
         <v>44379</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>335</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -7277,6 +8137,9 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>44380</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>

--- a/2021-06 New South Wales Outbreak Paths.xlsx
+++ b/2021-06 New South Wales Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170EA612-2FBB-4FBF-B69A-10916D1F60AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9463FC53-FFE8-4111-833F-2054388DC985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="392">
   <si>
     <t>Source</t>
   </si>
@@ -685,9 +685,6 @@
     <t>Crossways Hotel</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>VIC</t>
   </si>
   <si>
@@ -994,57 +991,6 @@
     <t>#f7f9ff</t>
   </si>
   <si>
-    <t>#eef2ff</t>
-  </si>
-  <si>
-    <t>#e6ecff</t>
-  </si>
-  <si>
-    <t>#dde6ff</t>
-  </si>
-  <si>
-    <t>#d5dfff</t>
-  </si>
-  <si>
-    <t>#ccd9ff</t>
-  </si>
-  <si>
-    <t>#c3d3ff</t>
-  </si>
-  <si>
-    <t>#bacdff</t>
-  </si>
-  <si>
-    <t>#b0c7ff</t>
-  </si>
-  <si>
-    <t>#a6c1ff</t>
-  </si>
-  <si>
-    <t>#9cbbff</t>
-  </si>
-  <si>
-    <t>#92b5ff</t>
-  </si>
-  <si>
-    <t>#87afff</t>
-  </si>
-  <si>
-    <t>#7ba9ff</t>
-  </si>
-  <si>
-    <t>#6ea3ff</t>
-  </si>
-  <si>
-    <t>#5f9eff</t>
-  </si>
-  <si>
-    <t>#4e98ff</t>
-  </si>
-  <si>
-    <t>#3993ff</t>
-  </si>
-  <si>
     <t>Summit Care Baulkham Hills</t>
   </si>
   <si>
@@ -1151,6 +1097,120 @@
   </si>
   <si>
     <t>S262</t>
+  </si>
+  <si>
+    <t>Unlinked/Under Investigation</t>
+  </si>
+  <si>
+    <t>Linked (Unknown Cluster)</t>
+  </si>
+  <si>
+    <t>#eff3ff</t>
+  </si>
+  <si>
+    <t>#e7edff</t>
+  </si>
+  <si>
+    <t>#dfe7ff</t>
+  </si>
+  <si>
+    <t>#d7e1ff</t>
+  </si>
+  <si>
+    <t>#cfdbff</t>
+  </si>
+  <si>
+    <t>#c6d5ff</t>
+  </si>
+  <si>
+    <t>#bdcfff</t>
+  </si>
+  <si>
+    <t>#b4c9ff</t>
+  </si>
+  <si>
+    <t>#abc4ff</t>
+  </si>
+  <si>
+    <t>#a2beff</t>
+  </si>
+  <si>
+    <t>#98b8ff</t>
+  </si>
+  <si>
+    <t>#8eb3ff</t>
+  </si>
+  <si>
+    <t>#83adff</t>
+  </si>
+  <si>
+    <t>#77a8ff</t>
+  </si>
+  <si>
+    <t>#6ba2ff</t>
+  </si>
+  <si>
+    <t>#5d9dff</t>
+  </si>
+  <si>
+    <t>#4c97ff</t>
+  </si>
+  <si>
+    <t>#3792ff</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>S263 m80</t>
+  </si>
+  <si>
+    <t>Summit Care Baulkham Hills Residents</t>
+  </si>
+  <si>
+    <t>S264 w80</t>
+  </si>
+  <si>
+    <t>S265 w90</t>
+  </si>
+  <si>
+    <t>S266</t>
+  </si>
+  <si>
+    <t>S267</t>
+  </si>
+  <si>
+    <t>S268</t>
+  </si>
+  <si>
+    <t>S269</t>
+  </si>
+  <si>
+    <t>S270</t>
+  </si>
+  <si>
+    <t>S271</t>
+  </si>
+  <si>
+    <t>S272</t>
+  </si>
+  <si>
+    <t>S273</t>
+  </si>
+  <si>
+    <t>S274</t>
+  </si>
+  <si>
+    <t>S275</t>
+  </si>
+  <si>
+    <t>S276</t>
+  </si>
+  <si>
+    <t>S277</t>
+  </si>
+  <si>
+    <t>S278</t>
   </si>
 </sst>
 </file>
@@ -1220,8 +1280,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H274" totalsRowShown="0">
-  <autoFilter ref="A1:H274" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H291" totalsRowShown="0">
+  <autoFilter ref="A1:H291" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -1546,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H274"/>
+  <dimension ref="A1:H291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="B236" sqref="B236:B239"/>
+    <sheetView topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="H278" sqref="H278:H291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1585,7 +1645,7 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -1605,7 +1665,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -1628,7 +1688,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -1651,7 +1711,7 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -1674,7 +1734,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -1697,7 +1757,7 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -1720,7 +1780,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -1743,7 +1803,7 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -1760,13 +1820,13 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -1783,13 +1843,13 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -1812,7 +1872,7 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -1829,13 +1889,13 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -1852,13 +1912,13 @@
         <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -1875,13 +1935,13 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1898,13 +1958,13 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -1921,13 +1981,13 @@
         <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -1950,7 +2010,7 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -1970,7 +2030,7 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -1990,7 +2050,7 @@
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -2010,7 +2070,7 @@
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -2033,7 +2093,7 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -2056,7 +2116,7 @@
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -2079,7 +2139,7 @@
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -2102,7 +2162,7 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -2125,7 +2185,7 @@
         <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -2148,7 +2208,7 @@
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -2171,7 +2231,7 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -2194,7 +2254,7 @@
         <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -2217,7 +2277,7 @@
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
@@ -2240,7 +2300,7 @@
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
@@ -2263,7 +2323,7 @@
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
@@ -2286,7 +2346,7 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -2309,7 +2369,7 @@
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
@@ -2332,7 +2392,7 @@
         <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
@@ -2355,7 +2415,7 @@
         <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
@@ -2378,7 +2438,7 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
@@ -2401,7 +2461,7 @@
         <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
@@ -2424,7 +2484,7 @@
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
@@ -2447,7 +2507,7 @@
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
@@ -2470,7 +2530,7 @@
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
@@ -2487,13 +2547,13 @@
         <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
@@ -2516,7 +2576,7 @@
         <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
@@ -2530,7 +2590,7 @@
         <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>216</v>
+        <v>354</v>
       </c>
       <c r="F43" t="s">
         <v>106</v>
@@ -2539,7 +2599,7 @@
         <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
@@ -2559,7 +2619,7 @@
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
@@ -2582,7 +2642,7 @@
         <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
@@ -2605,7 +2665,7 @@
         <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
@@ -2628,7 +2688,7 @@
         <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
@@ -2651,7 +2711,7 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
@@ -2674,7 +2734,7 @@
         <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
@@ -2688,7 +2748,7 @@
         <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F50" t="s">
         <v>68</v>
@@ -2697,7 +2757,7 @@
         <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
@@ -2711,7 +2771,7 @@
         <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F51" t="s">
         <v>96</v>
@@ -2720,7 +2780,7 @@
         <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
@@ -2743,7 +2803,7 @@
         <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
@@ -2766,7 +2826,7 @@
         <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
@@ -2789,7 +2849,7 @@
         <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
@@ -2812,7 +2872,7 @@
         <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
@@ -2835,7 +2895,7 @@
         <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
@@ -2858,7 +2918,7 @@
         <v>11</v>
       </c>
       <c r="H57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
@@ -2875,13 +2935,13 @@
         <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
@@ -2898,13 +2958,13 @@
         <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
@@ -2927,7 +2987,7 @@
         <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
@@ -2950,7 +3010,7 @@
         <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
@@ -2973,7 +3033,7 @@
         <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
@@ -2996,7 +3056,7 @@
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
@@ -3019,7 +3079,7 @@
         <v>11</v>
       </c>
       <c r="H64" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
@@ -3042,7 +3102,7 @@
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
@@ -3065,7 +3125,7 @@
         <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
@@ -3088,7 +3148,7 @@
         <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
@@ -3111,7 +3171,7 @@
         <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
@@ -3134,7 +3194,7 @@
         <v>11</v>
       </c>
       <c r="H69" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
@@ -3157,7 +3217,7 @@
         <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
@@ -3180,7 +3240,7 @@
         <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
@@ -3203,7 +3263,7 @@
         <v>11</v>
       </c>
       <c r="H72" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
@@ -3226,7 +3286,7 @@
         <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
@@ -3249,7 +3309,7 @@
         <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
@@ -3266,13 +3326,13 @@
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G75" t="s">
         <v>11</v>
       </c>
       <c r="H75" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
@@ -3289,13 +3349,13 @@
         <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
       </c>
       <c r="H76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
@@ -3312,13 +3372,13 @@
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
@@ -3341,7 +3401,7 @@
         <v>11</v>
       </c>
       <c r="H78" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
@@ -3364,7 +3424,7 @@
         <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
@@ -3381,13 +3441,13 @@
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
       </c>
       <c r="H80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
@@ -3404,13 +3464,13 @@
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
       </c>
       <c r="H81" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
@@ -3427,13 +3487,13 @@
         <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
       </c>
       <c r="H82" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
@@ -3450,13 +3510,13 @@
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
       </c>
       <c r="H83" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
@@ -3473,13 +3533,13 @@
         <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
@@ -3496,13 +3556,13 @@
         <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
       </c>
       <c r="H85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
@@ -3519,13 +3579,13 @@
         <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
       </c>
       <c r="H86" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
@@ -3542,13 +3602,13 @@
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
@@ -3565,13 +3625,13 @@
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G88" t="s">
         <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
@@ -3585,16 +3645,16 @@
         <v>137</v>
       </c>
       <c r="D89" t="s">
-        <v>216</v>
+        <v>354</v>
       </c>
       <c r="F89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
       </c>
       <c r="H89" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
@@ -3617,7 +3677,7 @@
         <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.45">
@@ -3640,7 +3700,7 @@
         <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.45">
@@ -3663,7 +3723,7 @@
         <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.45">
@@ -3686,7 +3746,7 @@
         <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.45">
@@ -3709,7 +3769,7 @@
         <v>11</v>
       </c>
       <c r="H94" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.45">
@@ -3732,7 +3792,7 @@
         <v>11</v>
       </c>
       <c r="H95" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
@@ -3755,7 +3815,7 @@
         <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
@@ -3778,7 +3838,7 @@
         <v>11</v>
       </c>
       <c r="H97" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
@@ -3801,7 +3861,7 @@
         <v>11</v>
       </c>
       <c r="H98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.45">
@@ -3824,7 +3884,7 @@
         <v>11</v>
       </c>
       <c r="H99" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
@@ -3847,7 +3907,7 @@
         <v>11</v>
       </c>
       <c r="H100" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
@@ -3870,7 +3930,7 @@
         <v>11</v>
       </c>
       <c r="H101" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
@@ -3893,7 +3953,7 @@
         <v>11</v>
       </c>
       <c r="H102" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
@@ -3916,7 +3976,7 @@
         <v>11</v>
       </c>
       <c r="H103" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
@@ -3939,7 +3999,7 @@
         <v>11</v>
       </c>
       <c r="H104" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.45">
@@ -3962,7 +4022,7 @@
         <v>11</v>
       </c>
       <c r="H105" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.45">
@@ -3979,13 +4039,13 @@
         <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G106" t="s">
         <v>11</v>
       </c>
       <c r="H106" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.45">
@@ -4002,13 +4062,13 @@
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G107" t="s">
         <v>11</v>
       </c>
       <c r="H107" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.45">
@@ -4025,13 +4085,13 @@
         <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G108" t="s">
         <v>11</v>
       </c>
       <c r="H108" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.45">
@@ -4048,13 +4108,13 @@
         <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G109" t="s">
         <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.45">
@@ -4077,7 +4137,7 @@
         <v>11</v>
       </c>
       <c r="H110" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.45">
@@ -4100,7 +4160,7 @@
         <v>11</v>
       </c>
       <c r="H111" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.45">
@@ -4117,13 +4177,13 @@
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G112" t="s">
         <v>11</v>
       </c>
       <c r="H112" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.45">
@@ -4140,13 +4200,13 @@
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G113" t="s">
         <v>11</v>
       </c>
       <c r="H113" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.45">
@@ -4163,13 +4223,13 @@
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G114" t="s">
         <v>11</v>
       </c>
       <c r="H114" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.45">
@@ -4186,13 +4246,13 @@
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
       </c>
       <c r="H115" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.45">
@@ -4209,13 +4269,13 @@
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G116" t="s">
         <v>11</v>
       </c>
       <c r="H116" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.45">
@@ -4232,13 +4292,13 @@
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.45">
@@ -4255,13 +4315,13 @@
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G118" t="s">
         <v>11</v>
       </c>
       <c r="H118" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.45">
@@ -4278,13 +4338,13 @@
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G119" t="s">
         <v>11</v>
       </c>
       <c r="H119" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.45">
@@ -4301,13 +4361,13 @@
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G120" t="s">
         <v>11</v>
       </c>
       <c r="H120" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.45">
@@ -4324,13 +4384,13 @@
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G121" t="s">
         <v>11</v>
       </c>
       <c r="H121" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.45">
@@ -4347,13 +4407,13 @@
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G122" t="s">
         <v>11</v>
       </c>
       <c r="H122" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.45">
@@ -4370,13 +4430,13 @@
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G123" t="s">
         <v>11</v>
       </c>
       <c r="H123" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.45">
@@ -4393,13 +4453,13 @@
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G124" t="s">
         <v>11</v>
       </c>
       <c r="H124" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.45">
@@ -4416,13 +4476,13 @@
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G125" t="s">
         <v>11</v>
       </c>
       <c r="H125" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.45">
@@ -4439,13 +4499,13 @@
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G126" t="s">
         <v>11</v>
       </c>
       <c r="H126" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.45">
@@ -4462,13 +4522,13 @@
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G127" t="s">
         <v>11</v>
       </c>
       <c r="H127" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.45">
@@ -4491,7 +4551,7 @@
         <v>11</v>
       </c>
       <c r="H128" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.45">
@@ -4514,7 +4574,7 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.45">
@@ -4528,16 +4588,16 @@
         <v>179</v>
       </c>
       <c r="D130" t="s">
-        <v>216</v>
+        <v>354</v>
       </c>
       <c r="F130" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G130" t="s">
         <v>11</v>
       </c>
       <c r="H130" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.45">
@@ -4560,7 +4620,7 @@
         <v>11</v>
       </c>
       <c r="H131" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.45">
@@ -4583,7 +4643,7 @@
         <v>11</v>
       </c>
       <c r="H132" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.45">
@@ -4606,7 +4666,7 @@
         <v>11</v>
       </c>
       <c r="H133" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.45">
@@ -4623,13 +4683,13 @@
         <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G134" t="s">
         <v>11</v>
       </c>
       <c r="H134" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.45">
@@ -4646,13 +4706,13 @@
         <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G135" t="s">
         <v>11</v>
       </c>
       <c r="H135" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.45">
@@ -4666,13 +4726,13 @@
         <v>185</v>
       </c>
       <c r="D136" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="G136" t="s">
         <v>11</v>
       </c>
       <c r="H136" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.45">
@@ -4686,13 +4746,13 @@
         <v>186</v>
       </c>
       <c r="D137" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="G137" t="s">
         <v>11</v>
       </c>
       <c r="H137" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.45">
@@ -4706,7 +4766,7 @@
         <v>192</v>
       </c>
       <c r="D138" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F138" t="s">
         <v>88</v>
@@ -4715,7 +4775,7 @@
         <v>11</v>
       </c>
       <c r="H138" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.45">
@@ -4726,10 +4786,10 @@
         <v>192</v>
       </c>
       <c r="C139" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D139" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F139" t="s">
         <v>193</v>
@@ -4738,7 +4798,7 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.45">
@@ -4752,16 +4812,16 @@
         <v>194</v>
       </c>
       <c r="D140" t="s">
+        <v>243</v>
+      </c>
+      <c r="F140" t="s">
         <v>244</v>
       </c>
-      <c r="F140" t="s">
-        <v>245</v>
-      </c>
       <c r="G140" t="s">
         <v>11</v>
       </c>
       <c r="H140" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.45">
@@ -4778,13 +4838,13 @@
         <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G141" t="s">
         <v>11</v>
       </c>
       <c r="H141" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.45">
@@ -4801,13 +4861,13 @@
         <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G142" t="s">
         <v>11</v>
       </c>
       <c r="H142" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.45">
@@ -4824,13 +4884,13 @@
         <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G143" t="s">
         <v>11</v>
       </c>
       <c r="H143" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.45">
@@ -4847,13 +4907,13 @@
         <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G144" t="s">
         <v>11</v>
       </c>
       <c r="H144" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.45">
@@ -4870,13 +4930,13 @@
         <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G145" t="s">
         <v>11</v>
       </c>
       <c r="H145" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.45">
@@ -4893,13 +4953,13 @@
         <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G146" t="s">
         <v>11</v>
       </c>
       <c r="H146" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.45">
@@ -4916,13 +4976,13 @@
         <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G147" t="s">
         <v>11</v>
       </c>
       <c r="H147" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.45">
@@ -4939,13 +4999,13 @@
         <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G148" t="s">
         <v>11</v>
       </c>
       <c r="H148" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.45">
@@ -4962,13 +5022,13 @@
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G149" t="s">
         <v>11</v>
       </c>
       <c r="H149" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.45">
@@ -4985,13 +5045,13 @@
         <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G150" t="s">
         <v>11</v>
       </c>
       <c r="H150" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.45">
@@ -5005,16 +5065,16 @@
         <v>205</v>
       </c>
       <c r="D151" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F151" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G151" t="s">
         <v>11</v>
       </c>
       <c r="H151" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.45">
@@ -5031,13 +5091,13 @@
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G152" t="s">
         <v>11</v>
       </c>
       <c r="H152" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.45">
@@ -5054,13 +5114,13 @@
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G153" t="s">
         <v>11</v>
       </c>
       <c r="H153" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.45">
@@ -5077,13 +5137,13 @@
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G154" t="s">
         <v>11</v>
       </c>
       <c r="H154" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.45">
@@ -5100,13 +5160,13 @@
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G155" t="s">
         <v>11</v>
       </c>
       <c r="H155" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.45">
@@ -5123,13 +5183,13 @@
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G156" t="s">
         <v>11</v>
       </c>
       <c r="H156" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.45">
@@ -5146,13 +5206,13 @@
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G157" t="s">
         <v>11</v>
       </c>
       <c r="H157" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.45">
@@ -5166,16 +5226,16 @@
         <v>212</v>
       </c>
       <c r="D158" t="s">
-        <v>216</v>
+        <v>354</v>
       </c>
       <c r="F158" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G158" t="s">
         <v>11</v>
       </c>
       <c r="H158" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.45">
@@ -5198,7 +5258,7 @@
         <v>11</v>
       </c>
       <c r="H159" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.45">
@@ -5209,19 +5269,19 @@
         <v>206</v>
       </c>
       <c r="C160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D160" t="s">
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G160" t="s">
         <v>11</v>
       </c>
       <c r="H160" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.45">
@@ -5232,19 +5292,19 @@
         <v>76</v>
       </c>
       <c r="C161" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D161" t="s">
         <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G161" t="s">
         <v>11</v>
       </c>
       <c r="H161" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.45">
@@ -5255,19 +5315,19 @@
         <v>77</v>
       </c>
       <c r="C162" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D162" t="s">
         <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G162" t="s">
         <v>11</v>
       </c>
       <c r="H162" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.45">
@@ -5278,19 +5338,19 @@
         <v>78</v>
       </c>
       <c r="C163" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D163" t="s">
         <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G163" t="s">
         <v>11</v>
       </c>
       <c r="H163" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.45">
@@ -5301,19 +5361,19 @@
         <v>79</v>
       </c>
       <c r="C164" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D164" t="s">
         <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G164" t="s">
         <v>11</v>
       </c>
       <c r="H164" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.45">
@@ -5324,7 +5384,7 @@
         <v>147</v>
       </c>
       <c r="C165" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D165" t="s">
         <v>38</v>
@@ -5336,7 +5396,7 @@
         <v>11</v>
       </c>
       <c r="H165" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.45">
@@ -5347,7 +5407,7 @@
         <v>147</v>
       </c>
       <c r="C166" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D166" t="s">
         <v>38</v>
@@ -5359,7 +5419,7 @@
         <v>11</v>
       </c>
       <c r="H166" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.45">
@@ -5370,7 +5430,7 @@
         <v>147</v>
       </c>
       <c r="C167" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D167" t="s">
         <v>38</v>
@@ -5382,7 +5442,7 @@
         <v>11</v>
       </c>
       <c r="H167" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.45">
@@ -5393,19 +5453,19 @@
         <v>147</v>
       </c>
       <c r="C168" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D168" t="s">
         <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G168" t="s">
         <v>11</v>
       </c>
       <c r="H168" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.45">
@@ -5416,7 +5476,7 @@
         <v>99</v>
       </c>
       <c r="C169" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D169" t="s">
         <v>38</v>
@@ -5428,7 +5488,7 @@
         <v>11</v>
       </c>
       <c r="H169" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.45">
@@ -5439,7 +5499,7 @@
         <v>99</v>
       </c>
       <c r="C170" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D170" t="s">
         <v>38</v>
@@ -5451,7 +5511,7 @@
         <v>11</v>
       </c>
       <c r="H170" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.45">
@@ -5462,7 +5522,7 @@
         <v>99</v>
       </c>
       <c r="C171" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D171" t="s">
         <v>38</v>
@@ -5474,7 +5534,7 @@
         <v>11</v>
       </c>
       <c r="H171" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.45">
@@ -5485,19 +5545,19 @@
         <v>92</v>
       </c>
       <c r="C172" t="s">
+        <v>229</v>
+      </c>
+      <c r="D172" t="s">
+        <v>38</v>
+      </c>
+      <c r="F172" t="s">
         <v>230</v>
       </c>
-      <c r="D172" t="s">
-        <v>38</v>
-      </c>
-      <c r="F172" t="s">
-        <v>231</v>
-      </c>
       <c r="G172" t="s">
         <v>11</v>
       </c>
       <c r="H172" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.45">
@@ -5508,7 +5568,7 @@
         <v>147</v>
       </c>
       <c r="C173" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D173" t="s">
         <v>38</v>
@@ -5520,7 +5580,7 @@
         <v>11</v>
       </c>
       <c r="H173" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.45">
@@ -5531,7 +5591,7 @@
         <v>147</v>
       </c>
       <c r="C174" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D174" t="s">
         <v>38</v>
@@ -5543,7 +5603,7 @@
         <v>11</v>
       </c>
       <c r="H174" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.45">
@@ -5554,19 +5614,19 @@
         <v>157</v>
       </c>
       <c r="C175" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D175" t="s">
         <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G175" t="s">
         <v>11</v>
       </c>
       <c r="H175" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.45">
@@ -5577,19 +5637,19 @@
         <v>157</v>
       </c>
       <c r="C176" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D176" t="s">
         <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G176" t="s">
         <v>11</v>
       </c>
       <c r="H176" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.45">
@@ -5600,19 +5660,19 @@
         <v>158</v>
       </c>
       <c r="C177" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D177" t="s">
         <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G177" t="s">
         <v>11</v>
       </c>
       <c r="H177" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.45">
@@ -5623,19 +5683,19 @@
         <v>157</v>
       </c>
       <c r="C178" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D178" t="s">
         <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G178" t="s">
         <v>11</v>
       </c>
       <c r="H178" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.45">
@@ -5643,22 +5703,22 @@
         <v>44377</v>
       </c>
       <c r="B179" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C179" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D179" t="s">
-        <v>216</v>
+        <v>354</v>
       </c>
       <c r="F179" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G179" t="s">
         <v>11</v>
       </c>
       <c r="H179" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.45">
@@ -5666,22 +5726,22 @@
         <v>44377</v>
       </c>
       <c r="B180" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C180" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D180" t="s">
-        <v>216</v>
+        <v>354</v>
       </c>
       <c r="F180" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G180" t="s">
         <v>11</v>
       </c>
       <c r="H180" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.45">
@@ -5689,22 +5749,22 @@
         <v>44377</v>
       </c>
       <c r="B181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D181" t="s">
-        <v>216</v>
+        <v>354</v>
       </c>
       <c r="F181" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G181" t="s">
         <v>11</v>
       </c>
       <c r="H181" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.45">
@@ -5715,19 +5775,19 @@
         <v>148</v>
       </c>
       <c r="C182" t="s">
+        <v>240</v>
+      </c>
+      <c r="D182" t="s">
         <v>241</v>
       </c>
-      <c r="D182" t="s">
+      <c r="F182" t="s">
         <v>242</v>
       </c>
-      <c r="F182" t="s">
-        <v>243</v>
-      </c>
       <c r="G182" t="s">
         <v>11</v>
       </c>
       <c r="H182" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.45">
@@ -5738,19 +5798,19 @@
         <v>192</v>
       </c>
       <c r="C183" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D183" t="s">
+        <v>243</v>
+      </c>
+      <c r="F183" t="s">
         <v>244</v>
       </c>
-      <c r="F183" t="s">
-        <v>245</v>
-      </c>
       <c r="G183" t="s">
         <v>11</v>
       </c>
       <c r="H183" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.45">
@@ -5758,22 +5818,22 @@
         <v>44378</v>
       </c>
       <c r="B184" t="s">
+        <v>252</v>
+      </c>
+      <c r="C184" t="s">
+        <v>252</v>
+      </c>
+      <c r="D184" t="s">
+        <v>354</v>
+      </c>
+      <c r="F184" t="s">
         <v>253</v>
       </c>
-      <c r="C184" t="s">
-        <v>253</v>
-      </c>
-      <c r="D184" t="s">
-        <v>216</v>
-      </c>
-      <c r="F184" t="s">
-        <v>254</v>
-      </c>
       <c r="G184" t="s">
         <v>11</v>
       </c>
       <c r="H184" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.45">
@@ -5781,13 +5841,13 @@
         <v>44378</v>
       </c>
       <c r="B185" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C185" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D185" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F185" t="s">
         <v>8</v>
@@ -5796,7 +5856,7 @@
         <v>11</v>
       </c>
       <c r="H185" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.45">
@@ -5804,22 +5864,22 @@
         <v>44378</v>
       </c>
       <c r="B186" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C186" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D186" t="s">
         <v>38</v>
       </c>
       <c r="F186" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G186" t="s">
         <v>11</v>
       </c>
       <c r="H186" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.45">
@@ -5827,22 +5887,22 @@
         <v>44378</v>
       </c>
       <c r="B187" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C187" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D187" t="s">
         <v>38</v>
       </c>
       <c r="F187" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G187" t="s">
         <v>11</v>
       </c>
       <c r="H187" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.45">
@@ -5850,22 +5910,22 @@
         <v>44378</v>
       </c>
       <c r="B188" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C188" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D188" t="s">
         <v>38</v>
       </c>
       <c r="F188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G188" t="s">
         <v>11</v>
       </c>
       <c r="H188" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.45">
@@ -5876,7 +5936,7 @@
         <v>85</v>
       </c>
       <c r="C189" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D189" t="s">
         <v>38</v>
@@ -5888,7 +5948,7 @@
         <v>11</v>
       </c>
       <c r="H189" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.45">
@@ -5899,19 +5959,19 @@
         <v>196</v>
       </c>
       <c r="C190" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D190" t="s">
         <v>38</v>
       </c>
       <c r="F190" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G190" t="s">
         <v>11</v>
       </c>
       <c r="H190" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.45">
@@ -5922,19 +5982,19 @@
         <v>148</v>
       </c>
       <c r="C191" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D191" t="s">
         <v>38</v>
       </c>
       <c r="F191" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G191" t="s">
         <v>11</v>
       </c>
       <c r="H191" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.45">
@@ -5945,19 +6005,19 @@
         <v>148</v>
       </c>
       <c r="C192" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D192" t="s">
         <v>38</v>
       </c>
       <c r="F192" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G192" t="s">
         <v>11</v>
       </c>
       <c r="H192" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.45">
@@ -5965,22 +6025,22 @@
         <v>44378</v>
       </c>
       <c r="B193" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D193" t="s">
         <v>38</v>
       </c>
       <c r="F193" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G193" t="s">
         <v>11</v>
       </c>
       <c r="H193" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.45">
@@ -5988,22 +6048,22 @@
         <v>44378</v>
       </c>
       <c r="B194" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C194" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D194" t="s">
         <v>38</v>
       </c>
       <c r="F194" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G194" t="s">
         <v>11</v>
       </c>
       <c r="H194" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.45">
@@ -6011,22 +6071,22 @@
         <v>44378</v>
       </c>
       <c r="B195" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C195" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D195" t="s">
         <v>38</v>
       </c>
       <c r="F195" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G195" t="s">
         <v>11</v>
       </c>
       <c r="H195" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.45">
@@ -6034,22 +6094,22 @@
         <v>44378</v>
       </c>
       <c r="B196" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C196" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D196" t="s">
         <v>38</v>
       </c>
       <c r="F196" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G196" t="s">
         <v>11</v>
       </c>
       <c r="H196" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.45">
@@ -6057,22 +6117,22 @@
         <v>44378</v>
       </c>
       <c r="B197" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C197" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D197" t="s">
         <v>38</v>
       </c>
       <c r="F197" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G197" t="s">
         <v>11</v>
       </c>
       <c r="H197" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.45">
@@ -6080,22 +6140,22 @@
         <v>44378</v>
       </c>
       <c r="B198" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C198" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D198" t="s">
         <v>38</v>
       </c>
       <c r="F198" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G198" t="s">
         <v>11</v>
       </c>
       <c r="H198" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.45">
@@ -6103,22 +6163,22 @@
         <v>44378</v>
       </c>
       <c r="B199" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C199" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D199" t="s">
         <v>38</v>
       </c>
       <c r="F199" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G199" t="s">
         <v>11</v>
       </c>
       <c r="H199" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.45">
@@ -6126,22 +6186,22 @@
         <v>44378</v>
       </c>
       <c r="B200" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C200" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D200" t="s">
         <v>38</v>
       </c>
       <c r="F200" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G200" t="s">
         <v>11</v>
       </c>
       <c r="H200" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.45">
@@ -6149,22 +6209,22 @@
         <v>44378</v>
       </c>
       <c r="B201" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C201" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D201" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F201" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G201" t="s">
         <v>11</v>
       </c>
       <c r="H201" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.45">
@@ -6172,22 +6232,22 @@
         <v>44378</v>
       </c>
       <c r="B202" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C202" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D202" t="s">
-        <v>216</v>
+        <v>354</v>
       </c>
       <c r="F202" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G202" t="s">
         <v>11</v>
       </c>
       <c r="H202" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.45">
@@ -6195,22 +6255,22 @@
         <v>44378</v>
       </c>
       <c r="B203" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C203" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D203" t="s">
-        <v>216</v>
+        <v>354</v>
       </c>
       <c r="F203" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G203" t="s">
         <v>11</v>
       </c>
       <c r="H203" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.45">
@@ -6218,22 +6278,22 @@
         <v>44378</v>
       </c>
       <c r="B204" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C204" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D204" t="s">
         <v>38</v>
       </c>
       <c r="F204" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G204" t="s">
         <v>11</v>
       </c>
       <c r="H204" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.45">
@@ -6241,22 +6301,22 @@
         <v>44378</v>
       </c>
       <c r="B205" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C205" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D205" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F205" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G205" t="s">
         <v>11</v>
       </c>
       <c r="H205" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.45">
@@ -6264,22 +6324,22 @@
         <v>44378</v>
       </c>
       <c r="B206" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C206" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D206" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F206" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G206" t="s">
         <v>11</v>
       </c>
       <c r="H206" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.45">
@@ -6287,22 +6347,22 @@
         <v>44378</v>
       </c>
       <c r="B207" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C207" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D207" t="s">
         <v>38</v>
       </c>
       <c r="F207" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G207" t="s">
         <v>11</v>
       </c>
       <c r="H207" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.45">
@@ -6310,13 +6370,13 @@
         <v>44379</v>
       </c>
       <c r="B208" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C208" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D208" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F208" t="s">
         <v>8</v>
@@ -6325,7 +6385,7 @@
         <v>11</v>
       </c>
       <c r="H208" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.45">
@@ -6333,22 +6393,22 @@
         <v>44379</v>
       </c>
       <c r="B209" t="s">
+        <v>252</v>
+      </c>
+      <c r="C209" t="s">
+        <v>314</v>
+      </c>
+      <c r="D209" t="s">
+        <v>355</v>
+      </c>
+      <c r="F209" t="s">
         <v>253</v>
       </c>
-      <c r="C209" t="s">
-        <v>315</v>
-      </c>
-      <c r="D209" t="s">
-        <v>216</v>
-      </c>
-      <c r="F209" t="s">
-        <v>254</v>
-      </c>
       <c r="G209" t="s">
         <v>11</v>
       </c>
       <c r="H209" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.45">
@@ -6356,22 +6416,22 @@
         <v>44379</v>
       </c>
       <c r="B210" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C210" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D210" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F210" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G210" t="s">
         <v>11</v>
       </c>
       <c r="H210" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.45">
@@ -6379,22 +6439,22 @@
         <v>44379</v>
       </c>
       <c r="B211" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C211" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D211" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F211" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G211" t="s">
         <v>11</v>
       </c>
       <c r="H211" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.45">
@@ -6402,22 +6462,22 @@
         <v>44379</v>
       </c>
       <c r="B212" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C212" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D212" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F212" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G212" t="s">
         <v>11</v>
       </c>
       <c r="H212" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.45">
@@ -6425,22 +6485,22 @@
         <v>44379</v>
       </c>
       <c r="B213" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C213" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D213" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F213" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G213" t="s">
         <v>11</v>
       </c>
       <c r="H213" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.45">
@@ -6448,22 +6508,22 @@
         <v>44379</v>
       </c>
       <c r="B214" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C214" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D214" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F214" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G214" t="s">
         <v>11</v>
       </c>
       <c r="H214" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.45">
@@ -6471,22 +6531,22 @@
         <v>44379</v>
       </c>
       <c r="B215" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C215" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D215" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F215" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="G215" t="s">
         <v>11</v>
       </c>
       <c r="H215" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.45">
@@ -6494,22 +6554,22 @@
         <v>44379</v>
       </c>
       <c r="B216" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C216" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D216" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F216" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="G216" t="s">
         <v>11</v>
       </c>
       <c r="H216" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.45">
@@ -6517,22 +6577,22 @@
         <v>44379</v>
       </c>
       <c r="B217" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C217" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D217" t="s">
         <v>38</v>
       </c>
       <c r="F217" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G217" t="s">
         <v>11</v>
       </c>
       <c r="H217" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.45">
@@ -6543,7 +6603,7 @@
         <v>108</v>
       </c>
       <c r="C218" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D218" t="s">
         <v>38</v>
@@ -6555,7 +6615,7 @@
         <v>11</v>
       </c>
       <c r="H218" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.45">
@@ -6563,22 +6623,22 @@
         <v>44379</v>
       </c>
       <c r="B219" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C219" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D219" t="s">
         <v>38</v>
       </c>
       <c r="F219" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G219" t="s">
         <v>11</v>
       </c>
       <c r="H219" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.45">
@@ -6586,22 +6646,22 @@
         <v>44379</v>
       </c>
       <c r="B220" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C220" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D220" t="s">
         <v>38</v>
       </c>
       <c r="F220" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G220" t="s">
         <v>11</v>
       </c>
       <c r="H220" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.45">
@@ -6609,22 +6669,22 @@
         <v>44379</v>
       </c>
       <c r="B221" t="s">
+        <v>229</v>
+      </c>
+      <c r="C221" t="s">
+        <v>285</v>
+      </c>
+      <c r="D221" t="s">
+        <v>38</v>
+      </c>
+      <c r="F221" t="s">
         <v>230</v>
       </c>
-      <c r="C221" t="s">
-        <v>286</v>
-      </c>
-      <c r="D221" t="s">
-        <v>38</v>
-      </c>
-      <c r="F221" t="s">
-        <v>231</v>
-      </c>
       <c r="G221" t="s">
         <v>11</v>
       </c>
       <c r="H221" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.45">
@@ -6632,10 +6692,10 @@
         <v>44379</v>
       </c>
       <c r="B222" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C222" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D222" t="s">
         <v>38</v>
@@ -6647,7 +6707,7 @@
         <v>11</v>
       </c>
       <c r="H222" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.45">
@@ -6655,10 +6715,10 @@
         <v>44379</v>
       </c>
       <c r="B223" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C223" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D223" t="s">
         <v>38</v>
@@ -6670,7 +6730,7 @@
         <v>11</v>
       </c>
       <c r="H223" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.45">
@@ -6678,22 +6738,22 @@
         <v>44379</v>
       </c>
       <c r="B224" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C224" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D224" t="s">
         <v>38</v>
       </c>
       <c r="F224" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G224" t="s">
         <v>11</v>
       </c>
       <c r="H224" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.45">
@@ -6701,22 +6761,22 @@
         <v>44379</v>
       </c>
       <c r="B225" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C225" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D225" t="s">
         <v>38</v>
       </c>
       <c r="F225" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G225" t="s">
         <v>11</v>
       </c>
       <c r="H225" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.45">
@@ -6724,22 +6784,22 @@
         <v>44379</v>
       </c>
       <c r="B226" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C226" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D226" t="s">
         <v>38</v>
       </c>
       <c r="F226" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G226" t="s">
         <v>11</v>
       </c>
       <c r="H226" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.45">
@@ -6747,22 +6807,22 @@
         <v>44379</v>
       </c>
       <c r="B227" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C227" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D227" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F227" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G227" t="s">
         <v>11</v>
       </c>
       <c r="H227" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.45">
@@ -6770,22 +6830,22 @@
         <v>44379</v>
       </c>
       <c r="B228" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C228" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D228" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F228" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G228" t="s">
         <v>11</v>
       </c>
       <c r="H228" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.45">
@@ -6793,22 +6853,22 @@
         <v>44379</v>
       </c>
       <c r="B229" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C229" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D229" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F229" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G229" t="s">
         <v>11</v>
       </c>
       <c r="H229" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.45">
@@ -6816,22 +6876,22 @@
         <v>44379</v>
       </c>
       <c r="B230" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C230" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D230" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F230" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G230" t="s">
         <v>11</v>
       </c>
       <c r="H230" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.45">
@@ -6839,22 +6899,22 @@
         <v>44379</v>
       </c>
       <c r="B231" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C231" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D231" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F231" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G231" t="s">
         <v>11</v>
       </c>
       <c r="H231" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.45">
@@ -6862,22 +6922,22 @@
         <v>44379</v>
       </c>
       <c r="B232" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C232" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D232" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F232" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G232" t="s">
         <v>11</v>
       </c>
       <c r="H232" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.45">
@@ -6885,22 +6945,22 @@
         <v>44379</v>
       </c>
       <c r="B233" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C233" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D233" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F233" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G233" t="s">
         <v>11</v>
       </c>
       <c r="H233" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.45">
@@ -6908,22 +6968,22 @@
         <v>44379</v>
       </c>
       <c r="B234" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C234" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D234" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F234" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G234" t="s">
         <v>11</v>
       </c>
       <c r="H234" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.45">
@@ -6931,22 +6991,22 @@
         <v>44379</v>
       </c>
       <c r="B235" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C235" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D235" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F235" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G235" t="s">
         <v>11</v>
       </c>
       <c r="H235" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.45">
@@ -6954,22 +7014,22 @@
         <v>44379</v>
       </c>
       <c r="B236" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C236" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D236" t="s">
-        <v>216</v>
+        <v>354</v>
       </c>
       <c r="F236" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G236" t="s">
         <v>11</v>
       </c>
       <c r="H236" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.45">
@@ -6977,22 +7037,22 @@
         <v>44379</v>
       </c>
       <c r="B237" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C237" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D237" t="s">
-        <v>216</v>
+        <v>354</v>
       </c>
       <c r="F237" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G237" t="s">
         <v>11</v>
       </c>
       <c r="H237" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.45">
@@ -7000,22 +7060,22 @@
         <v>44379</v>
       </c>
       <c r="B238" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C238" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D238" t="s">
-        <v>216</v>
+        <v>354</v>
       </c>
       <c r="F238" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G238" t="s">
         <v>11</v>
       </c>
       <c r="H238" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.45">
@@ -7023,22 +7083,22 @@
         <v>44379</v>
       </c>
       <c r="B239" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C239" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D239" t="s">
-        <v>216</v>
+        <v>354</v>
       </c>
       <c r="F239" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G239" t="s">
         <v>11</v>
       </c>
       <c r="H239" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.45">
@@ -7046,22 +7106,22 @@
         <v>44380</v>
       </c>
       <c r="B240" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C240" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="D240" t="s">
         <v>38</v>
       </c>
       <c r="F240" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G240" t="s">
         <v>11</v>
       </c>
       <c r="H240" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.45">
@@ -7069,22 +7129,22 @@
         <v>44380</v>
       </c>
       <c r="B241" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C241" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D241" t="s">
         <v>38</v>
       </c>
       <c r="F241" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G241" t="s">
         <v>11</v>
       </c>
       <c r="H241" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.45">
@@ -7092,22 +7152,22 @@
         <v>44380</v>
       </c>
       <c r="B242" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C242" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="D242" t="s">
         <v>38</v>
       </c>
       <c r="F242" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G242" t="s">
         <v>11</v>
       </c>
       <c r="H242" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.45">
@@ -7115,22 +7175,22 @@
         <v>44380</v>
       </c>
       <c r="B243" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C243" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="D243" t="s">
         <v>38</v>
       </c>
       <c r="F243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G243" t="s">
         <v>11</v>
       </c>
       <c r="H243" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.45">
@@ -7138,22 +7198,22 @@
         <v>44380</v>
       </c>
       <c r="B244" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C244" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="D244" t="s">
         <v>38</v>
       </c>
       <c r="F244" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G244" t="s">
         <v>11</v>
       </c>
       <c r="H244" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.45">
@@ -7161,22 +7221,22 @@
         <v>44380</v>
       </c>
       <c r="B245" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C245" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="D245" t="s">
         <v>38</v>
       </c>
       <c r="F245" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G245" t="s">
         <v>11</v>
       </c>
       <c r="H245" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.45">
@@ -7184,22 +7244,22 @@
         <v>44380</v>
       </c>
       <c r="B246" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C246" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="D246" t="s">
         <v>38</v>
       </c>
       <c r="F246" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G246" t="s">
         <v>11</v>
       </c>
       <c r="H246" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.45">
@@ -7207,22 +7267,22 @@
         <v>44380</v>
       </c>
       <c r="B247" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C247" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="D247" t="s">
         <v>38</v>
       </c>
       <c r="F247" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G247" t="s">
         <v>11</v>
       </c>
       <c r="H247" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.45">
@@ -7230,22 +7290,22 @@
         <v>44380</v>
       </c>
       <c r="B248" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C248" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="D248" t="s">
         <v>38</v>
       </c>
       <c r="F248" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G248" t="s">
         <v>11</v>
       </c>
       <c r="H248" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.45">
@@ -7253,22 +7313,22 @@
         <v>44380</v>
       </c>
       <c r="B249" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C249" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="D249" t="s">
         <v>38</v>
       </c>
       <c r="F249" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G249" t="s">
         <v>11</v>
       </c>
       <c r="H249" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.45">
@@ -7276,22 +7336,22 @@
         <v>44380</v>
       </c>
       <c r="B250" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C250" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="D250" t="s">
         <v>38</v>
       </c>
       <c r="F250" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G250" t="s">
         <v>11</v>
       </c>
       <c r="H250" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.45">
@@ -7299,22 +7359,22 @@
         <v>44380</v>
       </c>
       <c r="B251" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C251" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D251" t="s">
         <v>38</v>
       </c>
       <c r="F251" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G251" t="s">
         <v>11</v>
       </c>
       <c r="H251" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.45">
@@ -7322,22 +7382,22 @@
         <v>44380</v>
       </c>
       <c r="B252" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C252" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="D252" t="s">
         <v>38</v>
       </c>
       <c r="F252" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G252" t="s">
         <v>11</v>
       </c>
       <c r="H252" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.45">
@@ -7345,22 +7405,22 @@
         <v>44380</v>
       </c>
       <c r="B253" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C253" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="D253" t="s">
         <v>38</v>
       </c>
       <c r="F253" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G253" t="s">
         <v>11</v>
       </c>
       <c r="H253" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.45">
@@ -7368,22 +7428,22 @@
         <v>44380</v>
       </c>
       <c r="B254" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C254" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="D254" t="s">
         <v>38</v>
       </c>
       <c r="F254" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G254" t="s">
         <v>11</v>
       </c>
       <c r="H254" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.45">
@@ -7391,22 +7451,22 @@
         <v>44380</v>
       </c>
       <c r="B255" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C255" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="D255" t="s">
         <v>38</v>
       </c>
       <c r="F255" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G255" t="s">
         <v>11</v>
       </c>
       <c r="H255" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.45">
@@ -7414,22 +7474,22 @@
         <v>44380</v>
       </c>
       <c r="B256" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C256" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="D256" t="s">
         <v>38</v>
       </c>
       <c r="F256" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G256" t="s">
         <v>11</v>
       </c>
       <c r="H256" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.45">
@@ -7437,22 +7497,22 @@
         <v>44380</v>
       </c>
       <c r="B257" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C257" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="D257" t="s">
         <v>38</v>
       </c>
       <c r="F257" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G257" t="s">
         <v>11</v>
       </c>
       <c r="H257" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.45">
@@ -7460,22 +7520,22 @@
         <v>44380</v>
       </c>
       <c r="B258" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C258" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="D258" t="s">
         <v>38</v>
       </c>
       <c r="F258" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G258" t="s">
         <v>11</v>
       </c>
       <c r="H258" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.45">
@@ -7483,22 +7543,22 @@
         <v>44380</v>
       </c>
       <c r="B259" t="s">
+        <v>252</v>
+      </c>
+      <c r="C259" t="s">
+        <v>338</v>
+      </c>
+      <c r="D259" t="s">
+        <v>355</v>
+      </c>
+      <c r="F259" t="s">
         <v>253</v>
       </c>
-      <c r="C259" t="s">
-        <v>356</v>
-      </c>
-      <c r="D259" t="s">
-        <v>216</v>
-      </c>
-      <c r="F259" t="s">
-        <v>254</v>
-      </c>
       <c r="G259" t="s">
         <v>11</v>
       </c>
       <c r="H259" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.45">
@@ -7506,22 +7566,22 @@
         <v>44380</v>
       </c>
       <c r="B260" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C260" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="D260" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F260" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G260" t="s">
         <v>11</v>
       </c>
       <c r="H260" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.45">
@@ -7529,22 +7589,22 @@
         <v>44380</v>
       </c>
       <c r="B261" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C261" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="D261" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F261" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G261" t="s">
         <v>11</v>
       </c>
       <c r="H261" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.45">
@@ -7552,22 +7612,22 @@
         <v>44380</v>
       </c>
       <c r="B262" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C262" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="D262" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F262" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G262" t="s">
         <v>11</v>
       </c>
       <c r="H262" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.45">
@@ -7575,22 +7635,22 @@
         <v>44380</v>
       </c>
       <c r="B263" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C263" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="D263" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F263" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G263" t="s">
         <v>11</v>
       </c>
       <c r="H263" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.45">
@@ -7598,22 +7658,22 @@
         <v>44380</v>
       </c>
       <c r="B264" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C264" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="D264" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F264" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G264" t="s">
         <v>11</v>
       </c>
       <c r="H264" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.45">
@@ -7621,22 +7681,22 @@
         <v>44380</v>
       </c>
       <c r="B265" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C265" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="D265" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F265" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G265" t="s">
         <v>11</v>
       </c>
       <c r="H265" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.45">
@@ -7644,22 +7704,22 @@
         <v>44380</v>
       </c>
       <c r="B266" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C266" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="D266" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F266" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G266" t="s">
         <v>11</v>
       </c>
       <c r="H266" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.45">
@@ -7667,22 +7727,22 @@
         <v>44380</v>
       </c>
       <c r="B267" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C267" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="D267" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F267" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G267" t="s">
         <v>11</v>
       </c>
       <c r="H267" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.45">
@@ -7690,22 +7750,22 @@
         <v>44380</v>
       </c>
       <c r="B268" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C268" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D268" t="s">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="F268" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G268" t="s">
         <v>11</v>
       </c>
       <c r="H268" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.45">
@@ -7713,22 +7773,22 @@
         <v>44380</v>
       </c>
       <c r="B269" t="s">
-        <v>366</v>
+        <v>291</v>
       </c>
       <c r="C269" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="D269" t="s">
-        <v>216</v>
+        <v>354</v>
       </c>
       <c r="F269" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G269" t="s">
         <v>11</v>
       </c>
       <c r="H269" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.45">
@@ -7736,22 +7796,22 @@
         <v>44380</v>
       </c>
       <c r="B270" t="s">
-        <v>367</v>
+        <v>294</v>
       </c>
       <c r="C270" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D270" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="F270" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="G270" t="s">
         <v>11</v>
       </c>
       <c r="H270" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.45">
@@ -7759,22 +7819,22 @@
         <v>44380</v>
       </c>
       <c r="B271" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="C271" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="D271" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="F271" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="G271" t="s">
         <v>11</v>
       </c>
       <c r="H271" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.45">
@@ -7782,22 +7842,22 @@
         <v>44380</v>
       </c>
       <c r="B272" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="C272" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="D272" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="F272" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="G272" t="s">
         <v>11</v>
       </c>
       <c r="H272" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.45">
@@ -7805,22 +7865,22 @@
         <v>44380</v>
       </c>
       <c r="B273" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="C273" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="D273" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="F273" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="G273" t="s">
         <v>11</v>
       </c>
       <c r="H273" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.45">
@@ -7828,22 +7888,413 @@
         <v>44380</v>
       </c>
       <c r="B274" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="C274" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="D274" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="F274" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="G274" t="s">
         <v>11</v>
       </c>
       <c r="H274" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A275" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B275" t="s">
+        <v>194</v>
+      </c>
+      <c r="C275" t="s">
+        <v>374</v>
+      </c>
+      <c r="D275" t="s">
+        <v>243</v>
+      </c>
+      <c r="F275" t="s">
+        <v>8</v>
+      </c>
+      <c r="G275" t="s">
+        <v>11</v>
+      </c>
+      <c r="H275" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A276" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B276" t="s">
+        <v>338</v>
+      </c>
+      <c r="C276" t="s">
+        <v>375</v>
+      </c>
+      <c r="D276" t="s">
+        <v>355</v>
+      </c>
+      <c r="F276" t="s">
+        <v>376</v>
+      </c>
+      <c r="G276" t="s">
+        <v>11</v>
+      </c>
+      <c r="H276" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A277" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B277" t="s">
+        <v>338</v>
+      </c>
+      <c r="C277" t="s">
+        <v>377</v>
+      </c>
+      <c r="D277" t="s">
+        <v>355</v>
+      </c>
+      <c r="F277" t="s">
+        <v>376</v>
+      </c>
+      <c r="G277" t="s">
+        <v>11</v>
+      </c>
+      <c r="H277" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A278" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B278" t="s">
+        <v>338</v>
+      </c>
+      <c r="C278" t="s">
+        <v>378</v>
+      </c>
+      <c r="D278" t="s">
+        <v>355</v>
+      </c>
+      <c r="F278" t="s">
+        <v>376</v>
+      </c>
+      <c r="G278" t="s">
+        <v>11</v>
+      </c>
+      <c r="H278" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A279" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B279" t="s">
+        <v>313</v>
+      </c>
+      <c r="C279" t="s">
+        <v>379</v>
+      </c>
+      <c r="D279" t="s">
+        <v>38</v>
+      </c>
+      <c r="F279" t="s">
+        <v>246</v>
+      </c>
+      <c r="G279" t="s">
+        <v>11</v>
+      </c>
+      <c r="H279" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A280" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B280" t="s">
+        <v>349</v>
+      </c>
+      <c r="C280" t="s">
+        <v>380</v>
+      </c>
+      <c r="D280" t="s">
+        <v>38</v>
+      </c>
+      <c r="F280" t="s">
         <v>280</v>
+      </c>
+      <c r="G280" t="s">
+        <v>11</v>
+      </c>
+      <c r="H280" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A281" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B281" t="s">
+        <v>350</v>
+      </c>
+      <c r="C281" t="s">
+        <v>381</v>
+      </c>
+      <c r="D281" t="s">
+        <v>38</v>
+      </c>
+      <c r="F281" t="s">
+        <v>280</v>
+      </c>
+      <c r="G281" t="s">
+        <v>11</v>
+      </c>
+      <c r="H281" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A282" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B282" t="s">
+        <v>351</v>
+      </c>
+      <c r="C282" t="s">
+        <v>382</v>
+      </c>
+      <c r="D282" t="s">
+        <v>38</v>
+      </c>
+      <c r="F282" t="s">
+        <v>280</v>
+      </c>
+      <c r="G282" t="s">
+        <v>11</v>
+      </c>
+      <c r="H282" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A283" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B283" t="s">
+        <v>319</v>
+      </c>
+      <c r="C283" t="s">
+        <v>383</v>
+      </c>
+      <c r="D283" t="s">
+        <v>38</v>
+      </c>
+      <c r="F283" t="s">
+        <v>247</v>
+      </c>
+      <c r="G283" t="s">
+        <v>11</v>
+      </c>
+      <c r="H283" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A284" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B284" t="s">
+        <v>320</v>
+      </c>
+      <c r="C284" t="s">
+        <v>384</v>
+      </c>
+      <c r="D284" t="s">
+        <v>38</v>
+      </c>
+      <c r="F284" t="s">
+        <v>247</v>
+      </c>
+      <c r="G284" t="s">
+        <v>11</v>
+      </c>
+      <c r="H284" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A285" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B285" t="s">
+        <v>321</v>
+      </c>
+      <c r="C285" t="s">
+        <v>385</v>
+      </c>
+      <c r="D285" t="s">
+        <v>38</v>
+      </c>
+      <c r="F285" t="s">
+        <v>247</v>
+      </c>
+      <c r="G285" t="s">
+        <v>11</v>
+      </c>
+      <c r="H285" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A286" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B286" t="s">
+        <v>322</v>
+      </c>
+      <c r="C286" t="s">
+        <v>386</v>
+      </c>
+      <c r="D286" t="s">
+        <v>38</v>
+      </c>
+      <c r="F286" t="s">
+        <v>247</v>
+      </c>
+      <c r="G286" t="s">
+        <v>11</v>
+      </c>
+      <c r="H286" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A287" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B287" t="s">
+        <v>323</v>
+      </c>
+      <c r="C287" t="s">
+        <v>387</v>
+      </c>
+      <c r="D287" t="s">
+        <v>38</v>
+      </c>
+      <c r="F287" t="s">
+        <v>247</v>
+      </c>
+      <c r="G287" t="s">
+        <v>11</v>
+      </c>
+      <c r="H287" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A288" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B288" t="s">
+        <v>324</v>
+      </c>
+      <c r="C288" t="s">
+        <v>388</v>
+      </c>
+      <c r="D288" t="s">
+        <v>38</v>
+      </c>
+      <c r="F288" t="s">
+        <v>247</v>
+      </c>
+      <c r="G288" t="s">
+        <v>11</v>
+      </c>
+      <c r="H288" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A289" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B289" t="s">
+        <v>339</v>
+      </c>
+      <c r="C289" t="s">
+        <v>389</v>
+      </c>
+      <c r="D289" t="s">
+        <v>355</v>
+      </c>
+      <c r="F289" t="s">
+        <v>251</v>
+      </c>
+      <c r="G289" t="s">
+        <v>11</v>
+      </c>
+      <c r="H289" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A290" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B290" t="s">
+        <v>348</v>
+      </c>
+      <c r="C290" t="s">
+        <v>390</v>
+      </c>
+      <c r="D290" t="s">
+        <v>354</v>
+      </c>
+      <c r="F290" t="s">
+        <v>316</v>
+      </c>
+      <c r="G290" t="s">
+        <v>11</v>
+      </c>
+      <c r="H290" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A291" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B291" t="s">
+        <v>348</v>
+      </c>
+      <c r="C291" t="s">
+        <v>391</v>
+      </c>
+      <c r="D291" t="s">
+        <v>354</v>
+      </c>
+      <c r="F291" t="s">
+        <v>316</v>
+      </c>
+      <c r="G291" t="s">
+        <v>11</v>
+      </c>
+      <c r="H291" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -7860,7 +8311,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7887,7 +8340,7 @@
         <v>44362</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>
@@ -7901,7 +8354,7 @@
         <v>44363</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
@@ -7915,7 +8368,7 @@
         <v>44364</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -7929,7 +8382,7 @@
         <v>44365</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -7943,7 +8396,7 @@
         <v>44366</v>
       </c>
       <c r="B6" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -7957,7 +8410,7 @@
         <v>44367</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -7971,7 +8424,7 @@
         <v>44368</v>
       </c>
       <c r="B8" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -7985,7 +8438,7 @@
         <v>44369</v>
       </c>
       <c r="B9" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -7999,7 +8452,7 @@
         <v>44370</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -8013,7 +8466,7 @@
         <v>44371</v>
       </c>
       <c r="B11" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -8027,7 +8480,7 @@
         <v>44372</v>
       </c>
       <c r="B12" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -8041,7 +8494,7 @@
         <v>44373</v>
       </c>
       <c r="B13" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -8055,7 +8508,7 @@
         <v>44374</v>
       </c>
       <c r="B14" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -8069,7 +8522,7 @@
         <v>44375</v>
       </c>
       <c r="B15" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -8083,7 +8536,7 @@
         <v>44376</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -8097,7 +8550,7 @@
         <v>44377</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -8111,7 +8564,7 @@
         <v>44378</v>
       </c>
       <c r="B18" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -8125,7 +8578,7 @@
         <v>44379</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -8139,7 +8592,7 @@
         <v>44380</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>373</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -8152,8 +8605,11 @@
       <c r="A21" s="1">
         <v>44381</v>
       </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
@@ -8164,7 +8620,7 @@
         <v>44382</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
         <v>32</v>
@@ -8175,7 +8631,7 @@
         <v>44383</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
         <v>32</v>
@@ -8184,9 +8640,6 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44384</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>

--- a/2021-06 New South Wales Outbreak Paths.xlsx
+++ b/2021-06 New South Wales Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9463FC53-FFE8-4111-833F-2054388DC985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AECAFD8-9353-4B13-9923-A493421E8F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="429">
   <si>
     <t>Source</t>
   </si>
@@ -763,9 +763,6 @@
     <t>QLD</t>
   </si>
   <si>
-    <t>Virgin Australia Flight Crew</t>
-  </si>
-  <si>
     <t>WA</t>
   </si>
   <si>
@@ -847,9 +844,6 @@
     <t>S189</t>
   </si>
   <si>
-    <t>Passengers on Flight</t>
-  </si>
-  <si>
     <t>S190</t>
   </si>
   <si>
@@ -988,9 +982,6 @@
     <t>Under investigation</t>
   </si>
   <si>
-    <t>#f7f9ff</t>
-  </si>
-  <si>
     <t>Summit Care Baulkham Hills</t>
   </si>
   <si>
@@ -1105,60 +1096,6 @@
     <t>Linked (Unknown Cluster)</t>
   </si>
   <si>
-    <t>#eff3ff</t>
-  </si>
-  <si>
-    <t>#e7edff</t>
-  </si>
-  <si>
-    <t>#dfe7ff</t>
-  </si>
-  <si>
-    <t>#d7e1ff</t>
-  </si>
-  <si>
-    <t>#cfdbff</t>
-  </si>
-  <si>
-    <t>#c6d5ff</t>
-  </si>
-  <si>
-    <t>#bdcfff</t>
-  </si>
-  <si>
-    <t>#b4c9ff</t>
-  </si>
-  <si>
-    <t>#abc4ff</t>
-  </si>
-  <si>
-    <t>#a2beff</t>
-  </si>
-  <si>
-    <t>#98b8ff</t>
-  </si>
-  <si>
-    <t>#8eb3ff</t>
-  </si>
-  <si>
-    <t>#83adff</t>
-  </si>
-  <si>
-    <t>#77a8ff</t>
-  </si>
-  <si>
-    <t>#6ba2ff</t>
-  </si>
-  <si>
-    <t>#5d9dff</t>
-  </si>
-  <si>
-    <t>#4c97ff</t>
-  </si>
-  <si>
-    <t>#3792ff</t>
-  </si>
-  <si>
     <t>W6</t>
   </si>
   <si>
@@ -1211,6 +1148,180 @@
   </si>
   <si>
     <t>S278</t>
+  </si>
+  <si>
+    <t>Virgin Flight VA524</t>
+  </si>
+  <si>
+    <t>#f8f9ff</t>
+  </si>
+  <si>
+    <t>#f0f3ff</t>
+  </si>
+  <si>
+    <t>#e8eeff</t>
+  </si>
+  <si>
+    <t>#e1e8ff</t>
+  </si>
+  <si>
+    <t>#d9e2ff</t>
+  </si>
+  <si>
+    <t>#d1ddff</t>
+  </si>
+  <si>
+    <t>#c9d7ff</t>
+  </si>
+  <si>
+    <t>#c1d2ff</t>
+  </si>
+  <si>
+    <t>#b8ccff</t>
+  </si>
+  <si>
+    <t>#b0c6ff</t>
+  </si>
+  <si>
+    <t>#a7c1ff</t>
+  </si>
+  <si>
+    <t>#9ebcff</t>
+  </si>
+  <si>
+    <t>#94b6ff</t>
+  </si>
+  <si>
+    <t>#8ab1ff</t>
+  </si>
+  <si>
+    <t>#80acff</t>
+  </si>
+  <si>
+    <t>#75a6ff</t>
+  </si>
+  <si>
+    <t>#68a1ff</t>
+  </si>
+  <si>
+    <t>#5b9cff</t>
+  </si>
+  <si>
+    <t>#4b97ff</t>
+  </si>
+  <si>
+    <t>#3692ff</t>
+  </si>
+  <si>
+    <t>S281</t>
+  </si>
+  <si>
+    <t>S282</t>
+  </si>
+  <si>
+    <t>S283</t>
+  </si>
+  <si>
+    <t>S284</t>
+  </si>
+  <si>
+    <t>S285</t>
+  </si>
+  <si>
+    <t>S286</t>
+  </si>
+  <si>
+    <t>S287</t>
+  </si>
+  <si>
+    <t>S289</t>
+  </si>
+  <si>
+    <t>S290</t>
+  </si>
+  <si>
+    <t>S291</t>
+  </si>
+  <si>
+    <t>S292</t>
+  </si>
+  <si>
+    <t>S293</t>
+  </si>
+  <si>
+    <t>S294</t>
+  </si>
+  <si>
+    <t>S295</t>
+  </si>
+  <si>
+    <t>S296</t>
+  </si>
+  <si>
+    <t>S297</t>
+  </si>
+  <si>
+    <t>S298</t>
+  </si>
+  <si>
+    <t>S299</t>
+  </si>
+  <si>
+    <t>S300</t>
+  </si>
+  <si>
+    <t>S301</t>
+  </si>
+  <si>
+    <t>S302</t>
+  </si>
+  <si>
+    <t>S303</t>
+  </si>
+  <si>
+    <t>S304</t>
+  </si>
+  <si>
+    <t>S305</t>
+  </si>
+  <si>
+    <t>S306</t>
+  </si>
+  <si>
+    <t>S307</t>
+  </si>
+  <si>
+    <t>S308</t>
+  </si>
+  <si>
+    <t>S309</t>
+  </si>
+  <si>
+    <t>S310</t>
+  </si>
+  <si>
+    <t>S311</t>
+  </si>
+  <si>
+    <t>S312</t>
+  </si>
+  <si>
+    <t>S313</t>
+  </si>
+  <si>
+    <t>S279 w70</t>
+  </si>
+  <si>
+    <t>S280 w70</t>
+  </si>
+  <si>
+    <t>S288 child</t>
+  </si>
+  <si>
+    <t>Rose Bay Public School</t>
+  </si>
+  <si>
+    <t>Meriton Suites</t>
   </si>
 </sst>
 </file>
@@ -1280,8 +1391,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H291" totalsRowShown="0">
-  <autoFilter ref="A1:H291" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H326" totalsRowShown="0">
+  <autoFilter ref="A1:H326" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -1606,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H291"/>
+  <dimension ref="A1:H326"/>
   <sheetViews>
-    <sheetView topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="H278" sqref="H278:H291"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="H326" sqref="H326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1645,7 +1756,7 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -1665,7 +1776,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -1688,7 +1799,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -1711,7 +1822,7 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -1734,7 +1845,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -1757,7 +1868,7 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -1780,7 +1891,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -1803,7 +1914,7 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -1820,13 +1931,13 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -1843,13 +1954,13 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -1872,7 +1983,7 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -1889,13 +2000,13 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -1912,13 +2023,13 @@
         <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -1935,13 +2046,13 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1958,13 +2069,13 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -1981,13 +2092,13 @@
         <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -2010,7 +2121,7 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -2030,7 +2141,7 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -2050,7 +2161,7 @@
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -2070,7 +2181,7 @@
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -2093,7 +2204,7 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -2116,7 +2227,7 @@
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -2139,7 +2250,7 @@
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -2162,7 +2273,7 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -2185,7 +2296,7 @@
         <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -2208,7 +2319,7 @@
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -2231,7 +2342,7 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -2254,7 +2365,7 @@
         <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -2277,7 +2388,7 @@
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
@@ -2300,7 +2411,7 @@
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
@@ -2323,7 +2434,7 @@
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
@@ -2346,7 +2457,7 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -2369,7 +2480,7 @@
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
@@ -2392,7 +2503,7 @@
         <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
@@ -2415,7 +2526,7 @@
         <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
@@ -2438,7 +2549,7 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
@@ -2461,7 +2572,7 @@
         <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
@@ -2484,7 +2595,7 @@
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
@@ -2507,7 +2618,7 @@
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
@@ -2530,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
@@ -2547,13 +2658,13 @@
         <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
@@ -2576,7 +2687,7 @@
         <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
@@ -2590,7 +2701,7 @@
         <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F43" t="s">
         <v>106</v>
@@ -2599,7 +2710,7 @@
         <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
@@ -2619,7 +2730,7 @@
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
@@ -2642,7 +2753,7 @@
         <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
@@ -2665,7 +2776,7 @@
         <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
@@ -2688,7 +2799,7 @@
         <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
@@ -2711,7 +2822,7 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
@@ -2734,7 +2845,7 @@
         <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
@@ -2757,7 +2868,7 @@
         <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
@@ -2780,7 +2891,7 @@
         <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
@@ -2803,7 +2914,7 @@
         <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
@@ -2826,7 +2937,7 @@
         <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
@@ -2849,7 +2960,7 @@
         <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
@@ -2872,7 +2983,7 @@
         <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
@@ -2895,7 +3006,7 @@
         <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
@@ -2918,7 +3029,7 @@
         <v>11</v>
       </c>
       <c r="H57" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
@@ -2935,13 +3046,13 @@
         <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
@@ -2958,13 +3069,13 @@
         <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
@@ -2987,7 +3098,7 @@
         <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
@@ -3010,7 +3121,7 @@
         <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
@@ -3033,7 +3144,7 @@
         <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
@@ -3056,7 +3167,7 @@
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
@@ -3079,7 +3190,7 @@
         <v>11</v>
       </c>
       <c r="H64" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
@@ -3102,7 +3213,7 @@
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
@@ -3125,7 +3236,7 @@
         <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
@@ -3148,7 +3259,7 @@
         <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
@@ -3171,7 +3282,7 @@
         <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
@@ -3194,7 +3305,7 @@
         <v>11</v>
       </c>
       <c r="H69" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
@@ -3217,7 +3328,7 @@
         <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
@@ -3240,7 +3351,7 @@
         <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
@@ -3263,7 +3374,7 @@
         <v>11</v>
       </c>
       <c r="H72" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
@@ -3286,7 +3397,7 @@
         <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
@@ -3309,7 +3420,7 @@
         <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
@@ -3326,13 +3437,13 @@
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G75" t="s">
         <v>11</v>
       </c>
       <c r="H75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
@@ -3349,13 +3460,13 @@
         <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
       </c>
       <c r="H76" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
@@ -3372,13 +3483,13 @@
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
@@ -3401,7 +3512,7 @@
         <v>11</v>
       </c>
       <c r="H78" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
@@ -3424,7 +3535,7 @@
         <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
@@ -3441,13 +3552,13 @@
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
       </c>
       <c r="H80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
@@ -3464,13 +3575,13 @@
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
       </c>
       <c r="H81" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
@@ -3487,13 +3598,13 @@
         <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
       </c>
       <c r="H82" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
@@ -3510,13 +3621,13 @@
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
       </c>
       <c r="H83" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
@@ -3533,13 +3644,13 @@
         <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
@@ -3556,13 +3667,13 @@
         <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
       </c>
       <c r="H85" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
@@ -3579,13 +3690,13 @@
         <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
       </c>
       <c r="H86" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
@@ -3602,13 +3713,13 @@
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
@@ -3625,13 +3736,13 @@
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G88" t="s">
         <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
@@ -3645,16 +3756,16 @@
         <v>137</v>
       </c>
       <c r="D89" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F89" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
       </c>
       <c r="H89" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
@@ -3677,7 +3788,7 @@
         <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.45">
@@ -3700,7 +3811,7 @@
         <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.45">
@@ -3723,7 +3834,7 @@
         <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.45">
@@ -3746,7 +3857,7 @@
         <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.45">
@@ -3769,7 +3880,7 @@
         <v>11</v>
       </c>
       <c r="H94" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.45">
@@ -3792,7 +3903,7 @@
         <v>11</v>
       </c>
       <c r="H95" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
@@ -3815,7 +3926,7 @@
         <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
@@ -3838,7 +3949,7 @@
         <v>11</v>
       </c>
       <c r="H97" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
@@ -3861,7 +3972,7 @@
         <v>11</v>
       </c>
       <c r="H98" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.45">
@@ -3884,7 +3995,7 @@
         <v>11</v>
       </c>
       <c r="H99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
@@ -3907,7 +4018,7 @@
         <v>11</v>
       </c>
       <c r="H100" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
@@ -3930,7 +4041,7 @@
         <v>11</v>
       </c>
       <c r="H101" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
@@ -3953,7 +4064,7 @@
         <v>11</v>
       </c>
       <c r="H102" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
@@ -3976,7 +4087,7 @@
         <v>11</v>
       </c>
       <c r="H103" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
@@ -3999,7 +4110,7 @@
         <v>11</v>
       </c>
       <c r="H104" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.45">
@@ -4022,7 +4133,7 @@
         <v>11</v>
       </c>
       <c r="H105" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.45">
@@ -4039,13 +4150,13 @@
         <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G106" t="s">
         <v>11</v>
       </c>
       <c r="H106" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.45">
@@ -4062,13 +4173,13 @@
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G107" t="s">
         <v>11</v>
       </c>
       <c r="H107" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.45">
@@ -4085,13 +4196,13 @@
         <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G108" t="s">
         <v>11</v>
       </c>
       <c r="H108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.45">
@@ -4108,13 +4219,13 @@
         <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G109" t="s">
         <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.45">
@@ -4137,7 +4248,7 @@
         <v>11</v>
       </c>
       <c r="H110" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.45">
@@ -4160,7 +4271,7 @@
         <v>11</v>
       </c>
       <c r="H111" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.45">
@@ -4177,13 +4288,13 @@
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G112" t="s">
         <v>11</v>
       </c>
       <c r="H112" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.45">
@@ -4200,13 +4311,13 @@
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G113" t="s">
         <v>11</v>
       </c>
       <c r="H113" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.45">
@@ -4223,13 +4334,13 @@
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G114" t="s">
         <v>11</v>
       </c>
       <c r="H114" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.45">
@@ -4246,13 +4357,13 @@
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
       </c>
       <c r="H115" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.45">
@@ -4269,13 +4380,13 @@
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G116" t="s">
         <v>11</v>
       </c>
       <c r="H116" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.45">
@@ -4292,13 +4403,13 @@
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.45">
@@ -4315,13 +4426,13 @@
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G118" t="s">
         <v>11</v>
       </c>
       <c r="H118" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.45">
@@ -4338,13 +4449,13 @@
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G119" t="s">
         <v>11</v>
       </c>
       <c r="H119" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.45">
@@ -4361,13 +4472,13 @@
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G120" t="s">
         <v>11</v>
       </c>
       <c r="H120" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.45">
@@ -4384,13 +4495,13 @@
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G121" t="s">
         <v>11</v>
       </c>
       <c r="H121" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.45">
@@ -4407,13 +4518,13 @@
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G122" t="s">
         <v>11</v>
       </c>
       <c r="H122" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.45">
@@ -4430,13 +4541,13 @@
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G123" t="s">
         <v>11</v>
       </c>
       <c r="H123" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.45">
@@ -4453,13 +4564,13 @@
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G124" t="s">
         <v>11</v>
       </c>
       <c r="H124" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.45">
@@ -4476,13 +4587,13 @@
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G125" t="s">
         <v>11</v>
       </c>
       <c r="H125" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.45">
@@ -4499,13 +4610,13 @@
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G126" t="s">
         <v>11</v>
       </c>
       <c r="H126" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.45">
@@ -4522,13 +4633,13 @@
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G127" t="s">
         <v>11</v>
       </c>
       <c r="H127" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.45">
@@ -4551,7 +4662,7 @@
         <v>11</v>
       </c>
       <c r="H128" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.45">
@@ -4574,7 +4685,7 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.45">
@@ -4588,16 +4699,16 @@
         <v>179</v>
       </c>
       <c r="D130" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F130" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G130" t="s">
         <v>11</v>
       </c>
       <c r="H130" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.45">
@@ -4620,7 +4731,7 @@
         <v>11</v>
       </c>
       <c r="H131" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.45">
@@ -4643,7 +4754,7 @@
         <v>11</v>
       </c>
       <c r="H132" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.45">
@@ -4666,7 +4777,7 @@
         <v>11</v>
       </c>
       <c r="H133" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.45">
@@ -4683,13 +4794,13 @@
         <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G134" t="s">
         <v>11</v>
       </c>
       <c r="H134" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.45">
@@ -4706,13 +4817,13 @@
         <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G135" t="s">
         <v>11</v>
       </c>
       <c r="H135" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.45">
@@ -4726,13 +4837,13 @@
         <v>185</v>
       </c>
       <c r="D136" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G136" t="s">
         <v>11</v>
       </c>
       <c r="H136" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.45">
@@ -4746,13 +4857,13 @@
         <v>186</v>
       </c>
       <c r="D137" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G137" t="s">
         <v>11</v>
       </c>
       <c r="H137" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.45">
@@ -4766,7 +4877,7 @@
         <v>192</v>
       </c>
       <c r="D138" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F138" t="s">
         <v>88</v>
@@ -4775,7 +4886,7 @@
         <v>11</v>
       </c>
       <c r="H138" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.45">
@@ -4786,10 +4897,10 @@
         <v>192</v>
       </c>
       <c r="C139" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D139" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F139" t="s">
         <v>193</v>
@@ -4798,7 +4909,7 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.45">
@@ -4812,16 +4923,16 @@
         <v>194</v>
       </c>
       <c r="D140" t="s">
+        <v>242</v>
+      </c>
+      <c r="F140" t="s">
         <v>243</v>
       </c>
-      <c r="F140" t="s">
-        <v>244</v>
-      </c>
       <c r="G140" t="s">
         <v>11</v>
       </c>
       <c r="H140" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.45">
@@ -4838,13 +4949,13 @@
         <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G141" t="s">
         <v>11</v>
       </c>
       <c r="H141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.45">
@@ -4861,13 +4972,13 @@
         <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G142" t="s">
         <v>11</v>
       </c>
       <c r="H142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.45">
@@ -4884,13 +4995,13 @@
         <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G143" t="s">
         <v>11</v>
       </c>
       <c r="H143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.45">
@@ -4907,13 +5018,13 @@
         <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G144" t="s">
         <v>11</v>
       </c>
       <c r="H144" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.45">
@@ -4930,13 +5041,13 @@
         <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G145" t="s">
         <v>11</v>
       </c>
       <c r="H145" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.45">
@@ -4953,13 +5064,13 @@
         <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G146" t="s">
         <v>11</v>
       </c>
       <c r="H146" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.45">
@@ -4976,13 +5087,13 @@
         <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G147" t="s">
         <v>11</v>
       </c>
       <c r="H147" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.45">
@@ -5005,7 +5116,7 @@
         <v>11</v>
       </c>
       <c r="H148" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.45">
@@ -5028,7 +5139,7 @@
         <v>11</v>
       </c>
       <c r="H149" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.45">
@@ -5051,7 +5162,7 @@
         <v>11</v>
       </c>
       <c r="H150" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.45">
@@ -5065,16 +5176,16 @@
         <v>205</v>
       </c>
       <c r="D151" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F151" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G151" t="s">
         <v>11</v>
       </c>
       <c r="H151" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.45">
@@ -5091,13 +5202,13 @@
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G152" t="s">
         <v>11</v>
       </c>
       <c r="H152" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.45">
@@ -5114,13 +5225,13 @@
         <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G153" t="s">
         <v>11</v>
       </c>
       <c r="H153" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.45">
@@ -5137,13 +5248,13 @@
         <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G154" t="s">
         <v>11</v>
       </c>
       <c r="H154" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.45">
@@ -5160,13 +5271,13 @@
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G155" t="s">
         <v>11</v>
       </c>
       <c r="H155" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.45">
@@ -5183,13 +5294,13 @@
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G156" t="s">
         <v>11</v>
       </c>
       <c r="H156" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.45">
@@ -5206,13 +5317,13 @@
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G157" t="s">
         <v>11</v>
       </c>
       <c r="H157" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.45">
@@ -5226,16 +5337,16 @@
         <v>212</v>
       </c>
       <c r="D158" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F158" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G158" t="s">
         <v>11</v>
       </c>
       <c r="H158" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.45">
@@ -5258,7 +5369,7 @@
         <v>11</v>
       </c>
       <c r="H159" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.45">
@@ -5275,13 +5386,13 @@
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G160" t="s">
         <v>11</v>
       </c>
       <c r="H160" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.45">
@@ -5298,13 +5409,13 @@
         <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G161" t="s">
         <v>11</v>
       </c>
       <c r="H161" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.45">
@@ -5321,13 +5432,13 @@
         <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G162" t="s">
         <v>11</v>
       </c>
       <c r="H162" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.45">
@@ -5344,13 +5455,13 @@
         <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G163" t="s">
         <v>11</v>
       </c>
       <c r="H163" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.45">
@@ -5367,13 +5478,13 @@
         <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G164" t="s">
         <v>11</v>
       </c>
       <c r="H164" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.45">
@@ -5396,7 +5507,7 @@
         <v>11</v>
       </c>
       <c r="H165" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.45">
@@ -5419,7 +5530,7 @@
         <v>11</v>
       </c>
       <c r="H166" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.45">
@@ -5442,7 +5553,7 @@
         <v>11</v>
       </c>
       <c r="H167" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.45">
@@ -5459,13 +5570,13 @@
         <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G168" t="s">
         <v>11</v>
       </c>
       <c r="H168" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.45">
@@ -5488,7 +5599,7 @@
         <v>11</v>
       </c>
       <c r="H169" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.45">
@@ -5511,7 +5622,7 @@
         <v>11</v>
       </c>
       <c r="H170" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.45">
@@ -5534,7 +5645,7 @@
         <v>11</v>
       </c>
       <c r="H171" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.45">
@@ -5557,7 +5668,7 @@
         <v>11</v>
       </c>
       <c r="H172" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.45">
@@ -5580,7 +5691,7 @@
         <v>11</v>
       </c>
       <c r="H173" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.45">
@@ -5603,7 +5714,7 @@
         <v>11</v>
       </c>
       <c r="H174" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.45">
@@ -5620,13 +5731,13 @@
         <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G175" t="s">
         <v>11</v>
       </c>
       <c r="H175" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.45">
@@ -5643,13 +5754,13 @@
         <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G176" t="s">
         <v>11</v>
       </c>
       <c r="H176" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.45">
@@ -5666,13 +5777,13 @@
         <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G177" t="s">
         <v>11</v>
       </c>
       <c r="H177" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.45">
@@ -5689,13 +5800,13 @@
         <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G178" t="s">
         <v>11</v>
       </c>
       <c r="H178" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.45">
@@ -5709,16 +5820,16 @@
         <v>237</v>
       </c>
       <c r="D179" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F179" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G179" t="s">
         <v>11</v>
       </c>
       <c r="H179" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.45">
@@ -5732,16 +5843,16 @@
         <v>238</v>
       </c>
       <c r="D180" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F180" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G180" t="s">
         <v>11</v>
       </c>
       <c r="H180" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.45">
@@ -5755,16 +5866,16 @@
         <v>239</v>
       </c>
       <c r="D181" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G181" t="s">
         <v>11</v>
       </c>
       <c r="H181" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.45">
@@ -5781,13 +5892,13 @@
         <v>241</v>
       </c>
       <c r="F182" t="s">
-        <v>242</v>
+        <v>371</v>
       </c>
       <c r="G182" t="s">
         <v>11</v>
       </c>
       <c r="H182" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.45">
@@ -5798,19 +5909,19 @@
         <v>192</v>
       </c>
       <c r="C183" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D183" t="s">
+        <v>242</v>
+      </c>
+      <c r="F183" t="s">
         <v>243</v>
       </c>
-      <c r="F183" t="s">
-        <v>244</v>
-      </c>
       <c r="G183" t="s">
         <v>11</v>
       </c>
       <c r="H183" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.45">
@@ -5818,22 +5929,22 @@
         <v>44378</v>
       </c>
       <c r="B184" t="s">
+        <v>251</v>
+      </c>
+      <c r="C184" t="s">
+        <v>251</v>
+      </c>
+      <c r="D184" t="s">
+        <v>351</v>
+      </c>
+      <c r="F184" t="s">
         <v>252</v>
       </c>
-      <c r="C184" t="s">
-        <v>252</v>
-      </c>
-      <c r="D184" t="s">
-        <v>354</v>
-      </c>
-      <c r="F184" t="s">
-        <v>253</v>
-      </c>
       <c r="G184" t="s">
         <v>11</v>
       </c>
       <c r="H184" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.45">
@@ -5841,13 +5952,13 @@
         <v>44378</v>
       </c>
       <c r="B185" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C185" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D185" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F185" t="s">
         <v>8</v>
@@ -5856,7 +5967,7 @@
         <v>11</v>
       </c>
       <c r="H185" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.45">
@@ -5867,19 +5978,19 @@
         <v>218</v>
       </c>
       <c r="C186" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D186" t="s">
         <v>38</v>
       </c>
       <c r="F186" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G186" t="s">
         <v>11</v>
       </c>
       <c r="H186" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.45">
@@ -5890,19 +6001,19 @@
         <v>219</v>
       </c>
       <c r="C187" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D187" t="s">
         <v>38</v>
       </c>
       <c r="F187" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G187" t="s">
         <v>11</v>
       </c>
       <c r="H187" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.45">
@@ -5913,19 +6024,19 @@
         <v>225</v>
       </c>
       <c r="C188" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D188" t="s">
         <v>38</v>
       </c>
       <c r="F188" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G188" t="s">
         <v>11</v>
       </c>
       <c r="H188" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.45">
@@ -5936,7 +6047,7 @@
         <v>85</v>
       </c>
       <c r="C189" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D189" t="s">
         <v>38</v>
@@ -5948,7 +6059,7 @@
         <v>11</v>
       </c>
       <c r="H189" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.45">
@@ -5959,19 +6070,19 @@
         <v>196</v>
       </c>
       <c r="C190" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D190" t="s">
         <v>38</v>
       </c>
       <c r="F190" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G190" t="s">
         <v>11</v>
       </c>
       <c r="H190" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.45">
@@ -5982,19 +6093,19 @@
         <v>148</v>
       </c>
       <c r="C191" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D191" t="s">
         <v>38</v>
       </c>
       <c r="F191" t="s">
-        <v>270</v>
+        <v>371</v>
       </c>
       <c r="G191" t="s">
         <v>11</v>
       </c>
       <c r="H191" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.45">
@@ -6005,19 +6116,19 @@
         <v>148</v>
       </c>
       <c r="C192" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D192" t="s">
         <v>38</v>
       </c>
       <c r="F192" t="s">
-        <v>270</v>
+        <v>371</v>
       </c>
       <c r="G192" t="s">
         <v>11</v>
       </c>
       <c r="H192" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.45">
@@ -6028,19 +6139,19 @@
         <v>233</v>
       </c>
       <c r="C193" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D193" t="s">
         <v>38</v>
       </c>
       <c r="F193" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G193" t="s">
         <v>11</v>
       </c>
       <c r="H193" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.45">
@@ -6051,19 +6162,19 @@
         <v>233</v>
       </c>
       <c r="C194" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D194" t="s">
         <v>38</v>
       </c>
       <c r="F194" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G194" t="s">
         <v>11</v>
       </c>
       <c r="H194" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.45">
@@ -6074,19 +6185,19 @@
         <v>234</v>
       </c>
       <c r="C195" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D195" t="s">
         <v>38</v>
       </c>
       <c r="F195" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G195" t="s">
         <v>11</v>
       </c>
       <c r="H195" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.45">
@@ -6097,19 +6208,19 @@
         <v>234</v>
       </c>
       <c r="C196" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D196" t="s">
         <v>38</v>
       </c>
       <c r="F196" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G196" t="s">
         <v>11</v>
       </c>
       <c r="H196" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.45">
@@ -6120,19 +6231,19 @@
         <v>235</v>
       </c>
       <c r="C197" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D197" t="s">
         <v>38</v>
       </c>
       <c r="F197" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G197" t="s">
         <v>11</v>
       </c>
       <c r="H197" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.45">
@@ -6143,19 +6254,19 @@
         <v>235</v>
       </c>
       <c r="C198" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D198" t="s">
         <v>38</v>
       </c>
       <c r="F198" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G198" t="s">
         <v>11</v>
       </c>
       <c r="H198" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.45">
@@ -6166,19 +6277,19 @@
         <v>236</v>
       </c>
       <c r="C199" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D199" t="s">
         <v>38</v>
       </c>
       <c r="F199" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G199" t="s">
         <v>11</v>
       </c>
       <c r="H199" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.45">
@@ -6189,19 +6300,19 @@
         <v>236</v>
       </c>
       <c r="C200" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D200" t="s">
         <v>38</v>
       </c>
       <c r="F200" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G200" t="s">
         <v>11</v>
       </c>
       <c r="H200" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.45">
@@ -6212,19 +6323,19 @@
         <v>237</v>
       </c>
       <c r="C201" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D201" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F201" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G201" t="s">
         <v>11</v>
       </c>
       <c r="H201" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.45">
@@ -6232,22 +6343,22 @@
         <v>44378</v>
       </c>
       <c r="B202" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C202" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D202" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F202" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G202" t="s">
         <v>11</v>
       </c>
       <c r="H202" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.45">
@@ -6255,22 +6366,22 @@
         <v>44378</v>
       </c>
       <c r="B203" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C203" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D203" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F203" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G203" t="s">
         <v>11</v>
       </c>
       <c r="H203" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.45">
@@ -6281,19 +6392,19 @@
         <v>225</v>
       </c>
       <c r="C204" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D204" t="s">
         <v>38</v>
       </c>
       <c r="F204" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G204" t="s">
         <v>11</v>
       </c>
       <c r="H204" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.45">
@@ -6301,22 +6412,22 @@
         <v>44378</v>
       </c>
       <c r="B205" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C205" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D205" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F205" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G205" t="s">
         <v>11</v>
       </c>
       <c r="H205" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.45">
@@ -6324,22 +6435,22 @@
         <v>44378</v>
       </c>
       <c r="B206" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C206" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D206" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F206" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G206" t="s">
         <v>11</v>
       </c>
       <c r="H206" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.45">
@@ -6350,19 +6461,19 @@
         <v>225</v>
       </c>
       <c r="C207" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D207" t="s">
         <v>38</v>
       </c>
       <c r="F207" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G207" t="s">
         <v>11</v>
       </c>
       <c r="H207" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.45">
@@ -6370,13 +6481,13 @@
         <v>44379</v>
       </c>
       <c r="B208" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C208" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D208" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F208" t="s">
         <v>8</v>
@@ -6385,7 +6496,7 @@
         <v>11</v>
       </c>
       <c r="H208" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.45">
@@ -6393,22 +6504,22 @@
         <v>44379</v>
       </c>
       <c r="B209" t="s">
+        <v>251</v>
+      </c>
+      <c r="C209" t="s">
+        <v>312</v>
+      </c>
+      <c r="D209" t="s">
+        <v>352</v>
+      </c>
+      <c r="F209" t="s">
         <v>252</v>
       </c>
-      <c r="C209" t="s">
-        <v>314</v>
-      </c>
-      <c r="D209" t="s">
-        <v>355</v>
-      </c>
-      <c r="F209" t="s">
-        <v>253</v>
-      </c>
       <c r="G209" t="s">
         <v>11</v>
       </c>
       <c r="H209" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.45">
@@ -6416,22 +6527,22 @@
         <v>44379</v>
       </c>
       <c r="B210" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C210" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D210" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F210" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G210" t="s">
         <v>11</v>
       </c>
       <c r="H210" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.45">
@@ -6439,22 +6550,22 @@
         <v>44379</v>
       </c>
       <c r="B211" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C211" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D211" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F211" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G211" t="s">
         <v>11</v>
       </c>
       <c r="H211" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.45">
@@ -6462,22 +6573,22 @@
         <v>44379</v>
       </c>
       <c r="B212" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C212" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D212" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F212" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G212" t="s">
         <v>11</v>
       </c>
       <c r="H212" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.45">
@@ -6485,22 +6596,22 @@
         <v>44379</v>
       </c>
       <c r="B213" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C213" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D213" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F213" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G213" t="s">
         <v>11</v>
       </c>
       <c r="H213" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.45">
@@ -6508,22 +6619,22 @@
         <v>44379</v>
       </c>
       <c r="B214" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C214" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D214" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F214" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G214" t="s">
         <v>11</v>
       </c>
       <c r="H214" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.45">
@@ -6531,22 +6642,22 @@
         <v>44379</v>
       </c>
       <c r="B215" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C215" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D215" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F215" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G215" t="s">
         <v>11</v>
       </c>
       <c r="H215" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.45">
@@ -6554,22 +6665,22 @@
         <v>44379</v>
       </c>
       <c r="B216" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C216" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D216" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F216" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G216" t="s">
         <v>11</v>
       </c>
       <c r="H216" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.45">
@@ -6577,22 +6688,22 @@
         <v>44379</v>
       </c>
       <c r="B217" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C217" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D217" t="s">
         <v>38</v>
       </c>
       <c r="F217" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G217" t="s">
         <v>11</v>
       </c>
       <c r="H217" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.45">
@@ -6603,7 +6714,7 @@
         <v>108</v>
       </c>
       <c r="C218" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D218" t="s">
         <v>38</v>
@@ -6615,7 +6726,7 @@
         <v>11</v>
       </c>
       <c r="H218" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.45">
@@ -6623,22 +6734,22 @@
         <v>44379</v>
       </c>
       <c r="B219" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C219" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D219" t="s">
         <v>38</v>
       </c>
       <c r="F219" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G219" t="s">
         <v>11</v>
       </c>
       <c r="H219" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.45">
@@ -6646,22 +6757,22 @@
         <v>44379</v>
       </c>
       <c r="B220" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C220" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D220" t="s">
         <v>38</v>
       </c>
       <c r="F220" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G220" t="s">
         <v>11</v>
       </c>
       <c r="H220" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.45">
@@ -6672,7 +6783,7 @@
         <v>229</v>
       </c>
       <c r="C221" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D221" t="s">
         <v>38</v>
@@ -6684,7 +6795,7 @@
         <v>11</v>
       </c>
       <c r="H221" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.45">
@@ -6695,7 +6806,7 @@
         <v>222</v>
       </c>
       <c r="C222" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D222" t="s">
         <v>38</v>
@@ -6707,7 +6818,7 @@
         <v>11</v>
       </c>
       <c r="H222" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.45">
@@ -6718,7 +6829,7 @@
         <v>223</v>
       </c>
       <c r="C223" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D223" t="s">
         <v>38</v>
@@ -6730,7 +6841,7 @@
         <v>11</v>
       </c>
       <c r="H223" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.45">
@@ -6738,22 +6849,22 @@
         <v>44379</v>
       </c>
       <c r="B224" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C224" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D224" t="s">
         <v>38</v>
       </c>
       <c r="F224" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G224" t="s">
         <v>11</v>
       </c>
       <c r="H224" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.45">
@@ -6761,22 +6872,22 @@
         <v>44379</v>
       </c>
       <c r="B225" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C225" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D225" t="s">
         <v>38</v>
       </c>
       <c r="F225" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G225" t="s">
         <v>11</v>
       </c>
       <c r="H225" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.45">
@@ -6784,22 +6895,22 @@
         <v>44379</v>
       </c>
       <c r="B226" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C226" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D226" t="s">
         <v>38</v>
       </c>
       <c r="F226" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G226" t="s">
         <v>11</v>
       </c>
       <c r="H226" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.45">
@@ -6807,22 +6918,22 @@
         <v>44379</v>
       </c>
       <c r="B227" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C227" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D227" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F227" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G227" t="s">
         <v>11</v>
       </c>
       <c r="H227" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.45">
@@ -6830,22 +6941,22 @@
         <v>44379</v>
       </c>
       <c r="B228" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C228" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D228" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F228" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G228" t="s">
         <v>11</v>
       </c>
       <c r="H228" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.45">
@@ -6853,22 +6964,22 @@
         <v>44379</v>
       </c>
       <c r="B229" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C229" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D229" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F229" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G229" t="s">
         <v>11</v>
       </c>
       <c r="H229" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.45">
@@ -6876,22 +6987,22 @@
         <v>44379</v>
       </c>
       <c r="B230" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C230" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D230" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F230" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G230" t="s">
         <v>11</v>
       </c>
       <c r="H230" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.45">
@@ -6899,22 +7010,22 @@
         <v>44379</v>
       </c>
       <c r="B231" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C231" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D231" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F231" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G231" t="s">
         <v>11</v>
       </c>
       <c r="H231" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.45">
@@ -6922,22 +7033,22 @@
         <v>44379</v>
       </c>
       <c r="B232" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C232" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D232" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F232" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G232" t="s">
         <v>11</v>
       </c>
       <c r="H232" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.45">
@@ -6945,22 +7056,22 @@
         <v>44379</v>
       </c>
       <c r="B233" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C233" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D233" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F233" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G233" t="s">
         <v>11</v>
       </c>
       <c r="H233" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.45">
@@ -6968,22 +7079,22 @@
         <v>44379</v>
       </c>
       <c r="B234" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C234" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D234" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F234" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G234" t="s">
         <v>11</v>
       </c>
       <c r="H234" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.45">
@@ -6991,22 +7102,22 @@
         <v>44379</v>
       </c>
       <c r="B235" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C235" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D235" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F235" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G235" t="s">
         <v>11</v>
       </c>
       <c r="H235" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.45">
@@ -7014,22 +7125,22 @@
         <v>44379</v>
       </c>
       <c r="B236" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C236" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D236" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F236" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G236" t="s">
         <v>11</v>
       </c>
       <c r="H236" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.45">
@@ -7037,22 +7148,22 @@
         <v>44379</v>
       </c>
       <c r="B237" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C237" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D237" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F237" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G237" t="s">
         <v>11</v>
       </c>
       <c r="H237" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.45">
@@ -7060,22 +7171,22 @@
         <v>44379</v>
       </c>
       <c r="B238" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="C238" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D238" t="s">
-        <v>354</v>
+        <v>38</v>
       </c>
       <c r="F238" t="s">
-        <v>316</v>
+        <v>371</v>
       </c>
       <c r="G238" t="s">
         <v>11</v>
       </c>
       <c r="H238" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.45">
@@ -7083,22 +7194,22 @@
         <v>44379</v>
       </c>
       <c r="B239" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C239" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D239" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F239" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G239" t="s">
         <v>11</v>
       </c>
       <c r="H239" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.45">
@@ -7106,22 +7217,22 @@
         <v>44380</v>
       </c>
       <c r="B240" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C240" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D240" t="s">
         <v>38</v>
       </c>
       <c r="F240" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G240" t="s">
         <v>11</v>
       </c>
       <c r="H240" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.45">
@@ -7129,22 +7240,22 @@
         <v>44380</v>
       </c>
       <c r="B241" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C241" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D241" t="s">
         <v>38</v>
       </c>
       <c r="F241" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G241" t="s">
         <v>11</v>
       </c>
       <c r="H241" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.45">
@@ -7152,22 +7263,22 @@
         <v>44380</v>
       </c>
       <c r="B242" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C242" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D242" t="s">
         <v>38</v>
       </c>
       <c r="F242" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G242" t="s">
         <v>11</v>
       </c>
       <c r="H242" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.45">
@@ -7175,22 +7286,22 @@
         <v>44380</v>
       </c>
       <c r="B243" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C243" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D243" t="s">
         <v>38</v>
       </c>
       <c r="F243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G243" t="s">
         <v>11</v>
       </c>
       <c r="H243" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.45">
@@ -7198,22 +7309,22 @@
         <v>44380</v>
       </c>
       <c r="B244" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C244" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D244" t="s">
         <v>38</v>
       </c>
       <c r="F244" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G244" t="s">
         <v>11</v>
       </c>
       <c r="H244" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.45">
@@ -7221,22 +7332,22 @@
         <v>44380</v>
       </c>
       <c r="B245" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C245" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D245" t="s">
         <v>38</v>
       </c>
       <c r="F245" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G245" t="s">
         <v>11</v>
       </c>
       <c r="H245" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.45">
@@ -7244,22 +7355,22 @@
         <v>44380</v>
       </c>
       <c r="B246" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C246" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D246" t="s">
         <v>38</v>
       </c>
       <c r="F246" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G246" t="s">
         <v>11</v>
       </c>
       <c r="H246" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.45">
@@ -7267,22 +7378,22 @@
         <v>44380</v>
       </c>
       <c r="B247" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C247" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D247" t="s">
         <v>38</v>
       </c>
       <c r="F247" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G247" t="s">
         <v>11</v>
       </c>
       <c r="H247" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.45">
@@ -7290,22 +7401,22 @@
         <v>44380</v>
       </c>
       <c r="B248" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C248" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D248" t="s">
         <v>38</v>
       </c>
       <c r="F248" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G248" t="s">
         <v>11</v>
       </c>
       <c r="H248" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.45">
@@ -7313,22 +7424,22 @@
         <v>44380</v>
       </c>
       <c r="B249" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C249" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D249" t="s">
         <v>38</v>
       </c>
       <c r="F249" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G249" t="s">
         <v>11</v>
       </c>
       <c r="H249" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.45">
@@ -7336,22 +7447,22 @@
         <v>44380</v>
       </c>
       <c r="B250" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C250" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D250" t="s">
         <v>38</v>
       </c>
       <c r="F250" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G250" t="s">
         <v>11</v>
       </c>
       <c r="H250" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.45">
@@ -7359,22 +7470,22 @@
         <v>44380</v>
       </c>
       <c r="B251" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C251" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D251" t="s">
         <v>38</v>
       </c>
       <c r="F251" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G251" t="s">
         <v>11</v>
       </c>
       <c r="H251" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.45">
@@ -7382,22 +7493,22 @@
         <v>44380</v>
       </c>
       <c r="B252" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C252" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D252" t="s">
         <v>38</v>
       </c>
       <c r="F252" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G252" t="s">
         <v>11</v>
       </c>
       <c r="H252" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.45">
@@ -7405,22 +7516,22 @@
         <v>44380</v>
       </c>
       <c r="B253" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C253" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D253" t="s">
         <v>38</v>
       </c>
       <c r="F253" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G253" t="s">
         <v>11</v>
       </c>
       <c r="H253" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.45">
@@ -7428,22 +7539,22 @@
         <v>44380</v>
       </c>
       <c r="B254" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C254" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D254" t="s">
         <v>38</v>
       </c>
       <c r="F254" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G254" t="s">
         <v>11</v>
       </c>
       <c r="H254" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.45">
@@ -7451,22 +7562,22 @@
         <v>44380</v>
       </c>
       <c r="B255" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C255" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D255" t="s">
         <v>38</v>
       </c>
       <c r="F255" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G255" t="s">
         <v>11</v>
       </c>
       <c r="H255" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.45">
@@ -7474,22 +7585,22 @@
         <v>44380</v>
       </c>
       <c r="B256" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C256" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D256" t="s">
         <v>38</v>
       </c>
       <c r="F256" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G256" t="s">
         <v>11</v>
       </c>
       <c r="H256" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.45">
@@ -7497,22 +7608,22 @@
         <v>44380</v>
       </c>
       <c r="B257" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C257" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D257" t="s">
         <v>38</v>
       </c>
       <c r="F257" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G257" t="s">
         <v>11</v>
       </c>
       <c r="H257" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.45">
@@ -7520,22 +7631,22 @@
         <v>44380</v>
       </c>
       <c r="B258" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C258" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D258" t="s">
         <v>38</v>
       </c>
       <c r="F258" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G258" t="s">
         <v>11</v>
       </c>
       <c r="H258" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.45">
@@ -7543,22 +7654,22 @@
         <v>44380</v>
       </c>
       <c r="B259" t="s">
+        <v>251</v>
+      </c>
+      <c r="C259" t="s">
+        <v>335</v>
+      </c>
+      <c r="D259" t="s">
+        <v>352</v>
+      </c>
+      <c r="F259" t="s">
         <v>252</v>
       </c>
-      <c r="C259" t="s">
-        <v>338</v>
-      </c>
-      <c r="D259" t="s">
-        <v>355</v>
-      </c>
-      <c r="F259" t="s">
-        <v>253</v>
-      </c>
       <c r="G259" t="s">
         <v>11</v>
       </c>
       <c r="H259" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.45">
@@ -7566,22 +7677,22 @@
         <v>44380</v>
       </c>
       <c r="B260" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C260" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D260" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F260" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G260" t="s">
         <v>11</v>
       </c>
       <c r="H260" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.45">
@@ -7589,22 +7700,22 @@
         <v>44380</v>
       </c>
       <c r="B261" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C261" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D261" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F261" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G261" t="s">
         <v>11</v>
       </c>
       <c r="H261" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.45">
@@ -7612,22 +7723,22 @@
         <v>44380</v>
       </c>
       <c r="B262" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C262" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D262" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F262" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G262" t="s">
         <v>11</v>
       </c>
       <c r="H262" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.45">
@@ -7635,22 +7746,22 @@
         <v>44380</v>
       </c>
       <c r="B263" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C263" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D263" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F263" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G263" t="s">
         <v>11</v>
       </c>
       <c r="H263" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.45">
@@ -7658,22 +7769,22 @@
         <v>44380</v>
       </c>
       <c r="B264" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C264" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D264" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F264" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G264" t="s">
         <v>11</v>
       </c>
       <c r="H264" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.45">
@@ -7681,22 +7792,22 @@
         <v>44380</v>
       </c>
       <c r="B265" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C265" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D265" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F265" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="G265" t="s">
         <v>11</v>
       </c>
       <c r="H265" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.45">
@@ -7704,22 +7815,22 @@
         <v>44380</v>
       </c>
       <c r="B266" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C266" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D266" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F266" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="G266" t="s">
         <v>11</v>
       </c>
       <c r="H266" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.45">
@@ -7727,22 +7838,22 @@
         <v>44380</v>
       </c>
       <c r="B267" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C267" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D267" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F267" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="G267" t="s">
         <v>11</v>
       </c>
       <c r="H267" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.45">
@@ -7750,22 +7861,22 @@
         <v>44380</v>
       </c>
       <c r="B268" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C268" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D268" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F268" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G268" t="s">
         <v>11</v>
       </c>
       <c r="H268" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.45">
@@ -7773,22 +7884,22 @@
         <v>44380</v>
       </c>
       <c r="B269" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C269" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D269" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F269" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G269" t="s">
         <v>11</v>
       </c>
       <c r="H269" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.45">
@@ -7796,22 +7907,22 @@
         <v>44380</v>
       </c>
       <c r="B270" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C270" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D270" t="s">
         <v>38</v>
       </c>
       <c r="F270" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G270" t="s">
         <v>11</v>
       </c>
       <c r="H270" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.45">
@@ -7819,22 +7930,22 @@
         <v>44380</v>
       </c>
       <c r="B271" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C271" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D271" t="s">
         <v>38</v>
       </c>
       <c r="F271" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G271" t="s">
         <v>11</v>
       </c>
       <c r="H271" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.45">
@@ -7842,22 +7953,22 @@
         <v>44380</v>
       </c>
       <c r="B272" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C272" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D272" t="s">
         <v>38</v>
       </c>
       <c r="F272" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G272" t="s">
         <v>11</v>
       </c>
       <c r="H272" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.45">
@@ -7865,22 +7976,22 @@
         <v>44380</v>
       </c>
       <c r="B273" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C273" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D273" t="s">
         <v>38</v>
       </c>
       <c r="F273" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G273" t="s">
         <v>11</v>
       </c>
       <c r="H273" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.45">
@@ -7888,22 +7999,22 @@
         <v>44380</v>
       </c>
       <c r="B274" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C274" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D274" t="s">
         <v>38</v>
       </c>
       <c r="F274" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G274" t="s">
         <v>11</v>
       </c>
       <c r="H274" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.45">
@@ -7914,10 +8025,10 @@
         <v>194</v>
       </c>
       <c r="C275" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="D275" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F275" t="s">
         <v>8</v>
@@ -7926,7 +8037,7 @@
         <v>11</v>
       </c>
       <c r="H275" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.45">
@@ -7934,22 +8045,22 @@
         <v>44381</v>
       </c>
       <c r="B276" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C276" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="D276" t="s">
+        <v>352</v>
+      </c>
+      <c r="F276" t="s">
         <v>355</v>
       </c>
-      <c r="F276" t="s">
-        <v>376</v>
-      </c>
       <c r="G276" t="s">
         <v>11</v>
       </c>
       <c r="H276" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.45">
@@ -7957,22 +8068,22 @@
         <v>44381</v>
       </c>
       <c r="B277" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C277" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="D277" t="s">
+        <v>352</v>
+      </c>
+      <c r="F277" t="s">
         <v>355</v>
       </c>
-      <c r="F277" t="s">
-        <v>376</v>
-      </c>
       <c r="G277" t="s">
         <v>11</v>
       </c>
       <c r="H277" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.45">
@@ -7980,22 +8091,22 @@
         <v>44381</v>
       </c>
       <c r="B278" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C278" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="D278" t="s">
+        <v>352</v>
+      </c>
+      <c r="F278" t="s">
         <v>355</v>
       </c>
-      <c r="F278" t="s">
-        <v>376</v>
-      </c>
       <c r="G278" t="s">
         <v>11</v>
       </c>
       <c r="H278" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.45">
@@ -8003,22 +8114,22 @@
         <v>44381</v>
       </c>
       <c r="B279" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C279" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="D279" t="s">
         <v>38</v>
       </c>
       <c r="F279" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G279" t="s">
         <v>11</v>
       </c>
       <c r="H279" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.45">
@@ -8026,22 +8137,22 @@
         <v>44381</v>
       </c>
       <c r="B280" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C280" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="D280" t="s">
         <v>38</v>
       </c>
       <c r="F280" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G280" t="s">
         <v>11</v>
       </c>
       <c r="H280" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.45">
@@ -8049,22 +8160,22 @@
         <v>44381</v>
       </c>
       <c r="B281" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C281" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="D281" t="s">
         <v>38</v>
       </c>
       <c r="F281" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G281" t="s">
         <v>11</v>
       </c>
       <c r="H281" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.45">
@@ -8072,22 +8183,22 @@
         <v>44381</v>
       </c>
       <c r="B282" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C282" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="D282" t="s">
         <v>38</v>
       </c>
       <c r="F282" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G282" t="s">
         <v>11</v>
       </c>
       <c r="H282" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.45">
@@ -8095,22 +8206,22 @@
         <v>44381</v>
       </c>
       <c r="B283" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C283" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="D283" t="s">
         <v>38</v>
       </c>
       <c r="F283" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G283" t="s">
         <v>11</v>
       </c>
       <c r="H283" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.45">
@@ -8118,22 +8229,22 @@
         <v>44381</v>
       </c>
       <c r="B284" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C284" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="D284" t="s">
         <v>38</v>
       </c>
       <c r="F284" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G284" t="s">
         <v>11</v>
       </c>
       <c r="H284" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.45">
@@ -8141,22 +8252,22 @@
         <v>44381</v>
       </c>
       <c r="B285" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C285" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="D285" t="s">
         <v>38</v>
       </c>
       <c r="F285" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G285" t="s">
         <v>11</v>
       </c>
       <c r="H285" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.45">
@@ -8164,22 +8275,22 @@
         <v>44381</v>
       </c>
       <c r="B286" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C286" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="D286" t="s">
         <v>38</v>
       </c>
       <c r="F286" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G286" t="s">
         <v>11</v>
       </c>
       <c r="H286" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.45">
@@ -8187,22 +8298,22 @@
         <v>44381</v>
       </c>
       <c r="B287" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C287" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="D287" t="s">
         <v>38</v>
       </c>
       <c r="F287" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G287" t="s">
         <v>11</v>
       </c>
       <c r="H287" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.45">
@@ -8210,22 +8321,22 @@
         <v>44381</v>
       </c>
       <c r="B288" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C288" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="D288" t="s">
         <v>38</v>
       </c>
       <c r="F288" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G288" t="s">
         <v>11</v>
       </c>
       <c r="H288" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.45">
@@ -8233,22 +8344,22 @@
         <v>44381</v>
       </c>
       <c r="B289" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C289" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="D289" t="s">
-        <v>355</v>
+        <v>38</v>
       </c>
       <c r="F289" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="G289" t="s">
         <v>11</v>
       </c>
       <c r="H289" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.45">
@@ -8256,22 +8367,22 @@
         <v>44381</v>
       </c>
       <c r="B290" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C290" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="D290" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F290" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G290" t="s">
         <v>11</v>
       </c>
       <c r="H290" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.45">
@@ -8279,22 +8390,827 @@
         <v>44381</v>
       </c>
       <c r="B291" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C291" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="D291" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F291" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G291" t="s">
         <v>11</v>
       </c>
       <c r="H291" t="s">
-        <v>279</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A292" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B292" t="s">
+        <v>335</v>
+      </c>
+      <c r="C292" t="s">
+        <v>424</v>
+      </c>
+      <c r="D292" t="s">
+        <v>352</v>
+      </c>
+      <c r="F292" t="s">
+        <v>355</v>
+      </c>
+      <c r="G292" t="s">
+        <v>11</v>
+      </c>
+      <c r="H292" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A293" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B293" t="s">
+        <v>335</v>
+      </c>
+      <c r="C293" t="s">
+        <v>425</v>
+      </c>
+      <c r="D293" t="s">
+        <v>352</v>
+      </c>
+      <c r="F293" t="s">
+        <v>355</v>
+      </c>
+      <c r="G293" t="s">
+        <v>11</v>
+      </c>
+      <c r="H293" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A294" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B294" t="s">
+        <v>148</v>
+      </c>
+      <c r="C294" t="s">
+        <v>392</v>
+      </c>
+      <c r="D294" t="s">
+        <v>38</v>
+      </c>
+      <c r="F294" t="s">
+        <v>371</v>
+      </c>
+      <c r="G294" t="s">
+        <v>11</v>
+      </c>
+      <c r="H294" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A295" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B295" t="s">
+        <v>148</v>
+      </c>
+      <c r="C295" t="s">
+        <v>393</v>
+      </c>
+      <c r="D295" t="s">
+        <v>38</v>
+      </c>
+      <c r="F295" t="s">
+        <v>371</v>
+      </c>
+      <c r="G295" t="s">
+        <v>11</v>
+      </c>
+      <c r="H295" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A296" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B296" t="s">
+        <v>148</v>
+      </c>
+      <c r="C296" t="s">
+        <v>394</v>
+      </c>
+      <c r="D296" t="s">
+        <v>38</v>
+      </c>
+      <c r="F296" t="s">
+        <v>371</v>
+      </c>
+      <c r="G296" t="s">
+        <v>11</v>
+      </c>
+      <c r="H296" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A297" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B297" t="s">
+        <v>148</v>
+      </c>
+      <c r="C297" t="s">
+        <v>395</v>
+      </c>
+      <c r="D297" t="s">
+        <v>38</v>
+      </c>
+      <c r="F297" t="s">
+        <v>371</v>
+      </c>
+      <c r="G297" t="s">
+        <v>11</v>
+      </c>
+      <c r="H297" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A298" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B298" t="s">
+        <v>395</v>
+      </c>
+      <c r="C298" t="s">
+        <v>396</v>
+      </c>
+      <c r="D298" t="s">
+        <v>38</v>
+      </c>
+      <c r="F298" t="s">
+        <v>8</v>
+      </c>
+      <c r="G298" t="s">
+        <v>11</v>
+      </c>
+      <c r="H298" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A299" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B299" t="s">
+        <v>358</v>
+      </c>
+      <c r="C299" t="s">
+        <v>397</v>
+      </c>
+      <c r="D299" t="s">
+        <v>38</v>
+      </c>
+      <c r="F299" t="s">
+        <v>245</v>
+      </c>
+      <c r="G299" t="s">
+        <v>11</v>
+      </c>
+      <c r="H299" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A300" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B300" t="s">
+        <v>358</v>
+      </c>
+      <c r="C300" t="s">
+        <v>398</v>
+      </c>
+      <c r="D300" t="s">
+        <v>38</v>
+      </c>
+      <c r="F300" t="s">
+        <v>245</v>
+      </c>
+      <c r="G300" t="s">
+        <v>11</v>
+      </c>
+      <c r="H300" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A301" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B301" t="s">
+        <v>426</v>
+      </c>
+      <c r="C301" t="s">
+        <v>426</v>
+      </c>
+      <c r="D301" t="s">
+        <v>38</v>
+      </c>
+      <c r="F301" t="s">
+        <v>427</v>
+      </c>
+      <c r="G301" t="s">
+        <v>11</v>
+      </c>
+      <c r="H301" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A302" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B302" t="s">
+        <v>362</v>
+      </c>
+      <c r="C302" t="s">
+        <v>399</v>
+      </c>
+      <c r="D302" t="s">
+        <v>38</v>
+      </c>
+      <c r="F302" t="s">
+        <v>246</v>
+      </c>
+      <c r="G302" t="s">
+        <v>11</v>
+      </c>
+      <c r="H302" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A303" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B303" t="s">
+        <v>363</v>
+      </c>
+      <c r="C303" t="s">
+        <v>400</v>
+      </c>
+      <c r="D303" t="s">
+        <v>38</v>
+      </c>
+      <c r="F303" t="s">
+        <v>246</v>
+      </c>
+      <c r="G303" t="s">
+        <v>11</v>
+      </c>
+      <c r="H303" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A304" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B304" t="s">
+        <v>364</v>
+      </c>
+      <c r="C304" t="s">
+        <v>401</v>
+      </c>
+      <c r="D304" t="s">
+        <v>38</v>
+      </c>
+      <c r="F304" t="s">
+        <v>246</v>
+      </c>
+      <c r="G304" t="s">
+        <v>11</v>
+      </c>
+      <c r="H304" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A305" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B305" t="s">
+        <v>365</v>
+      </c>
+      <c r="C305" t="s">
+        <v>402</v>
+      </c>
+      <c r="D305" t="s">
+        <v>38</v>
+      </c>
+      <c r="F305" t="s">
+        <v>246</v>
+      </c>
+      <c r="G305" t="s">
+        <v>11</v>
+      </c>
+      <c r="H305" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A306" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B306" t="s">
+        <v>366</v>
+      </c>
+      <c r="C306" t="s">
+        <v>403</v>
+      </c>
+      <c r="D306" t="s">
+        <v>38</v>
+      </c>
+      <c r="F306" t="s">
+        <v>246</v>
+      </c>
+      <c r="G306" t="s">
+        <v>11</v>
+      </c>
+      <c r="H306" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A307" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B307" t="s">
+        <v>367</v>
+      </c>
+      <c r="C307" t="s">
+        <v>404</v>
+      </c>
+      <c r="D307" t="s">
+        <v>38</v>
+      </c>
+      <c r="F307" t="s">
+        <v>246</v>
+      </c>
+      <c r="G307" t="s">
+        <v>11</v>
+      </c>
+      <c r="H307" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A308" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B308" t="s">
+        <v>336</v>
+      </c>
+      <c r="C308" t="s">
+        <v>405</v>
+      </c>
+      <c r="D308" t="s">
+        <v>352</v>
+      </c>
+      <c r="F308" t="s">
+        <v>250</v>
+      </c>
+      <c r="G308" t="s">
+        <v>11</v>
+      </c>
+      <c r="H308" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A309" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B309" t="s">
+        <v>336</v>
+      </c>
+      <c r="C309" t="s">
+        <v>406</v>
+      </c>
+      <c r="D309" t="s">
+        <v>352</v>
+      </c>
+      <c r="F309" t="s">
+        <v>250</v>
+      </c>
+      <c r="G309" t="s">
+        <v>11</v>
+      </c>
+      <c r="H309" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A310" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B310" t="s">
+        <v>336</v>
+      </c>
+      <c r="C310" t="s">
+        <v>407</v>
+      </c>
+      <c r="D310" t="s">
+        <v>352</v>
+      </c>
+      <c r="F310" t="s">
+        <v>250</v>
+      </c>
+      <c r="G310" t="s">
+        <v>11</v>
+      </c>
+      <c r="H310" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A311" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B311" t="s">
+        <v>337</v>
+      </c>
+      <c r="C311" t="s">
+        <v>408</v>
+      </c>
+      <c r="D311" t="s">
+        <v>352</v>
+      </c>
+      <c r="F311" t="s">
+        <v>250</v>
+      </c>
+      <c r="G311" t="s">
+        <v>11</v>
+      </c>
+      <c r="H311" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A312" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B312" t="s">
+        <v>337</v>
+      </c>
+      <c r="C312" t="s">
+        <v>409</v>
+      </c>
+      <c r="D312" t="s">
+        <v>352</v>
+      </c>
+      <c r="F312" t="s">
+        <v>250</v>
+      </c>
+      <c r="G312" t="s">
+        <v>11</v>
+      </c>
+      <c r="H312" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A313" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B313" t="s">
+        <v>337</v>
+      </c>
+      <c r="C313" t="s">
+        <v>410</v>
+      </c>
+      <c r="D313" t="s">
+        <v>352</v>
+      </c>
+      <c r="F313" t="s">
+        <v>250</v>
+      </c>
+      <c r="G313" t="s">
+        <v>11</v>
+      </c>
+      <c r="H313" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A314" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B314" t="s">
+        <v>338</v>
+      </c>
+      <c r="C314" t="s">
+        <v>411</v>
+      </c>
+      <c r="D314" t="s">
+        <v>352</v>
+      </c>
+      <c r="F314" t="s">
+        <v>250</v>
+      </c>
+      <c r="G314" t="s">
+        <v>11</v>
+      </c>
+      <c r="H314" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A315" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B315" t="s">
+        <v>338</v>
+      </c>
+      <c r="C315" t="s">
+        <v>412</v>
+      </c>
+      <c r="D315" t="s">
+        <v>352</v>
+      </c>
+      <c r="F315" t="s">
+        <v>250</v>
+      </c>
+      <c r="G315" t="s">
+        <v>11</v>
+      </c>
+      <c r="H315" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A316" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B316" t="s">
+        <v>338</v>
+      </c>
+      <c r="C316" t="s">
+        <v>413</v>
+      </c>
+      <c r="D316" t="s">
+        <v>352</v>
+      </c>
+      <c r="F316" t="s">
+        <v>250</v>
+      </c>
+      <c r="G316" t="s">
+        <v>11</v>
+      </c>
+      <c r="H316" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A317" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B317" t="s">
+        <v>339</v>
+      </c>
+      <c r="C317" t="s">
+        <v>414</v>
+      </c>
+      <c r="D317" t="s">
+        <v>352</v>
+      </c>
+      <c r="F317" t="s">
+        <v>250</v>
+      </c>
+      <c r="G317" t="s">
+        <v>11</v>
+      </c>
+      <c r="H317" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A318" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B318" t="s">
+        <v>340</v>
+      </c>
+      <c r="C318" t="s">
+        <v>415</v>
+      </c>
+      <c r="D318" t="s">
+        <v>352</v>
+      </c>
+      <c r="F318" t="s">
+        <v>250</v>
+      </c>
+      <c r="G318" t="s">
+        <v>11</v>
+      </c>
+      <c r="H318" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A319" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B319" t="s">
+        <v>341</v>
+      </c>
+      <c r="C319" t="s">
+        <v>416</v>
+      </c>
+      <c r="D319" t="s">
+        <v>352</v>
+      </c>
+      <c r="F319" t="s">
+        <v>250</v>
+      </c>
+      <c r="G319" t="s">
+        <v>11</v>
+      </c>
+      <c r="H319" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A320" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B320" t="s">
+        <v>340</v>
+      </c>
+      <c r="C320" t="s">
+        <v>417</v>
+      </c>
+      <c r="D320" t="s">
+        <v>352</v>
+      </c>
+      <c r="F320" t="s">
+        <v>250</v>
+      </c>
+      <c r="G320" t="s">
+        <v>11</v>
+      </c>
+      <c r="H320" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A321" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B321" t="s">
+        <v>340</v>
+      </c>
+      <c r="C321" t="s">
+        <v>418</v>
+      </c>
+      <c r="D321" t="s">
+        <v>352</v>
+      </c>
+      <c r="F321" t="s">
+        <v>250</v>
+      </c>
+      <c r="G321" t="s">
+        <v>11</v>
+      </c>
+      <c r="H321" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A322" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B322" t="s">
+        <v>340</v>
+      </c>
+      <c r="C322" t="s">
+        <v>419</v>
+      </c>
+      <c r="D322" t="s">
+        <v>352</v>
+      </c>
+      <c r="F322" t="s">
+        <v>250</v>
+      </c>
+      <c r="G322" t="s">
+        <v>11</v>
+      </c>
+      <c r="H322" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A323" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B323" t="s">
+        <v>369</v>
+      </c>
+      <c r="C323" t="s">
+        <v>420</v>
+      </c>
+      <c r="D323" t="s">
+        <v>351</v>
+      </c>
+      <c r="F323" t="s">
+        <v>314</v>
+      </c>
+      <c r="G323" t="s">
+        <v>11</v>
+      </c>
+      <c r="H323" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A324" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B324" t="s">
+        <v>370</v>
+      </c>
+      <c r="C324" t="s">
+        <v>421</v>
+      </c>
+      <c r="D324" t="s">
+        <v>351</v>
+      </c>
+      <c r="F324" t="s">
+        <v>428</v>
+      </c>
+      <c r="G324" t="s">
+        <v>11</v>
+      </c>
+      <c r="H324" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A325" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B325" t="s">
+        <v>421</v>
+      </c>
+      <c r="C325" t="s">
+        <v>422</v>
+      </c>
+      <c r="D325" t="s">
+        <v>352</v>
+      </c>
+      <c r="F325" t="s">
+        <v>428</v>
+      </c>
+      <c r="G325" t="s">
+        <v>11</v>
+      </c>
+      <c r="H325" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A326" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B326" t="s">
+        <v>421</v>
+      </c>
+      <c r="C326" t="s">
+        <v>423</v>
+      </c>
+      <c r="D326" t="s">
+        <v>352</v>
+      </c>
+      <c r="F326" t="s">
+        <v>428</v>
+      </c>
+      <c r="G326" t="s">
+        <v>11</v>
+      </c>
+      <c r="H326" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -8311,9 +9227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8340,7 +9254,7 @@
         <v>44362</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>372</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>
@@ -8354,7 +9268,7 @@
         <v>44363</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
@@ -8368,7 +9282,7 @@
         <v>44364</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -8382,7 +9296,7 @@
         <v>44365</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -8396,7 +9310,7 @@
         <v>44366</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -8410,7 +9324,7 @@
         <v>44367</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -8424,7 +9338,7 @@
         <v>44368</v>
       </c>
       <c r="B8" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -8438,7 +9352,7 @@
         <v>44369</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -8452,7 +9366,7 @@
         <v>44370</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -8466,7 +9380,7 @@
         <v>44371</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -8480,7 +9394,7 @@
         <v>44372</v>
       </c>
       <c r="B12" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -8494,7 +9408,7 @@
         <v>44373</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -8508,7 +9422,7 @@
         <v>44374</v>
       </c>
       <c r="B14" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -8522,7 +9436,7 @@
         <v>44375</v>
       </c>
       <c r="B15" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -8536,7 +9450,7 @@
         <v>44376</v>
       </c>
       <c r="B16" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -8550,7 +9464,7 @@
         <v>44377</v>
       </c>
       <c r="B17" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -8564,7 +9478,7 @@
         <v>44378</v>
       </c>
       <c r="B18" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -8578,7 +9492,7 @@
         <v>44379</v>
       </c>
       <c r="B19" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -8592,7 +9506,7 @@
         <v>44380</v>
       </c>
       <c r="B20" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -8606,7 +9520,7 @@
         <v>44381</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>391</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -8618,6 +9532,9 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>44382</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>

--- a/2021-06 New South Wales Outbreak Paths.xlsx
+++ b/2021-06 New South Wales Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52D0185-706E-4C06-B003-7D0F4CF5A908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537BAF93-82C2-43A7-8C92-74E23CDF5BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5238" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5874" uniqueCount="1042">
   <si>
     <t>Source</t>
   </si>
@@ -2425,9 +2425,6 @@
     <t>Apartment block</t>
   </si>
   <si>
-    <t>#2f91ff</t>
-  </si>
-  <si>
     <t>Bondi Beach</t>
   </si>
   <si>
@@ -2764,81 +2761,6 @@
     <t>#f4f7ff</t>
   </si>
   <si>
-    <t>#eff2ff</t>
-  </si>
-  <si>
-    <t>#e9eeff</t>
-  </si>
-  <si>
-    <t>#e4eaff</t>
-  </si>
-  <si>
-    <t>#dee6ff</t>
-  </si>
-  <si>
-    <t>#d8e2ff</t>
-  </si>
-  <si>
-    <t>#d3deff</t>
-  </si>
-  <si>
-    <t>#cddaff</t>
-  </si>
-  <si>
-    <t>#c7d6ff</t>
-  </si>
-  <si>
-    <t>#c1d2ff</t>
-  </si>
-  <si>
-    <t>#bbceff</t>
-  </si>
-  <si>
-    <t>#b5caff</t>
-  </si>
-  <si>
-    <t>#aec6ff</t>
-  </si>
-  <si>
-    <t>#a8c2ff</t>
-  </si>
-  <si>
-    <t>#a2beff</t>
-  </si>
-  <si>
-    <t>#9bbaff</t>
-  </si>
-  <si>
-    <t>#94b6ff</t>
-  </si>
-  <si>
-    <t>#8db2ff</t>
-  </si>
-  <si>
-    <t>#85aeff</t>
-  </si>
-  <si>
-    <t>#7eabff</t>
-  </si>
-  <si>
-    <t>#75a7ff</t>
-  </si>
-  <si>
-    <t>#6da3ff</t>
-  </si>
-  <si>
-    <t>#639fff</t>
-  </si>
-  <si>
-    <t>#599cff</t>
-  </si>
-  <si>
-    <t>#4e98ff</t>
-  </si>
-  <si>
-    <t>#4094ff</t>
-  </si>
-  <si>
     <t>Roselands</t>
   </si>
   <si>
@@ -2867,6 +2789,378 @@
   </si>
   <si>
     <t>Summit Care</t>
+  </si>
+  <si>
+    <t>#eff3ff</t>
+  </si>
+  <si>
+    <t>#eaefff</t>
+  </si>
+  <si>
+    <t>#e5ebff</t>
+  </si>
+  <si>
+    <t>#dfe7ff</t>
+  </si>
+  <si>
+    <t>#dae3ff</t>
+  </si>
+  <si>
+    <t>#d4dfff</t>
+  </si>
+  <si>
+    <t>#cfdbff</t>
+  </si>
+  <si>
+    <t>#c9d7ff</t>
+  </si>
+  <si>
+    <t>#c3d3ff</t>
+  </si>
+  <si>
+    <t>#bdcfff</t>
+  </si>
+  <si>
+    <t>#b7cbff</t>
+  </si>
+  <si>
+    <t>#b1c8ff</t>
+  </si>
+  <si>
+    <t>#abc4ff</t>
+  </si>
+  <si>
+    <t>#a5c0ff</t>
+  </si>
+  <si>
+    <t>#9fbcff</t>
+  </si>
+  <si>
+    <t>#98b8ff</t>
+  </si>
+  <si>
+    <t>#91b5ff</t>
+  </si>
+  <si>
+    <t>#8ab1ff</t>
+  </si>
+  <si>
+    <t>#83adff</t>
+  </si>
+  <si>
+    <t>#7baaff</t>
+  </si>
+  <si>
+    <t>#73a6ff</t>
+  </si>
+  <si>
+    <t>#6ba2ff</t>
+  </si>
+  <si>
+    <t>#629fff</t>
+  </si>
+  <si>
+    <t>#589bff</t>
+  </si>
+  <si>
+    <t>#4c97ff</t>
+  </si>
+  <si>
+    <t>#3f94ff</t>
+  </si>
+  <si>
+    <t>#2e90ff</t>
+  </si>
+  <si>
+    <t>S769</t>
+  </si>
+  <si>
+    <t>S770</t>
+  </si>
+  <si>
+    <t>S771</t>
+  </si>
+  <si>
+    <t>S772</t>
+  </si>
+  <si>
+    <t>S773</t>
+  </si>
+  <si>
+    <t>S774</t>
+  </si>
+  <si>
+    <t>S775</t>
+  </si>
+  <si>
+    <t>S776</t>
+  </si>
+  <si>
+    <t>S777</t>
+  </si>
+  <si>
+    <t>S778</t>
+  </si>
+  <si>
+    <t>S779</t>
+  </si>
+  <si>
+    <t>S780</t>
+  </si>
+  <si>
+    <t>S781</t>
+  </si>
+  <si>
+    <t>S782</t>
+  </si>
+  <si>
+    <t>S783</t>
+  </si>
+  <si>
+    <t>S784</t>
+  </si>
+  <si>
+    <t>S785</t>
+  </si>
+  <si>
+    <t>S786</t>
+  </si>
+  <si>
+    <t>S787</t>
+  </si>
+  <si>
+    <t>S788</t>
+  </si>
+  <si>
+    <t>S789</t>
+  </si>
+  <si>
+    <t>S790</t>
+  </si>
+  <si>
+    <t>S791</t>
+  </si>
+  <si>
+    <t>S792</t>
+  </si>
+  <si>
+    <t>S793</t>
+  </si>
+  <si>
+    <t>S794</t>
+  </si>
+  <si>
+    <t>S795</t>
+  </si>
+  <si>
+    <t>S796</t>
+  </si>
+  <si>
+    <t>S797</t>
+  </si>
+  <si>
+    <t>S798</t>
+  </si>
+  <si>
+    <t>S799</t>
+  </si>
+  <si>
+    <t>S800</t>
+  </si>
+  <si>
+    <t>S801</t>
+  </si>
+  <si>
+    <t>S802</t>
+  </si>
+  <si>
+    <t>S803</t>
+  </si>
+  <si>
+    <t>S804</t>
+  </si>
+  <si>
+    <t>S805</t>
+  </si>
+  <si>
+    <t>S806</t>
+  </si>
+  <si>
+    <t>S807</t>
+  </si>
+  <si>
+    <t>S808</t>
+  </si>
+  <si>
+    <t>S809</t>
+  </si>
+  <si>
+    <t>S810</t>
+  </si>
+  <si>
+    <t>S811</t>
+  </si>
+  <si>
+    <t>S812</t>
+  </si>
+  <si>
+    <t>S813</t>
+  </si>
+  <si>
+    <t>S814</t>
+  </si>
+  <si>
+    <t>S815</t>
+  </si>
+  <si>
+    <t>S816</t>
+  </si>
+  <si>
+    <t>S817</t>
+  </si>
+  <si>
+    <t>S818</t>
+  </si>
+  <si>
+    <t>S819</t>
+  </si>
+  <si>
+    <t>S820</t>
+  </si>
+  <si>
+    <t>S821</t>
+  </si>
+  <si>
+    <t>S822</t>
+  </si>
+  <si>
+    <t>S823</t>
+  </si>
+  <si>
+    <t>S824</t>
+  </si>
+  <si>
+    <t>S825</t>
+  </si>
+  <si>
+    <t>S826</t>
+  </si>
+  <si>
+    <t>S827</t>
+  </si>
+  <si>
+    <t>S828</t>
+  </si>
+  <si>
+    <t>S829</t>
+  </si>
+  <si>
+    <t>S830</t>
+  </si>
+  <si>
+    <t>S831</t>
+  </si>
+  <si>
+    <t>S832</t>
+  </si>
+  <si>
+    <t>S833</t>
+  </si>
+  <si>
+    <t>S834</t>
+  </si>
+  <si>
+    <t>S835</t>
+  </si>
+  <si>
+    <t>S836</t>
+  </si>
+  <si>
+    <t>S837</t>
+  </si>
+  <si>
+    <t>S838</t>
+  </si>
+  <si>
+    <t>S839</t>
+  </si>
+  <si>
+    <t>S840</t>
+  </si>
+  <si>
+    <t>S841</t>
+  </si>
+  <si>
+    <t>S842</t>
+  </si>
+  <si>
+    <t>S843</t>
+  </si>
+  <si>
+    <t>S844</t>
+  </si>
+  <si>
+    <t>S845</t>
+  </si>
+  <si>
+    <t>S846</t>
+  </si>
+  <si>
+    <t>S847</t>
+  </si>
+  <si>
+    <t>S848</t>
+  </si>
+  <si>
+    <t>S849</t>
+  </si>
+  <si>
+    <t>S850</t>
+  </si>
+  <si>
+    <t>S851</t>
+  </si>
+  <si>
+    <t>S852</t>
+  </si>
+  <si>
+    <t>S853</t>
+  </si>
+  <si>
+    <t>S854</t>
+  </si>
+  <si>
+    <t>S855</t>
+  </si>
+  <si>
+    <t>S856</t>
+  </si>
+  <si>
+    <t>S857</t>
+  </si>
+  <si>
+    <t>S858</t>
+  </si>
+  <si>
+    <t>S859</t>
+  </si>
+  <si>
+    <t>S860</t>
+  </si>
+  <si>
+    <t>S861</t>
+  </si>
+  <si>
+    <t>S862</t>
+  </si>
+  <si>
+    <t>S863</t>
+  </si>
+  <si>
+    <t>S864</t>
+  </si>
+  <si>
+    <t>S865</t>
   </si>
 </sst>
 </file>
@@ -2936,8 +3230,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:I780" totalsRowShown="0">
-  <autoFilter ref="A1:I780" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:I877" totalsRowShown="0">
+  <autoFilter ref="A1:I877" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -2954,8 +3248,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D31" totalsRowShown="0">
-  <autoFilter ref="A1:D31" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D57" totalsRowShown="0">
+  <autoFilter ref="A1:D57" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D0FEC2CF-191D-4A49-9857-35DF0B70785F}" name="Colour Code"/>
@@ -3263,10 +3557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:I780"/>
+  <dimension ref="A1:I877"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A746" workbookViewId="0">
-      <selection activeCell="I780" sqref="I780"/>
+    <sheetView tabSelected="1" topLeftCell="A839" workbookViewId="0">
+      <selection activeCell="B876" sqref="B876:B877"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3398,10 +3692,10 @@
         <v>674</v>
       </c>
       <c r="F5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -3427,10 +3721,10 @@
         <v>674</v>
       </c>
       <c r="F6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
@@ -3456,7 +3750,7 @@
         <v>674</v>
       </c>
       <c r="F7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
@@ -3485,7 +3779,7 @@
         <v>674</v>
       </c>
       <c r="F8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
@@ -3563,7 +3857,7 @@
         <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F11" t="s">
         <v>49</v>
@@ -3653,7 +3947,7 @@
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G14" t="s">
         <v>425</v>
@@ -3820,7 +4114,7 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F21" t="s">
         <v>672</v>
@@ -3852,7 +4146,7 @@
         <v>674</v>
       </c>
       <c r="F22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -3881,7 +4175,7 @@
         <v>674</v>
       </c>
       <c r="F23" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
@@ -3910,7 +4204,7 @@
         <v>674</v>
       </c>
       <c r="F24" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G24" t="s">
         <v>7</v>
@@ -3939,7 +4233,7 @@
         <v>674</v>
       </c>
       <c r="F25" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G25" t="s">
         <v>7</v>
@@ -3968,7 +4262,7 @@
         <v>674</v>
       </c>
       <c r="F26" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G26" t="s">
         <v>7</v>
@@ -3997,7 +4291,7 @@
         <v>674</v>
       </c>
       <c r="F27" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G27" t="s">
         <v>7</v>
@@ -4026,7 +4320,7 @@
         <v>674</v>
       </c>
       <c r="F28" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G28" t="s">
         <v>7</v>
@@ -4403,10 +4697,10 @@
         <v>674</v>
       </c>
       <c r="F41" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G41" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H41" t="s">
         <v>10</v>
@@ -4432,10 +4726,10 @@
         <v>674</v>
       </c>
       <c r="F42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G42" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H42" t="s">
         <v>10</v>
@@ -4458,7 +4752,7 @@
         <v>345</v>
       </c>
       <c r="E43" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F43" t="s">
         <v>103</v>
@@ -4507,10 +4801,10 @@
         <v>36</v>
       </c>
       <c r="E45" t="s">
+        <v>813</v>
+      </c>
+      <c r="F45" t="s">
         <v>814</v>
-      </c>
-      <c r="F45" t="s">
-        <v>815</v>
       </c>
       <c r="G45" t="s">
         <v>87</v>
@@ -4536,10 +4830,10 @@
         <v>36</v>
       </c>
       <c r="E46" t="s">
+        <v>813</v>
+      </c>
+      <c r="F46" t="s">
         <v>814</v>
-      </c>
-      <c r="F46" t="s">
-        <v>815</v>
       </c>
       <c r="G46" t="s">
         <v>87</v>
@@ -4565,10 +4859,10 @@
         <v>36</v>
       </c>
       <c r="E47" t="s">
+        <v>813</v>
+      </c>
+      <c r="F47" t="s">
         <v>814</v>
-      </c>
-      <c r="F47" t="s">
-        <v>815</v>
       </c>
       <c r="G47" t="s">
         <v>87</v>
@@ -4594,10 +4888,10 @@
         <v>36</v>
       </c>
       <c r="E48" t="s">
+        <v>813</v>
+      </c>
+      <c r="F48" t="s">
         <v>814</v>
-      </c>
-      <c r="F48" t="s">
-        <v>815</v>
       </c>
       <c r="G48" t="s">
         <v>87</v>
@@ -4623,10 +4917,10 @@
         <v>36</v>
       </c>
       <c r="E49" t="s">
+        <v>813</v>
+      </c>
+      <c r="F49" t="s">
         <v>814</v>
-      </c>
-      <c r="F49" t="s">
-        <v>815</v>
       </c>
       <c r="G49" t="s">
         <v>87</v>
@@ -4733,10 +5027,10 @@
         <v>36</v>
       </c>
       <c r="E53" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F53" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G53" t="s">
         <v>95</v>
@@ -4765,10 +5059,10 @@
         <v>674</v>
       </c>
       <c r="F54" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G54" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H54" t="s">
         <v>10</v>
@@ -4794,10 +5088,10 @@
         <v>36</v>
       </c>
       <c r="F55" t="s">
+        <v>815</v>
+      </c>
+      <c r="G55" t="s">
         <v>816</v>
-      </c>
-      <c r="G55" t="s">
-        <v>817</v>
       </c>
       <c r="H55" t="s">
         <v>10</v>
@@ -4823,10 +5117,10 @@
         <v>36</v>
       </c>
       <c r="F56" t="s">
+        <v>815</v>
+      </c>
+      <c r="G56" t="s">
         <v>816</v>
-      </c>
-      <c r="G56" t="s">
-        <v>817</v>
       </c>
       <c r="H56" t="s">
         <v>10</v>
@@ -4852,10 +5146,10 @@
         <v>36</v>
       </c>
       <c r="F57" t="s">
+        <v>815</v>
+      </c>
+      <c r="G57" t="s">
         <v>816</v>
-      </c>
-      <c r="G57" t="s">
-        <v>817</v>
       </c>
       <c r="H57" t="s">
         <v>10</v>
@@ -4878,10 +5172,10 @@
         <v>36</v>
       </c>
       <c r="E58" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F58" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G58" t="s">
         <v>667</v>
@@ -4910,7 +5204,7 @@
         <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G59" t="s">
         <v>427</v>
@@ -4936,10 +5230,10 @@
         <v>36</v>
       </c>
       <c r="E60" t="s">
+        <v>813</v>
+      </c>
+      <c r="F60" t="s">
         <v>814</v>
-      </c>
-      <c r="F60" t="s">
-        <v>815</v>
       </c>
       <c r="G60" t="s">
         <v>87</v>
@@ -4965,10 +5259,10 @@
         <v>36</v>
       </c>
       <c r="E61" t="s">
+        <v>813</v>
+      </c>
+      <c r="F61" t="s">
         <v>814</v>
-      </c>
-      <c r="F61" t="s">
-        <v>815</v>
       </c>
       <c r="G61" t="s">
         <v>87</v>
@@ -4994,7 +5288,7 @@
         <v>36</v>
       </c>
       <c r="E62" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F62" t="s">
         <v>672</v>
@@ -5023,7 +5317,7 @@
         <v>36</v>
       </c>
       <c r="E63" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F63" t="s">
         <v>672</v>
@@ -5052,7 +5346,7 @@
         <v>36</v>
       </c>
       <c r="E64" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F64" t="s">
         <v>672</v>
@@ -5287,10 +5581,10 @@
         <v>674</v>
       </c>
       <c r="F72" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G72" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H72" t="s">
         <v>10</v>
@@ -5316,10 +5610,10 @@
         <v>674</v>
       </c>
       <c r="F73" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G73" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H73" t="s">
         <v>10</v>
@@ -5342,7 +5636,7 @@
         <v>36</v>
       </c>
       <c r="E74" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F74" t="s">
         <v>672</v>
@@ -5371,7 +5665,7 @@
         <v>36</v>
       </c>
       <c r="E75" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F75" t="s">
         <v>672</v>
@@ -5400,7 +5694,7 @@
         <v>36</v>
       </c>
       <c r="E76" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F76" t="s">
         <v>672</v>
@@ -5452,10 +5746,10 @@
         <v>36</v>
       </c>
       <c r="E78" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F78" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G78" t="s">
         <v>122</v>
@@ -5481,7 +5775,7 @@
         <v>36</v>
       </c>
       <c r="E79" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F79" t="s">
         <v>672</v>
@@ -5510,10 +5804,10 @@
         <v>36</v>
       </c>
       <c r="E80" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F80" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G80" t="s">
         <v>667</v>
@@ -5539,10 +5833,10 @@
         <v>36</v>
       </c>
       <c r="E81" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F81" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G81" t="s">
         <v>667</v>
@@ -5571,7 +5865,7 @@
         <v>36</v>
       </c>
       <c r="F82" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G82" t="s">
         <v>425</v>
@@ -5735,10 +6029,10 @@
         <v>36</v>
       </c>
       <c r="E89" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F89" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G89" t="s">
         <v>122</v>
@@ -5764,10 +6058,10 @@
         <v>36</v>
       </c>
       <c r="E90" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F90" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G90" t="s">
         <v>122</v>
@@ -5793,10 +6087,10 @@
         <v>36</v>
       </c>
       <c r="E91" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F91" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G91" t="s">
         <v>122</v>
@@ -5822,10 +6116,10 @@
         <v>36</v>
       </c>
       <c r="E92" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F92" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G92" t="s">
         <v>122</v>
@@ -5851,10 +6145,10 @@
         <v>36</v>
       </c>
       <c r="E93" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F93" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G93" t="s">
         <v>122</v>
@@ -5880,10 +6174,10 @@
         <v>36</v>
       </c>
       <c r="E94" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F94" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G94" t="s">
         <v>122</v>
@@ -5909,10 +6203,10 @@
         <v>36</v>
       </c>
       <c r="E95" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F95" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G95" t="s">
         <v>122</v>
@@ -5938,10 +6232,10 @@
         <v>36</v>
       </c>
       <c r="E96" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F96" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G96" t="s">
         <v>122</v>
@@ -5990,10 +6284,10 @@
         <v>36</v>
       </c>
       <c r="E98" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F98" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G98" t="s">
         <v>122</v>
@@ -6251,7 +6545,7 @@
         <v>36</v>
       </c>
       <c r="E107" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F107" t="s">
         <v>672</v>
@@ -6280,7 +6574,7 @@
         <v>36</v>
       </c>
       <c r="E108" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F108" t="s">
         <v>672</v>
@@ -6309,7 +6603,7 @@
         <v>36</v>
       </c>
       <c r="E109" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F109" t="s">
         <v>672</v>
@@ -6338,7 +6632,7 @@
         <v>36</v>
       </c>
       <c r="E110" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F110" t="s">
         <v>672</v>
@@ -6367,7 +6661,7 @@
         <v>36</v>
       </c>
       <c r="E111" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F111" t="s">
         <v>672</v>
@@ -6396,7 +6690,7 @@
         <v>36</v>
       </c>
       <c r="E112" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F112" t="s">
         <v>672</v>
@@ -6425,7 +6719,7 @@
         <v>36</v>
       </c>
       <c r="E113" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F113" t="s">
         <v>672</v>
@@ -6454,7 +6748,7 @@
         <v>36</v>
       </c>
       <c r="E114" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F114" t="s">
         <v>672</v>
@@ -6483,7 +6777,7 @@
         <v>36</v>
       </c>
       <c r="E115" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F115" t="s">
         <v>672</v>
@@ -6512,7 +6806,7 @@
         <v>36</v>
       </c>
       <c r="E116" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F116" t="s">
         <v>672</v>
@@ -6541,7 +6835,7 @@
         <v>36</v>
       </c>
       <c r="E117" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F117" t="s">
         <v>672</v>
@@ -6570,7 +6864,7 @@
         <v>36</v>
       </c>
       <c r="E118" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F118" t="s">
         <v>672</v>
@@ -6622,7 +6916,7 @@
         <v>36</v>
       </c>
       <c r="E120" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F120" t="s">
         <v>672</v>
@@ -6651,7 +6945,7 @@
         <v>36</v>
       </c>
       <c r="E121" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F121" t="s">
         <v>672</v>
@@ -6680,7 +6974,7 @@
         <v>36</v>
       </c>
       <c r="E122" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F122" t="s">
         <v>672</v>
@@ -6709,7 +7003,7 @@
         <v>36</v>
       </c>
       <c r="E123" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F123" t="s">
         <v>672</v>
@@ -6738,7 +7032,7 @@
         <v>36</v>
       </c>
       <c r="E124" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F124" t="s">
         <v>672</v>
@@ -6894,10 +7188,10 @@
         <v>36</v>
       </c>
       <c r="E130" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F130" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G130" t="s">
         <v>122</v>
@@ -6923,10 +7217,10 @@
         <v>36</v>
       </c>
       <c r="E131" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F131" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G131" t="s">
         <v>122</v>
@@ -6952,10 +7246,10 @@
         <v>36</v>
       </c>
       <c r="E132" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F132" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G132" t="s">
         <v>122</v>
@@ -6981,10 +7275,10 @@
         <v>36</v>
       </c>
       <c r="E133" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F133" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G133" t="s">
         <v>272</v>
@@ -7010,10 +7304,10 @@
         <v>36</v>
       </c>
       <c r="E134" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F134" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G134" t="s">
         <v>272</v>
@@ -7079,7 +7373,7 @@
         <v>237</v>
       </c>
       <c r="E137" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F137" t="s">
         <v>672</v>
@@ -7177,7 +7471,7 @@
         <v>36</v>
       </c>
       <c r="E141" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F141" t="s">
         <v>672</v>
@@ -7206,7 +7500,7 @@
         <v>36</v>
       </c>
       <c r="E142" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F142" t="s">
         <v>672</v>
@@ -7235,7 +7529,7 @@
         <v>36</v>
       </c>
       <c r="E143" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F143" t="s">
         <v>672</v>
@@ -7264,7 +7558,7 @@
         <v>36</v>
       </c>
       <c r="E144" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F144" t="s">
         <v>672</v>
@@ -7293,7 +7587,7 @@
         <v>36</v>
       </c>
       <c r="E145" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F145" t="s">
         <v>672</v>
@@ -7351,10 +7645,10 @@
         <v>36</v>
       </c>
       <c r="E147" t="s">
+        <v>813</v>
+      </c>
+      <c r="F147" t="s">
         <v>814</v>
-      </c>
-      <c r="F147" t="s">
-        <v>815</v>
       </c>
       <c r="G147" t="s">
         <v>225</v>
@@ -7380,10 +7674,10 @@
         <v>36</v>
       </c>
       <c r="E148" t="s">
+        <v>813</v>
+      </c>
+      <c r="F148" t="s">
         <v>814</v>
-      </c>
-      <c r="F148" t="s">
-        <v>815</v>
       </c>
       <c r="G148" t="s">
         <v>225</v>
@@ -7409,10 +7703,10 @@
         <v>36</v>
       </c>
       <c r="E149" t="s">
+        <v>813</v>
+      </c>
+      <c r="F149" t="s">
         <v>814</v>
-      </c>
-      <c r="F149" t="s">
-        <v>815</v>
       </c>
       <c r="G149" t="s">
         <v>225</v>
@@ -7461,10 +7755,10 @@
         <v>36</v>
       </c>
       <c r="E151" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F151" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G151" t="s">
         <v>272</v>
@@ -7490,10 +7784,10 @@
         <v>36</v>
       </c>
       <c r="E152" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F152" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G152" t="s">
         <v>272</v>
@@ -7519,10 +7813,10 @@
         <v>36</v>
       </c>
       <c r="E153" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F153" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G153" t="s">
         <v>272</v>
@@ -7681,10 +7975,10 @@
         <v>36</v>
       </c>
       <c r="E159" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F159" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G159" t="s">
         <v>272</v>
@@ -7918,10 +8212,10 @@
         <v>36</v>
       </c>
       <c r="E168" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F168" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G168" t="s">
         <v>95</v>
@@ -7947,10 +8241,10 @@
         <v>36</v>
       </c>
       <c r="E169" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F169" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G169" t="s">
         <v>95</v>
@@ -7976,10 +8270,10 @@
         <v>36</v>
       </c>
       <c r="E170" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F170" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G170" t="s">
         <v>95</v>
@@ -8005,10 +8299,10 @@
         <v>36</v>
       </c>
       <c r="E171" t="s">
+        <v>813</v>
+      </c>
+      <c r="F171" t="s">
         <v>814</v>
-      </c>
-      <c r="F171" t="s">
-        <v>815</v>
       </c>
       <c r="G171" t="s">
         <v>225</v>
@@ -8414,10 +8708,10 @@
         <v>36</v>
       </c>
       <c r="E188" t="s">
+        <v>813</v>
+      </c>
+      <c r="F188" t="s">
         <v>814</v>
-      </c>
-      <c r="F188" t="s">
-        <v>815</v>
       </c>
       <c r="G188" t="s">
         <v>87</v>
@@ -8443,7 +8737,7 @@
         <v>36</v>
       </c>
       <c r="E189" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F189" t="s">
         <v>672</v>
@@ -9024,10 +9318,10 @@
         <v>346</v>
       </c>
       <c r="E214" t="s">
-        <v>942</v>
+        <v>916</v>
       </c>
       <c r="F214" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="G214" t="s">
         <v>309</v>
@@ -9053,10 +9347,10 @@
         <v>346</v>
       </c>
       <c r="E215" t="s">
-        <v>942</v>
+        <v>916</v>
       </c>
       <c r="F215" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="G215" t="s">
         <v>309</v>
@@ -9111,7 +9405,7 @@
         <v>36</v>
       </c>
       <c r="E217" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F217" t="s">
         <v>672</v>
@@ -9140,7 +9434,7 @@
         <v>36</v>
       </c>
       <c r="E218" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F218" t="s">
         <v>672</v>
@@ -9169,7 +9463,7 @@
         <v>36</v>
       </c>
       <c r="E219" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F219" t="s">
         <v>672</v>
@@ -9198,10 +9492,10 @@
         <v>36</v>
       </c>
       <c r="E220" t="s">
+        <v>813</v>
+      </c>
+      <c r="F220" t="s">
         <v>814</v>
-      </c>
-      <c r="F220" t="s">
-        <v>815</v>
       </c>
       <c r="G220" t="s">
         <v>225</v>
@@ -10331,10 +10625,10 @@
         <v>36</v>
       </c>
       <c r="E269" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F269" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G269" t="s">
         <v>272</v>
@@ -10360,10 +10654,10 @@
         <v>36</v>
       </c>
       <c r="E270" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F270" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G270" t="s">
         <v>272</v>
@@ -10389,10 +10683,10 @@
         <v>36</v>
       </c>
       <c r="E271" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F271" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G271" t="s">
         <v>272</v>
@@ -10418,10 +10712,10 @@
         <v>36</v>
       </c>
       <c r="E272" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F272" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G272" t="s">
         <v>272</v>
@@ -10447,10 +10741,10 @@
         <v>36</v>
       </c>
       <c r="E273" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F273" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G273" t="s">
         <v>272</v>
@@ -10499,10 +10793,10 @@
         <v>346</v>
       </c>
       <c r="E275" t="s">
-        <v>942</v>
+        <v>916</v>
       </c>
       <c r="F275" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="G275" t="s">
         <v>349</v>
@@ -10528,10 +10822,10 @@
         <v>346</v>
       </c>
       <c r="E276" t="s">
-        <v>942</v>
+        <v>916</v>
       </c>
       <c r="F276" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="G276" t="s">
         <v>349</v>
@@ -10557,10 +10851,10 @@
         <v>346</v>
       </c>
       <c r="E277" t="s">
-        <v>942</v>
+        <v>916</v>
       </c>
       <c r="F277" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="G277" t="s">
         <v>349</v>
@@ -10615,10 +10909,10 @@
         <v>36</v>
       </c>
       <c r="E279" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F279" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G279" t="s">
         <v>272</v>
@@ -10644,10 +10938,10 @@
         <v>36</v>
       </c>
       <c r="E280" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F280" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G280" t="s">
         <v>272</v>
@@ -10673,10 +10967,10 @@
         <v>36</v>
       </c>
       <c r="E281" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F281" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G281" t="s">
         <v>272</v>
@@ -10909,10 +11203,10 @@
         <v>346</v>
       </c>
       <c r="E291" t="s">
-        <v>942</v>
+        <v>916</v>
       </c>
       <c r="F291" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="G291" t="s">
         <v>349</v>
@@ -10938,10 +11232,10 @@
         <v>346</v>
       </c>
       <c r="E292" t="s">
-        <v>942</v>
+        <v>916</v>
       </c>
       <c r="F292" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="G292" t="s">
         <v>349</v>
@@ -11140,10 +11434,10 @@
         <v>36</v>
       </c>
       <c r="E300" t="s">
-        <v>936</v>
+        <v>910</v>
       </c>
       <c r="F300" t="s">
-        <v>937</v>
+        <v>911</v>
       </c>
       <c r="G300" t="s">
         <v>401</v>
@@ -11878,10 +12172,10 @@
         <v>346</v>
       </c>
       <c r="E330" t="s">
-        <v>942</v>
+        <v>916</v>
       </c>
       <c r="F330" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="G330" t="s">
         <v>309</v>
@@ -12236,10 +12530,10 @@
         <v>346</v>
       </c>
       <c r="E344" t="s">
-        <v>942</v>
+        <v>916</v>
       </c>
       <c r="F344" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="G344" t="s">
         <v>349</v>
@@ -12265,10 +12559,10 @@
         <v>346</v>
       </c>
       <c r="E345" t="s">
-        <v>942</v>
+        <v>916</v>
       </c>
       <c r="F345" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="G345" t="s">
         <v>309</v>
@@ -12381,10 +12675,10 @@
         <v>345</v>
       </c>
       <c r="E349" t="s">
-        <v>934</v>
+        <v>908</v>
       </c>
       <c r="F349" t="s">
-        <v>935</v>
+        <v>909</v>
       </c>
       <c r="G349" t="s">
         <v>455</v>
@@ -12410,10 +12704,10 @@
         <v>345</v>
       </c>
       <c r="E350" t="s">
-        <v>934</v>
+        <v>908</v>
       </c>
       <c r="F350" t="s">
-        <v>935</v>
+        <v>909</v>
       </c>
       <c r="G350" t="s">
         <v>455</v>
@@ -12899,10 +13193,10 @@
         <v>346</v>
       </c>
       <c r="E371" t="s">
-        <v>942</v>
+        <v>916</v>
       </c>
       <c r="F371" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="G371" t="s">
         <v>309</v>
@@ -13925,10 +14219,10 @@
         <v>345</v>
       </c>
       <c r="E413" t="s">
-        <v>938</v>
+        <v>912</v>
       </c>
       <c r="F413" t="s">
-        <v>940</v>
+        <v>914</v>
       </c>
       <c r="G413" t="s">
         <v>538</v>
@@ -13954,10 +14248,10 @@
         <v>345</v>
       </c>
       <c r="E414" t="s">
-        <v>939</v>
+        <v>913</v>
       </c>
       <c r="F414" t="s">
-        <v>941</v>
+        <v>915</v>
       </c>
       <c r="G414" t="s">
         <v>539</v>
@@ -20570,7 +20864,7 @@
         <v>666</v>
       </c>
       <c r="C692" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D692" t="s">
         <v>36</v>
@@ -20599,7 +20893,7 @@
         <v>695</v>
       </c>
       <c r="C693" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D693" t="s">
         <v>36</v>
@@ -20622,7 +20916,7 @@
         <v>696</v>
       </c>
       <c r="C694" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D694" t="s">
         <v>36</v>
@@ -20645,7 +20939,7 @@
         <v>697</v>
       </c>
       <c r="C695" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D695" t="s">
         <v>36</v>
@@ -20668,7 +20962,7 @@
         <v>698</v>
       </c>
       <c r="C696" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D696" t="s">
         <v>36</v>
@@ -20691,7 +20985,7 @@
         <v>699</v>
       </c>
       <c r="C697" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D697" t="s">
         <v>36</v>
@@ -20714,7 +21008,7 @@
         <v>700</v>
       </c>
       <c r="C698" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D698" t="s">
         <v>36</v>
@@ -20737,7 +21031,7 @@
         <v>701</v>
       </c>
       <c r="C699" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D699" t="s">
         <v>36</v>
@@ -20760,7 +21054,7 @@
         <v>702</v>
       </c>
       <c r="C700" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D700" t="s">
         <v>36</v>
@@ -20783,7 +21077,7 @@
         <v>703</v>
       </c>
       <c r="C701" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D701" t="s">
         <v>36</v>
@@ -20806,7 +21100,7 @@
         <v>704</v>
       </c>
       <c r="C702" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D702" t="s">
         <v>36</v>
@@ -20829,7 +21123,7 @@
         <v>705</v>
       </c>
       <c r="C703" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D703" t="s">
         <v>36</v>
@@ -20852,7 +21146,7 @@
         <v>706</v>
       </c>
       <c r="C704" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D704" t="s">
         <v>36</v>
@@ -20875,7 +21169,7 @@
         <v>707</v>
       </c>
       <c r="C705" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D705" t="s">
         <v>36</v>
@@ -20898,7 +21192,7 @@
         <v>708</v>
       </c>
       <c r="C706" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D706" t="s">
         <v>36</v>
@@ -20921,7 +21215,7 @@
         <v>709</v>
       </c>
       <c r="C707" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D707" t="s">
         <v>36</v>
@@ -20944,7 +21238,7 @@
         <v>710</v>
       </c>
       <c r="C708" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D708" t="s">
         <v>36</v>
@@ -20967,7 +21261,7 @@
         <v>711</v>
       </c>
       <c r="C709" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D709" t="s">
         <v>36</v>
@@ -20990,7 +21284,7 @@
         <v>712</v>
       </c>
       <c r="C710" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D710" t="s">
         <v>36</v>
@@ -21013,7 +21307,7 @@
         <v>713</v>
       </c>
       <c r="C711" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D711" t="s">
         <v>36</v>
@@ -21036,7 +21330,7 @@
         <v>714</v>
       </c>
       <c r="C712" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D712" t="s">
         <v>36</v>
@@ -21059,7 +21353,7 @@
         <v>715</v>
       </c>
       <c r="C713" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D713" t="s">
         <v>36</v>
@@ -21082,7 +21376,7 @@
         <v>716</v>
       </c>
       <c r="C714" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D714" t="s">
         <v>36</v>
@@ -21105,7 +21399,7 @@
         <v>717</v>
       </c>
       <c r="C715" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D715" t="s">
         <v>36</v>
@@ -21128,7 +21422,7 @@
         <v>718</v>
       </c>
       <c r="C716" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D716" t="s">
         <v>36</v>
@@ -21151,7 +21445,7 @@
         <v>719</v>
       </c>
       <c r="C717" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D717" t="s">
         <v>36</v>
@@ -21174,7 +21468,7 @@
         <v>719</v>
       </c>
       <c r="C718" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D718" t="s">
         <v>36</v>
@@ -21197,7 +21491,7 @@
         <v>720</v>
       </c>
       <c r="C719" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D719" t="s">
         <v>36</v>
@@ -21220,7 +21514,7 @@
         <v>720</v>
       </c>
       <c r="C720" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D720" t="s">
         <v>36</v>
@@ -21243,7 +21537,7 @@
         <v>721</v>
       </c>
       <c r="C721" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D721" t="s">
         <v>36</v>
@@ -21266,7 +21560,7 @@
         <v>721</v>
       </c>
       <c r="C722" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D722" t="s">
         <v>36</v>
@@ -21289,7 +21583,7 @@
         <v>722</v>
       </c>
       <c r="C723" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D723" t="s">
         <v>36</v>
@@ -21312,7 +21606,7 @@
         <v>722</v>
       </c>
       <c r="C724" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D724" t="s">
         <v>36</v>
@@ -21335,7 +21629,7 @@
         <v>723</v>
       </c>
       <c r="C725" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D725" t="s">
         <v>36</v>
@@ -21358,7 +21652,7 @@
         <v>723</v>
       </c>
       <c r="C726" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D726" t="s">
         <v>36</v>
@@ -21381,7 +21675,7 @@
         <v>724</v>
       </c>
       <c r="C727" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D727" t="s">
         <v>36</v>
@@ -21404,7 +21698,7 @@
         <v>724</v>
       </c>
       <c r="C728" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D728" t="s">
         <v>36</v>
@@ -21427,7 +21721,7 @@
         <v>725</v>
       </c>
       <c r="C729" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D729" t="s">
         <v>36</v>
@@ -21450,7 +21744,7 @@
         <v>725</v>
       </c>
       <c r="C730" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D730" t="s">
         <v>36</v>
@@ -21473,7 +21767,7 @@
         <v>726</v>
       </c>
       <c r="C731" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D731" t="s">
         <v>36</v>
@@ -21496,7 +21790,7 @@
         <v>726</v>
       </c>
       <c r="C732" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D732" t="s">
         <v>36</v>
@@ -21519,7 +21813,7 @@
         <v>727</v>
       </c>
       <c r="C733" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D733" t="s">
         <v>36</v>
@@ -21542,7 +21836,7 @@
         <v>727</v>
       </c>
       <c r="C734" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D734" t="s">
         <v>36</v>
@@ -21565,7 +21859,7 @@
         <v>728</v>
       </c>
       <c r="C735" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D735" t="s">
         <v>36</v>
@@ -21588,7 +21882,7 @@
         <v>728</v>
       </c>
       <c r="C736" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D736" t="s">
         <v>36</v>
@@ -21611,7 +21905,7 @@
         <v>729</v>
       </c>
       <c r="C737" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D737" t="s">
         <v>36</v>
@@ -21634,7 +21928,7 @@
         <v>729</v>
       </c>
       <c r="C738" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D738" t="s">
         <v>36</v>
@@ -21657,7 +21951,7 @@
         <v>730</v>
       </c>
       <c r="C739" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D739" t="s">
         <v>36</v>
@@ -21680,7 +21974,7 @@
         <v>730</v>
       </c>
       <c r="C740" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D740" t="s">
         <v>36</v>
@@ -21703,7 +21997,7 @@
         <v>731</v>
       </c>
       <c r="C741" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D741" t="s">
         <v>36</v>
@@ -21726,7 +22020,7 @@
         <v>731</v>
       </c>
       <c r="C742" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D742" t="s">
         <v>36</v>
@@ -21749,7 +22043,7 @@
         <v>732</v>
       </c>
       <c r="C743" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D743" t="s">
         <v>36</v>
@@ -21772,7 +22066,7 @@
         <v>732</v>
       </c>
       <c r="C744" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D744" t="s">
         <v>36</v>
@@ -21795,7 +22089,7 @@
         <v>733</v>
       </c>
       <c r="C745" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D745" t="s">
         <v>36</v>
@@ -21818,7 +22112,7 @@
         <v>733</v>
       </c>
       <c r="C746" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D746" t="s">
         <v>36</v>
@@ -21841,7 +22135,7 @@
         <v>734</v>
       </c>
       <c r="C747" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D747" t="s">
         <v>36</v>
@@ -21864,7 +22158,7 @@
         <v>734</v>
       </c>
       <c r="C748" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D748" t="s">
         <v>36</v>
@@ -21887,7 +22181,7 @@
         <v>735</v>
       </c>
       <c r="C749" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D749" t="s">
         <v>36</v>
@@ -21910,7 +22204,7 @@
         <v>735</v>
       </c>
       <c r="C750" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D750" t="s">
         <v>36</v>
@@ -21933,7 +22227,7 @@
         <v>736</v>
       </c>
       <c r="C751" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D751" t="s">
         <v>36</v>
@@ -21956,7 +22250,7 @@
         <v>736</v>
       </c>
       <c r="C752" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D752" t="s">
         <v>36</v>
@@ -21979,7 +22273,7 @@
         <v>737</v>
       </c>
       <c r="C753" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D753" t="s">
         <v>36</v>
@@ -22002,7 +22296,7 @@
         <v>737</v>
       </c>
       <c r="C754" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D754" t="s">
         <v>36</v>
@@ -22025,7 +22319,7 @@
         <v>738</v>
       </c>
       <c r="C755" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D755" t="s">
         <v>36</v>
@@ -22048,7 +22342,7 @@
         <v>738</v>
       </c>
       <c r="C756" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D756" t="s">
         <v>36</v>
@@ -22071,7 +22365,7 @@
         <v>739</v>
       </c>
       <c r="C757" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D757" t="s">
         <v>36</v>
@@ -22094,7 +22388,7 @@
         <v>739</v>
       </c>
       <c r="C758" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D758" t="s">
         <v>36</v>
@@ -22117,7 +22411,7 @@
         <v>740</v>
       </c>
       <c r="C759" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D759" t="s">
         <v>36</v>
@@ -22140,7 +22434,7 @@
         <v>740</v>
       </c>
       <c r="C760" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D760" t="s">
         <v>36</v>
@@ -22163,7 +22457,7 @@
         <v>741</v>
       </c>
       <c r="C761" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D761" t="s">
         <v>36</v>
@@ -22186,7 +22480,7 @@
         <v>741</v>
       </c>
       <c r="C762" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D762" t="s">
         <v>36</v>
@@ -22209,7 +22503,7 @@
         <v>742</v>
       </c>
       <c r="C763" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D763" t="s">
         <v>36</v>
@@ -22232,7 +22526,7 @@
         <v>742</v>
       </c>
       <c r="C764" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D764" t="s">
         <v>36</v>
@@ -22255,7 +22549,7 @@
         <v>743</v>
       </c>
       <c r="C765" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D765" t="s">
         <v>36</v>
@@ -22278,7 +22572,7 @@
         <v>743</v>
       </c>
       <c r="C766" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D766" t="s">
         <v>36</v>
@@ -22301,7 +22595,7 @@
         <v>744</v>
       </c>
       <c r="C767" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D767" t="s">
         <v>345</v>
@@ -22324,7 +22618,7 @@
         <v>745</v>
       </c>
       <c r="C768" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D768" t="s">
         <v>345</v>
@@ -22347,7 +22641,7 @@
         <v>746</v>
       </c>
       <c r="C769" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D769" t="s">
         <v>345</v>
@@ -22370,7 +22664,7 @@
         <v>747</v>
       </c>
       <c r="C770" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D770" t="s">
         <v>345</v>
@@ -22393,7 +22687,7 @@
         <v>748</v>
       </c>
       <c r="C771" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D771" t="s">
         <v>345</v>
@@ -22416,7 +22710,7 @@
         <v>749</v>
       </c>
       <c r="C772" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D772" t="s">
         <v>345</v>
@@ -22439,7 +22733,7 @@
         <v>750</v>
       </c>
       <c r="C773" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D773" t="s">
         <v>345</v>
@@ -22462,7 +22756,7 @@
         <v>751</v>
       </c>
       <c r="C774" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D774" t="s">
         <v>345</v>
@@ -22485,7 +22779,7 @@
         <v>752</v>
       </c>
       <c r="C775" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D775" t="s">
         <v>345</v>
@@ -22508,7 +22802,7 @@
         <v>753</v>
       </c>
       <c r="C776" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D776" t="s">
         <v>345</v>
@@ -22531,7 +22825,7 @@
         <v>754</v>
       </c>
       <c r="C777" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D777" t="s">
         <v>345</v>
@@ -22554,7 +22848,7 @@
         <v>755</v>
       </c>
       <c r="C778" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D778" t="s">
         <v>345</v>
@@ -22577,7 +22871,7 @@
         <v>756</v>
       </c>
       <c r="C779" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D779" t="s">
         <v>345</v>
@@ -22600,7 +22894,7 @@
         <v>757</v>
       </c>
       <c r="C780" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D780" t="s">
         <v>345</v>
@@ -22612,6 +22906,2237 @@
         <v>10</v>
       </c>
       <c r="I780" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="781" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A781" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B781" t="s">
+        <v>873</v>
+      </c>
+      <c r="C781" t="s">
+        <v>945</v>
+      </c>
+      <c r="D781" t="s">
+        <v>36</v>
+      </c>
+      <c r="G781" t="s">
+        <v>241</v>
+      </c>
+      <c r="H781" t="s">
+        <v>10</v>
+      </c>
+      <c r="I781" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="782" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A782" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B782" t="s">
+        <v>874</v>
+      </c>
+      <c r="C782" t="s">
+        <v>946</v>
+      </c>
+      <c r="D782" t="s">
+        <v>36</v>
+      </c>
+      <c r="G782" t="s">
+        <v>241</v>
+      </c>
+      <c r="H782" t="s">
+        <v>10</v>
+      </c>
+      <c r="I782" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="783" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A783" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B783" t="s">
+        <v>875</v>
+      </c>
+      <c r="C783" t="s">
+        <v>947</v>
+      </c>
+      <c r="D783" t="s">
+        <v>36</v>
+      </c>
+      <c r="G783" t="s">
+        <v>241</v>
+      </c>
+      <c r="H783" t="s">
+        <v>10</v>
+      </c>
+      <c r="I783" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="784" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A784" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B784" t="s">
+        <v>876</v>
+      </c>
+      <c r="C784" t="s">
+        <v>948</v>
+      </c>
+      <c r="D784" t="s">
+        <v>36</v>
+      </c>
+      <c r="G784" t="s">
+        <v>241</v>
+      </c>
+      <c r="H784" t="s">
+        <v>10</v>
+      </c>
+      <c r="I784" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="785" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A785" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B785" t="s">
+        <v>877</v>
+      </c>
+      <c r="C785" t="s">
+        <v>949</v>
+      </c>
+      <c r="D785" t="s">
+        <v>36</v>
+      </c>
+      <c r="G785" t="s">
+        <v>241</v>
+      </c>
+      <c r="H785" t="s">
+        <v>10</v>
+      </c>
+      <c r="I785" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="786" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A786" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B786" t="s">
+        <v>878</v>
+      </c>
+      <c r="C786" t="s">
+        <v>950</v>
+      </c>
+      <c r="D786" t="s">
+        <v>36</v>
+      </c>
+      <c r="G786" t="s">
+        <v>241</v>
+      </c>
+      <c r="H786" t="s">
+        <v>10</v>
+      </c>
+      <c r="I786" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="787" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A787" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B787" t="s">
+        <v>879</v>
+      </c>
+      <c r="C787" t="s">
+        <v>951</v>
+      </c>
+      <c r="D787" t="s">
+        <v>36</v>
+      </c>
+      <c r="G787" t="s">
+        <v>241</v>
+      </c>
+      <c r="H787" t="s">
+        <v>10</v>
+      </c>
+      <c r="I787" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="788" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A788" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B788" t="s">
+        <v>880</v>
+      </c>
+      <c r="C788" t="s">
+        <v>952</v>
+      </c>
+      <c r="D788" t="s">
+        <v>36</v>
+      </c>
+      <c r="G788" t="s">
+        <v>241</v>
+      </c>
+      <c r="H788" t="s">
+        <v>10</v>
+      </c>
+      <c r="I788" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="789" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A789" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B789" t="s">
+        <v>881</v>
+      </c>
+      <c r="C789" t="s">
+        <v>953</v>
+      </c>
+      <c r="D789" t="s">
+        <v>36</v>
+      </c>
+      <c r="G789" t="s">
+        <v>241</v>
+      </c>
+      <c r="H789" t="s">
+        <v>10</v>
+      </c>
+      <c r="I789" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="790" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A790" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B790" t="s">
+        <v>882</v>
+      </c>
+      <c r="C790" t="s">
+        <v>954</v>
+      </c>
+      <c r="D790" t="s">
+        <v>36</v>
+      </c>
+      <c r="G790" t="s">
+        <v>241</v>
+      </c>
+      <c r="H790" t="s">
+        <v>10</v>
+      </c>
+      <c r="I790" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="791" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A791" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B791" t="s">
+        <v>883</v>
+      </c>
+      <c r="C791" t="s">
+        <v>955</v>
+      </c>
+      <c r="D791" t="s">
+        <v>36</v>
+      </c>
+      <c r="G791" t="s">
+        <v>241</v>
+      </c>
+      <c r="H791" t="s">
+        <v>10</v>
+      </c>
+      <c r="I791" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="792" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A792" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B792" t="s">
+        <v>884</v>
+      </c>
+      <c r="C792" t="s">
+        <v>956</v>
+      </c>
+      <c r="D792" t="s">
+        <v>36</v>
+      </c>
+      <c r="G792" t="s">
+        <v>241</v>
+      </c>
+      <c r="H792" t="s">
+        <v>10</v>
+      </c>
+      <c r="I792" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="793" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A793" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B793" t="s">
+        <v>885</v>
+      </c>
+      <c r="C793" t="s">
+        <v>957</v>
+      </c>
+      <c r="D793" t="s">
+        <v>36</v>
+      </c>
+      <c r="G793" t="s">
+        <v>241</v>
+      </c>
+      <c r="H793" t="s">
+        <v>10</v>
+      </c>
+      <c r="I793" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="794" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A794" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B794" t="s">
+        <v>886</v>
+      </c>
+      <c r="C794" t="s">
+        <v>958</v>
+      </c>
+      <c r="D794" t="s">
+        <v>36</v>
+      </c>
+      <c r="G794" t="s">
+        <v>241</v>
+      </c>
+      <c r="H794" t="s">
+        <v>10</v>
+      </c>
+      <c r="I794" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="795" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A795" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B795" t="s">
+        <v>887</v>
+      </c>
+      <c r="C795" t="s">
+        <v>959</v>
+      </c>
+      <c r="D795" t="s">
+        <v>36</v>
+      </c>
+      <c r="G795" t="s">
+        <v>241</v>
+      </c>
+      <c r="H795" t="s">
+        <v>10</v>
+      </c>
+      <c r="I795" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="796" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A796" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B796" t="s">
+        <v>888</v>
+      </c>
+      <c r="C796" t="s">
+        <v>960</v>
+      </c>
+      <c r="D796" t="s">
+        <v>36</v>
+      </c>
+      <c r="G796" t="s">
+        <v>241</v>
+      </c>
+      <c r="H796" t="s">
+        <v>10</v>
+      </c>
+      <c r="I796" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="797" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A797" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B797" t="s">
+        <v>889</v>
+      </c>
+      <c r="C797" t="s">
+        <v>961</v>
+      </c>
+      <c r="D797" t="s">
+        <v>36</v>
+      </c>
+      <c r="G797" t="s">
+        <v>241</v>
+      </c>
+      <c r="H797" t="s">
+        <v>10</v>
+      </c>
+      <c r="I797" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="798" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A798" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B798" t="s">
+        <v>890</v>
+      </c>
+      <c r="C798" t="s">
+        <v>962</v>
+      </c>
+      <c r="D798" t="s">
+        <v>36</v>
+      </c>
+      <c r="G798" t="s">
+        <v>241</v>
+      </c>
+      <c r="H798" t="s">
+        <v>10</v>
+      </c>
+      <c r="I798" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="799" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A799" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B799" t="s">
+        <v>891</v>
+      </c>
+      <c r="C799" t="s">
+        <v>963</v>
+      </c>
+      <c r="D799" t="s">
+        <v>36</v>
+      </c>
+      <c r="G799" t="s">
+        <v>241</v>
+      </c>
+      <c r="H799" t="s">
+        <v>10</v>
+      </c>
+      <c r="I799" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="800" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A800" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B800" t="s">
+        <v>818</v>
+      </c>
+      <c r="C800" t="s">
+        <v>964</v>
+      </c>
+      <c r="D800" t="s">
+        <v>36</v>
+      </c>
+      <c r="G800" t="s">
+        <v>241</v>
+      </c>
+      <c r="H800" t="s">
+        <v>10</v>
+      </c>
+      <c r="I800" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="801" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A801" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B801" t="s">
+        <v>819</v>
+      </c>
+      <c r="C801" t="s">
+        <v>965</v>
+      </c>
+      <c r="D801" t="s">
+        <v>36</v>
+      </c>
+      <c r="G801" t="s">
+        <v>241</v>
+      </c>
+      <c r="H801" t="s">
+        <v>10</v>
+      </c>
+      <c r="I801" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="802" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A802" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B802" t="s">
+        <v>820</v>
+      </c>
+      <c r="C802" t="s">
+        <v>966</v>
+      </c>
+      <c r="D802" t="s">
+        <v>36</v>
+      </c>
+      <c r="G802" t="s">
+        <v>241</v>
+      </c>
+      <c r="H802" t="s">
+        <v>10</v>
+      </c>
+      <c r="I802" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="803" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A803" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B803" t="s">
+        <v>821</v>
+      </c>
+      <c r="C803" t="s">
+        <v>967</v>
+      </c>
+      <c r="D803" t="s">
+        <v>36</v>
+      </c>
+      <c r="G803" t="s">
+        <v>241</v>
+      </c>
+      <c r="H803" t="s">
+        <v>10</v>
+      </c>
+      <c r="I803" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="804" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A804" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B804" t="s">
+        <v>822</v>
+      </c>
+      <c r="C804" t="s">
+        <v>968</v>
+      </c>
+      <c r="D804" t="s">
+        <v>36</v>
+      </c>
+      <c r="G804" t="s">
+        <v>241</v>
+      </c>
+      <c r="H804" t="s">
+        <v>10</v>
+      </c>
+      <c r="I804" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="805" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A805" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B805" t="s">
+        <v>823</v>
+      </c>
+      <c r="C805" t="s">
+        <v>969</v>
+      </c>
+      <c r="D805" t="s">
+        <v>36</v>
+      </c>
+      <c r="G805" t="s">
+        <v>241</v>
+      </c>
+      <c r="H805" t="s">
+        <v>10</v>
+      </c>
+      <c r="I805" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="806" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A806" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B806" t="s">
+        <v>824</v>
+      </c>
+      <c r="C806" t="s">
+        <v>970</v>
+      </c>
+      <c r="D806" t="s">
+        <v>36</v>
+      </c>
+      <c r="G806" t="s">
+        <v>241</v>
+      </c>
+      <c r="H806" t="s">
+        <v>10</v>
+      </c>
+      <c r="I806" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="807" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A807" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B807" t="s">
+        <v>825</v>
+      </c>
+      <c r="C807" t="s">
+        <v>971</v>
+      </c>
+      <c r="D807" t="s">
+        <v>36</v>
+      </c>
+      <c r="G807" t="s">
+        <v>241</v>
+      </c>
+      <c r="H807" t="s">
+        <v>10</v>
+      </c>
+      <c r="I807" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="808" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A808" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B808" t="s">
+        <v>826</v>
+      </c>
+      <c r="C808" t="s">
+        <v>972</v>
+      </c>
+      <c r="D808" t="s">
+        <v>36</v>
+      </c>
+      <c r="G808" t="s">
+        <v>241</v>
+      </c>
+      <c r="H808" t="s">
+        <v>10</v>
+      </c>
+      <c r="I808" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="809" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A809" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B809" t="s">
+        <v>827</v>
+      </c>
+      <c r="C809" t="s">
+        <v>973</v>
+      </c>
+      <c r="D809" t="s">
+        <v>36</v>
+      </c>
+      <c r="G809" t="s">
+        <v>241</v>
+      </c>
+      <c r="H809" t="s">
+        <v>10</v>
+      </c>
+      <c r="I809" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="810" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A810" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B810" t="s">
+        <v>828</v>
+      </c>
+      <c r="C810" t="s">
+        <v>974</v>
+      </c>
+      <c r="D810" t="s">
+        <v>36</v>
+      </c>
+      <c r="G810" t="s">
+        <v>241</v>
+      </c>
+      <c r="H810" t="s">
+        <v>10</v>
+      </c>
+      <c r="I810" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="811" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A811" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B811" t="s">
+        <v>829</v>
+      </c>
+      <c r="C811" t="s">
+        <v>975</v>
+      </c>
+      <c r="D811" t="s">
+        <v>36</v>
+      </c>
+      <c r="G811" t="s">
+        <v>241</v>
+      </c>
+      <c r="H811" t="s">
+        <v>10</v>
+      </c>
+      <c r="I811" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="812" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A812" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B812" t="s">
+        <v>830</v>
+      </c>
+      <c r="C812" t="s">
+        <v>976</v>
+      </c>
+      <c r="D812" t="s">
+        <v>36</v>
+      </c>
+      <c r="G812" t="s">
+        <v>241</v>
+      </c>
+      <c r="H812" t="s">
+        <v>10</v>
+      </c>
+      <c r="I812" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="813" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A813" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B813" t="s">
+        <v>831</v>
+      </c>
+      <c r="C813" t="s">
+        <v>977</v>
+      </c>
+      <c r="D813" t="s">
+        <v>36</v>
+      </c>
+      <c r="G813" t="s">
+        <v>241</v>
+      </c>
+      <c r="H813" t="s">
+        <v>10</v>
+      </c>
+      <c r="I813" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="814" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A814" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B814" t="s">
+        <v>832</v>
+      </c>
+      <c r="C814" t="s">
+        <v>978</v>
+      </c>
+      <c r="D814" t="s">
+        <v>36</v>
+      </c>
+      <c r="G814" t="s">
+        <v>241</v>
+      </c>
+      <c r="H814" t="s">
+        <v>10</v>
+      </c>
+      <c r="I814" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="815" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A815" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B815" t="s">
+        <v>833</v>
+      </c>
+      <c r="C815" t="s">
+        <v>979</v>
+      </c>
+      <c r="D815" t="s">
+        <v>36</v>
+      </c>
+      <c r="G815" t="s">
+        <v>241</v>
+      </c>
+      <c r="H815" t="s">
+        <v>10</v>
+      </c>
+      <c r="I815" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="816" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A816" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B816" t="s">
+        <v>834</v>
+      </c>
+      <c r="C816" t="s">
+        <v>980</v>
+      </c>
+      <c r="D816" t="s">
+        <v>36</v>
+      </c>
+      <c r="G816" t="s">
+        <v>241</v>
+      </c>
+      <c r="H816" t="s">
+        <v>10</v>
+      </c>
+      <c r="I816" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="817" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A817" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B817" t="s">
+        <v>835</v>
+      </c>
+      <c r="C817" t="s">
+        <v>981</v>
+      </c>
+      <c r="D817" t="s">
+        <v>36</v>
+      </c>
+      <c r="G817" t="s">
+        <v>241</v>
+      </c>
+      <c r="H817" t="s">
+        <v>10</v>
+      </c>
+      <c r="I817" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="818" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A818" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B818" t="s">
+        <v>836</v>
+      </c>
+      <c r="C818" t="s">
+        <v>982</v>
+      </c>
+      <c r="D818" t="s">
+        <v>36</v>
+      </c>
+      <c r="G818" t="s">
+        <v>241</v>
+      </c>
+      <c r="H818" t="s">
+        <v>10</v>
+      </c>
+      <c r="I818" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="819" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A819" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B819" t="s">
+        <v>837</v>
+      </c>
+      <c r="C819" t="s">
+        <v>983</v>
+      </c>
+      <c r="D819" t="s">
+        <v>36</v>
+      </c>
+      <c r="G819" t="s">
+        <v>241</v>
+      </c>
+      <c r="H819" t="s">
+        <v>10</v>
+      </c>
+      <c r="I819" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="820" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A820" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B820" t="s">
+        <v>838</v>
+      </c>
+      <c r="C820" t="s">
+        <v>984</v>
+      </c>
+      <c r="D820" t="s">
+        <v>36</v>
+      </c>
+      <c r="G820" t="s">
+        <v>241</v>
+      </c>
+      <c r="H820" t="s">
+        <v>10</v>
+      </c>
+      <c r="I820" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="821" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A821" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B821" t="s">
+        <v>839</v>
+      </c>
+      <c r="C821" t="s">
+        <v>985</v>
+      </c>
+      <c r="D821" t="s">
+        <v>36</v>
+      </c>
+      <c r="G821" t="s">
+        <v>241</v>
+      </c>
+      <c r="H821" t="s">
+        <v>10</v>
+      </c>
+      <c r="I821" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="822" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A822" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B822" t="s">
+        <v>840</v>
+      </c>
+      <c r="C822" t="s">
+        <v>986</v>
+      </c>
+      <c r="D822" t="s">
+        <v>36</v>
+      </c>
+      <c r="G822" t="s">
+        <v>241</v>
+      </c>
+      <c r="H822" t="s">
+        <v>10</v>
+      </c>
+      <c r="I822" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="823" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A823" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B823" t="s">
+        <v>841</v>
+      </c>
+      <c r="C823" t="s">
+        <v>987</v>
+      </c>
+      <c r="D823" t="s">
+        <v>36</v>
+      </c>
+      <c r="G823" t="s">
+        <v>241</v>
+      </c>
+      <c r="H823" t="s">
+        <v>10</v>
+      </c>
+      <c r="I823" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="824" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A824" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B824" t="s">
+        <v>842</v>
+      </c>
+      <c r="C824" t="s">
+        <v>988</v>
+      </c>
+      <c r="D824" t="s">
+        <v>36</v>
+      </c>
+      <c r="G824" t="s">
+        <v>241</v>
+      </c>
+      <c r="H824" t="s">
+        <v>10</v>
+      </c>
+      <c r="I824" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="825" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A825" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B825" t="s">
+        <v>843</v>
+      </c>
+      <c r="C825" t="s">
+        <v>989</v>
+      </c>
+      <c r="D825" t="s">
+        <v>36</v>
+      </c>
+      <c r="G825" t="s">
+        <v>241</v>
+      </c>
+      <c r="H825" t="s">
+        <v>10</v>
+      </c>
+      <c r="I825" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="826" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A826" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B826" t="s">
+        <v>844</v>
+      </c>
+      <c r="C826" t="s">
+        <v>990</v>
+      </c>
+      <c r="D826" t="s">
+        <v>36</v>
+      </c>
+      <c r="G826" t="s">
+        <v>241</v>
+      </c>
+      <c r="H826" t="s">
+        <v>10</v>
+      </c>
+      <c r="I826" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="827" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A827" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B827" t="s">
+        <v>845</v>
+      </c>
+      <c r="C827" t="s">
+        <v>991</v>
+      </c>
+      <c r="D827" t="s">
+        <v>36</v>
+      </c>
+      <c r="G827" t="s">
+        <v>241</v>
+      </c>
+      <c r="H827" t="s">
+        <v>10</v>
+      </c>
+      <c r="I827" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="828" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A828" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B828" t="s">
+        <v>846</v>
+      </c>
+      <c r="C828" t="s">
+        <v>992</v>
+      </c>
+      <c r="D828" t="s">
+        <v>36</v>
+      </c>
+      <c r="G828" t="s">
+        <v>241</v>
+      </c>
+      <c r="H828" t="s">
+        <v>10</v>
+      </c>
+      <c r="I828" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="829" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A829" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B829" t="s">
+        <v>847</v>
+      </c>
+      <c r="C829" t="s">
+        <v>993</v>
+      </c>
+      <c r="D829" t="s">
+        <v>36</v>
+      </c>
+      <c r="G829" t="s">
+        <v>241</v>
+      </c>
+      <c r="H829" t="s">
+        <v>10</v>
+      </c>
+      <c r="I829" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="830" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A830" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B830" t="s">
+        <v>848</v>
+      </c>
+      <c r="C830" t="s">
+        <v>994</v>
+      </c>
+      <c r="D830" t="s">
+        <v>36</v>
+      </c>
+      <c r="G830" t="s">
+        <v>241</v>
+      </c>
+      <c r="H830" t="s">
+        <v>10</v>
+      </c>
+      <c r="I830" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="831" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A831" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B831" t="s">
+        <v>849</v>
+      </c>
+      <c r="C831" t="s">
+        <v>995</v>
+      </c>
+      <c r="D831" t="s">
+        <v>36</v>
+      </c>
+      <c r="G831" t="s">
+        <v>241</v>
+      </c>
+      <c r="H831" t="s">
+        <v>10</v>
+      </c>
+      <c r="I831" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="832" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A832" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B832" t="s">
+        <v>850</v>
+      </c>
+      <c r="C832" t="s">
+        <v>996</v>
+      </c>
+      <c r="D832" t="s">
+        <v>36</v>
+      </c>
+      <c r="G832" t="s">
+        <v>241</v>
+      </c>
+      <c r="H832" t="s">
+        <v>10</v>
+      </c>
+      <c r="I832" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="833" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A833" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B833" t="s">
+        <v>851</v>
+      </c>
+      <c r="C833" t="s">
+        <v>997</v>
+      </c>
+      <c r="D833" t="s">
+        <v>36</v>
+      </c>
+      <c r="G833" t="s">
+        <v>241</v>
+      </c>
+      <c r="H833" t="s">
+        <v>10</v>
+      </c>
+      <c r="I833" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="834" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A834" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B834" t="s">
+        <v>852</v>
+      </c>
+      <c r="C834" t="s">
+        <v>998</v>
+      </c>
+      <c r="D834" t="s">
+        <v>36</v>
+      </c>
+      <c r="G834" t="s">
+        <v>241</v>
+      </c>
+      <c r="H834" t="s">
+        <v>10</v>
+      </c>
+      <c r="I834" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="835" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A835" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B835" t="s">
+        <v>853</v>
+      </c>
+      <c r="C835" t="s">
+        <v>999</v>
+      </c>
+      <c r="D835" t="s">
+        <v>36</v>
+      </c>
+      <c r="G835" t="s">
+        <v>241</v>
+      </c>
+      <c r="H835" t="s">
+        <v>10</v>
+      </c>
+      <c r="I835" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="836" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A836" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B836" t="s">
+        <v>854</v>
+      </c>
+      <c r="C836" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D836" t="s">
+        <v>36</v>
+      </c>
+      <c r="G836" t="s">
+        <v>241</v>
+      </c>
+      <c r="H836" t="s">
+        <v>10</v>
+      </c>
+      <c r="I836" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="837" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A837" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B837" t="s">
+        <v>855</v>
+      </c>
+      <c r="C837" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D837" t="s">
+        <v>36</v>
+      </c>
+      <c r="G837" t="s">
+        <v>241</v>
+      </c>
+      <c r="H837" t="s">
+        <v>10</v>
+      </c>
+      <c r="I837" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="838" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A838" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B838" t="s">
+        <v>856</v>
+      </c>
+      <c r="C838" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D838" t="s">
+        <v>36</v>
+      </c>
+      <c r="G838" t="s">
+        <v>241</v>
+      </c>
+      <c r="H838" t="s">
+        <v>10</v>
+      </c>
+      <c r="I838" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="839" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A839" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B839" t="s">
+        <v>857</v>
+      </c>
+      <c r="C839" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D839" t="s">
+        <v>36</v>
+      </c>
+      <c r="G839" t="s">
+        <v>241</v>
+      </c>
+      <c r="H839" t="s">
+        <v>10</v>
+      </c>
+      <c r="I839" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="840" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A840" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B840" t="s">
+        <v>858</v>
+      </c>
+      <c r="C840" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D840" t="s">
+        <v>36</v>
+      </c>
+      <c r="G840" t="s">
+        <v>241</v>
+      </c>
+      <c r="H840" t="s">
+        <v>10</v>
+      </c>
+      <c r="I840" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="841" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A841" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B841" t="s">
+        <v>859</v>
+      </c>
+      <c r="C841" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D841" t="s">
+        <v>36</v>
+      </c>
+      <c r="G841" t="s">
+        <v>241</v>
+      </c>
+      <c r="H841" t="s">
+        <v>10</v>
+      </c>
+      <c r="I841" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="842" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A842" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B842" t="s">
+        <v>892</v>
+      </c>
+      <c r="C842" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D842" t="s">
+        <v>345</v>
+      </c>
+      <c r="G842" t="s">
+        <v>308</v>
+      </c>
+      <c r="H842" t="s">
+        <v>10</v>
+      </c>
+      <c r="I842" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="843" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A843" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B843" t="s">
+        <v>892</v>
+      </c>
+      <c r="C843" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D843" t="s">
+        <v>345</v>
+      </c>
+      <c r="G843" t="s">
+        <v>308</v>
+      </c>
+      <c r="H843" t="s">
+        <v>10</v>
+      </c>
+      <c r="I843" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="844" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A844" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B844" t="s">
+        <v>893</v>
+      </c>
+      <c r="C844" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D844" t="s">
+        <v>345</v>
+      </c>
+      <c r="G844" t="s">
+        <v>308</v>
+      </c>
+      <c r="H844" t="s">
+        <v>10</v>
+      </c>
+      <c r="I844" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="845" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A845" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B845" t="s">
+        <v>893</v>
+      </c>
+      <c r="C845" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D845" t="s">
+        <v>345</v>
+      </c>
+      <c r="G845" t="s">
+        <v>308</v>
+      </c>
+      <c r="H845" t="s">
+        <v>10</v>
+      </c>
+      <c r="I845" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="846" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A846" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B846" t="s">
+        <v>894</v>
+      </c>
+      <c r="C846" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D846" t="s">
+        <v>345</v>
+      </c>
+      <c r="G846" t="s">
+        <v>308</v>
+      </c>
+      <c r="H846" t="s">
+        <v>10</v>
+      </c>
+      <c r="I846" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="847" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A847" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B847" t="s">
+        <v>894</v>
+      </c>
+      <c r="C847" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D847" t="s">
+        <v>345</v>
+      </c>
+      <c r="G847" t="s">
+        <v>308</v>
+      </c>
+      <c r="H847" t="s">
+        <v>10</v>
+      </c>
+      <c r="I847" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="848" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A848" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B848" t="s">
+        <v>895</v>
+      </c>
+      <c r="C848" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D848" t="s">
+        <v>345</v>
+      </c>
+      <c r="G848" t="s">
+        <v>308</v>
+      </c>
+      <c r="H848" t="s">
+        <v>10</v>
+      </c>
+      <c r="I848" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A849" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B849" t="s">
+        <v>895</v>
+      </c>
+      <c r="C849" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D849" t="s">
+        <v>345</v>
+      </c>
+      <c r="G849" t="s">
+        <v>308</v>
+      </c>
+      <c r="H849" t="s">
+        <v>10</v>
+      </c>
+      <c r="I849" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A850" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B850" t="s">
+        <v>896</v>
+      </c>
+      <c r="C850" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D850" t="s">
+        <v>345</v>
+      </c>
+      <c r="G850" t="s">
+        <v>308</v>
+      </c>
+      <c r="H850" t="s">
+        <v>10</v>
+      </c>
+      <c r="I850" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="851" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A851" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B851" t="s">
+        <v>896</v>
+      </c>
+      <c r="C851" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D851" t="s">
+        <v>345</v>
+      </c>
+      <c r="G851" t="s">
+        <v>308</v>
+      </c>
+      <c r="H851" t="s">
+        <v>10</v>
+      </c>
+      <c r="I851" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="852" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A852" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B852" t="s">
+        <v>897</v>
+      </c>
+      <c r="C852" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D852" t="s">
+        <v>345</v>
+      </c>
+      <c r="G852" t="s">
+        <v>308</v>
+      </c>
+      <c r="H852" t="s">
+        <v>10</v>
+      </c>
+      <c r="I852" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="853" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A853" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B853" t="s">
+        <v>897</v>
+      </c>
+      <c r="C853" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D853" t="s">
+        <v>345</v>
+      </c>
+      <c r="G853" t="s">
+        <v>308</v>
+      </c>
+      <c r="H853" t="s">
+        <v>10</v>
+      </c>
+      <c r="I853" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="854" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A854" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B854" t="s">
+        <v>898</v>
+      </c>
+      <c r="C854" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D854" t="s">
+        <v>345</v>
+      </c>
+      <c r="G854" t="s">
+        <v>308</v>
+      </c>
+      <c r="H854" t="s">
+        <v>10</v>
+      </c>
+      <c r="I854" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="855" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A855" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B855" t="s">
+        <v>898</v>
+      </c>
+      <c r="C855" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D855" t="s">
+        <v>345</v>
+      </c>
+      <c r="G855" t="s">
+        <v>308</v>
+      </c>
+      <c r="H855" t="s">
+        <v>10</v>
+      </c>
+      <c r="I855" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="856" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A856" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B856" t="s">
+        <v>898</v>
+      </c>
+      <c r="C856" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D856" t="s">
+        <v>345</v>
+      </c>
+      <c r="G856" t="s">
+        <v>308</v>
+      </c>
+      <c r="H856" t="s">
+        <v>10</v>
+      </c>
+      <c r="I856" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="857" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A857" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B857" t="s">
+        <v>899</v>
+      </c>
+      <c r="C857" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D857" t="s">
+        <v>345</v>
+      </c>
+      <c r="G857" t="s">
+        <v>308</v>
+      </c>
+      <c r="H857" t="s">
+        <v>10</v>
+      </c>
+      <c r="I857" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="858" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A858" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B858" t="s">
+        <v>899</v>
+      </c>
+      <c r="C858" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D858" t="s">
+        <v>345</v>
+      </c>
+      <c r="G858" t="s">
+        <v>308</v>
+      </c>
+      <c r="H858" t="s">
+        <v>10</v>
+      </c>
+      <c r="I858" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="859" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A859" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B859" t="s">
+        <v>899</v>
+      </c>
+      <c r="C859" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D859" t="s">
+        <v>345</v>
+      </c>
+      <c r="G859" t="s">
+        <v>308</v>
+      </c>
+      <c r="H859" t="s">
+        <v>10</v>
+      </c>
+      <c r="I859" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="860" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A860" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B860" t="s">
+        <v>900</v>
+      </c>
+      <c r="C860" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D860" t="s">
+        <v>345</v>
+      </c>
+      <c r="G860" t="s">
+        <v>308</v>
+      </c>
+      <c r="H860" t="s">
+        <v>10</v>
+      </c>
+      <c r="I860" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="861" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A861" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B861" t="s">
+        <v>900</v>
+      </c>
+      <c r="C861" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D861" t="s">
+        <v>345</v>
+      </c>
+      <c r="G861" t="s">
+        <v>308</v>
+      </c>
+      <c r="H861" t="s">
+        <v>10</v>
+      </c>
+      <c r="I861" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="862" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A862" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B862" t="s">
+        <v>900</v>
+      </c>
+      <c r="C862" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D862" t="s">
+        <v>345</v>
+      </c>
+      <c r="G862" t="s">
+        <v>308</v>
+      </c>
+      <c r="H862" t="s">
+        <v>10</v>
+      </c>
+      <c r="I862" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A863" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B863" t="s">
+        <v>901</v>
+      </c>
+      <c r="C863" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D863" t="s">
+        <v>345</v>
+      </c>
+      <c r="G863" t="s">
+        <v>308</v>
+      </c>
+      <c r="H863" t="s">
+        <v>10</v>
+      </c>
+      <c r="I863" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="864" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A864" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B864" t="s">
+        <v>901</v>
+      </c>
+      <c r="C864" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D864" t="s">
+        <v>345</v>
+      </c>
+      <c r="G864" t="s">
+        <v>308</v>
+      </c>
+      <c r="H864" t="s">
+        <v>10</v>
+      </c>
+      <c r="I864" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="865" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A865" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B865" t="s">
+        <v>901</v>
+      </c>
+      <c r="C865" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D865" t="s">
+        <v>345</v>
+      </c>
+      <c r="G865" t="s">
+        <v>308</v>
+      </c>
+      <c r="H865" t="s">
+        <v>10</v>
+      </c>
+      <c r="I865" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="866" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A866" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B866" t="s">
+        <v>902</v>
+      </c>
+      <c r="C866" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D866" t="s">
+        <v>345</v>
+      </c>
+      <c r="G866" t="s">
+        <v>308</v>
+      </c>
+      <c r="H866" t="s">
+        <v>10</v>
+      </c>
+      <c r="I866" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="867" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A867" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B867" t="s">
+        <v>902</v>
+      </c>
+      <c r="C867" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D867" t="s">
+        <v>345</v>
+      </c>
+      <c r="G867" t="s">
+        <v>308</v>
+      </c>
+      <c r="H867" t="s">
+        <v>10</v>
+      </c>
+      <c r="I867" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="868" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A868" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B868" t="s">
+        <v>902</v>
+      </c>
+      <c r="C868" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D868" t="s">
+        <v>345</v>
+      </c>
+      <c r="G868" t="s">
+        <v>308</v>
+      </c>
+      <c r="H868" t="s">
+        <v>10</v>
+      </c>
+      <c r="I868" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="869" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A869" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B869" t="s">
+        <v>903</v>
+      </c>
+      <c r="C869" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D869" t="s">
+        <v>345</v>
+      </c>
+      <c r="G869" t="s">
+        <v>308</v>
+      </c>
+      <c r="H869" t="s">
+        <v>10</v>
+      </c>
+      <c r="I869" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="870" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A870" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B870" t="s">
+        <v>903</v>
+      </c>
+      <c r="C870" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D870" t="s">
+        <v>345</v>
+      </c>
+      <c r="G870" t="s">
+        <v>308</v>
+      </c>
+      <c r="H870" t="s">
+        <v>10</v>
+      </c>
+      <c r="I870" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="871" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A871" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B871" t="s">
+        <v>903</v>
+      </c>
+      <c r="C871" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D871" t="s">
+        <v>345</v>
+      </c>
+      <c r="G871" t="s">
+        <v>308</v>
+      </c>
+      <c r="H871" t="s">
+        <v>10</v>
+      </c>
+      <c r="I871" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="872" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A872" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B872" t="s">
+        <v>904</v>
+      </c>
+      <c r="C872" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D872" t="s">
+        <v>345</v>
+      </c>
+      <c r="G872" t="s">
+        <v>308</v>
+      </c>
+      <c r="H872" t="s">
+        <v>10</v>
+      </c>
+      <c r="I872" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="873" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A873" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B873" t="s">
+        <v>904</v>
+      </c>
+      <c r="C873" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D873" t="s">
+        <v>345</v>
+      </c>
+      <c r="G873" t="s">
+        <v>308</v>
+      </c>
+      <c r="H873" t="s">
+        <v>10</v>
+      </c>
+      <c r="I873" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="874" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A874" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B874" t="s">
+        <v>904</v>
+      </c>
+      <c r="C874" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D874" t="s">
+        <v>345</v>
+      </c>
+      <c r="G874" t="s">
+        <v>308</v>
+      </c>
+      <c r="H874" t="s">
+        <v>10</v>
+      </c>
+      <c r="I874" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="875" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A875" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B875" t="s">
+        <v>905</v>
+      </c>
+      <c r="C875" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D875" t="s">
+        <v>345</v>
+      </c>
+      <c r="G875" t="s">
+        <v>308</v>
+      </c>
+      <c r="H875" t="s">
+        <v>10</v>
+      </c>
+      <c r="I875" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="876" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A876" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B876" t="s">
+        <v>905</v>
+      </c>
+      <c r="C876" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D876" t="s">
+        <v>345</v>
+      </c>
+      <c r="G876" t="s">
+        <v>308</v>
+      </c>
+      <c r="H876" t="s">
+        <v>10</v>
+      </c>
+      <c r="I876" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="877" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A877" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B877" t="s">
+        <v>905</v>
+      </c>
+      <c r="C877" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D877" t="s">
+        <v>345</v>
+      </c>
+      <c r="G877" t="s">
+        <v>308</v>
+      </c>
+      <c r="H877" t="s">
+        <v>10</v>
+      </c>
+      <c r="I877" t="s">
         <v>271</v>
       </c>
     </row>
@@ -22627,9 +25152,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -22656,7 +25183,7 @@
         <v>44362</v>
       </c>
       <c r="B2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
@@ -22670,7 +25197,7 @@
         <v>44363</v>
       </c>
       <c r="B3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -22684,7 +25211,7 @@
         <v>44364</v>
       </c>
       <c r="B4" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -22698,7 +25225,7 @@
         <v>44365</v>
       </c>
       <c r="B5" t="s">
-        <v>910</v>
+        <v>919</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
@@ -22712,7 +25239,7 @@
         <v>44366</v>
       </c>
       <c r="B6" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -22726,7 +25253,7 @@
         <v>44367</v>
       </c>
       <c r="B7" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -22740,7 +25267,7 @@
         <v>44368</v>
       </c>
       <c r="B8" t="s">
-        <v>913</v>
+        <v>922</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -22754,7 +25281,7 @@
         <v>44369</v>
       </c>
       <c r="B9" t="s">
-        <v>914</v>
+        <v>923</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -22768,7 +25295,7 @@
         <v>44370</v>
       </c>
       <c r="B10" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -22782,7 +25309,7 @@
         <v>44371</v>
       </c>
       <c r="B11" t="s">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -22796,7 +25323,7 @@
         <v>44372</v>
       </c>
       <c r="B12" t="s">
-        <v>917</v>
+        <v>926</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -22810,7 +25337,7 @@
         <v>44373</v>
       </c>
       <c r="B13" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -22824,7 +25351,7 @@
         <v>44374</v>
       </c>
       <c r="B14" t="s">
-        <v>919</v>
+        <v>928</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -22838,7 +25365,7 @@
         <v>44375</v>
       </c>
       <c r="B15" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -22852,7 +25379,7 @@
         <v>44376</v>
       </c>
       <c r="B16" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -22866,7 +25393,7 @@
         <v>44377</v>
       </c>
       <c r="B17" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -22880,7 +25407,7 @@
         <v>44378</v>
       </c>
       <c r="B18" t="s">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -22894,7 +25421,7 @@
         <v>44379</v>
       </c>
       <c r="B19" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -22908,7 +25435,7 @@
         <v>44380</v>
       </c>
       <c r="B20" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -22922,7 +25449,7 @@
         <v>44381</v>
       </c>
       <c r="B21" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -22936,7 +25463,7 @@
         <v>44382</v>
       </c>
       <c r="B22" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -22950,7 +25477,7 @@
         <v>44383</v>
       </c>
       <c r="B23" t="s">
-        <v>928</v>
+        <v>937</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -22964,7 +25491,7 @@
         <v>44384</v>
       </c>
       <c r="B24" t="s">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -22978,7 +25505,7 @@
         <v>44385</v>
       </c>
       <c r="B25" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -22992,7 +25519,7 @@
         <v>44386</v>
       </c>
       <c r="B26" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -23006,7 +25533,7 @@
         <v>44387</v>
       </c>
       <c r="B27" t="s">
-        <v>932</v>
+        <v>941</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -23020,7 +25547,7 @@
         <v>44388</v>
       </c>
       <c r="B28" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="C28" t="s">
         <v>422</v>
@@ -23034,7 +25561,7 @@
         <v>44389</v>
       </c>
       <c r="B29" t="s">
-        <v>796</v>
+        <v>943</v>
       </c>
       <c r="C29" t="s">
         <v>423</v>
@@ -23048,7 +25575,7 @@
         <v>44390</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>944</v>
       </c>
       <c r="C30" t="s">
         <v>424</v>
@@ -23061,7 +25588,299 @@
       <c r="A31" s="1">
         <v>44391</v>
       </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
       <c r="D31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>44392</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>44393</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>44394</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>44395</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>44396</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>44397</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>44398</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>44399</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>44400</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>44401</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>44402</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>44403</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>44404</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>44405</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>44406</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>44407</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>44408</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>44409</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>44410</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>44411</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>44412</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>44413</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>44414</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>44415</v>
+      </c>
+      <c r="C55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>44416</v>
+      </c>
+      <c r="C56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>44417</v>
+      </c>
+      <c r="C57" t="s">
+        <v>424</v>
+      </c>
+      <c r="D57" t="s">
         <v>31</v>
       </c>
     </row>

--- a/2021-06 New South Wales Outbreak Paths.xlsx
+++ b/2021-06 New South Wales Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537BAF93-82C2-43A7-8C92-74E23CDF5BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EA2230-7EE5-482C-9944-F76E1BEB8D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5874" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6411" uniqueCount="1124">
   <si>
     <t>Source</t>
   </si>
@@ -2440,9 +2440,6 @@
     <t>Coogee</t>
   </si>
   <si>
-    <t>Pub</t>
-  </si>
-  <si>
     <t>Westfield (other)</t>
   </si>
   <si>
@@ -2758,9 +2755,6 @@
     <t>#fafbff</t>
   </si>
   <si>
-    <t>#f4f7ff</t>
-  </si>
-  <si>
     <t>Roselands</t>
   </si>
   <si>
@@ -2791,87 +2785,9 @@
     <t>Summit Care</t>
   </si>
   <si>
-    <t>#eff3ff</t>
-  </si>
-  <si>
-    <t>#eaefff</t>
-  </si>
-  <si>
     <t>#e5ebff</t>
   </si>
   <si>
-    <t>#dfe7ff</t>
-  </si>
-  <si>
-    <t>#dae3ff</t>
-  </si>
-  <si>
-    <t>#d4dfff</t>
-  </si>
-  <si>
-    <t>#cfdbff</t>
-  </si>
-  <si>
-    <t>#c9d7ff</t>
-  </si>
-  <si>
-    <t>#c3d3ff</t>
-  </si>
-  <si>
-    <t>#bdcfff</t>
-  </si>
-  <si>
-    <t>#b7cbff</t>
-  </si>
-  <si>
-    <t>#b1c8ff</t>
-  </si>
-  <si>
-    <t>#abc4ff</t>
-  </si>
-  <si>
-    <t>#a5c0ff</t>
-  </si>
-  <si>
-    <t>#9fbcff</t>
-  </si>
-  <si>
-    <t>#98b8ff</t>
-  </si>
-  <si>
-    <t>#91b5ff</t>
-  </si>
-  <si>
-    <t>#8ab1ff</t>
-  </si>
-  <si>
-    <t>#83adff</t>
-  </si>
-  <si>
-    <t>#7baaff</t>
-  </si>
-  <si>
-    <t>#73a6ff</t>
-  </si>
-  <si>
-    <t>#6ba2ff</t>
-  </si>
-  <si>
-    <t>#629fff</t>
-  </si>
-  <si>
-    <t>#589bff</t>
-  </si>
-  <si>
-    <t>#4c97ff</t>
-  </si>
-  <si>
-    <t>#3f94ff</t>
-  </si>
-  <si>
-    <t>#2e90ff</t>
-  </si>
-  <si>
     <t>S769</t>
   </si>
   <si>
@@ -3161,6 +3077,336 @@
   </si>
   <si>
     <t>S865</t>
+  </si>
+  <si>
+    <t>Pub 1</t>
+  </si>
+  <si>
+    <t>Kensington</t>
+  </si>
+  <si>
+    <t>Pub 2</t>
+  </si>
+  <si>
+    <t>Kensington Pub</t>
+  </si>
+  <si>
+    <t>Kensington Pub Close Contacts</t>
+  </si>
+  <si>
+    <t>Strathfield South</t>
+  </si>
+  <si>
+    <t>Pub 3</t>
+  </si>
+  <si>
+    <t>Westfield Close Contacts</t>
+  </si>
+  <si>
+    <t>Office 1</t>
+  </si>
+  <si>
+    <t>CBD</t>
+  </si>
+  <si>
+    <t>Office 2</t>
+  </si>
+  <si>
+    <t>North Sydney</t>
+  </si>
+  <si>
+    <t>Office 2 Close Contacts</t>
+  </si>
+  <si>
+    <t>South Coogee Public School Close Contacts</t>
+  </si>
+  <si>
+    <t>Virgin Flight VA524 Close Contacts</t>
+  </si>
+  <si>
+    <t>Gold Coast to Sydney</t>
+  </si>
+  <si>
+    <t>Plane</t>
+  </si>
+  <si>
+    <t>S866</t>
+  </si>
+  <si>
+    <t>S867</t>
+  </si>
+  <si>
+    <t>S868</t>
+  </si>
+  <si>
+    <t>S869</t>
+  </si>
+  <si>
+    <t>S870</t>
+  </si>
+  <si>
+    <t>S871</t>
+  </si>
+  <si>
+    <t>S872</t>
+  </si>
+  <si>
+    <t>S873</t>
+  </si>
+  <si>
+    <t>S874</t>
+  </si>
+  <si>
+    <t>S875</t>
+  </si>
+  <si>
+    <t>S876</t>
+  </si>
+  <si>
+    <t>S877</t>
+  </si>
+  <si>
+    <t>S878</t>
+  </si>
+  <si>
+    <t>S879</t>
+  </si>
+  <si>
+    <t>S880</t>
+  </si>
+  <si>
+    <t>S881</t>
+  </si>
+  <si>
+    <t>S882</t>
+  </si>
+  <si>
+    <t>S883</t>
+  </si>
+  <si>
+    <t>S884</t>
+  </si>
+  <si>
+    <t>S885</t>
+  </si>
+  <si>
+    <t>S886</t>
+  </si>
+  <si>
+    <t>S887</t>
+  </si>
+  <si>
+    <t>S888</t>
+  </si>
+  <si>
+    <t>S889</t>
+  </si>
+  <si>
+    <t>S890</t>
+  </si>
+  <si>
+    <t>S891</t>
+  </si>
+  <si>
+    <t>S892</t>
+  </si>
+  <si>
+    <t>S893</t>
+  </si>
+  <si>
+    <t>S894</t>
+  </si>
+  <si>
+    <t>S895</t>
+  </si>
+  <si>
+    <t>S896</t>
+  </si>
+  <si>
+    <t>S897</t>
+  </si>
+  <si>
+    <t>S898</t>
+  </si>
+  <si>
+    <t>S899</t>
+  </si>
+  <si>
+    <t>S900</t>
+  </si>
+  <si>
+    <t>S901</t>
+  </si>
+  <si>
+    <t>S902</t>
+  </si>
+  <si>
+    <t>S903</t>
+  </si>
+  <si>
+    <t>S904</t>
+  </si>
+  <si>
+    <t>S905</t>
+  </si>
+  <si>
+    <t>S906</t>
+  </si>
+  <si>
+    <t>S907</t>
+  </si>
+  <si>
+    <t>S908</t>
+  </si>
+  <si>
+    <t>S909</t>
+  </si>
+  <si>
+    <t>S910</t>
+  </si>
+  <si>
+    <t>S911</t>
+  </si>
+  <si>
+    <t>S912</t>
+  </si>
+  <si>
+    <t>S913</t>
+  </si>
+  <si>
+    <t>S914</t>
+  </si>
+  <si>
+    <t>S915</t>
+  </si>
+  <si>
+    <t>S916</t>
+  </si>
+  <si>
+    <t>S917</t>
+  </si>
+  <si>
+    <t>S918</t>
+  </si>
+  <si>
+    <t>S919</t>
+  </si>
+  <si>
+    <t>S920</t>
+  </si>
+  <si>
+    <t>S921</t>
+  </si>
+  <si>
+    <t>S922</t>
+  </si>
+  <si>
+    <t>S923</t>
+  </si>
+  <si>
+    <t>S924</t>
+  </si>
+  <si>
+    <t>S925</t>
+  </si>
+  <si>
+    <t>S926</t>
+  </si>
+  <si>
+    <t>S927</t>
+  </si>
+  <si>
+    <t>S928</t>
+  </si>
+  <si>
+    <t>S929</t>
+  </si>
+  <si>
+    <t>S930</t>
+  </si>
+  <si>
+    <t>#f5f7ff</t>
+  </si>
+  <si>
+    <t>#f0f3ff</t>
+  </si>
+  <si>
+    <t>#ebefff</t>
+  </si>
+  <si>
+    <t>#e0e8ff</t>
+  </si>
+  <si>
+    <t>#dbe4ff</t>
+  </si>
+  <si>
+    <t>#d6e0ff</t>
+  </si>
+  <si>
+    <t>#d0dcff</t>
+  </si>
+  <si>
+    <t>#cbd8ff</t>
+  </si>
+  <si>
+    <t>#c5d5ff</t>
+  </si>
+  <si>
+    <t>#c0d1ff</t>
+  </si>
+  <si>
+    <t>#bacdff</t>
+  </si>
+  <si>
+    <t>#b4c9ff</t>
+  </si>
+  <si>
+    <t>#aec6ff</t>
+  </si>
+  <si>
+    <t>#a8c2ff</t>
+  </si>
+  <si>
+    <t>#a2beff</t>
+  </si>
+  <si>
+    <t>#9cbbff</t>
+  </si>
+  <si>
+    <t>#95b7ff</t>
+  </si>
+  <si>
+    <t>#8fb3ff</t>
+  </si>
+  <si>
+    <t>#88b0ff</t>
+  </si>
+  <si>
+    <t>#81acff</t>
+  </si>
+  <si>
+    <t>#79a9ff</t>
+  </si>
+  <si>
+    <t>#71a5ff</t>
+  </si>
+  <si>
+    <t>#69a2ff</t>
+  </si>
+  <si>
+    <t>#609eff</t>
+  </si>
+  <si>
+    <t>#569bff</t>
+  </si>
+  <si>
+    <t>#4b97ff</t>
+  </si>
+  <si>
+    <t>#3e94ff</t>
+  </si>
+  <si>
+    <t>#2d90ff</t>
   </si>
 </sst>
 </file>
@@ -3230,8 +3476,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:I877" totalsRowShown="0">
-  <autoFilter ref="A1:I877" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:I942" totalsRowShown="0">
+  <autoFilter ref="A1:I942" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -3557,10 +3803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:I877"/>
+  <dimension ref="A1:I942"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A839" workbookViewId="0">
-      <selection activeCell="B876" sqref="B876:B877"/>
+    <sheetView tabSelected="1" topLeftCell="A914" workbookViewId="0">
+      <selection activeCell="B942" sqref="B942"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3692,10 +3938,10 @@
         <v>674</v>
       </c>
       <c r="F5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -3721,10 +3967,10 @@
         <v>674</v>
       </c>
       <c r="F6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
@@ -3750,7 +3996,7 @@
         <v>674</v>
       </c>
       <c r="F7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
@@ -3779,7 +4025,7 @@
         <v>674</v>
       </c>
       <c r="F8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
@@ -3857,7 +4103,7 @@
         <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F11" t="s">
         <v>49</v>
@@ -3947,7 +4193,7 @@
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>801</v>
+        <v>1014</v>
       </c>
       <c r="G14" t="s">
         <v>425</v>
@@ -4146,7 +4392,7 @@
         <v>674</v>
       </c>
       <c r="F22" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -4175,7 +4421,7 @@
         <v>674</v>
       </c>
       <c r="F23" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
@@ -4204,7 +4450,7 @@
         <v>674</v>
       </c>
       <c r="F24" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G24" t="s">
         <v>7</v>
@@ -4233,7 +4479,7 @@
         <v>674</v>
       </c>
       <c r="F25" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G25" t="s">
         <v>7</v>
@@ -4262,7 +4508,7 @@
         <v>674</v>
       </c>
       <c r="F26" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G26" t="s">
         <v>7</v>
@@ -4291,7 +4537,7 @@
         <v>674</v>
       </c>
       <c r="F27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G27" t="s">
         <v>7</v>
@@ -4320,7 +4566,7 @@
         <v>674</v>
       </c>
       <c r="F28" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G28" t="s">
         <v>7</v>
@@ -4697,10 +4943,10 @@
         <v>674</v>
       </c>
       <c r="F41" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G41" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H41" t="s">
         <v>10</v>
@@ -4726,10 +4972,10 @@
         <v>674</v>
       </c>
       <c r="F42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G42" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H42" t="s">
         <v>10</v>
@@ -4749,13 +4995,7 @@
         <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>345</v>
-      </c>
-      <c r="E43" t="s">
-        <v>800</v>
-      </c>
-      <c r="F43" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
         <v>103</v>
@@ -4801,10 +5041,10 @@
         <v>36</v>
       </c>
       <c r="E45" t="s">
+        <v>812</v>
+      </c>
+      <c r="F45" t="s">
         <v>813</v>
-      </c>
-      <c r="F45" t="s">
-        <v>814</v>
       </c>
       <c r="G45" t="s">
         <v>87</v>
@@ -4830,10 +5070,10 @@
         <v>36</v>
       </c>
       <c r="E46" t="s">
+        <v>812</v>
+      </c>
+      <c r="F46" t="s">
         <v>813</v>
-      </c>
-      <c r="F46" t="s">
-        <v>814</v>
       </c>
       <c r="G46" t="s">
         <v>87</v>
@@ -4859,10 +5099,10 @@
         <v>36</v>
       </c>
       <c r="E47" t="s">
+        <v>812</v>
+      </c>
+      <c r="F47" t="s">
         <v>813</v>
-      </c>
-      <c r="F47" t="s">
-        <v>814</v>
       </c>
       <c r="G47" t="s">
         <v>87</v>
@@ -4888,10 +5128,10 @@
         <v>36</v>
       </c>
       <c r="E48" t="s">
+        <v>812</v>
+      </c>
+      <c r="F48" t="s">
         <v>813</v>
-      </c>
-      <c r="F48" t="s">
-        <v>814</v>
       </c>
       <c r="G48" t="s">
         <v>87</v>
@@ -4917,10 +5157,10 @@
         <v>36</v>
       </c>
       <c r="E49" t="s">
+        <v>812</v>
+      </c>
+      <c r="F49" t="s">
         <v>813</v>
-      </c>
-      <c r="F49" t="s">
-        <v>814</v>
       </c>
       <c r="G49" t="s">
         <v>87</v>
@@ -5027,10 +5267,10 @@
         <v>36</v>
       </c>
       <c r="E53" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F53" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G53" t="s">
         <v>95</v>
@@ -5059,10 +5299,10 @@
         <v>674</v>
       </c>
       <c r="F54" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G54" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H54" t="s">
         <v>10</v>
@@ -5088,10 +5328,10 @@
         <v>36</v>
       </c>
       <c r="F55" t="s">
+        <v>814</v>
+      </c>
+      <c r="G55" t="s">
         <v>815</v>
-      </c>
-      <c r="G55" t="s">
-        <v>816</v>
       </c>
       <c r="H55" t="s">
         <v>10</v>
@@ -5117,10 +5357,10 @@
         <v>36</v>
       </c>
       <c r="F56" t="s">
+        <v>814</v>
+      </c>
+      <c r="G56" t="s">
         <v>815</v>
-      </c>
-      <c r="G56" t="s">
-        <v>816</v>
       </c>
       <c r="H56" t="s">
         <v>10</v>
@@ -5146,10 +5386,10 @@
         <v>36</v>
       </c>
       <c r="F57" t="s">
+        <v>814</v>
+      </c>
+      <c r="G57" t="s">
         <v>815</v>
-      </c>
-      <c r="G57" t="s">
-        <v>816</v>
       </c>
       <c r="H57" t="s">
         <v>10</v>
@@ -5172,10 +5412,10 @@
         <v>36</v>
       </c>
       <c r="E58" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F58" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G58" t="s">
         <v>667</v>
@@ -5204,7 +5444,7 @@
         <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G59" t="s">
         <v>427</v>
@@ -5230,10 +5470,10 @@
         <v>36</v>
       </c>
       <c r="E60" t="s">
+        <v>812</v>
+      </c>
+      <c r="F60" t="s">
         <v>813</v>
-      </c>
-      <c r="F60" t="s">
-        <v>814</v>
       </c>
       <c r="G60" t="s">
         <v>87</v>
@@ -5259,10 +5499,10 @@
         <v>36</v>
       </c>
       <c r="E61" t="s">
+        <v>812</v>
+      </c>
+      <c r="F61" t="s">
         <v>813</v>
-      </c>
-      <c r="F61" t="s">
-        <v>814</v>
       </c>
       <c r="G61" t="s">
         <v>87</v>
@@ -5581,10 +5821,10 @@
         <v>674</v>
       </c>
       <c r="F72" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G72" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H72" t="s">
         <v>10</v>
@@ -5610,10 +5850,10 @@
         <v>674</v>
       </c>
       <c r="F73" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G73" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H73" t="s">
         <v>10</v>
@@ -5804,10 +6044,10 @@
         <v>36</v>
       </c>
       <c r="E80" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F80" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G80" t="s">
         <v>667</v>
@@ -5833,10 +6073,10 @@
         <v>36</v>
       </c>
       <c r="E81" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F81" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G81" t="s">
         <v>667</v>
@@ -5865,7 +6105,7 @@
         <v>36</v>
       </c>
       <c r="F82" t="s">
-        <v>801</v>
+        <v>1014</v>
       </c>
       <c r="G82" t="s">
         <v>425</v>
@@ -5959,6 +6199,12 @@
       <c r="D86" t="s">
         <v>36</v>
       </c>
+      <c r="E86" t="s">
+        <v>800</v>
+      </c>
+      <c r="F86" t="s">
+        <v>103</v>
+      </c>
       <c r="G86" t="s">
         <v>7</v>
       </c>
@@ -5982,6 +6228,12 @@
       <c r="D87" t="s">
         <v>36</v>
       </c>
+      <c r="E87" t="s">
+        <v>800</v>
+      </c>
+      <c r="F87" t="s">
+        <v>103</v>
+      </c>
       <c r="G87" t="s">
         <v>7</v>
       </c>
@@ -6260,6 +6512,12 @@
       <c r="D97" t="s">
         <v>36</v>
       </c>
+      <c r="E97" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1020</v>
+      </c>
       <c r="G97" t="s">
         <v>210</v>
       </c>
@@ -6884,7 +7142,7 @@
         <v>44375</v>
       </c>
       <c r="B119" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C119" t="s">
         <v>166</v>
@@ -6892,8 +7150,14 @@
       <c r="D119" t="s">
         <v>36</v>
       </c>
+      <c r="E119" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1014</v>
+      </c>
       <c r="G119" t="s">
-        <v>241</v>
+        <v>425</v>
       </c>
       <c r="H119" t="s">
         <v>10</v>
@@ -7118,6 +7382,12 @@
       <c r="D127" t="s">
         <v>36</v>
       </c>
+      <c r="E127" t="s">
+        <v>800</v>
+      </c>
+      <c r="F127" t="s">
+        <v>103</v>
+      </c>
       <c r="G127" t="s">
         <v>182</v>
       </c>
@@ -7141,6 +7411,12 @@
       <c r="D128" t="s">
         <v>36</v>
       </c>
+      <c r="E128" t="s">
+        <v>800</v>
+      </c>
+      <c r="F128" t="s">
+        <v>103</v>
+      </c>
       <c r="G128" t="s">
         <v>182</v>
       </c>
@@ -7156,16 +7432,22 @@
         <v>44375</v>
       </c>
       <c r="B129" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="C129" t="s">
         <v>174</v>
       </c>
       <c r="D129" t="s">
-        <v>345</v>
+        <v>36</v>
+      </c>
+      <c r="E129" t="s">
+        <v>674</v>
+      </c>
+      <c r="F129" t="s">
+        <v>801</v>
       </c>
       <c r="G129" t="s">
-        <v>308</v>
+        <v>1021</v>
       </c>
       <c r="H129" t="s">
         <v>10</v>
@@ -7324,13 +7606,22 @@
         <v>44375</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C135" t="s">
         <v>180</v>
       </c>
       <c r="D135" t="s">
-        <v>346</v>
+        <v>36</v>
+      </c>
+      <c r="E135" t="s">
+        <v>796</v>
+      </c>
+      <c r="F135" t="s">
+        <v>672</v>
+      </c>
+      <c r="G135" t="s">
+        <v>85</v>
       </c>
       <c r="H135" t="s">
         <v>10</v>
@@ -7344,13 +7635,22 @@
         <v>44375</v>
       </c>
       <c r="B136" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C136" t="s">
         <v>181</v>
       </c>
       <c r="D136" t="s">
-        <v>346</v>
+        <v>36</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1017</v>
       </c>
       <c r="H136" t="s">
         <v>10</v>
@@ -7439,7 +7739,7 @@
         <v>44376</v>
       </c>
       <c r="B140" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="C140" t="s">
         <v>190</v>
@@ -7447,8 +7747,14 @@
       <c r="D140" t="s">
         <v>36</v>
       </c>
+      <c r="E140" t="s">
+        <v>674</v>
+      </c>
+      <c r="F140" t="s">
+        <v>801</v>
+      </c>
       <c r="G140" t="s">
-        <v>241</v>
+        <v>1021</v>
       </c>
       <c r="H140" t="s">
         <v>10</v>
@@ -7645,10 +7951,10 @@
         <v>36</v>
       </c>
       <c r="E147" t="s">
+        <v>812</v>
+      </c>
+      <c r="F147" t="s">
         <v>813</v>
-      </c>
-      <c r="F147" t="s">
-        <v>814</v>
       </c>
       <c r="G147" t="s">
         <v>225</v>
@@ -7674,10 +7980,10 @@
         <v>36</v>
       </c>
       <c r="E148" t="s">
+        <v>812</v>
+      </c>
+      <c r="F148" t="s">
         <v>813</v>
-      </c>
-      <c r="F148" t="s">
-        <v>814</v>
       </c>
       <c r="G148" t="s">
         <v>225</v>
@@ -7703,10 +8009,10 @@
         <v>36</v>
       </c>
       <c r="E149" t="s">
+        <v>812</v>
+      </c>
+      <c r="F149" t="s">
         <v>813</v>
-      </c>
-      <c r="F149" t="s">
-        <v>814</v>
       </c>
       <c r="G149" t="s">
         <v>225</v>
@@ -7723,16 +8029,22 @@
         <v>44376</v>
       </c>
       <c r="B150" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C150" t="s">
         <v>200</v>
       </c>
       <c r="D150" t="s">
-        <v>346</v>
+        <v>36</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1016</v>
       </c>
       <c r="G150" t="s">
-        <v>244</v>
+        <v>1017</v>
       </c>
       <c r="H150" t="s">
         <v>10</v>
@@ -7920,16 +8232,22 @@
         <v>44376</v>
       </c>
       <c r="B157" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="C157" t="s">
         <v>207</v>
       </c>
       <c r="D157" t="s">
-        <v>345</v>
+        <v>36</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1016</v>
       </c>
       <c r="G157" t="s">
-        <v>308</v>
+        <v>1017</v>
       </c>
       <c r="H157" t="s">
         <v>10</v>
@@ -8119,6 +8437,12 @@
       <c r="D164" t="s">
         <v>36</v>
       </c>
+      <c r="E164" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1020</v>
+      </c>
       <c r="G164" t="s">
         <v>210</v>
       </c>
@@ -8142,6 +8466,12 @@
       <c r="D165" t="s">
         <v>36</v>
       </c>
+      <c r="E165" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1020</v>
+      </c>
       <c r="G165" t="s">
         <v>210</v>
       </c>
@@ -8165,6 +8495,12 @@
       <c r="D166" t="s">
         <v>36</v>
       </c>
+      <c r="E166" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1020</v>
+      </c>
       <c r="G166" t="s">
         <v>210</v>
       </c>
@@ -8188,6 +8524,12 @@
       <c r="D167" t="s">
         <v>36</v>
       </c>
+      <c r="E167" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1020</v>
+      </c>
       <c r="G167" t="s">
         <v>242</v>
       </c>
@@ -8212,10 +8554,10 @@
         <v>36</v>
       </c>
       <c r="E168" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F168" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G168" t="s">
         <v>95</v>
@@ -8241,10 +8583,10 @@
         <v>36</v>
       </c>
       <c r="E169" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F169" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G169" t="s">
         <v>95</v>
@@ -8270,10 +8612,10 @@
         <v>36</v>
       </c>
       <c r="E170" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F170" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G170" t="s">
         <v>95</v>
@@ -8299,10 +8641,10 @@
         <v>36</v>
       </c>
       <c r="E171" t="s">
+        <v>812</v>
+      </c>
+      <c r="F171" t="s">
         <v>813</v>
-      </c>
-      <c r="F171" t="s">
-        <v>814</v>
       </c>
       <c r="G171" t="s">
         <v>225</v>
@@ -8327,6 +8669,12 @@
       <c r="D172" t="s">
         <v>36</v>
       </c>
+      <c r="E172" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1020</v>
+      </c>
       <c r="G172" t="s">
         <v>210</v>
       </c>
@@ -8350,6 +8698,12 @@
       <c r="D173" t="s">
         <v>36</v>
       </c>
+      <c r="E173" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1020</v>
+      </c>
       <c r="G173" t="s">
         <v>210</v>
       </c>
@@ -8365,7 +8719,7 @@
         <v>44377</v>
       </c>
       <c r="B174" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="C174" t="s">
         <v>228</v>
@@ -8373,8 +8727,14 @@
       <c r="D174" t="s">
         <v>36</v>
       </c>
+      <c r="E174" t="s">
+        <v>799</v>
+      </c>
+      <c r="F174" t="s">
+        <v>798</v>
+      </c>
       <c r="G174" t="s">
-        <v>241</v>
+        <v>122</v>
       </c>
       <c r="H174" t="s">
         <v>10</v>
@@ -8388,7 +8748,7 @@
         <v>44377</v>
       </c>
       <c r="B175" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="C175" t="s">
         <v>229</v>
@@ -8396,8 +8756,14 @@
       <c r="D175" t="s">
         <v>36</v>
       </c>
+      <c r="E175" t="s">
+        <v>799</v>
+      </c>
+      <c r="F175" t="s">
+        <v>798</v>
+      </c>
       <c r="G175" t="s">
-        <v>241</v>
+        <v>122</v>
       </c>
       <c r="H175" t="s">
         <v>10</v>
@@ -8411,7 +8777,7 @@
         <v>44377</v>
       </c>
       <c r="B176" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="C176" t="s">
         <v>230</v>
@@ -8419,8 +8785,14 @@
       <c r="D176" t="s">
         <v>36</v>
       </c>
+      <c r="E176" t="s">
+        <v>799</v>
+      </c>
+      <c r="F176" t="s">
+        <v>798</v>
+      </c>
       <c r="G176" t="s">
-        <v>241</v>
+        <v>122</v>
       </c>
       <c r="H176" t="s">
         <v>10</v>
@@ -8434,7 +8806,7 @@
         <v>44377</v>
       </c>
       <c r="B177" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C177" t="s">
         <v>231</v>
@@ -8442,8 +8814,14 @@
       <c r="D177" t="s">
         <v>36</v>
       </c>
+      <c r="E177" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1016</v>
+      </c>
       <c r="G177" t="s">
-        <v>241</v>
+        <v>1018</v>
       </c>
       <c r="H177" t="s">
         <v>10</v>
@@ -8457,16 +8835,22 @@
         <v>44377</v>
       </c>
       <c r="B178" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="C178" t="s">
         <v>232</v>
       </c>
       <c r="D178" t="s">
-        <v>345</v>
+        <v>36</v>
+      </c>
+      <c r="E178" t="s">
+        <v>674</v>
+      </c>
+      <c r="F178" t="s">
+        <v>801</v>
       </c>
       <c r="G178" t="s">
-        <v>308</v>
+        <v>1021</v>
       </c>
       <c r="H178" t="s">
         <v>10</v>
@@ -8480,16 +8864,22 @@
         <v>44377</v>
       </c>
       <c r="B179" t="s">
-        <v>233</v>
+        <v>58</v>
       </c>
       <c r="C179" t="s">
         <v>233</v>
       </c>
       <c r="D179" t="s">
-        <v>345</v>
+        <v>36</v>
+      </c>
+      <c r="E179" t="s">
+        <v>674</v>
+      </c>
+      <c r="F179" t="s">
+        <v>801</v>
       </c>
       <c r="G179" t="s">
-        <v>308</v>
+        <v>1021</v>
       </c>
       <c r="H179" t="s">
         <v>10</v>
@@ -8503,16 +8893,22 @@
         <v>44377</v>
       </c>
       <c r="B180" t="s">
-        <v>234</v>
+        <v>58</v>
       </c>
       <c r="C180" t="s">
         <v>234</v>
       </c>
       <c r="D180" t="s">
-        <v>345</v>
+        <v>36</v>
+      </c>
+      <c r="E180" t="s">
+        <v>674</v>
+      </c>
+      <c r="F180" t="s">
+        <v>801</v>
       </c>
       <c r="G180" t="s">
-        <v>308</v>
+        <v>1021</v>
       </c>
       <c r="H180" t="s">
         <v>10</v>
@@ -8534,6 +8930,12 @@
       <c r="D181" t="s">
         <v>236</v>
       </c>
+      <c r="E181" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F181" t="s">
+        <v>1030</v>
+      </c>
       <c r="G181" t="s">
         <v>365</v>
       </c>
@@ -8684,6 +9086,12 @@
       <c r="D187" t="s">
         <v>36</v>
       </c>
+      <c r="E187" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1020</v>
+      </c>
       <c r="G187" t="s">
         <v>242</v>
       </c>
@@ -8708,10 +9116,10 @@
         <v>36</v>
       </c>
       <c r="E188" t="s">
+        <v>812</v>
+      </c>
+      <c r="F188" t="s">
         <v>813</v>
-      </c>
-      <c r="F188" t="s">
-        <v>814</v>
       </c>
       <c r="G188" t="s">
         <v>87</v>
@@ -8765,6 +9173,12 @@
       <c r="D190" t="s">
         <v>36</v>
       </c>
+      <c r="E190" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1030</v>
+      </c>
       <c r="G190" t="s">
         <v>365</v>
       </c>
@@ -8788,6 +9202,12 @@
       <c r="D191" t="s">
         <v>36</v>
       </c>
+      <c r="E191" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1030</v>
+      </c>
       <c r="G191" t="s">
         <v>365</v>
       </c>
@@ -8803,7 +9223,7 @@
         <v>44378</v>
       </c>
       <c r="B192" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C192" t="s">
         <v>255</v>
@@ -8811,8 +9231,14 @@
       <c r="D192" t="s">
         <v>36</v>
       </c>
+      <c r="E192" t="s">
+        <v>674</v>
+      </c>
+      <c r="F192" t="s">
+        <v>801</v>
+      </c>
       <c r="G192" t="s">
-        <v>241</v>
+        <v>1021</v>
       </c>
       <c r="H192" t="s">
         <v>10</v>
@@ -8826,7 +9252,7 @@
         <v>44378</v>
       </c>
       <c r="B193" t="s">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="C193" t="s">
         <v>256</v>
@@ -8834,8 +9260,14 @@
       <c r="D193" t="s">
         <v>36</v>
       </c>
+      <c r="E193" t="s">
+        <v>674</v>
+      </c>
+      <c r="F193" t="s">
+        <v>675</v>
+      </c>
       <c r="G193" t="s">
-        <v>241</v>
+        <v>668</v>
       </c>
       <c r="H193" t="s">
         <v>10</v>
@@ -8849,7 +9281,7 @@
         <v>44378</v>
       </c>
       <c r="B194" t="s">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="C194" t="s">
         <v>257</v>
@@ -8857,8 +9289,14 @@
       <c r="D194" t="s">
         <v>36</v>
       </c>
+      <c r="E194" t="s">
+        <v>812</v>
+      </c>
+      <c r="F194" t="s">
+        <v>813</v>
+      </c>
       <c r="G194" t="s">
-        <v>241</v>
+        <v>87</v>
       </c>
       <c r="H194" t="s">
         <v>10</v>
@@ -8872,7 +9310,7 @@
         <v>44378</v>
       </c>
       <c r="B195" t="s">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="C195" t="s">
         <v>258</v>
@@ -8880,8 +9318,14 @@
       <c r="D195" t="s">
         <v>36</v>
       </c>
+      <c r="E195" t="s">
+        <v>812</v>
+      </c>
+      <c r="F195" t="s">
+        <v>813</v>
+      </c>
       <c r="G195" t="s">
-        <v>241</v>
+        <v>87</v>
       </c>
       <c r="H195" t="s">
         <v>10</v>
@@ -8895,7 +9339,7 @@
         <v>44378</v>
       </c>
       <c r="B196" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="C196" t="s">
         <v>259</v>
@@ -8903,8 +9347,14 @@
       <c r="D196" t="s">
         <v>36</v>
       </c>
+      <c r="E196" t="s">
+        <v>812</v>
+      </c>
+      <c r="F196" t="s">
+        <v>813</v>
+      </c>
       <c r="G196" t="s">
-        <v>241</v>
+        <v>87</v>
       </c>
       <c r="H196" t="s">
         <v>10</v>
@@ -8918,7 +9368,7 @@
         <v>44378</v>
       </c>
       <c r="B197" t="s">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="C197" t="s">
         <v>260</v>
@@ -8926,8 +9376,14 @@
       <c r="D197" t="s">
         <v>36</v>
       </c>
+      <c r="E197" t="s">
+        <v>812</v>
+      </c>
+      <c r="F197" t="s">
+        <v>813</v>
+      </c>
       <c r="G197" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="H197" t="s">
         <v>10</v>
@@ -8941,7 +9397,7 @@
         <v>44378</v>
       </c>
       <c r="B198" t="s">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="C198" t="s">
         <v>261</v>
@@ -8949,8 +9405,14 @@
       <c r="D198" t="s">
         <v>36</v>
       </c>
+      <c r="E198" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1022</v>
+      </c>
       <c r="G198" t="s">
-        <v>241</v>
+        <v>1022</v>
       </c>
       <c r="H198" t="s">
         <v>10</v>
@@ -8964,7 +9426,7 @@
         <v>44378</v>
       </c>
       <c r="B199" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="C199" t="s">
         <v>262</v>
@@ -8972,8 +9434,14 @@
       <c r="D199" t="s">
         <v>36</v>
       </c>
+      <c r="E199" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F199" t="s">
+        <v>1024</v>
+      </c>
       <c r="G199" t="s">
-        <v>241</v>
+        <v>1024</v>
       </c>
       <c r="H199" t="s">
         <v>10</v>
@@ -8987,16 +9455,22 @@
         <v>44378</v>
       </c>
       <c r="B200" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="C200" t="s">
         <v>263</v>
       </c>
       <c r="D200" t="s">
-        <v>346</v>
+        <v>36</v>
+      </c>
+      <c r="E200" t="s">
+        <v>800</v>
+      </c>
+      <c r="F200" t="s">
+        <v>103</v>
       </c>
       <c r="G200" t="s">
-        <v>244</v>
+        <v>1027</v>
       </c>
       <c r="H200" t="s">
         <v>10</v>
@@ -9010,16 +9484,22 @@
         <v>44378</v>
       </c>
       <c r="B201" t="s">
-        <v>264</v>
+        <v>185</v>
       </c>
       <c r="C201" t="s">
         <v>264</v>
       </c>
       <c r="D201" t="s">
-        <v>345</v>
+        <v>36</v>
+      </c>
+      <c r="E201" t="s">
+        <v>800</v>
+      </c>
+      <c r="F201" t="s">
+        <v>103</v>
       </c>
       <c r="G201" t="s">
-        <v>308</v>
+        <v>1027</v>
       </c>
       <c r="H201" t="s">
         <v>10</v>
@@ -9033,16 +9513,22 @@
         <v>44378</v>
       </c>
       <c r="B202" t="s">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="C202" t="s">
         <v>265</v>
       </c>
       <c r="D202" t="s">
-        <v>345</v>
+        <v>36</v>
+      </c>
+      <c r="E202" t="s">
+        <v>800</v>
+      </c>
+      <c r="F202" t="s">
+        <v>103</v>
       </c>
       <c r="G202" t="s">
-        <v>308</v>
+        <v>1027</v>
       </c>
       <c r="H202" t="s">
         <v>10</v>
@@ -9064,6 +9550,12 @@
       <c r="D203" t="s">
         <v>36</v>
       </c>
+      <c r="E203" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F203" t="s">
+        <v>1020</v>
+      </c>
       <c r="G203" t="s">
         <v>242</v>
       </c>
@@ -9079,16 +9571,22 @@
         <v>44378</v>
       </c>
       <c r="B204" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="C204" t="s">
         <v>267</v>
       </c>
       <c r="D204" t="s">
-        <v>346</v>
+        <v>36</v>
+      </c>
+      <c r="E204" t="s">
+        <v>800</v>
+      </c>
+      <c r="F204" t="s">
+        <v>103</v>
       </c>
       <c r="G204" t="s">
-        <v>243</v>
+        <v>1027</v>
       </c>
       <c r="H204" t="s">
         <v>10</v>
@@ -9102,16 +9600,22 @@
         <v>44378</v>
       </c>
       <c r="B205" t="s">
-        <v>268</v>
+        <v>186</v>
       </c>
       <c r="C205" t="s">
         <v>268</v>
       </c>
       <c r="D205" t="s">
-        <v>346</v>
+        <v>36</v>
+      </c>
+      <c r="E205" t="s">
+        <v>800</v>
+      </c>
+      <c r="F205" t="s">
+        <v>103</v>
       </c>
       <c r="G205" t="s">
-        <v>243</v>
+        <v>1027</v>
       </c>
       <c r="H205" t="s">
         <v>10</v>
@@ -9133,6 +9637,12 @@
       <c r="D206" t="s">
         <v>36</v>
       </c>
+      <c r="E206" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1020</v>
+      </c>
       <c r="G206" t="s">
         <v>242</v>
       </c>
@@ -9318,10 +9828,10 @@
         <v>346</v>
       </c>
       <c r="E214" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F214" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G214" t="s">
         <v>309</v>
@@ -9347,10 +9857,10 @@
         <v>346</v>
       </c>
       <c r="E215" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F215" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G215" t="s">
         <v>309</v>
@@ -9492,10 +10002,10 @@
         <v>36</v>
       </c>
       <c r="E220" t="s">
+        <v>812</v>
+      </c>
+      <c r="F220" t="s">
         <v>813</v>
-      </c>
-      <c r="F220" t="s">
-        <v>814</v>
       </c>
       <c r="G220" t="s">
         <v>225</v>
@@ -9520,6 +10030,12 @@
       <c r="D221" t="s">
         <v>36</v>
       </c>
+      <c r="E221" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F221" t="s">
+        <v>1020</v>
+      </c>
       <c r="G221" t="s">
         <v>210</v>
       </c>
@@ -9543,6 +10059,12 @@
       <c r="D222" t="s">
         <v>36</v>
       </c>
+      <c r="E222" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F222" t="s">
+        <v>1020</v>
+      </c>
       <c r="G222" t="s">
         <v>210</v>
       </c>
@@ -9558,7 +10080,7 @@
         <v>44379</v>
       </c>
       <c r="B223" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="C223" t="s">
         <v>280</v>
@@ -9566,8 +10088,14 @@
       <c r="D223" t="s">
         <v>36</v>
       </c>
+      <c r="E223" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F223" t="s">
+        <v>1020</v>
+      </c>
       <c r="G223" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="H223" t="s">
         <v>10</v>
@@ -9581,7 +10109,7 @@
         <v>44379</v>
       </c>
       <c r="B224" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="C224" t="s">
         <v>281</v>
@@ -9589,8 +10117,14 @@
       <c r="D224" t="s">
         <v>36</v>
       </c>
+      <c r="E224" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F224" t="s">
+        <v>1020</v>
+      </c>
       <c r="G224" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H224" t="s">
         <v>10</v>
@@ -9604,7 +10138,7 @@
         <v>44379</v>
       </c>
       <c r="B225" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C225" t="s">
         <v>282</v>
@@ -9612,8 +10146,14 @@
       <c r="D225" t="s">
         <v>36</v>
       </c>
+      <c r="E225" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F225" t="s">
+        <v>1024</v>
+      </c>
       <c r="G225" t="s">
-        <v>241</v>
+        <v>1026</v>
       </c>
       <c r="H225" t="s">
         <v>10</v>
@@ -9627,16 +10167,22 @@
         <v>44379</v>
       </c>
       <c r="B226" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C226" t="s">
         <v>283</v>
       </c>
       <c r="D226" t="s">
-        <v>346</v>
+        <v>36</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F226" t="s">
+        <v>1024</v>
       </c>
       <c r="G226" t="s">
-        <v>244</v>
+        <v>1026</v>
       </c>
       <c r="H226" t="s">
         <v>10</v>
@@ -9650,16 +10196,22 @@
         <v>44379</v>
       </c>
       <c r="B227" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C227" t="s">
         <v>286</v>
       </c>
       <c r="D227" t="s">
-        <v>346</v>
+        <v>36</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F227" t="s">
+        <v>1024</v>
       </c>
       <c r="G227" t="s">
-        <v>244</v>
+        <v>1026</v>
       </c>
       <c r="H227" t="s">
         <v>10</v>
@@ -9673,16 +10225,22 @@
         <v>44379</v>
       </c>
       <c r="B228" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C228" t="s">
         <v>287</v>
       </c>
       <c r="D228" t="s">
-        <v>346</v>
+        <v>36</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F228" t="s">
+        <v>1024</v>
       </c>
       <c r="G228" t="s">
-        <v>244</v>
+        <v>1026</v>
       </c>
       <c r="H228" t="s">
         <v>10</v>
@@ -9696,16 +10254,22 @@
         <v>44379</v>
       </c>
       <c r="B229" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C229" t="s">
         <v>288</v>
       </c>
       <c r="D229" t="s">
-        <v>346</v>
+        <v>36</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F229" t="s">
+        <v>1024</v>
       </c>
       <c r="G229" t="s">
-        <v>244</v>
+        <v>1026</v>
       </c>
       <c r="H229" t="s">
         <v>10</v>
@@ -9719,16 +10283,22 @@
         <v>44379</v>
       </c>
       <c r="B230" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C230" t="s">
         <v>289</v>
       </c>
       <c r="D230" t="s">
-        <v>346</v>
+        <v>36</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F230" t="s">
+        <v>1024</v>
       </c>
       <c r="G230" t="s">
-        <v>244</v>
+        <v>1026</v>
       </c>
       <c r="H230" t="s">
         <v>10</v>
@@ -9742,16 +10312,22 @@
         <v>44379</v>
       </c>
       <c r="B231" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C231" t="s">
         <v>290</v>
       </c>
       <c r="D231" t="s">
-        <v>346</v>
+        <v>36</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F231" t="s">
+        <v>1024</v>
       </c>
       <c r="G231" t="s">
-        <v>244</v>
+        <v>1026</v>
       </c>
       <c r="H231" t="s">
         <v>10</v>
@@ -9765,16 +10341,22 @@
         <v>44379</v>
       </c>
       <c r="B232" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C232" t="s">
         <v>291</v>
       </c>
       <c r="D232" t="s">
-        <v>346</v>
+        <v>36</v>
+      </c>
+      <c r="E232" t="s">
+        <v>800</v>
+      </c>
+      <c r="F232" t="s">
+        <v>103</v>
       </c>
       <c r="G232" t="s">
-        <v>244</v>
+        <v>1027</v>
       </c>
       <c r="H232" t="s">
         <v>10</v>
@@ -9788,16 +10370,22 @@
         <v>44379</v>
       </c>
       <c r="B233" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C233" t="s">
         <v>292</v>
       </c>
       <c r="D233" t="s">
-        <v>346</v>
+        <v>36</v>
+      </c>
+      <c r="E233" t="s">
+        <v>800</v>
+      </c>
+      <c r="F233" t="s">
+        <v>103</v>
       </c>
       <c r="G233" t="s">
-        <v>244</v>
+        <v>1027</v>
       </c>
       <c r="H233" t="s">
         <v>10</v>
@@ -9811,16 +10399,22 @@
         <v>44379</v>
       </c>
       <c r="B234" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C234" t="s">
         <v>293</v>
       </c>
       <c r="D234" t="s">
-        <v>346</v>
+        <v>36</v>
+      </c>
+      <c r="E234" t="s">
+        <v>800</v>
+      </c>
+      <c r="F234" t="s">
+        <v>103</v>
       </c>
       <c r="G234" t="s">
-        <v>244</v>
+        <v>1027</v>
       </c>
       <c r="H234" t="s">
         <v>10</v>
@@ -9888,6 +10482,12 @@
       <c r="D237" t="s">
         <v>36</v>
       </c>
+      <c r="E237" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F237" t="s">
+        <v>1030</v>
+      </c>
       <c r="G237" t="s">
         <v>365</v>
       </c>
@@ -9926,7 +10526,7 @@
         <v>44380</v>
       </c>
       <c r="B239" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C239" t="s">
         <v>310</v>
@@ -9934,8 +10534,14 @@
       <c r="D239" t="s">
         <v>36</v>
       </c>
+      <c r="E239" t="s">
+        <v>796</v>
+      </c>
+      <c r="F239" t="s">
+        <v>672</v>
+      </c>
       <c r="G239" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H239" t="s">
         <v>10</v>
@@ -9949,7 +10555,7 @@
         <v>44380</v>
       </c>
       <c r="B240" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C240" t="s">
         <v>311</v>
@@ -9957,8 +10563,14 @@
       <c r="D240" t="s">
         <v>36</v>
       </c>
+      <c r="E240" t="s">
+        <v>796</v>
+      </c>
+      <c r="F240" t="s">
+        <v>672</v>
+      </c>
       <c r="G240" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H240" t="s">
         <v>10</v>
@@ -9972,7 +10584,7 @@
         <v>44380</v>
       </c>
       <c r="B241" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C241" t="s">
         <v>312</v>
@@ -9980,8 +10592,14 @@
       <c r="D241" t="s">
         <v>36</v>
       </c>
+      <c r="E241" t="s">
+        <v>796</v>
+      </c>
+      <c r="F241" t="s">
+        <v>672</v>
+      </c>
       <c r="G241" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H241" t="s">
         <v>10</v>
@@ -9995,7 +10613,7 @@
         <v>44380</v>
       </c>
       <c r="B242" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C242" t="s">
         <v>313</v>
@@ -10003,8 +10621,14 @@
       <c r="D242" t="s">
         <v>36</v>
       </c>
+      <c r="E242" t="s">
+        <v>796</v>
+      </c>
+      <c r="F242" t="s">
+        <v>672</v>
+      </c>
       <c r="G242" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H242" t="s">
         <v>10</v>
@@ -10018,7 +10642,7 @@
         <v>44380</v>
       </c>
       <c r="B243" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C243" t="s">
         <v>314</v>
@@ -10026,8 +10650,14 @@
       <c r="D243" t="s">
         <v>36</v>
       </c>
+      <c r="E243" t="s">
+        <v>796</v>
+      </c>
+      <c r="F243" t="s">
+        <v>672</v>
+      </c>
       <c r="G243" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H243" t="s">
         <v>10</v>
@@ -10041,7 +10671,7 @@
         <v>44380</v>
       </c>
       <c r="B244" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C244" t="s">
         <v>315</v>
@@ -10049,8 +10679,14 @@
       <c r="D244" t="s">
         <v>36</v>
       </c>
+      <c r="E244" t="s">
+        <v>796</v>
+      </c>
+      <c r="F244" t="s">
+        <v>672</v>
+      </c>
       <c r="G244" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H244" t="s">
         <v>10</v>
@@ -10064,7 +10700,7 @@
         <v>44380</v>
       </c>
       <c r="B245" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C245" t="s">
         <v>316</v>
@@ -10072,8 +10708,14 @@
       <c r="D245" t="s">
         <v>36</v>
       </c>
+      <c r="E245" t="s">
+        <v>796</v>
+      </c>
+      <c r="F245" t="s">
+        <v>672</v>
+      </c>
       <c r="G245" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H245" t="s">
         <v>10</v>
@@ -10087,7 +10729,7 @@
         <v>44380</v>
       </c>
       <c r="B246" t="s">
-        <v>281</v>
+        <v>59</v>
       </c>
       <c r="C246" t="s">
         <v>317</v>
@@ -10095,8 +10737,14 @@
       <c r="D246" t="s">
         <v>36</v>
       </c>
+      <c r="E246" t="s">
+        <v>678</v>
+      </c>
+      <c r="F246" t="s">
+        <v>677</v>
+      </c>
       <c r="G246" t="s">
-        <v>241</v>
+        <v>66</v>
       </c>
       <c r="H246" t="s">
         <v>10</v>
@@ -10110,7 +10758,7 @@
         <v>44380</v>
       </c>
       <c r="B247" t="s">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="C247" t="s">
         <v>318</v>
@@ -10133,7 +10781,7 @@
         <v>44380</v>
       </c>
       <c r="B248" t="s">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="C248" t="s">
         <v>319</v>
@@ -10156,7 +10804,7 @@
         <v>44380</v>
       </c>
       <c r="B249" t="s">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="C249" t="s">
         <v>320</v>
@@ -10179,7 +10827,7 @@
         <v>44380</v>
       </c>
       <c r="B250" t="s">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="C250" t="s">
         <v>321</v>
@@ -10202,7 +10850,7 @@
         <v>44380</v>
       </c>
       <c r="B251" t="s">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="C251" t="s">
         <v>322</v>
@@ -10225,7 +10873,7 @@
         <v>44380</v>
       </c>
       <c r="B252" t="s">
-        <v>282</v>
+        <v>134</v>
       </c>
       <c r="C252" t="s">
         <v>323</v>
@@ -10248,7 +10896,7 @@
         <v>44380</v>
       </c>
       <c r="B253" t="s">
-        <v>282</v>
+        <v>134</v>
       </c>
       <c r="C253" t="s">
         <v>324</v>
@@ -10271,7 +10919,7 @@
         <v>44380</v>
       </c>
       <c r="B254" t="s">
-        <v>282</v>
+        <v>134</v>
       </c>
       <c r="C254" t="s">
         <v>325</v>
@@ -10294,7 +10942,7 @@
         <v>44380</v>
       </c>
       <c r="B255" t="s">
-        <v>282</v>
+        <v>134</v>
       </c>
       <c r="C255" t="s">
         <v>326</v>
@@ -10317,7 +10965,7 @@
         <v>44380</v>
       </c>
       <c r="B256" t="s">
-        <v>282</v>
+        <v>134</v>
       </c>
       <c r="C256" t="s">
         <v>327</v>
@@ -10340,7 +10988,7 @@
         <v>44380</v>
       </c>
       <c r="B257" t="s">
-        <v>282</v>
+        <v>134</v>
       </c>
       <c r="C257" t="s">
         <v>328</v>
@@ -10386,16 +11034,16 @@
         <v>44380</v>
       </c>
       <c r="B259" t="s">
-        <v>283</v>
+        <v>134</v>
       </c>
       <c r="C259" t="s">
         <v>330</v>
       </c>
       <c r="D259" t="s">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="G259" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H259" t="s">
         <v>10</v>
@@ -10409,7 +11057,7 @@
         <v>44380</v>
       </c>
       <c r="B260" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C260" t="s">
         <v>331</v>
@@ -10432,7 +11080,7 @@
         <v>44380</v>
       </c>
       <c r="B261" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C261" t="s">
         <v>332</v>
@@ -10455,7 +11103,7 @@
         <v>44380</v>
       </c>
       <c r="B262" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C262" t="s">
         <v>333</v>
@@ -10478,7 +11126,7 @@
         <v>44380</v>
       </c>
       <c r="B263" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C263" t="s">
         <v>334</v>
@@ -10501,7 +11149,7 @@
         <v>44380</v>
       </c>
       <c r="B264" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C264" t="s">
         <v>335</v>
@@ -10524,7 +11172,7 @@
         <v>44380</v>
       </c>
       <c r="B265" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C265" t="s">
         <v>336</v>
@@ -10547,7 +11195,7 @@
         <v>44380</v>
       </c>
       <c r="B266" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C266" t="s">
         <v>337</v>
@@ -10570,7 +11218,7 @@
         <v>44380</v>
       </c>
       <c r="B267" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C267" t="s">
         <v>338</v>
@@ -10593,7 +11241,7 @@
         <v>44380</v>
       </c>
       <c r="B268" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C268" t="s">
         <v>339</v>
@@ -10616,7 +11264,7 @@
         <v>44380</v>
       </c>
       <c r="B269" t="s">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="C269" t="s">
         <v>340</v>
@@ -10645,7 +11293,7 @@
         <v>44380</v>
       </c>
       <c r="B270" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="C270" t="s">
         <v>341</v>
@@ -10674,7 +11322,7 @@
         <v>44380</v>
       </c>
       <c r="B271" t="s">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="C271" t="s">
         <v>342</v>
@@ -10703,7 +11351,7 @@
         <v>44380</v>
       </c>
       <c r="B272" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="C272" t="s">
         <v>343</v>
@@ -10732,7 +11380,7 @@
         <v>44380</v>
       </c>
       <c r="B273" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="C273" t="s">
         <v>344</v>
@@ -10793,10 +11441,10 @@
         <v>346</v>
       </c>
       <c r="E275" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F275" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G275" t="s">
         <v>349</v>
@@ -10822,10 +11470,10 @@
         <v>346</v>
       </c>
       <c r="E276" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F276" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G276" t="s">
         <v>349</v>
@@ -10851,10 +11499,10 @@
         <v>346</v>
       </c>
       <c r="E277" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F277" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G277" t="s">
         <v>349</v>
@@ -10987,7 +11635,7 @@
         <v>44381</v>
       </c>
       <c r="B282" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="C282" t="s">
         <v>356</v>
@@ -11010,7 +11658,7 @@
         <v>44381</v>
       </c>
       <c r="B283" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="C283" t="s">
         <v>357</v>
@@ -11033,7 +11681,7 @@
         <v>44381</v>
       </c>
       <c r="B284" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="C284" t="s">
         <v>358</v>
@@ -11056,7 +11704,7 @@
         <v>44381</v>
       </c>
       <c r="B285" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="C285" t="s">
         <v>359</v>
@@ -11079,7 +11727,7 @@
         <v>44381</v>
       </c>
       <c r="B286" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="C286" t="s">
         <v>360</v>
@@ -11102,7 +11750,7 @@
         <v>44381</v>
       </c>
       <c r="B287" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="C287" t="s">
         <v>361</v>
@@ -11110,8 +11758,14 @@
       <c r="D287" t="s">
         <v>36</v>
       </c>
+      <c r="E287" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F287" t="s">
+        <v>1030</v>
+      </c>
       <c r="G287" t="s">
-        <v>241</v>
+        <v>1028</v>
       </c>
       <c r="H287" t="s">
         <v>10</v>
@@ -11125,13 +11779,19 @@
         <v>44381</v>
       </c>
       <c r="B288" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="C288" t="s">
         <v>362</v>
       </c>
       <c r="D288" t="s">
         <v>36</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1030</v>
       </c>
       <c r="G288" t="s">
         <v>365</v>
@@ -11203,10 +11863,10 @@
         <v>346</v>
       </c>
       <c r="E291" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F291" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G291" t="s">
         <v>349</v>
@@ -11232,10 +11892,10 @@
         <v>346</v>
       </c>
       <c r="E292" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F292" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G292" t="s">
         <v>349</v>
@@ -11260,6 +11920,12 @@
       <c r="D293" t="s">
         <v>36</v>
       </c>
+      <c r="E293" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1030</v>
+      </c>
       <c r="G293" t="s">
         <v>365</v>
       </c>
@@ -11283,6 +11949,12 @@
       <c r="D294" t="s">
         <v>36</v>
       </c>
+      <c r="E294" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1030</v>
+      </c>
       <c r="G294" t="s">
         <v>365</v>
       </c>
@@ -11306,6 +11978,12 @@
       <c r="D295" t="s">
         <v>36</v>
       </c>
+      <c r="E295" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F295" t="s">
+        <v>1030</v>
+      </c>
       <c r="G295" t="s">
         <v>365</v>
       </c>
@@ -11329,6 +12007,12 @@
       <c r="D296" t="s">
         <v>36</v>
       </c>
+      <c r="E296" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F296" t="s">
+        <v>1030</v>
+      </c>
       <c r="G296" t="s">
         <v>365</v>
       </c>
@@ -11434,10 +12118,10 @@
         <v>36</v>
       </c>
       <c r="E300" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F300" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G300" t="s">
         <v>401</v>
@@ -11569,7 +12253,7 @@
         <v>44382</v>
       </c>
       <c r="B306" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C306" t="s">
         <v>378</v>
@@ -12172,10 +12856,10 @@
         <v>346</v>
       </c>
       <c r="E330" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F330" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G330" t="s">
         <v>309</v>
@@ -12530,10 +13214,10 @@
         <v>346</v>
       </c>
       <c r="E344" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F344" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G344" t="s">
         <v>349</v>
@@ -12559,10 +13243,10 @@
         <v>346</v>
       </c>
       <c r="E345" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F345" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G345" t="s">
         <v>309</v>
@@ -12675,10 +13359,10 @@
         <v>345</v>
       </c>
       <c r="E349" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F349" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G349" t="s">
         <v>455</v>
@@ -12704,10 +13388,10 @@
         <v>345</v>
       </c>
       <c r="E350" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F350" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G350" t="s">
         <v>455</v>
@@ -13193,10 +13877,10 @@
         <v>346</v>
       </c>
       <c r="E371" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F371" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G371" t="s">
         <v>309</v>
@@ -14219,10 +14903,10 @@
         <v>345</v>
       </c>
       <c r="E413" t="s">
+        <v>910</v>
+      </c>
+      <c r="F413" t="s">
         <v>912</v>
-      </c>
-      <c r="F413" t="s">
-        <v>914</v>
       </c>
       <c r="G413" t="s">
         <v>538</v>
@@ -14248,10 +14932,10 @@
         <v>345</v>
       </c>
       <c r="E414" t="s">
+        <v>911</v>
+      </c>
+      <c r="F414" t="s">
         <v>913</v>
-      </c>
-      <c r="F414" t="s">
-        <v>915</v>
       </c>
       <c r="G414" t="s">
         <v>539</v>
@@ -20864,7 +21548,7 @@
         <v>666</v>
       </c>
       <c r="C692" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D692" t="s">
         <v>36</v>
@@ -20893,7 +21577,7 @@
         <v>695</v>
       </c>
       <c r="C693" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D693" t="s">
         <v>36</v>
@@ -20916,7 +21600,7 @@
         <v>696</v>
       </c>
       <c r="C694" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D694" t="s">
         <v>36</v>
@@ -20939,7 +21623,7 @@
         <v>697</v>
       </c>
       <c r="C695" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D695" t="s">
         <v>36</v>
@@ -20962,7 +21646,7 @@
         <v>698</v>
       </c>
       <c r="C696" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D696" t="s">
         <v>36</v>
@@ -20985,7 +21669,7 @@
         <v>699</v>
       </c>
       <c r="C697" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D697" t="s">
         <v>36</v>
@@ -21008,7 +21692,7 @@
         <v>700</v>
       </c>
       <c r="C698" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D698" t="s">
         <v>36</v>
@@ -21031,7 +21715,7 @@
         <v>701</v>
       </c>
       <c r="C699" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D699" t="s">
         <v>36</v>
@@ -21054,7 +21738,7 @@
         <v>702</v>
       </c>
       <c r="C700" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D700" t="s">
         <v>36</v>
@@ -21077,7 +21761,7 @@
         <v>703</v>
       </c>
       <c r="C701" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D701" t="s">
         <v>36</v>
@@ -21100,7 +21784,7 @@
         <v>704</v>
       </c>
       <c r="C702" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D702" t="s">
         <v>36</v>
@@ -21123,7 +21807,7 @@
         <v>705</v>
       </c>
       <c r="C703" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D703" t="s">
         <v>36</v>
@@ -21146,7 +21830,7 @@
         <v>706</v>
       </c>
       <c r="C704" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D704" t="s">
         <v>36</v>
@@ -21169,7 +21853,7 @@
         <v>707</v>
       </c>
       <c r="C705" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D705" t="s">
         <v>36</v>
@@ -21192,7 +21876,7 @@
         <v>708</v>
       </c>
       <c r="C706" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D706" t="s">
         <v>36</v>
@@ -21215,7 +21899,7 @@
         <v>709</v>
       </c>
       <c r="C707" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D707" t="s">
         <v>36</v>
@@ -21238,7 +21922,7 @@
         <v>710</v>
       </c>
       <c r="C708" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D708" t="s">
         <v>36</v>
@@ -21261,7 +21945,7 @@
         <v>711</v>
       </c>
       <c r="C709" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D709" t="s">
         <v>36</v>
@@ -21284,7 +21968,7 @@
         <v>712</v>
       </c>
       <c r="C710" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D710" t="s">
         <v>36</v>
@@ -21307,7 +21991,7 @@
         <v>713</v>
       </c>
       <c r="C711" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D711" t="s">
         <v>36</v>
@@ -21330,7 +22014,7 @@
         <v>714</v>
       </c>
       <c r="C712" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D712" t="s">
         <v>36</v>
@@ -21353,7 +22037,7 @@
         <v>715</v>
       </c>
       <c r="C713" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D713" t="s">
         <v>36</v>
@@ -21376,7 +22060,7 @@
         <v>716</v>
       </c>
       <c r="C714" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D714" t="s">
         <v>36</v>
@@ -21399,7 +22083,7 @@
         <v>717</v>
       </c>
       <c r="C715" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D715" t="s">
         <v>36</v>
@@ -21422,7 +22106,7 @@
         <v>718</v>
       </c>
       <c r="C716" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D716" t="s">
         <v>36</v>
@@ -21445,7 +22129,7 @@
         <v>719</v>
       </c>
       <c r="C717" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D717" t="s">
         <v>36</v>
@@ -21468,7 +22152,7 @@
         <v>719</v>
       </c>
       <c r="C718" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D718" t="s">
         <v>36</v>
@@ -21491,7 +22175,7 @@
         <v>720</v>
       </c>
       <c r="C719" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D719" t="s">
         <v>36</v>
@@ -21514,7 +22198,7 @@
         <v>720</v>
       </c>
       <c r="C720" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D720" t="s">
         <v>36</v>
@@ -21537,7 +22221,7 @@
         <v>721</v>
       </c>
       <c r="C721" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D721" t="s">
         <v>36</v>
@@ -21560,7 +22244,7 @@
         <v>721</v>
       </c>
       <c r="C722" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D722" t="s">
         <v>36</v>
@@ -21583,7 +22267,7 @@
         <v>722</v>
       </c>
       <c r="C723" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D723" t="s">
         <v>36</v>
@@ -21606,7 +22290,7 @@
         <v>722</v>
       </c>
       <c r="C724" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D724" t="s">
         <v>36</v>
@@ -21629,7 +22313,7 @@
         <v>723</v>
       </c>
       <c r="C725" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D725" t="s">
         <v>36</v>
@@ -21652,7 +22336,7 @@
         <v>723</v>
       </c>
       <c r="C726" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D726" t="s">
         <v>36</v>
@@ -21675,7 +22359,7 @@
         <v>724</v>
       </c>
       <c r="C727" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D727" t="s">
         <v>36</v>
@@ -21698,7 +22382,7 @@
         <v>724</v>
       </c>
       <c r="C728" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D728" t="s">
         <v>36</v>
@@ -21721,7 +22405,7 @@
         <v>725</v>
       </c>
       <c r="C729" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D729" t="s">
         <v>36</v>
@@ -21744,7 +22428,7 @@
         <v>725</v>
       </c>
       <c r="C730" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D730" t="s">
         <v>36</v>
@@ -21767,7 +22451,7 @@
         <v>726</v>
       </c>
       <c r="C731" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D731" t="s">
         <v>36</v>
@@ -21790,7 +22474,7 @@
         <v>726</v>
       </c>
       <c r="C732" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D732" t="s">
         <v>36</v>
@@ -21813,7 +22497,7 @@
         <v>727</v>
       </c>
       <c r="C733" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D733" t="s">
         <v>36</v>
@@ -21836,7 +22520,7 @@
         <v>727</v>
       </c>
       <c r="C734" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D734" t="s">
         <v>36</v>
@@ -21859,7 +22543,7 @@
         <v>728</v>
       </c>
       <c r="C735" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D735" t="s">
         <v>36</v>
@@ -21882,7 +22566,7 @@
         <v>728</v>
       </c>
       <c r="C736" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D736" t="s">
         <v>36</v>
@@ -21905,7 +22589,7 @@
         <v>729</v>
       </c>
       <c r="C737" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D737" t="s">
         <v>36</v>
@@ -21928,7 +22612,7 @@
         <v>729</v>
       </c>
       <c r="C738" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D738" t="s">
         <v>36</v>
@@ -21951,7 +22635,7 @@
         <v>730</v>
       </c>
       <c r="C739" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D739" t="s">
         <v>36</v>
@@ -21974,7 +22658,7 @@
         <v>730</v>
       </c>
       <c r="C740" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D740" t="s">
         <v>36</v>
@@ -21997,7 +22681,7 @@
         <v>731</v>
       </c>
       <c r="C741" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D741" t="s">
         <v>36</v>
@@ -22020,7 +22704,7 @@
         <v>731</v>
       </c>
       <c r="C742" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D742" t="s">
         <v>36</v>
@@ -22043,7 +22727,7 @@
         <v>732</v>
       </c>
       <c r="C743" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D743" t="s">
         <v>36</v>
@@ -22066,7 +22750,7 @@
         <v>732</v>
       </c>
       <c r="C744" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D744" t="s">
         <v>36</v>
@@ -22089,7 +22773,7 @@
         <v>733</v>
       </c>
       <c r="C745" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D745" t="s">
         <v>36</v>
@@ -22112,7 +22796,7 @@
         <v>733</v>
       </c>
       <c r="C746" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D746" t="s">
         <v>36</v>
@@ -22135,7 +22819,7 @@
         <v>734</v>
       </c>
       <c r="C747" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D747" t="s">
         <v>36</v>
@@ -22158,7 +22842,7 @@
         <v>734</v>
       </c>
       <c r="C748" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D748" t="s">
         <v>36</v>
@@ -22181,7 +22865,7 @@
         <v>735</v>
       </c>
       <c r="C749" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D749" t="s">
         <v>36</v>
@@ -22204,7 +22888,7 @@
         <v>735</v>
       </c>
       <c r="C750" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D750" t="s">
         <v>36</v>
@@ -22227,7 +22911,7 @@
         <v>736</v>
       </c>
       <c r="C751" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D751" t="s">
         <v>36</v>
@@ -22250,7 +22934,7 @@
         <v>736</v>
       </c>
       <c r="C752" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D752" t="s">
         <v>36</v>
@@ -22273,7 +22957,7 @@
         <v>737</v>
       </c>
       <c r="C753" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D753" t="s">
         <v>36</v>
@@ -22296,7 +22980,7 @@
         <v>737</v>
       </c>
       <c r="C754" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D754" t="s">
         <v>36</v>
@@ -22319,7 +23003,7 @@
         <v>738</v>
       </c>
       <c r="C755" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D755" t="s">
         <v>36</v>
@@ -22342,7 +23026,7 @@
         <v>738</v>
       </c>
       <c r="C756" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D756" t="s">
         <v>36</v>
@@ -22365,7 +23049,7 @@
         <v>739</v>
       </c>
       <c r="C757" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D757" t="s">
         <v>36</v>
@@ -22388,7 +23072,7 @@
         <v>739</v>
       </c>
       <c r="C758" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D758" t="s">
         <v>36</v>
@@ -22411,7 +23095,7 @@
         <v>740</v>
       </c>
       <c r="C759" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D759" t="s">
         <v>36</v>
@@ -22434,7 +23118,7 @@
         <v>740</v>
       </c>
       <c r="C760" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D760" t="s">
         <v>36</v>
@@ -22457,7 +23141,7 @@
         <v>741</v>
       </c>
       <c r="C761" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D761" t="s">
         <v>36</v>
@@ -22480,7 +23164,7 @@
         <v>741</v>
       </c>
       <c r="C762" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D762" t="s">
         <v>36</v>
@@ -22503,7 +23187,7 @@
         <v>742</v>
       </c>
       <c r="C763" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D763" t="s">
         <v>36</v>
@@ -22526,7 +23210,7 @@
         <v>742</v>
       </c>
       <c r="C764" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D764" t="s">
         <v>36</v>
@@ -22549,7 +23233,7 @@
         <v>743</v>
       </c>
       <c r="C765" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D765" t="s">
         <v>36</v>
@@ -22572,7 +23256,7 @@
         <v>743</v>
       </c>
       <c r="C766" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D766" t="s">
         <v>36</v>
@@ -22595,7 +23279,7 @@
         <v>744</v>
       </c>
       <c r="C767" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D767" t="s">
         <v>345</v>
@@ -22618,7 +23302,7 @@
         <v>745</v>
       </c>
       <c r="C768" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D768" t="s">
         <v>345</v>
@@ -22641,7 +23325,7 @@
         <v>746</v>
       </c>
       <c r="C769" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D769" t="s">
         <v>345</v>
@@ -22664,7 +23348,7 @@
         <v>747</v>
       </c>
       <c r="C770" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D770" t="s">
         <v>345</v>
@@ -22687,7 +23371,7 @@
         <v>748</v>
       </c>
       <c r="C771" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D771" t="s">
         <v>345</v>
@@ -22710,7 +23394,7 @@
         <v>749</v>
       </c>
       <c r="C772" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D772" t="s">
         <v>345</v>
@@ -22733,7 +23417,7 @@
         <v>750</v>
       </c>
       <c r="C773" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D773" t="s">
         <v>345</v>
@@ -22756,7 +23440,7 @@
         <v>751</v>
       </c>
       <c r="C774" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D774" t="s">
         <v>345</v>
@@ -22779,7 +23463,7 @@
         <v>752</v>
       </c>
       <c r="C775" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D775" t="s">
         <v>345</v>
@@ -22802,7 +23486,7 @@
         <v>753</v>
       </c>
       <c r="C776" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D776" t="s">
         <v>345</v>
@@ -22825,7 +23509,7 @@
         <v>754</v>
       </c>
       <c r="C777" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D777" t="s">
         <v>345</v>
@@ -22848,7 +23532,7 @@
         <v>755</v>
       </c>
       <c r="C778" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D778" t="s">
         <v>345</v>
@@ -22871,7 +23555,7 @@
         <v>756</v>
       </c>
       <c r="C779" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D779" t="s">
         <v>345</v>
@@ -22894,7 +23578,7 @@
         <v>757</v>
       </c>
       <c r="C780" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D780" t="s">
         <v>345</v>
@@ -22914,10 +23598,10 @@
         <v>44391</v>
       </c>
       <c r="B781" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C781" t="s">
-        <v>945</v>
+        <v>917</v>
       </c>
       <c r="D781" t="s">
         <v>36</v>
@@ -22937,10 +23621,10 @@
         <v>44391</v>
       </c>
       <c r="B782" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C782" t="s">
-        <v>946</v>
+        <v>918</v>
       </c>
       <c r="D782" t="s">
         <v>36</v>
@@ -22960,10 +23644,10 @@
         <v>44391</v>
       </c>
       <c r="B783" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C783" t="s">
-        <v>947</v>
+        <v>919</v>
       </c>
       <c r="D783" t="s">
         <v>36</v>
@@ -22983,10 +23667,10 @@
         <v>44391</v>
       </c>
       <c r="B784" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C784" t="s">
-        <v>948</v>
+        <v>920</v>
       </c>
       <c r="D784" t="s">
         <v>36</v>
@@ -23006,10 +23690,10 @@
         <v>44391</v>
       </c>
       <c r="B785" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C785" t="s">
-        <v>949</v>
+        <v>921</v>
       </c>
       <c r="D785" t="s">
         <v>36</v>
@@ -23029,10 +23713,10 @@
         <v>44391</v>
       </c>
       <c r="B786" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C786" t="s">
-        <v>950</v>
+        <v>922</v>
       </c>
       <c r="D786" t="s">
         <v>36</v>
@@ -23052,10 +23736,10 @@
         <v>44391</v>
       </c>
       <c r="B787" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C787" t="s">
-        <v>951</v>
+        <v>923</v>
       </c>
       <c r="D787" t="s">
         <v>36</v>
@@ -23075,10 +23759,10 @@
         <v>44391</v>
       </c>
       <c r="B788" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C788" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
       <c r="D788" t="s">
         <v>36</v>
@@ -23098,10 +23782,10 @@
         <v>44391</v>
       </c>
       <c r="B789" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C789" t="s">
-        <v>953</v>
+        <v>925</v>
       </c>
       <c r="D789" t="s">
         <v>36</v>
@@ -23121,10 +23805,10 @@
         <v>44391</v>
       </c>
       <c r="B790" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C790" t="s">
-        <v>954</v>
+        <v>926</v>
       </c>
       <c r="D790" t="s">
         <v>36</v>
@@ -23144,10 +23828,10 @@
         <v>44391</v>
       </c>
       <c r="B791" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C791" t="s">
-        <v>955</v>
+        <v>927</v>
       </c>
       <c r="D791" t="s">
         <v>36</v>
@@ -23167,10 +23851,10 @@
         <v>44391</v>
       </c>
       <c r="B792" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C792" t="s">
-        <v>956</v>
+        <v>928</v>
       </c>
       <c r="D792" t="s">
         <v>36</v>
@@ -23190,10 +23874,10 @@
         <v>44391</v>
       </c>
       <c r="B793" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C793" t="s">
-        <v>957</v>
+        <v>929</v>
       </c>
       <c r="D793" t="s">
         <v>36</v>
@@ -23213,10 +23897,10 @@
         <v>44391</v>
       </c>
       <c r="B794" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C794" t="s">
-        <v>958</v>
+        <v>930</v>
       </c>
       <c r="D794" t="s">
         <v>36</v>
@@ -23236,10 +23920,10 @@
         <v>44391</v>
       </c>
       <c r="B795" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C795" t="s">
-        <v>959</v>
+        <v>931</v>
       </c>
       <c r="D795" t="s">
         <v>36</v>
@@ -23259,10 +23943,10 @@
         <v>44391</v>
       </c>
       <c r="B796" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C796" t="s">
-        <v>960</v>
+        <v>932</v>
       </c>
       <c r="D796" t="s">
         <v>36</v>
@@ -23282,10 +23966,10 @@
         <v>44391</v>
       </c>
       <c r="B797" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C797" t="s">
-        <v>961</v>
+        <v>933</v>
       </c>
       <c r="D797" t="s">
         <v>36</v>
@@ -23305,10 +23989,10 @@
         <v>44391</v>
       </c>
       <c r="B798" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C798" t="s">
-        <v>962</v>
+        <v>934</v>
       </c>
       <c r="D798" t="s">
         <v>36</v>
@@ -23328,10 +24012,10 @@
         <v>44391</v>
       </c>
       <c r="B799" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C799" t="s">
-        <v>963</v>
+        <v>935</v>
       </c>
       <c r="D799" t="s">
         <v>36</v>
@@ -23351,10 +24035,10 @@
         <v>44391</v>
       </c>
       <c r="B800" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C800" t="s">
-        <v>964</v>
+        <v>936</v>
       </c>
       <c r="D800" t="s">
         <v>36</v>
@@ -23374,10 +24058,10 @@
         <v>44391</v>
       </c>
       <c r="B801" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C801" t="s">
-        <v>965</v>
+        <v>937</v>
       </c>
       <c r="D801" t="s">
         <v>36</v>
@@ -23397,10 +24081,10 @@
         <v>44391</v>
       </c>
       <c r="B802" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C802" t="s">
-        <v>966</v>
+        <v>938</v>
       </c>
       <c r="D802" t="s">
         <v>36</v>
@@ -23420,10 +24104,10 @@
         <v>44391</v>
       </c>
       <c r="B803" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C803" t="s">
-        <v>967</v>
+        <v>939</v>
       </c>
       <c r="D803" t="s">
         <v>36</v>
@@ -23443,10 +24127,10 @@
         <v>44391</v>
       </c>
       <c r="B804" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C804" t="s">
-        <v>968</v>
+        <v>940</v>
       </c>
       <c r="D804" t="s">
         <v>36</v>
@@ -23466,10 +24150,10 @@
         <v>44391</v>
       </c>
       <c r="B805" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C805" t="s">
-        <v>969</v>
+        <v>941</v>
       </c>
       <c r="D805" t="s">
         <v>36</v>
@@ -23489,10 +24173,10 @@
         <v>44391</v>
       </c>
       <c r="B806" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C806" t="s">
-        <v>970</v>
+        <v>942</v>
       </c>
       <c r="D806" t="s">
         <v>36</v>
@@ -23512,10 +24196,10 @@
         <v>44391</v>
       </c>
       <c r="B807" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C807" t="s">
-        <v>971</v>
+        <v>943</v>
       </c>
       <c r="D807" t="s">
         <v>36</v>
@@ -23535,10 +24219,10 @@
         <v>44391</v>
       </c>
       <c r="B808" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C808" t="s">
-        <v>972</v>
+        <v>944</v>
       </c>
       <c r="D808" t="s">
         <v>36</v>
@@ -23558,10 +24242,10 @@
         <v>44391</v>
       </c>
       <c r="B809" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C809" t="s">
-        <v>973</v>
+        <v>945</v>
       </c>
       <c r="D809" t="s">
         <v>36</v>
@@ -23581,10 +24265,10 @@
         <v>44391</v>
       </c>
       <c r="B810" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C810" t="s">
-        <v>974</v>
+        <v>946</v>
       </c>
       <c r="D810" t="s">
         <v>36</v>
@@ -23604,10 +24288,10 @@
         <v>44391</v>
       </c>
       <c r="B811" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C811" t="s">
-        <v>975</v>
+        <v>947</v>
       </c>
       <c r="D811" t="s">
         <v>36</v>
@@ -23627,10 +24311,10 @@
         <v>44391</v>
       </c>
       <c r="B812" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C812" t="s">
-        <v>976</v>
+        <v>948</v>
       </c>
       <c r="D812" t="s">
         <v>36</v>
@@ -23650,10 +24334,10 @@
         <v>44391</v>
       </c>
       <c r="B813" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C813" t="s">
-        <v>977</v>
+        <v>949</v>
       </c>
       <c r="D813" t="s">
         <v>36</v>
@@ -23673,10 +24357,10 @@
         <v>44391</v>
       </c>
       <c r="B814" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C814" t="s">
-        <v>978</v>
+        <v>950</v>
       </c>
       <c r="D814" t="s">
         <v>36</v>
@@ -23696,10 +24380,10 @@
         <v>44391</v>
       </c>
       <c r="B815" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C815" t="s">
-        <v>979</v>
+        <v>951</v>
       </c>
       <c r="D815" t="s">
         <v>36</v>
@@ -23719,10 +24403,10 @@
         <v>44391</v>
       </c>
       <c r="B816" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C816" t="s">
-        <v>980</v>
+        <v>952</v>
       </c>
       <c r="D816" t="s">
         <v>36</v>
@@ -23742,10 +24426,10 @@
         <v>44391</v>
       </c>
       <c r="B817" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C817" t="s">
-        <v>981</v>
+        <v>953</v>
       </c>
       <c r="D817" t="s">
         <v>36</v>
@@ -23765,10 +24449,10 @@
         <v>44391</v>
       </c>
       <c r="B818" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C818" t="s">
-        <v>982</v>
+        <v>954</v>
       </c>
       <c r="D818" t="s">
         <v>36</v>
@@ -23788,10 +24472,10 @@
         <v>44391</v>
       </c>
       <c r="B819" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C819" t="s">
-        <v>983</v>
+        <v>955</v>
       </c>
       <c r="D819" t="s">
         <v>36</v>
@@ -23811,10 +24495,10 @@
         <v>44391</v>
       </c>
       <c r="B820" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C820" t="s">
-        <v>984</v>
+        <v>956</v>
       </c>
       <c r="D820" t="s">
         <v>36</v>
@@ -23834,10 +24518,10 @@
         <v>44391</v>
       </c>
       <c r="B821" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C821" t="s">
-        <v>985</v>
+        <v>957</v>
       </c>
       <c r="D821" t="s">
         <v>36</v>
@@ -23857,10 +24541,10 @@
         <v>44391</v>
       </c>
       <c r="B822" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C822" t="s">
-        <v>986</v>
+        <v>958</v>
       </c>
       <c r="D822" t="s">
         <v>36</v>
@@ -23880,10 +24564,10 @@
         <v>44391</v>
       </c>
       <c r="B823" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C823" t="s">
-        <v>987</v>
+        <v>959</v>
       </c>
       <c r="D823" t="s">
         <v>36</v>
@@ -23903,10 +24587,10 @@
         <v>44391</v>
       </c>
       <c r="B824" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C824" t="s">
-        <v>988</v>
+        <v>960</v>
       </c>
       <c r="D824" t="s">
         <v>36</v>
@@ -23926,10 +24610,10 @@
         <v>44391</v>
       </c>
       <c r="B825" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C825" t="s">
-        <v>989</v>
+        <v>961</v>
       </c>
       <c r="D825" t="s">
         <v>36</v>
@@ -23949,10 +24633,10 @@
         <v>44391</v>
       </c>
       <c r="B826" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C826" t="s">
-        <v>990</v>
+        <v>962</v>
       </c>
       <c r="D826" t="s">
         <v>36</v>
@@ -23972,10 +24656,10 @@
         <v>44391</v>
       </c>
       <c r="B827" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C827" t="s">
-        <v>991</v>
+        <v>963</v>
       </c>
       <c r="D827" t="s">
         <v>36</v>
@@ -23995,10 +24679,10 @@
         <v>44391</v>
       </c>
       <c r="B828" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C828" t="s">
-        <v>992</v>
+        <v>964</v>
       </c>
       <c r="D828" t="s">
         <v>36</v>
@@ -24018,10 +24702,10 @@
         <v>44391</v>
       </c>
       <c r="B829" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C829" t="s">
-        <v>993</v>
+        <v>965</v>
       </c>
       <c r="D829" t="s">
         <v>36</v>
@@ -24041,10 +24725,10 @@
         <v>44391</v>
       </c>
       <c r="B830" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C830" t="s">
-        <v>994</v>
+        <v>966</v>
       </c>
       <c r="D830" t="s">
         <v>36</v>
@@ -24064,10 +24748,10 @@
         <v>44391</v>
       </c>
       <c r="B831" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C831" t="s">
-        <v>995</v>
+        <v>967</v>
       </c>
       <c r="D831" t="s">
         <v>36</v>
@@ -24087,10 +24771,10 @@
         <v>44391</v>
       </c>
       <c r="B832" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C832" t="s">
-        <v>996</v>
+        <v>968</v>
       </c>
       <c r="D832" t="s">
         <v>36</v>
@@ -24110,10 +24794,10 @@
         <v>44391</v>
       </c>
       <c r="B833" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C833" t="s">
-        <v>997</v>
+        <v>969</v>
       </c>
       <c r="D833" t="s">
         <v>36</v>
@@ -24133,10 +24817,10 @@
         <v>44391</v>
       </c>
       <c r="B834" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C834" t="s">
-        <v>998</v>
+        <v>970</v>
       </c>
       <c r="D834" t="s">
         <v>36</v>
@@ -24156,10 +24840,10 @@
         <v>44391</v>
       </c>
       <c r="B835" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C835" t="s">
-        <v>999</v>
+        <v>971</v>
       </c>
       <c r="D835" t="s">
         <v>36</v>
@@ -24179,10 +24863,10 @@
         <v>44391</v>
       </c>
       <c r="B836" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C836" t="s">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="D836" t="s">
         <v>36</v>
@@ -24202,10 +24886,10 @@
         <v>44391</v>
       </c>
       <c r="B837" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C837" t="s">
-        <v>1001</v>
+        <v>973</v>
       </c>
       <c r="D837" t="s">
         <v>36</v>
@@ -24225,10 +24909,10 @@
         <v>44391</v>
       </c>
       <c r="B838" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C838" t="s">
-        <v>1002</v>
+        <v>974</v>
       </c>
       <c r="D838" t="s">
         <v>36</v>
@@ -24248,10 +24932,10 @@
         <v>44391</v>
       </c>
       <c r="B839" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C839" t="s">
-        <v>1003</v>
+        <v>975</v>
       </c>
       <c r="D839" t="s">
         <v>36</v>
@@ -24271,10 +24955,10 @@
         <v>44391</v>
       </c>
       <c r="B840" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C840" t="s">
-        <v>1004</v>
+        <v>976</v>
       </c>
       <c r="D840" t="s">
         <v>36</v>
@@ -24294,10 +24978,10 @@
         <v>44391</v>
       </c>
       <c r="B841" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C841" t="s">
-        <v>1005</v>
+        <v>977</v>
       </c>
       <c r="D841" t="s">
         <v>36</v>
@@ -24317,10 +25001,10 @@
         <v>44391</v>
       </c>
       <c r="B842" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C842" t="s">
-        <v>1006</v>
+        <v>978</v>
       </c>
       <c r="D842" t="s">
         <v>345</v>
@@ -24340,10 +25024,10 @@
         <v>44391</v>
       </c>
       <c r="B843" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C843" t="s">
-        <v>1007</v>
+        <v>979</v>
       </c>
       <c r="D843" t="s">
         <v>345</v>
@@ -24363,10 +25047,10 @@
         <v>44391</v>
       </c>
       <c r="B844" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C844" t="s">
-        <v>1008</v>
+        <v>980</v>
       </c>
       <c r="D844" t="s">
         <v>345</v>
@@ -24386,10 +25070,10 @@
         <v>44391</v>
       </c>
       <c r="B845" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C845" t="s">
-        <v>1009</v>
+        <v>981</v>
       </c>
       <c r="D845" t="s">
         <v>345</v>
@@ -24409,10 +25093,10 @@
         <v>44391</v>
       </c>
       <c r="B846" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C846" t="s">
-        <v>1010</v>
+        <v>982</v>
       </c>
       <c r="D846" t="s">
         <v>345</v>
@@ -24432,10 +25116,10 @@
         <v>44391</v>
       </c>
       <c r="B847" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C847" t="s">
-        <v>1011</v>
+        <v>983</v>
       </c>
       <c r="D847" t="s">
         <v>345</v>
@@ -24455,10 +25139,10 @@
         <v>44391</v>
       </c>
       <c r="B848" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C848" t="s">
-        <v>1012</v>
+        <v>984</v>
       </c>
       <c r="D848" t="s">
         <v>345</v>
@@ -24478,10 +25162,10 @@
         <v>44391</v>
       </c>
       <c r="B849" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C849" t="s">
-        <v>1013</v>
+        <v>985</v>
       </c>
       <c r="D849" t="s">
         <v>345</v>
@@ -24501,10 +25185,10 @@
         <v>44391</v>
       </c>
       <c r="B850" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C850" t="s">
-        <v>1014</v>
+        <v>986</v>
       </c>
       <c r="D850" t="s">
         <v>345</v>
@@ -24524,10 +25208,10 @@
         <v>44391</v>
       </c>
       <c r="B851" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C851" t="s">
-        <v>1015</v>
+        <v>987</v>
       </c>
       <c r="D851" t="s">
         <v>345</v>
@@ -24547,10 +25231,10 @@
         <v>44391</v>
       </c>
       <c r="B852" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C852" t="s">
-        <v>1016</v>
+        <v>988</v>
       </c>
       <c r="D852" t="s">
         <v>345</v>
@@ -24570,10 +25254,10 @@
         <v>44391</v>
       </c>
       <c r="B853" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C853" t="s">
-        <v>1017</v>
+        <v>989</v>
       </c>
       <c r="D853" t="s">
         <v>345</v>
@@ -24593,10 +25277,10 @@
         <v>44391</v>
       </c>
       <c r="B854" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C854" t="s">
-        <v>1018</v>
+        <v>990</v>
       </c>
       <c r="D854" t="s">
         <v>345</v>
@@ -24616,10 +25300,10 @@
         <v>44391</v>
       </c>
       <c r="B855" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C855" t="s">
-        <v>1019</v>
+        <v>991</v>
       </c>
       <c r="D855" t="s">
         <v>345</v>
@@ -24639,10 +25323,10 @@
         <v>44391</v>
       </c>
       <c r="B856" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C856" t="s">
-        <v>1020</v>
+        <v>992</v>
       </c>
       <c r="D856" t="s">
         <v>345</v>
@@ -24662,10 +25346,10 @@
         <v>44391</v>
       </c>
       <c r="B857" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C857" t="s">
-        <v>1021</v>
+        <v>993</v>
       </c>
       <c r="D857" t="s">
         <v>345</v>
@@ -24685,10 +25369,10 @@
         <v>44391</v>
       </c>
       <c r="B858" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C858" t="s">
-        <v>1022</v>
+        <v>994</v>
       </c>
       <c r="D858" t="s">
         <v>345</v>
@@ -24708,10 +25392,10 @@
         <v>44391</v>
       </c>
       <c r="B859" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C859" t="s">
-        <v>1023</v>
+        <v>995</v>
       </c>
       <c r="D859" t="s">
         <v>345</v>
@@ -24731,10 +25415,10 @@
         <v>44391</v>
       </c>
       <c r="B860" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C860" t="s">
-        <v>1024</v>
+        <v>996</v>
       </c>
       <c r="D860" t="s">
         <v>345</v>
@@ -24754,10 +25438,10 @@
         <v>44391</v>
       </c>
       <c r="B861" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C861" t="s">
-        <v>1025</v>
+        <v>997</v>
       </c>
       <c r="D861" t="s">
         <v>345</v>
@@ -24777,10 +25461,10 @@
         <v>44391</v>
       </c>
       <c r="B862" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C862" t="s">
-        <v>1026</v>
+        <v>998</v>
       </c>
       <c r="D862" t="s">
         <v>345</v>
@@ -24800,10 +25484,10 @@
         <v>44391</v>
       </c>
       <c r="B863" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C863" t="s">
-        <v>1027</v>
+        <v>999</v>
       </c>
       <c r="D863" t="s">
         <v>345</v>
@@ -24823,10 +25507,10 @@
         <v>44391</v>
       </c>
       <c r="B864" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C864" t="s">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="D864" t="s">
         <v>345</v>
@@ -24846,10 +25530,10 @@
         <v>44391</v>
       </c>
       <c r="B865" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C865" t="s">
-        <v>1029</v>
+        <v>1001</v>
       </c>
       <c r="D865" t="s">
         <v>345</v>
@@ -24869,10 +25553,10 @@
         <v>44391</v>
       </c>
       <c r="B866" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C866" t="s">
-        <v>1030</v>
+        <v>1002</v>
       </c>
       <c r="D866" t="s">
         <v>345</v>
@@ -24892,10 +25576,10 @@
         <v>44391</v>
       </c>
       <c r="B867" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C867" t="s">
-        <v>1031</v>
+        <v>1003</v>
       </c>
       <c r="D867" t="s">
         <v>345</v>
@@ -24915,10 +25599,10 @@
         <v>44391</v>
       </c>
       <c r="B868" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C868" t="s">
-        <v>1032</v>
+        <v>1004</v>
       </c>
       <c r="D868" t="s">
         <v>345</v>
@@ -24938,10 +25622,10 @@
         <v>44391</v>
       </c>
       <c r="B869" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C869" t="s">
-        <v>1033</v>
+        <v>1005</v>
       </c>
       <c r="D869" t="s">
         <v>345</v>
@@ -24961,10 +25645,10 @@
         <v>44391</v>
       </c>
       <c r="B870" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C870" t="s">
-        <v>1034</v>
+        <v>1006</v>
       </c>
       <c r="D870" t="s">
         <v>345</v>
@@ -24984,10 +25668,10 @@
         <v>44391</v>
       </c>
       <c r="B871" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C871" t="s">
-        <v>1035</v>
+        <v>1007</v>
       </c>
       <c r="D871" t="s">
         <v>345</v>
@@ -25007,10 +25691,10 @@
         <v>44391</v>
       </c>
       <c r="B872" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C872" t="s">
-        <v>1036</v>
+        <v>1008</v>
       </c>
       <c r="D872" t="s">
         <v>345</v>
@@ -25030,10 +25714,10 @@
         <v>44391</v>
       </c>
       <c r="B873" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C873" t="s">
-        <v>1037</v>
+        <v>1009</v>
       </c>
       <c r="D873" t="s">
         <v>345</v>
@@ -25053,10 +25737,10 @@
         <v>44391</v>
       </c>
       <c r="B874" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C874" t="s">
-        <v>1038</v>
+        <v>1010</v>
       </c>
       <c r="D874" t="s">
         <v>345</v>
@@ -25076,10 +25760,10 @@
         <v>44391</v>
       </c>
       <c r="B875" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C875" t="s">
-        <v>1039</v>
+        <v>1011</v>
       </c>
       <c r="D875" t="s">
         <v>345</v>
@@ -25099,10 +25783,10 @@
         <v>44391</v>
       </c>
       <c r="B876" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C876" t="s">
-        <v>1040</v>
+        <v>1012</v>
       </c>
       <c r="D876" t="s">
         <v>345</v>
@@ -25122,10 +25806,10 @@
         <v>44391</v>
       </c>
       <c r="B877" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C877" t="s">
-        <v>1041</v>
+        <v>1013</v>
       </c>
       <c r="D877" t="s">
         <v>345</v>
@@ -25137,6 +25821,1501 @@
         <v>10</v>
       </c>
       <c r="I877" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="878" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A878" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B878" t="s">
+        <v>917</v>
+      </c>
+      <c r="C878" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D878" t="s">
+        <v>36</v>
+      </c>
+      <c r="G878" t="s">
+        <v>241</v>
+      </c>
+      <c r="H878" t="s">
+        <v>10</v>
+      </c>
+      <c r="I878" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="879" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A879" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B879" t="s">
+        <v>918</v>
+      </c>
+      <c r="C879" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D879" t="s">
+        <v>36</v>
+      </c>
+      <c r="G879" t="s">
+        <v>241</v>
+      </c>
+      <c r="H879" t="s">
+        <v>10</v>
+      </c>
+      <c r="I879" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="880" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A880" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B880" t="s">
+        <v>919</v>
+      </c>
+      <c r="C880" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D880" t="s">
+        <v>36</v>
+      </c>
+      <c r="G880" t="s">
+        <v>241</v>
+      </c>
+      <c r="H880" t="s">
+        <v>10</v>
+      </c>
+      <c r="I880" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="881" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A881" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B881" t="s">
+        <v>920</v>
+      </c>
+      <c r="C881" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D881" t="s">
+        <v>36</v>
+      </c>
+      <c r="G881" t="s">
+        <v>241</v>
+      </c>
+      <c r="H881" t="s">
+        <v>10</v>
+      </c>
+      <c r="I881" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="882" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A882" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B882" t="s">
+        <v>921</v>
+      </c>
+      <c r="C882" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D882" t="s">
+        <v>36</v>
+      </c>
+      <c r="G882" t="s">
+        <v>241</v>
+      </c>
+      <c r="H882" t="s">
+        <v>10</v>
+      </c>
+      <c r="I882" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="883" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A883" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B883" t="s">
+        <v>922</v>
+      </c>
+      <c r="C883" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D883" t="s">
+        <v>36</v>
+      </c>
+      <c r="G883" t="s">
+        <v>241</v>
+      </c>
+      <c r="H883" t="s">
+        <v>10</v>
+      </c>
+      <c r="I883" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="884" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A884" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B884" t="s">
+        <v>923</v>
+      </c>
+      <c r="C884" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D884" t="s">
+        <v>36</v>
+      </c>
+      <c r="G884" t="s">
+        <v>241</v>
+      </c>
+      <c r="H884" t="s">
+        <v>10</v>
+      </c>
+      <c r="I884" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="885" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A885" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B885" t="s">
+        <v>924</v>
+      </c>
+      <c r="C885" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D885" t="s">
+        <v>36</v>
+      </c>
+      <c r="G885" t="s">
+        <v>241</v>
+      </c>
+      <c r="H885" t="s">
+        <v>10</v>
+      </c>
+      <c r="I885" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="886" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A886" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B886" t="s">
+        <v>925</v>
+      </c>
+      <c r="C886" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D886" t="s">
+        <v>36</v>
+      </c>
+      <c r="G886" t="s">
+        <v>241</v>
+      </c>
+      <c r="H886" t="s">
+        <v>10</v>
+      </c>
+      <c r="I886" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="887" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A887" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B887" t="s">
+        <v>926</v>
+      </c>
+      <c r="C887" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D887" t="s">
+        <v>36</v>
+      </c>
+      <c r="G887" t="s">
+        <v>241</v>
+      </c>
+      <c r="H887" t="s">
+        <v>10</v>
+      </c>
+      <c r="I887" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="888" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A888" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B888" t="s">
+        <v>927</v>
+      </c>
+      <c r="C888" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D888" t="s">
+        <v>36</v>
+      </c>
+      <c r="G888" t="s">
+        <v>241</v>
+      </c>
+      <c r="H888" t="s">
+        <v>10</v>
+      </c>
+      <c r="I888" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="889" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A889" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B889" t="s">
+        <v>928</v>
+      </c>
+      <c r="C889" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D889" t="s">
+        <v>36</v>
+      </c>
+      <c r="G889" t="s">
+        <v>241</v>
+      </c>
+      <c r="H889" t="s">
+        <v>10</v>
+      </c>
+      <c r="I889" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="890" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A890" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B890" t="s">
+        <v>929</v>
+      </c>
+      <c r="C890" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D890" t="s">
+        <v>36</v>
+      </c>
+      <c r="G890" t="s">
+        <v>241</v>
+      </c>
+      <c r="H890" t="s">
+        <v>10</v>
+      </c>
+      <c r="I890" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="891" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A891" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B891" t="s">
+        <v>930</v>
+      </c>
+      <c r="C891" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D891" t="s">
+        <v>36</v>
+      </c>
+      <c r="G891" t="s">
+        <v>241</v>
+      </c>
+      <c r="H891" t="s">
+        <v>10</v>
+      </c>
+      <c r="I891" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="892" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A892" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B892" t="s">
+        <v>931</v>
+      </c>
+      <c r="C892" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D892" t="s">
+        <v>36</v>
+      </c>
+      <c r="G892" t="s">
+        <v>241</v>
+      </c>
+      <c r="H892" t="s">
+        <v>10</v>
+      </c>
+      <c r="I892" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="893" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A893" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B893" t="s">
+        <v>932</v>
+      </c>
+      <c r="C893" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D893" t="s">
+        <v>36</v>
+      </c>
+      <c r="G893" t="s">
+        <v>241</v>
+      </c>
+      <c r="H893" t="s">
+        <v>10</v>
+      </c>
+      <c r="I893" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="894" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A894" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B894" t="s">
+        <v>933</v>
+      </c>
+      <c r="C894" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D894" t="s">
+        <v>36</v>
+      </c>
+      <c r="G894" t="s">
+        <v>241</v>
+      </c>
+      <c r="H894" t="s">
+        <v>10</v>
+      </c>
+      <c r="I894" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="895" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A895" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B895" t="s">
+        <v>934</v>
+      </c>
+      <c r="C895" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D895" t="s">
+        <v>36</v>
+      </c>
+      <c r="G895" t="s">
+        <v>241</v>
+      </c>
+      <c r="H895" t="s">
+        <v>10</v>
+      </c>
+      <c r="I895" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="896" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A896" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B896" t="s">
+        <v>935</v>
+      </c>
+      <c r="C896" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D896" t="s">
+        <v>36</v>
+      </c>
+      <c r="G896" t="s">
+        <v>241</v>
+      </c>
+      <c r="H896" t="s">
+        <v>10</v>
+      </c>
+      <c r="I896" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="897" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A897" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B897" t="s">
+        <v>936</v>
+      </c>
+      <c r="C897" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D897" t="s">
+        <v>36</v>
+      </c>
+      <c r="G897" t="s">
+        <v>241</v>
+      </c>
+      <c r="H897" t="s">
+        <v>10</v>
+      </c>
+      <c r="I897" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="898" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A898" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B898" t="s">
+        <v>937</v>
+      </c>
+      <c r="C898" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D898" t="s">
+        <v>36</v>
+      </c>
+      <c r="G898" t="s">
+        <v>241</v>
+      </c>
+      <c r="H898" t="s">
+        <v>10</v>
+      </c>
+      <c r="I898" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="899" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A899" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B899" t="s">
+        <v>938</v>
+      </c>
+      <c r="C899" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D899" t="s">
+        <v>36</v>
+      </c>
+      <c r="G899" t="s">
+        <v>241</v>
+      </c>
+      <c r="H899" t="s">
+        <v>10</v>
+      </c>
+      <c r="I899" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="900" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A900" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B900" t="s">
+        <v>939</v>
+      </c>
+      <c r="C900" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D900" t="s">
+        <v>36</v>
+      </c>
+      <c r="G900" t="s">
+        <v>241</v>
+      </c>
+      <c r="H900" t="s">
+        <v>10</v>
+      </c>
+      <c r="I900" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="901" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A901" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B901" t="s">
+        <v>940</v>
+      </c>
+      <c r="C901" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D901" t="s">
+        <v>36</v>
+      </c>
+      <c r="G901" t="s">
+        <v>241</v>
+      </c>
+      <c r="H901" t="s">
+        <v>10</v>
+      </c>
+      <c r="I901" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="902" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A902" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B902" t="s">
+        <v>941</v>
+      </c>
+      <c r="C902" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D902" t="s">
+        <v>36</v>
+      </c>
+      <c r="G902" t="s">
+        <v>241</v>
+      </c>
+      <c r="H902" t="s">
+        <v>10</v>
+      </c>
+      <c r="I902" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="903" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A903" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B903" t="s">
+        <v>942</v>
+      </c>
+      <c r="C903" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D903" t="s">
+        <v>36</v>
+      </c>
+      <c r="G903" t="s">
+        <v>241</v>
+      </c>
+      <c r="H903" t="s">
+        <v>10</v>
+      </c>
+      <c r="I903" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="904" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A904" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B904" t="s">
+        <v>943</v>
+      </c>
+      <c r="C904" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D904" t="s">
+        <v>36</v>
+      </c>
+      <c r="G904" t="s">
+        <v>241</v>
+      </c>
+      <c r="H904" t="s">
+        <v>10</v>
+      </c>
+      <c r="I904" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="905" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A905" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B905" t="s">
+        <v>944</v>
+      </c>
+      <c r="C905" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D905" t="s">
+        <v>36</v>
+      </c>
+      <c r="G905" t="s">
+        <v>241</v>
+      </c>
+      <c r="H905" t="s">
+        <v>10</v>
+      </c>
+      <c r="I905" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="906" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A906" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B906" t="s">
+        <v>945</v>
+      </c>
+      <c r="C906" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D906" t="s">
+        <v>36</v>
+      </c>
+      <c r="G906" t="s">
+        <v>241</v>
+      </c>
+      <c r="H906" t="s">
+        <v>10</v>
+      </c>
+      <c r="I906" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="907" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A907" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B907" t="s">
+        <v>946</v>
+      </c>
+      <c r="C907" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D907" t="s">
+        <v>36</v>
+      </c>
+      <c r="G907" t="s">
+        <v>241</v>
+      </c>
+      <c r="H907" t="s">
+        <v>10</v>
+      </c>
+      <c r="I907" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="908" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A908" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B908" t="s">
+        <v>947</v>
+      </c>
+      <c r="C908" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D908" t="s">
+        <v>36</v>
+      </c>
+      <c r="G908" t="s">
+        <v>241</v>
+      </c>
+      <c r="H908" t="s">
+        <v>10</v>
+      </c>
+      <c r="I908" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="909" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A909" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B909" t="s">
+        <v>948</v>
+      </c>
+      <c r="C909" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D909" t="s">
+        <v>36</v>
+      </c>
+      <c r="G909" t="s">
+        <v>241</v>
+      </c>
+      <c r="H909" t="s">
+        <v>10</v>
+      </c>
+      <c r="I909" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="910" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A910" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B910" t="s">
+        <v>949</v>
+      </c>
+      <c r="C910" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D910" t="s">
+        <v>36</v>
+      </c>
+      <c r="G910" t="s">
+        <v>241</v>
+      </c>
+      <c r="H910" t="s">
+        <v>10</v>
+      </c>
+      <c r="I910" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="911" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A911" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B911" t="s">
+        <v>950</v>
+      </c>
+      <c r="C911" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D911" t="s">
+        <v>36</v>
+      </c>
+      <c r="G911" t="s">
+        <v>241</v>
+      </c>
+      <c r="H911" t="s">
+        <v>10</v>
+      </c>
+      <c r="I911" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="912" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A912" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B912" t="s">
+        <v>951</v>
+      </c>
+      <c r="C912" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D912" t="s">
+        <v>36</v>
+      </c>
+      <c r="G912" t="s">
+        <v>241</v>
+      </c>
+      <c r="H912" t="s">
+        <v>10</v>
+      </c>
+      <c r="I912" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="913" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A913" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B913" t="s">
+        <v>952</v>
+      </c>
+      <c r="C913" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D913" t="s">
+        <v>36</v>
+      </c>
+      <c r="G913" t="s">
+        <v>241</v>
+      </c>
+      <c r="H913" t="s">
+        <v>10</v>
+      </c>
+      <c r="I913" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="914" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A914" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B914" t="s">
+        <v>953</v>
+      </c>
+      <c r="C914" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D914" t="s">
+        <v>36</v>
+      </c>
+      <c r="G914" t="s">
+        <v>241</v>
+      </c>
+      <c r="H914" t="s">
+        <v>10</v>
+      </c>
+      <c r="I914" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="915" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A915" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B915" t="s">
+        <v>954</v>
+      </c>
+      <c r="C915" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D915" t="s">
+        <v>36</v>
+      </c>
+      <c r="G915" t="s">
+        <v>241</v>
+      </c>
+      <c r="H915" t="s">
+        <v>10</v>
+      </c>
+      <c r="I915" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="916" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A916" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B916" t="s">
+        <v>955</v>
+      </c>
+      <c r="C916" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D916" t="s">
+        <v>36</v>
+      </c>
+      <c r="G916" t="s">
+        <v>241</v>
+      </c>
+      <c r="H916" t="s">
+        <v>10</v>
+      </c>
+      <c r="I916" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="917" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A917" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B917" t="s">
+        <v>956</v>
+      </c>
+      <c r="C917" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D917" t="s">
+        <v>36</v>
+      </c>
+      <c r="G917" t="s">
+        <v>241</v>
+      </c>
+      <c r="H917" t="s">
+        <v>10</v>
+      </c>
+      <c r="I917" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="918" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A918" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B918" t="s">
+        <v>978</v>
+      </c>
+      <c r="C918" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D918" t="s">
+        <v>345</v>
+      </c>
+      <c r="G918" t="s">
+        <v>308</v>
+      </c>
+      <c r="H918" t="s">
+        <v>10</v>
+      </c>
+      <c r="I918" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="919" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A919" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B919" t="s">
+        <v>979</v>
+      </c>
+      <c r="C919" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D919" t="s">
+        <v>345</v>
+      </c>
+      <c r="G919" t="s">
+        <v>308</v>
+      </c>
+      <c r="H919" t="s">
+        <v>10</v>
+      </c>
+      <c r="I919" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="920" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A920" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B920" t="s">
+        <v>980</v>
+      </c>
+      <c r="C920" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D920" t="s">
+        <v>345</v>
+      </c>
+      <c r="G920" t="s">
+        <v>308</v>
+      </c>
+      <c r="H920" t="s">
+        <v>10</v>
+      </c>
+      <c r="I920" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="921" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A921" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B921" t="s">
+        <v>981</v>
+      </c>
+      <c r="C921" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D921" t="s">
+        <v>345</v>
+      </c>
+      <c r="G921" t="s">
+        <v>308</v>
+      </c>
+      <c r="H921" t="s">
+        <v>10</v>
+      </c>
+      <c r="I921" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="922" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A922" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B922" t="s">
+        <v>982</v>
+      </c>
+      <c r="C922" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D922" t="s">
+        <v>345</v>
+      </c>
+      <c r="G922" t="s">
+        <v>308</v>
+      </c>
+      <c r="H922" t="s">
+        <v>10</v>
+      </c>
+      <c r="I922" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="923" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A923" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B923" t="s">
+        <v>983</v>
+      </c>
+      <c r="C923" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D923" t="s">
+        <v>345</v>
+      </c>
+      <c r="G923" t="s">
+        <v>308</v>
+      </c>
+      <c r="H923" t="s">
+        <v>10</v>
+      </c>
+      <c r="I923" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="924" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A924" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B924" t="s">
+        <v>984</v>
+      </c>
+      <c r="C924" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D924" t="s">
+        <v>345</v>
+      </c>
+      <c r="G924" t="s">
+        <v>308</v>
+      </c>
+      <c r="H924" t="s">
+        <v>10</v>
+      </c>
+      <c r="I924" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="925" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A925" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B925" t="s">
+        <v>985</v>
+      </c>
+      <c r="C925" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D925" t="s">
+        <v>345</v>
+      </c>
+      <c r="G925" t="s">
+        <v>308</v>
+      </c>
+      <c r="H925" t="s">
+        <v>10</v>
+      </c>
+      <c r="I925" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="926" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A926" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B926" t="s">
+        <v>986</v>
+      </c>
+      <c r="C926" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D926" t="s">
+        <v>345</v>
+      </c>
+      <c r="G926" t="s">
+        <v>308</v>
+      </c>
+      <c r="H926" t="s">
+        <v>10</v>
+      </c>
+      <c r="I926" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="927" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A927" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B927" t="s">
+        <v>987</v>
+      </c>
+      <c r="C927" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D927" t="s">
+        <v>345</v>
+      </c>
+      <c r="G927" t="s">
+        <v>308</v>
+      </c>
+      <c r="H927" t="s">
+        <v>10</v>
+      </c>
+      <c r="I927" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="928" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A928" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B928" t="s">
+        <v>988</v>
+      </c>
+      <c r="C928" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D928" t="s">
+        <v>345</v>
+      </c>
+      <c r="G928" t="s">
+        <v>308</v>
+      </c>
+      <c r="H928" t="s">
+        <v>10</v>
+      </c>
+      <c r="I928" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="929" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A929" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B929" t="s">
+        <v>989</v>
+      </c>
+      <c r="C929" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D929" t="s">
+        <v>345</v>
+      </c>
+      <c r="G929" t="s">
+        <v>308</v>
+      </c>
+      <c r="H929" t="s">
+        <v>10</v>
+      </c>
+      <c r="I929" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="930" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A930" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B930" t="s">
+        <v>990</v>
+      </c>
+      <c r="C930" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D930" t="s">
+        <v>345</v>
+      </c>
+      <c r="G930" t="s">
+        <v>308</v>
+      </c>
+      <c r="H930" t="s">
+        <v>10</v>
+      </c>
+      <c r="I930" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="931" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A931" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B931" t="s">
+        <v>991</v>
+      </c>
+      <c r="C931" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D931" t="s">
+        <v>345</v>
+      </c>
+      <c r="G931" t="s">
+        <v>308</v>
+      </c>
+      <c r="H931" t="s">
+        <v>10</v>
+      </c>
+      <c r="I931" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="932" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A932" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B932" t="s">
+        <v>992</v>
+      </c>
+      <c r="C932" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D932" t="s">
+        <v>345</v>
+      </c>
+      <c r="G932" t="s">
+        <v>308</v>
+      </c>
+      <c r="H932" t="s">
+        <v>10</v>
+      </c>
+      <c r="I932" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="933" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A933" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B933" t="s">
+        <v>993</v>
+      </c>
+      <c r="C933" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D933" t="s">
+        <v>345</v>
+      </c>
+      <c r="G933" t="s">
+        <v>308</v>
+      </c>
+      <c r="H933" t="s">
+        <v>10</v>
+      </c>
+      <c r="I933" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="934" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A934" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B934" t="s">
+        <v>994</v>
+      </c>
+      <c r="C934" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D934" t="s">
+        <v>345</v>
+      </c>
+      <c r="G934" t="s">
+        <v>308</v>
+      </c>
+      <c r="H934" t="s">
+        <v>10</v>
+      </c>
+      <c r="I934" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="935" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A935" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B935" t="s">
+        <v>995</v>
+      </c>
+      <c r="C935" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D935" t="s">
+        <v>345</v>
+      </c>
+      <c r="G935" t="s">
+        <v>308</v>
+      </c>
+      <c r="H935" t="s">
+        <v>10</v>
+      </c>
+      <c r="I935" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="936" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A936" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B936" t="s">
+        <v>996</v>
+      </c>
+      <c r="C936" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D936" t="s">
+        <v>345</v>
+      </c>
+      <c r="G936" t="s">
+        <v>308</v>
+      </c>
+      <c r="H936" t="s">
+        <v>10</v>
+      </c>
+      <c r="I936" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="937" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A937" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B937" t="s">
+        <v>997</v>
+      </c>
+      <c r="C937" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D937" t="s">
+        <v>345</v>
+      </c>
+      <c r="G937" t="s">
+        <v>308</v>
+      </c>
+      <c r="H937" t="s">
+        <v>10</v>
+      </c>
+      <c r="I937" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="938" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A938" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B938" t="s">
+        <v>998</v>
+      </c>
+      <c r="C938" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D938" t="s">
+        <v>345</v>
+      </c>
+      <c r="G938" t="s">
+        <v>308</v>
+      </c>
+      <c r="H938" t="s">
+        <v>10</v>
+      </c>
+      <c r="I938" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="939" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A939" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B939" t="s">
+        <v>999</v>
+      </c>
+      <c r="C939" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D939" t="s">
+        <v>345</v>
+      </c>
+      <c r="G939" t="s">
+        <v>308</v>
+      </c>
+      <c r="H939" t="s">
+        <v>10</v>
+      </c>
+      <c r="I939" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="940" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A940" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C940" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D940" t="s">
+        <v>345</v>
+      </c>
+      <c r="G940" t="s">
+        <v>308</v>
+      </c>
+      <c r="H940" t="s">
+        <v>10</v>
+      </c>
+      <c r="I940" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="941" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A941" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C941" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D941" t="s">
+        <v>345</v>
+      </c>
+      <c r="G941" t="s">
+        <v>308</v>
+      </c>
+      <c r="H941" t="s">
+        <v>10</v>
+      </c>
+      <c r="I941" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="942" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A942" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C942" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D942" t="s">
+        <v>345</v>
+      </c>
+      <c r="G942" t="s">
+        <v>308</v>
+      </c>
+      <c r="H942" t="s">
+        <v>10</v>
+      </c>
+      <c r="I942" t="s">
         <v>271</v>
       </c>
     </row>
@@ -25154,9 +27333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A57"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -25183,7 +27360,7 @@
         <v>44362</v>
       </c>
       <c r="B2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
@@ -25197,7 +27374,7 @@
         <v>44363</v>
       </c>
       <c r="B3" t="s">
-        <v>907</v>
+        <v>1096</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -25211,7 +27388,7 @@
         <v>44364</v>
       </c>
       <c r="B4" t="s">
-        <v>918</v>
+        <v>1097</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -25225,7 +27402,7 @@
         <v>44365</v>
       </c>
       <c r="B5" t="s">
-        <v>919</v>
+        <v>1098</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
@@ -25239,7 +27416,7 @@
         <v>44366</v>
       </c>
       <c r="B6" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -25253,7 +27430,7 @@
         <v>44367</v>
       </c>
       <c r="B7" t="s">
-        <v>921</v>
+        <v>1099</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -25267,7 +27444,7 @@
         <v>44368</v>
       </c>
       <c r="B8" t="s">
-        <v>922</v>
+        <v>1100</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -25281,7 +27458,7 @@
         <v>44369</v>
       </c>
       <c r="B9" t="s">
-        <v>923</v>
+        <v>1101</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -25295,7 +27472,7 @@
         <v>44370</v>
       </c>
       <c r="B10" t="s">
-        <v>924</v>
+        <v>1102</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -25309,7 +27486,7 @@
         <v>44371</v>
       </c>
       <c r="B11" t="s">
-        <v>925</v>
+        <v>1103</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -25323,7 +27500,7 @@
         <v>44372</v>
       </c>
       <c r="B12" t="s">
-        <v>926</v>
+        <v>1104</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -25337,7 +27514,7 @@
         <v>44373</v>
       </c>
       <c r="B13" t="s">
-        <v>927</v>
+        <v>1105</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -25351,7 +27528,7 @@
         <v>44374</v>
       </c>
       <c r="B14" t="s">
-        <v>928</v>
+        <v>1106</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -25365,7 +27542,7 @@
         <v>44375</v>
       </c>
       <c r="B15" t="s">
-        <v>929</v>
+        <v>1107</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -25379,7 +27556,7 @@
         <v>44376</v>
       </c>
       <c r="B16" t="s">
-        <v>930</v>
+        <v>1108</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -25393,7 +27570,7 @@
         <v>44377</v>
       </c>
       <c r="B17" t="s">
-        <v>931</v>
+        <v>1109</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -25407,7 +27584,7 @@
         <v>44378</v>
       </c>
       <c r="B18" t="s">
-        <v>932</v>
+        <v>1110</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -25421,7 +27598,7 @@
         <v>44379</v>
       </c>
       <c r="B19" t="s">
-        <v>933</v>
+        <v>1111</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -25435,7 +27612,7 @@
         <v>44380</v>
       </c>
       <c r="B20" t="s">
-        <v>934</v>
+        <v>1112</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -25449,7 +27626,7 @@
         <v>44381</v>
       </c>
       <c r="B21" t="s">
-        <v>935</v>
+        <v>1113</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -25463,7 +27640,7 @@
         <v>44382</v>
       </c>
       <c r="B22" t="s">
-        <v>936</v>
+        <v>1114</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -25477,7 +27654,7 @@
         <v>44383</v>
       </c>
       <c r="B23" t="s">
-        <v>937</v>
+        <v>1115</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -25491,7 +27668,7 @@
         <v>44384</v>
       </c>
       <c r="B24" t="s">
-        <v>938</v>
+        <v>1116</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -25505,7 +27682,7 @@
         <v>44385</v>
       </c>
       <c r="B25" t="s">
-        <v>939</v>
+        <v>1117</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -25519,7 +27696,7 @@
         <v>44386</v>
       </c>
       <c r="B26" t="s">
-        <v>940</v>
+        <v>1118</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -25533,7 +27710,7 @@
         <v>44387</v>
       </c>
       <c r="B27" t="s">
-        <v>941</v>
+        <v>1119</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -25547,7 +27724,7 @@
         <v>44388</v>
       </c>
       <c r="B28" t="s">
-        <v>942</v>
+        <v>1120</v>
       </c>
       <c r="C28" t="s">
         <v>422</v>
@@ -25561,7 +27738,7 @@
         <v>44389</v>
       </c>
       <c r="B29" t="s">
-        <v>943</v>
+        <v>1121</v>
       </c>
       <c r="C29" t="s">
         <v>423</v>
@@ -25575,7 +27752,7 @@
         <v>44390</v>
       </c>
       <c r="B30" t="s">
-        <v>944</v>
+        <v>1122</v>
       </c>
       <c r="C30" t="s">
         <v>424</v>
@@ -25589,7 +27766,7 @@
         <v>44391</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>1123</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -25601,6 +27778,9 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>44392</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
